--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1869384.319757614</v>
+        <v>1792690.974651011</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1871568.525039086</v>
+        <v>1794785.570745295</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1873783.262021126</v>
+        <v>1796909.445946861</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1876028.950711686</v>
+        <v>1799063.003032418</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1878306.016492389</v>
+        <v>1801246.649931886</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1880614.890162039</v>
+        <v>1803460.799770121</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1882956.007979103</v>
+        <v>1805705.870907654</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1885329.811703109</v>
+        <v>1807982.286980392</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1887736.748634923</v>
+        <v>1810290.476938237</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1890177.271655804</v>
+        <v>1812630.875082545</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1892651.839265218</v>
+        <v>1815003.92110239</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1895160.915617356</v>
+        <v>1817410.060109574</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1897704.970556274</v>
+        <v>1819849.742672337</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1900284.479649652</v>
+        <v>1822323.424847722</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1902899.92422109</v>
+        <v>1824831.568212552</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1905551.791380936</v>
+        <v>1827374.63989299</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1908240.574055577</v>
+        <v>1829953.112592628</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1910966.771015194</v>
+        <v>1832567.464619106</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1913730.886899947</v>
+        <v>1835218.179909224</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1916533.432244573</v>
+        <v>1837905.748052522</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1919374.923501382</v>
+        <v>1840630.664313343</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1922255.883061671</v>
+        <v>1843393.429651362</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1925176.839275535</v>
+        <v>1846194.550740591</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1928138.326470125</v>
+        <v>1849034.539986875</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1931140.884966336</v>
+        <v>1851913.915543913</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1934185.061094018</v>
+        <v>1854833.201327829</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1937271.407205698</v>
+        <v>1857792.927030341</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1940400.481688921</v>
+        <v>1860793.628130589</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1943572.848977261</v>
+        <v>1863835.845905703</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1946789.079560078</v>
+        <v>1866920.127440151</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1950049.749991153</v>
+        <v>1870047.02563402</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1953355.442896271</v>
+        <v>1873217.099210298</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1956706.746979923</v>
+        <v>1876430.91272129</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1960104.257031244</v>
+        <v>1879689.036554317</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1963548.573929351</v>
+        <v>1882992.046936834</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1967040.304648279</v>
+        <v>1886340.525941166</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1970580.062261675</v>
+        <v>1889735.061489004</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1974168.465947489</v>
+        <v>1893176.247355907</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1977806.140992887</v>
+        <v>1896664.683176019</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1981493.718799626</v>
+        <v>1900200.974447213</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1985231.836890164</v>
+        <v>1903785.732536954</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1989021.138914792</v>
+        <v>1907419.574689145</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1992862.274660093</v>
+        <v>1911103.124032226</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1996755.900059042</v>
+        <v>1914837.009588874</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>2000702.677203114</v>
+        <v>1918621.866287606</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>2004703.27435673</v>
+        <v>1922458.334976629</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>2008758.365974456</v>
+        <v>1926347.062440344</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>2012868.632721328</v>
+        <v>1930288.701418829</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>2017034.761496732</v>
+        <v>1934283.910630742</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>2021257.445462284</v>
+        <v>1938333.354800055</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>2025537.384074139</v>
+        <v>1942437.704687044</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>2029875.283120236</v>
+        <v>1946597.637123993</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>2034271.854762909</v>
+        <v>1950813.835056073</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>2038727.817587431</v>
+        <v>1955086.987587885</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>2043243.896656957</v>
+        <v>1959417.790036149</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>2047820.8235744</v>
+        <v>1963806.943989039</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>2052459.336551799</v>
+        <v>1968255.157372718</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>2057160.180487716</v>
+        <v>1972763.144525543</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>2061924.107053199</v>
+        <v>1977331.626280514</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>2066751.874786922</v>
+        <v>1981961.330056503</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>2071644.249200021</v>
+        <v>1986652.989958792</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>2076602.002891229</v>
+        <v>1991407.34688949</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>2081625.915672892</v>
+        <v>1996225.148668358</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>2086716.774708386</v>
+        <v>2001107.150164624</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>2091875.374661603</v>
+        <v>2006054.113440301</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>2097102.517858961</v>
+        <v>2011066.80790557</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>2102399.014464579</v>
+        <v>2016146.010486767</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>2107765.682669136</v>
+        <v>2021292.505807485</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>2113203.348892953</v>
+        <v>2026507.086383331</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>2118712.848003811</v>
+        <v>2031790.552830809</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>2124295.023550031</v>
+        <v>2037143.714090839</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>2129950.728009297</v>
+        <v>2042567.387667351</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>2135680.823053643</v>
+        <v>2048062.399881439</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>2141486.17983112</v>
+        <v>2053629.586141437</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>2147367.679264473</v>
+        <v>2059269.791229365</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>2153326.212367248</v>
+        <v>2064983.869604047</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>2159362.680577657</v>
+        <v>2070772.685721312</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>2165477.99611053</v>
+        <v>2076637.11437146</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>2171673.082327574</v>
+        <v>2082578.041034373</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>2177948.874126221</v>
+        <v>2088596.362252388</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>2184306.318347206</v>
+        <v>2094692.986021162</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>2190746.374201022</v>
+        <v>2100868.832198626</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>2197270.013713348</v>
+        <v>2107124.832932137</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>2203878.222189458</v>
+        <v>2113461.933103852</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>2210571.998697624</v>
+        <v>2119881.090794272</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>2217352.356571402</v>
+        <v>2126383.277763937</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>2224220.323930692</v>
+        <v>2132969.479953112</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>2231176.944221376</v>
+        <v>2139640.697999275</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>2238223.27677327</v>
+        <v>2146397.947772191</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>2245360.397376096</v>
+        <v>2153242.260926235</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>2252589.398873066</v>
+        <v>2160174.685469645</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>2259911.391771672</v>
+        <v>2167196.286350247</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>2267327.504871153</v>
+        <v>2174308.146057165</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>2274838.885906084</v>
+        <v>2181511.36523803</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>2282446.702205439</v>
+        <v>2188807.063330987</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>2290152.141366458</v>
+        <v>2196196.379210918</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>2297956.411942518</v>
+        <v>2203680.471849103</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>2305860.744144227</v>
+        <v>2211260.52098554</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>2313866.390552838</v>
+        <v>2218937.727813093</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>2321974.626845026</v>
+        <v>2226713.315672536</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>2330186.752528054</v>
+        <v>2234588.530757563</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>2338504.091684264</v>
+        <v>2242564.642828718</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>2346927.993723758</v>
+        <v>2250642.945935221</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>2355459.834144148</v>
+        <v>2258824.759143529</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>2364101.015296133</v>
+        <v>2267111.427271512</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>2372852.967153678</v>
+        <v>2275504.321627037</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>2381717.148087483</v>
+        <v>2284004.840749701</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>2390695.045640414</v>
+        <v>2292614.411154446</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>2399788.177303551</v>
+        <v>2301334.488075779</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>2408998.091291456</v>
+        <v>2310166.556211223</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>2418326.367315236</v>
+        <v>2319112.130462669</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>2427774.617351994</v>
+        <v>2328172.756674265</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>2437344.486409214</v>
+        <v>2337350.01236543</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>2447037.653282629</v>
+        <v>2346645.507457639</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>2456855.83130614</v>
+        <v>2356060.884993568</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>2466800.769092284</v>
+        <v>2365597.821847195</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>2476874.251261923</v>
+        <v>2375258.029423537</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>2487078.099161588</v>
+        <v>2385043.254346583</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>2497414.171567229</v>
+        <v>2394955.279134153</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2507884.365372878</v>
+        <v>2404995.922858322</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2518490.616262972</v>
+        <v>2415167.041790151</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2529234.899367005</v>
+        <v>2425470.530027495</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2540119.229895278</v>
+        <v>2435908.320104649</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2551145.663754531</v>
+        <v>2446482.383582742</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2562316.298142362</v>
+        <v>2457194.731619762</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2573633.272119322</v>
+        <v>2468047.415519179</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2585098.767157736</v>
+        <v>2479042.527256252</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2596715.00766627</v>
+        <v>2490182.199981081</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2608484.261489485</v>
+        <v>2501468.608497652</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2620408.840381559</v>
+        <v>2512903.969718134</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2632491.100453549</v>
+        <v>2524490.543091795</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2644733.442593665</v>
+        <v>2536230.631008026</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2657138.312860035</v>
+        <v>2548126.579172992</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2669708.202845683</v>
+        <v>2560180.776959644</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2682445.650015413</v>
+        <v>2572395.657730782</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2695353.23801455</v>
+        <v>2584773.699135113</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2708433.59694946</v>
+        <v>2597317.423376283</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2721689.403639991</v>
+        <v>2610029.397454957</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2735123.381844097</v>
+        <v>2622912.233384209</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2748738.302454935</v>
+        <v>2635968.588378565</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2762536.983670987</v>
+        <v>2649201.165017119</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2776522.291139771</v>
+        <v>2662612.711381358</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2790697.13807589</v>
+        <v>2676206.021168367</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2805064.485354295</v>
+        <v>2689983.933780265</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2819627.341579699</v>
+        <v>2703949.334390773</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2834388.76313334</v>
+        <v>2718105.153990064</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2849351.854198239</v>
+        <v>2732454.36940897</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2864519.76676437</v>
+        <v>2747000.003323951</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2879895.700615202</v>
+        <v>2761745.124244186</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2895482.903297185</v>
+        <v>2776692.846482312</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2911284.670073952</v>
+        <v>2791846.330110504</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2927304.343866948</v>
+        <v>2807208.780903546</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2943545.315184545</v>
+        <v>2822783.450270839</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2960011.022041535</v>
+        <v>2838573.635179206</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2976704.94987122</v>
+        <v>2854582.678068594</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2993630.631432249</v>
+        <v>2870813.966762729</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>3010791.646712557</v>
+        <v>2887270.934376992</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>3028191.622832741</v>
+        <v>2903957.059225751</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>3045834.233951331</v>
+        <v>2920875.864731554</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>3063723.201174519</v>
+        <v>2938030.919338515</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>3081862.292472888</v>
+        <v>2955425.836432486</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>3100255.322607786</v>
+        <v>2973064.274270453</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>3118906.153070085</v>
+        <v>2990949.935921798</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>3137818.692033958</v>
+        <v>3009086.56922397</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>3156996.894328545</v>
+        <v>3027477.966755318</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>3176444.761430228</v>
+        <v>3046127.965827697</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>3196166.341478388</v>
+        <v>3065040.448501552</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>3216165.729317391</v>
+        <v>3084219.341626204</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>3236447.066567759</v>
+        <v>3103668.616908076</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>3257014.54172923</v>
+        <v>3123392.291009563</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>3277872.390318674</v>
+        <v>3143394.425681252</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>3299024.895045565</v>
+        <v>3163679.127930214</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>3320476.386027903</v>
+        <v>3184250.550227065</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>3342231.241051311</v>
+        <v>3205112.890754432</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>3364293.885874076</v>
+        <v>3226270.393699483</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>3386668.794580849</v>
+        <v>3247727.349593106</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>3409360.489987663</v>
+        <v>3269488.095698326</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>3432373.54410093</v>
+        <v>3291557.016450457</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>3455712.578632928</v>
+        <v>3313938.543951451</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>3479382.265576391</v>
+        <v>3336637.158520907</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>3503387.327840601</v>
+        <v>3359657.389306072</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>3527732.539951415</v>
+        <v>3383003.814953142</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>3552422.728817561</v>
+        <v>3406681.064342131</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>3577462.774565499</v>
+        <v>3430693.817387476</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>3602857.611445027</v>
+        <v>3455046.80590648</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>3628612.228807788</v>
+        <v>3479744.81455769</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3654731.672160763</v>
+        <v>3504792.681851163</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3681221.044296689</v>
+        <v>3530195.301232502</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3708085.506503398</v>
+        <v>3555957.62224259</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3735330.279853887</v>
+        <v>3582084.651754726</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3762960.646578886</v>
+        <v>3608581.455290891</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3790981.951523698</v>
+        <v>3635453.158418808</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3819399.603690885</v>
+        <v>3662704.948231344</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3848219.077870386</v>
+        <v>3690342.074909757</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3877445.916358636</v>
+        <v>3718369.853372272</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3907085.730768039</v>
+        <v>3746793.665009336</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3937144.203928247</v>
+        <v>3775618.959506876</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3967627.091880553</v>
+        <v>3804851.256758885</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3998540.225966654</v>
+        <v>3834496.14887048</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>4029889.515013007</v>
+        <v>3864559.302252667</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>4061680.947612013</v>
+        <v>3895046.459809895</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>4093920.594501036</v>
+        <v>3925963.443221516</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>4126614.611040194</v>
+        <v>3957316.15531789</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>4159769.239790697</v>
+        <v>3989110.582552968</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>4193390.813193989</v>
+        <v>4021352.797573509</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>4227485.756353014</v>
+        <v>4054048.961886232</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>4262060.589916435</v>
+        <v>4087205.328623725</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>4297121.933066904</v>
+        <v>4120828.245410112</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>4332676.506614215</v>
+        <v>4154924.157327302</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>4368731.136194305</v>
+        <v>4189499.609982749</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>4405292.755574995</v>
+        <v>4224561.252679573</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>4442368.410069392</v>
+        <v>4260115.841689928</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>4479965.260057857</v>
+        <v>4296170.243632474</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>4518090.584619446</v>
+        <v>4332731.438954826</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>4556751.785273696</v>
+        <v>4369806.525521846</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>4595956.389833738</v>
+        <v>4407402.722310671</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>4635712.056371599</v>
+        <v>4445527.373213325</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>4676026.577296643</v>
+        <v>4484187.95094786</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>4716907.883548088</v>
+        <v>4523392.061078841</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>4758364.048902565</v>
+        <v>4563147.446148214</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>4800403.294397623</v>
+        <v>4603461.989917306</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4843033.992872217</v>
+        <v>4644343.721721062</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4886264.673625067</v>
+        <v>4685800.820935254</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4930104.027191957</v>
+        <v>4727841.621557836</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4974560.910242866</v>
+        <v>4770474.616905103</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>5019644.35059994</v>
+        <v>4813708.464423853</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>5065363.552377312</v>
+        <v>4857551.99062031</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>5111727.901243649</v>
+        <v>4902014.196106782</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>5158746.969808418</v>
+        <v>4947104.260766942</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>5206430.52313281</v>
+        <v>4992831.549040664</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>5254788.52436613</v>
+        <v>5039205.615329169</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>5303831.140508534</v>
+        <v>5086236.209521355</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>5353568.748300956</v>
+        <v>5133933.282642082</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>5404011.940242879</v>
+        <v>5182306.992623021</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>5455171.530738625</v>
+        <v>5231367.710196847</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>5507058.562372811</v>
+        <v>5281126.024915187</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>5559684.312315331</v>
+        <v>5331592.75129087</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>5613060.298856341</v>
+        <v>5382778.935064774</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>5667198.288071436</v>
+        <v>5434695.859597573</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>5722110.300617062</v>
+        <v>5487355.052386362</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>5777808.618656172</v>
+        <v>5540768.291706198</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>5834305.792913904</v>
+        <v>5594947.613376263</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>5891614.649862635</v>
+        <v>5649905.317650189</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5949748.299035972</v>
+        <v>5705653.976229977</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>6008720.140470618</v>
+        <v>5762206.439402526</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>6068543.872274935</v>
+        <v>5819575.843297735</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>6129233.498322772</v>
+        <v>5877775.617266637</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>6190803.336070701</v>
+        <v>5936819.491377952</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>6253268.024496521</v>
+        <v>5996721.50403091</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>6316642.532156553</v>
+        <v>6057496.009681954</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>6380942.165358714</v>
+        <v>6119157.686682557</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>6446182.576448076</v>
+        <v>6181721.54522481</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>6512379.772201045</v>
+        <v>6245202.93539125</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>6579550.122323851</v>
+        <v>6309617.555304674</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>6647710.368050438</v>
+        <v>6374981.459373311</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>6716877.630834425</v>
+        <v>6441311.066626165</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>6787069.421128962</v>
+        <v>6508623.169132682</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>6858303.647247888</v>
+        <v>6576934.940500388</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>6930598.624300905</v>
+        <v>6646263.944443434</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>7003973.083194449</v>
+        <v>6716628.143414254</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>7078446.179689704</v>
+        <v>6788045.907289946</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>7154037.503507954</v>
+        <v>6860536.02210404</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>7230767.087472749</v>
+        <v>6934117.698813645</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>7308655.41667774</v>
+        <v>7008810.582091141</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>7387723.437667592</v>
+        <v>7084634.759128423</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>7467992.567618936</v>
+        <v>7161610.768441223</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>7549484.703507033</v>
+        <v>7239759.60865968</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>7632222.231242664</v>
+        <v>7319102.747290389</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>7716228.034763027</v>
+        <v>7399662.12943434</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>7801525.505058809</v>
+        <v>7481460.186443635</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>7888138.549118863</v>
+        <v>7564519.844499202</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>7976091.598772286</v>
+        <v>7648864.53309013</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>8065409.619406666</v>
+        <v>7734518.193374232</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>8156118.118539921</v>
+        <v>7821505.286398213</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>8248243.154221584</v>
+        <v>7909850.801154285</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>8341811.34323829</v>
+        <v>7999580.262449027</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>8436849.869096518</v>
+        <v>8090719.738558612</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>8533386.489754295</v>
+        <v>8183295.848643317</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>8631449.545072017</v>
+        <v>8277335.769892674</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>8731067.963950977</v>
+        <v>8372867.244371114</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>8832271.271126648</v>
+        <v>8469918.585532565</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>8935089.593582122</v>
+        <v>8568518.684370756</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>9039553.666545486</v>
+        <v>8668697.015170604</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>9145694.839033335</v>
+        <v>8770483.640824182</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>9253545.078900803</v>
+        <v>8873909.217673691</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>9363136.977357015</v>
+        <v>8979004.999841591</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>9474503.752902998</v>
+        <v>9085802.84300695</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>9587679.254647557</v>
+        <v>9194335.207585348</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>9702697.964954872</v>
+        <v>9304635.161267774</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>9819595.001375956</v>
+        <v>9416736.380872903</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>9938406.117814392</v>
+        <v>9530673.153464966</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>10059167.70487533</v>
+        <v>9646480.376688458</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>10181916.78934496</v>
+        <v>9764193.558268966</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>10306691.03274636</v>
+        <v>9883848.81462824</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>10433528.72891594</v>
+        <v>10005482.86856008</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>10562468.80054348</v>
+        <v>10129133.04591233</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>10693550.79461746</v>
+        <v>10254837.27121907</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>10826814.87671589</v>
+        <v>10382634.06222562</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>10962301.82408213</v>
+        <v>10512562.52324853</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>11100053.01742382</v>
+        <v>10644662.3373109</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>11240110.43137241</v>
+        <v>10778973.75699326</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>11382516.62353988</v>
+        <v>10915537.59393939</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>11527314.72210882</v>
+        <v>11054395.20695543</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>11674548.41189148</v>
+        <v>11195588.48864091</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>11824261.9187933</v>
+        <v>11339159.85048963</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>11976499.99261645</v>
+        <v>11485152.20639877</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>12131307.88813888</v>
+        <v>11633608.95452414</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>12288731.3444052</v>
+        <v>11784573.9574207</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>12448816.56216625</v>
+        <v>11938091.52040769</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>12611610.17940489</v>
+        <v>12094206.36809847</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>12777159.24488748</v>
+        <v>12252963.61903713</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>12945511.18968152</v>
+        <v>12414408.75838459</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>13116713.79658195</v>
+        <v>12578587.60859926</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>13290815.16739115</v>
+        <v>12745546.29805936</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>13467863.68799976</v>
+        <v>12915331.22757644</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>13647907.99121901</v>
+        <v>13087989.03475241</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>13830996.91731808</v>
+        <v>13263566.55613597</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>14017179.47222408</v>
+        <v>13442110.7871375</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>14206504.7833462</v>
+        <v>13623668.83966554</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>14399022.05299073</v>
+        <v>13808287.89745294</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>14594780.50933761</v>
+        <v>13996015.16904477</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>14793829.35495605</v>
+        <v>14186897.83842609</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>14996217.71284147</v>
+        <v>14380983.01327268</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>15201994.5699632</v>
+        <v>14578317.6708149</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>15411208.71831884</v>
+        <v>14778948.60131028</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>15623908.69349889</v>
+        <v>14982922.34912861</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>15840142.71077256</v>
+        <v>15190285.15145986</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>16059958.59871435</v>
+        <v>15401082.87466385</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>16283403.73039947</v>
+        <v>15615360.94828841</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>16510524.9522054</v>
+        <v>15833164.29679195</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>16741368.51026644</v>
+        <v>16054537.26901522</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>16975979.97463784</v>
+        <v>16279523.56545683</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>17214404.16123706</v>
+        <v>16508166.16341675</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>17456685.05163941</v>
+        <v>16740507.24008258</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>17702865.7108174</v>
+        <v>16976588.09364365</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>17952988.20292392</v>
+        <v>17216449.06252922</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>18207093.50523058</v>
+        <v>17460129.44287775</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>18465221.4203452</v>
+        <v>17707667.40435561</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>18727410.48684371</v>
+        <v>17959099.90445542</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>18993697.88846381</v>
+        <v>18214462.6014152</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>19264119.36202022</v>
+        <v>18473789.7659114</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>19538709.104213</v>
+        <v>18737114.19169056</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>19817499.67751274</v>
+        <v>19004467.10531564</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>20100521.91531828</v>
+        <v>19275878.0752147</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>20387804.82659389</v>
+        <v>19551374.92023051</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>20679375.500205</v>
+        <v>19830983.61788094</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>20975259.00918173</v>
+        <v>20114728.21255019</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>21275478.31515086</v>
+        <v>20402630.72384151</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>21580054.17318607</v>
+        <v>20694711.05533112</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>21889005.03733672</v>
+        <v>20990986.90397273</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>22202346.9671034</v>
+        <v>21291473.67041</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>22520093.53513688</v>
+        <v>21596184.37046218</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>22842255.73644397</v>
+        <v>21905129.54805512</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>23168841.89939047</v>
+        <v>22218317.18987506</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>23499857.59879584</v>
+        <v>22535752.64202903</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>23835305.57141899</v>
+        <v>22857438.52899767</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>23773263.47918651</v>
+        <v>22797941.77511024</v>
       </c>
       <c r="C358" t="n">
-        <v>401922.154950587</v>
+        <v>369046.258249862</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>23710492.18380247</v>
+        <v>22737745.73435352</v>
       </c>
       <c r="C359" t="n">
-        <v>809002.4213185718</v>
+        <v>742828.7115434151</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>23646977.46723715</v>
+        <v>22676836.77200653</v>
       </c>
       <c r="C360" t="n">
-        <v>1221248.761074511</v>
+        <v>1121354.670588481</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>23582704.68652925</v>
+        <v>22615200.84584998</v>
       </c>
       <c r="C361" t="n">
-        <v>1638666.41497015</v>
+        <v>1504628.947460729</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>23517658.76179088</v>
+        <v>22552823.49466337</v>
       </c>
       <c r="C362" t="n">
-        <v>2061257.846517754</v>
+        <v>1892653.804165306</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>23451824.163955</v>
+        <v>22489689.82647495</v>
       </c>
       <c r="C363" t="n">
-        <v>2489022.690427387</v>
+        <v>2285428.905291776</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>23385184.90228092</v>
+        <v>22425784.50658011</v>
       </c>
       <c r="C364" t="n">
-        <v>2921957.705778482</v>
+        <v>2682951.275016111</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>23317724.51163726</v>
+        <v>22361091.74534575</v>
       </c>
       <c r="C365" t="n">
-        <v>3360056.734190318</v>
+        <v>3085215.258692663</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>23249426.03958564</v>
+        <v>22295595.28582411</v>
       </c>
       <c r="C366" t="n">
-        <v>3803310.66324365</v>
+        <v>3492212.489267806</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>23180272.03329337</v>
+        <v>22229278.39120227</v>
       </c>
       <c r="C367" t="n">
-        <v>4251707.39539149</v>
+        <v>3903931.858733693</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>23110244.52630839</v>
+        <v>22162123.83211966</v>
       </c>
       <c r="C368" t="n">
-        <v>4705231.822579268</v>
+        <v>4320359.494824413</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>23039325.02523525</v>
+        <v>22094113.8738907</v>
       </c>
       <c r="C369" t="n">
-        <v>5163865.806777107</v>
+        <v>4741478.743140664</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>22967494.49635687</v>
+        <v>22025230.26367544</v>
       </c>
       <c r="C370" t="n">
-        <v>5627588.166605162</v>
+        <v>5167270.154869087</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>22894733.35225352</v>
+        <v>21955454.21764748</v>
       </c>
       <c r="C371" t="n">
-        <v>6096374.670210941</v>
+        <v>5597711.480242198</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>22821021.43847744</v>
+        <v>21884766.40821525</v>
       </c>
       <c r="C372" t="n">
-        <v>6570198.034532862</v>
+        <v>6032777.667862197</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>22746338.02034864</v>
+        <v>21813146.95135956</v>
       </c>
       <c r="C373" t="n">
-        <v>6570160.218330611</v>
+        <v>6032742.944899627</v>
       </c>
       <c r="D373" t="n">
-        <v>478867.712726797</v>
+        <v>439069.8257867363</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>22670661.76994612</v>
+        <v>21740575.39415852</v>
       </c>
       <c r="C374" t="n">
-        <v>6570116.460631486</v>
+        <v>6032702.766434887</v>
       </c>
       <c r="D374" t="n">
-        <v>962714.5375178237</v>
+        <v>882704.9580422784</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>22593970.75337662</v>
+        <v>21667030.70257858</v>
       </c>
       <c r="C375" t="n">
-        <v>6570065.893390231</v>
+        <v>6032656.335425932</v>
       </c>
       <c r="D375" t="n">
-        <v>1451504.96661394</v>
+        <v>1330872.839997387</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>22516242.41841256</v>
+        <v>21592491.24961966</v>
       </c>
       <c r="C376" t="n">
-        <v>6570007.532534686</v>
+        <v>6032602.74829444</v>
       </c>
       <c r="D376" t="n">
-        <v>1945200.619706124</v>
+        <v>1783538.281065708</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>22437453.58259989</v>
+        <v>21516934.80391087</v>
       </c>
       <c r="C377" t="n">
-        <v>6569940.264147352</v>
+        <v>6032540.982237659</v>
       </c>
       <c r="D377" t="n">
-        <v>2443760.289970645</v>
+        <v>2240663.499053048</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>22357580.42194701</v>
+        <v>21440338.51886348</v>
       </c>
       <c r="C378" t="n">
-        <v>6569862.829252089</v>
+        <v>6032469.881259516</v>
       </c>
       <c r="D378" t="n">
-        <v>2947139.998073311</v>
+        <v>2702208.169673411</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>22276598.46031575</v>
+        <v>21362678.92249715</v>
       </c>
       <c r="C379" t="n">
-        <v>6569773.807100619</v>
+        <v>6032388.140824218</v>
       </c>
       <c r="D379" t="n">
-        <v>3455293.054162181</v>
+        <v>3168129.483389604</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>22194482.559647</v>
+        <v>21283931.9080666</v>
       </c>
       <c r="C380" t="n">
-        <v>6569671.596850424</v>
+        <v>6032294.291032849</v>
       </c>
       <c r="D380" t="n">
-        <v>3968170.127834403</v>
+        <v>3638382.209565253</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>22111206.91116397</v>
+        <v>21204072.72562566</v>
       </c>
       <c r="C381" t="n">
-        <v>6569554.397523289</v>
+        <v>6032186.678221223</v>
       </c>
       <c r="D381" t="n">
-        <v>4485719.326027566</v>
+        <v>4112918.76788273</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>22026745.02770814</v>
+        <v>21123075.97467779</v>
       </c>
       <c r="C382" t="n">
-        <v>6569420.186132058</v>
+        <v>6032063.444875812</v>
       </c>
       <c r="D382" t="n">
-        <v>5007886.278749027</v>
+        <v>4591689.306947669</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>21941069.73737445</v>
+        <v>21040915.59807222</v>
       </c>
       <c r="C383" t="n">
-        <v>6569266.693862684</v>
+        <v>6031922.507764026</v>
       </c>
       <c r="D383" t="n">
-        <v>5007876.89231086</v>
+        <v>4591680.700600526</v>
       </c>
       <c r="E383" t="n">
-        <v>526737.340208044</v>
+        <v>546128.4089376653</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>21854153.17862405</v>
+        <v>20957564.87731741</v>
       </c>
       <c r="C384" t="n">
-        <v>6569091.380198951</v>
+        <v>6031761.534175422</v>
       </c>
       <c r="D384" t="n">
-        <v>5007865.701963817</v>
+        <v>4591670.440264329</v>
       </c>
       <c r="E384" t="n">
-        <v>1057978.449398314</v>
+        <v>1096926.386559249</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>21765966.79706552</v>
+        <v>20872996.42949411</v>
       </c>
       <c r="C385" t="n">
-        <v>6568891.404879073</v>
+        <v>6031577.916172199</v>
       </c>
       <c r="D385" t="n">
-        <v>5007852.383339067</v>
+        <v>4591658.228527992</v>
       </c>
       <c r="E385" t="n">
-        <v>1593662.441806226</v>
+        <v>1652330.805679337</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>21676481.3441065</v>
+        <v>20787182.20596249</v>
       </c>
       <c r="C386" t="n">
-        <v>6568663.597576545</v>
+        <v>6031368.742750021</v>
       </c>
       <c r="D386" t="n">
-        <v>5007836.558188954</v>
+        <v>4591643.718579382</v>
       </c>
       <c r="E386" t="n">
-        <v>2133726.426822139</v>
+        <v>2212276.460462009</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>21585666.87769061</v>
+        <v>20700093.4930687</v>
       </c>
       <c r="C387" t="n">
-        <v>6568404.425202318</v>
+        <v>6031130.769814787</v>
       </c>
       <c r="D387" t="n">
-        <v>5007817.786279619</v>
+        <v>4591626.50677173</v>
       </c>
       <c r="E387" t="n">
-        <v>2678105.639341419</v>
+        <v>2776696.201569538</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>21493492.76534539</v>
+        <v>20611700.91506786</v>
       </c>
       <c r="C388" t="n">
-        <v>6568109.95673205</v>
+        <v>6030860.387886876</v>
       </c>
       <c r="D388" t="n">
-        <v>5007795.556214575</v>
+        <v>4591606.124209852</v>
       </c>
       <c r="E388" t="n">
-        <v>3226733.577658061</v>
+        <v>3345521.079132385</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>21399927.68977861</v>
+        <v>20521974.43949067</v>
       </c>
       <c r="C389" t="n">
-        <v>6567775.825470656</v>
+        <v>6030553.587452358</v>
       </c>
       <c r="D389" t="n">
-        <v>5007769.275073915</v>
+        <v>4591582.02725041</v>
       </c>
       <c r="E389" t="n">
-        <v>3779542.148638926</v>
+        <v>3918680.493267789</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>21304939.65727092</v>
+        <v>20430883.38519185</v>
       </c>
       <c r="C390" t="n">
-        <v>6567397.188677247</v>
+        <v>6030205.92189045</v>
       </c>
       <c r="D390" t="n">
-        <v>5007738.256745426</v>
+        <v>4591553.586802822</v>
       </c>
       <c r="E390" t="n">
-        <v>4336461.81987851</v>
+        <v>4496102.351835918</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>21208496.00912318</v>
+        <v>20338396.43332779</v>
       </c>
       <c r="C391" t="n">
-        <v>6566968.684486492</v>
+        <v>6029812.467918594</v>
       </c>
       <c r="D391" t="n">
-        <v>5007701.708815742</v>
+        <v>4591520.076309857</v>
       </c>
       <c r="E391" t="n">
-        <v>4897421.778496072</v>
+        <v>5077713.235082864</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>21110563.43642566</v>
+        <v>20244481.64151976</v>
       </c>
       <c r="C392" t="n">
-        <v>6566484.386078257</v>
+        <v>6029367.783510844</v>
       </c>
       <c r="D392" t="n">
-        <v>5007658.717881624</v>
+        <v>4591480.658279673</v>
       </c>
       <c r="E392" t="n">
-        <v>5462350.09619863</v>
+        <v>5663438.566780202</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>21011107.99842473</v>
+        <v>20149106.46146725</v>
       </c>
       <c r="C393" t="n">
-        <v>6565937.753065592</v>
+        <v>6028865.863262173</v>
       </c>
       <c r="D393" t="n">
-        <v>5007608.233133783</v>
+        <v>4591434.369233971</v>
       </c>
       <c r="E393" t="n">
-        <v>5462343.348149084</v>
+        <v>5663431.57031103</v>
       </c>
       <c r="F393" t="n">
-        <v>568830.5520444002</v>
+        <v>666141.6868312198</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>20910095.14477012</v>
+        <v>20052237.76028233</v>
       </c>
       <c r="C394" t="n">
-        <v>6565321.580092452</v>
+        <v>6028300.091190714</v>
       </c>
       <c r="D394" t="n">
-        <v>5007549.048058704</v>
+        <v>4591380.102930536</v>
       </c>
       <c r="E394" t="n">
-        <v>5462335.175240952</v>
+        <v>5663423.096529177</v>
       </c>
       <c r="F394" t="n">
-        <v>1141484.374253814</v>
+        <v>1336760.699340148</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>20807489.74193034</v>
+        <v>19953841.84582148</v>
       </c>
       <c r="C395" t="n">
-        <v>6564627.942656738</v>
+        <v>6027663.190992304</v>
       </c>
       <c r="D395" t="n">
-        <v>5007479.780097486</v>
+        <v>4591316.591712602</v>
       </c>
       <c r="E395" t="n">
-        <v>5462325.295414755</v>
+        <v>5663412.852991556</v>
       </c>
       <c r="F395" t="n">
-        <v>1717887.520711693</v>
+        <v>2011770.441514305</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>20703256.10406955</v>
+        <v>19853884.49629568</v>
       </c>
       <c r="C396" t="n">
-        <v>6563848.14020163</v>
+        <v>6026947.173786768</v>
       </c>
       <c r="D396" t="n">
-        <v>5007398.848095553</v>
+        <v>4591242.38583268</v>
       </c>
       <c r="E396" t="n">
-        <v>5462313.374874652</v>
+        <v>5663400.493614115</v>
       </c>
       <c r="F396" t="n">
-        <v>2297965.695808996</v>
+        <v>2691083.90782603</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>20597358.02867986</v>
+        <v>19752330.9944408</v>
       </c>
       <c r="C397" t="n">
-        <v>6562972.636548803</v>
+        <v>6026143.283423471</v>
       </c>
       <c r="D397" t="n">
-        <v>5007304.447372977</v>
+        <v>4591155.830594744</v>
       </c>
       <c r="E397" t="n">
-        <v>5462299.019447959</v>
+        <v>5663385.609713276</v>
       </c>
       <c r="F397" t="n">
-        <v>2881644.452222792</v>
+        <v>3374613.91507973</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>20489758.83726417</v>
+        <v>19649146.16653143</v>
       </c>
       <c r="C398" t="n">
-        <v>6561990.997780927</v>
+        <v>6025241.939444857</v>
       </c>
       <c r="D398" t="n">
-        <v>5007194.52224273</v>
+        <v>4591055.041156439</v>
       </c>
       <c r="E398" t="n">
-        <v>5462281.764668211</v>
+        <v>5663367.719723918</v>
       </c>
       <c r="F398" t="n">
-        <v>3468849.39332332</v>
+        <v>4062273.339445177</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>20380421.4213624</v>
+        <v>19544294.42651887</v>
       </c>
       <c r="C399" t="n">
-        <v>6560891.827718133</v>
+        <v>6024232.677840692</v>
       </c>
       <c r="D399" t="n">
-        <v>5007066.73580352</v>
+        <v>4590937.874832399</v>
       </c>
       <c r="E399" t="n">
-        <v>5462261.064424019</v>
+        <v>5663346.257430359</v>
       </c>
       <c r="F399" t="n">
-        <v>4059506.379498387</v>
+        <v>4753975.358078297</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>20269308.29420952</v>
+        <v>19437739.82556982</v>
       </c>
       <c r="C400" t="n">
-        <v>6559662.701173525</v>
+        <v>6023104.089763085</v>
       </c>
       <c r="D400" t="n">
-        <v>5006918.43683546</v>
+        <v>4590801.900741143</v>
       </c>
       <c r="E400" t="n">
-        <v>5462236.27800204</v>
+        <v>5663320.558532322</v>
       </c>
       <c r="F400" t="n">
-        <v>4653541.737851487</v>
+        <v>5449633.694692808</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>20156381.64830654</v>
+        <v>19329446.10727536</v>
       </c>
       <c r="C401" t="n">
-        <v>6558290.095216619</v>
+        <v>6021843.758412328</v>
       </c>
       <c r="D401" t="n">
-        <v>5006746.623630861</v>
+        <v>4590644.366641837</v>
       </c>
       <c r="E401" t="n">
-        <v>5462206.655337942</v>
+        <v>5663289.845352948</v>
       </c>
       <c r="F401" t="n">
-        <v>5250882.474699242</v>
+        <v>6149162.868410095</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>20041603.41917575</v>
+        <v>19219376.76879077</v>
       </c>
       <c r="C402" t="n">
-        <v>6556759.318720265</v>
+        <v>6020438.194346655</v>
       </c>
       <c r="D402" t="n">
-        <v>5006547.904599453</v>
+        <v>4590462.162813552</v>
       </c>
       <c r="E402" t="n">
-        <v>5462171.320274841</v>
+        <v>5663253.209480912</v>
       </c>
       <c r="F402" t="n">
-        <v>5851456.490259029</v>
+        <v>6852478.445173927</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>19924935.35555851</v>
+        <v>19107495.12815319</v>
       </c>
       <c r="C403" t="n">
-        <v>6555054.440516503</v>
+        <v>6018872.769514706</v>
       </c>
       <c r="D403" t="n">
-        <v>5006318.455497563</v>
+        <v>4590251.782839049</v>
       </c>
       <c r="E403" t="n">
-        <v>5462129.251614337</v>
+        <v>5663209.592123887</v>
       </c>
       <c r="F403" t="n">
-        <v>5851451.363247417</v>
+        <v>6852472.441072792</v>
       </c>
       <c r="G403" t="n">
-        <v>603741.4316372611</v>
+        <v>674827.3945186753</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>19806339.09629712</v>
+        <v>18993764.39800946</v>
       </c>
       <c r="C404" t="n">
-        <v>6553158.216539105</v>
+        <v>6017131.65035757</v>
       </c>
       <c r="D404" t="n">
-        <v>5006053.973144652</v>
+        <v>4590009.281167857</v>
       </c>
       <c r="E404" t="n">
-        <v>5462079.26173125</v>
+        <v>5663157.761935993</v>
       </c>
       <c r="F404" t="n">
-        <v>5851445.069326307</v>
+        <v>6852465.070436298</v>
       </c>
       <c r="G404" t="n">
-        <v>1210576.656845876</v>
+        <v>1353112.853277324</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>19685776.25412326</v>
+        <v>18878147.76596701</v>
       </c>
       <c r="C405" t="n">
-        <v>6551052.016385449</v>
+        <v>6015197.730377648</v>
       </c>
       <c r="D405" t="n">
-        <v>5005749.625508538</v>
+        <v>4589730.227349828</v>
       </c>
       <c r="E405" t="n">
-        <v>5462019.972509902</v>
+        <v>5663096.290068233</v>
       </c>
       <c r="F405" t="n">
-        <v>5851437.359157774</v>
+        <v>6852456.04127172</v>
       </c>
       <c r="G405" t="n">
-        <v>1820437.807061564</v>
+        <v>2034780.516704278</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>19563208.5065513</v>
+        <v>18760608.48175815</v>
       </c>
       <c r="C406" t="n">
-        <v>6548715.749787106</v>
+        <v>6013052.562623712</v>
       </c>
       <c r="D406" t="n">
-        <v>5005399.998062911</v>
+        <v>4589409.65685079</v>
       </c>
       <c r="E406" t="n">
-        <v>5461949.78834752</v>
+        <v>5663023.522178038</v>
       </c>
       <c r="F406" t="n">
-        <v>5851427.933932508</v>
+        <v>6852445.003651755</v>
       </c>
       <c r="G406" t="n">
-        <v>2433258.824352852</v>
+        <v>2719756.549048917</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>19438597.6940485</v>
+        <v>18641109.95138283</v>
       </c>
       <c r="C407" t="n">
-        <v>6546127.793536976</v>
+        <v>6010676.292595148</v>
       </c>
       <c r="D407" t="n">
-        <v>5004999.036347843</v>
+        <v>4589042.018386756</v>
       </c>
       <c r="E407" t="n">
-        <v>5461866.865959536</v>
+        <v>5662937.547122998</v>
       </c>
       <c r="F407" t="n">
-        <v>5851416.436401126</v>
+        <v>6852431.53921156</v>
       </c>
       <c r="G407" t="n">
-        <v>3048975.68565364</v>
+        <v>3407969.389015927</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>19311905.9256227</v>
+        <v>18519615.83836443</v>
       </c>
       <c r="C408" t="n">
-        <v>6543264.919480055</v>
+        <v>6008047.592122842</v>
       </c>
       <c r="D408" t="n">
-        <v>5004539.984696098</v>
+        <v>4588621.117742587</v>
       </c>
       <c r="E408" t="n">
-        <v>5461769.080712707</v>
+        <v>5662836.162054595</v>
       </c>
       <c r="F408" t="n">
-        <v>5851402.4404581</v>
+        <v>6852415.148950765</v>
       </c>
       <c r="G408" t="n">
-        <v>3667526.626207865</v>
+        <v>4099349.999518858</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>19183095.69193361</v>
+        <v>18396090.17222046</v>
       </c>
       <c r="C409" t="n">
-        <v>6540102.224234839</v>
+        <v>6005143.594839156</v>
       </c>
       <c r="D409" t="n">
-        <v>5004015.321125641</v>
+        <v>4588140.05807547</v>
       </c>
       <c r="E409" t="n">
-        <v>5461653.989205525</v>
+        <v>5662716.833621044</v>
       </c>
       <c r="F409" t="n">
-        <v>5851385.439080162</v>
+        <v>6852395.239108481</v>
       </c>
       <c r="G409" t="n">
-        <v>4288852.361540454</v>
+        <v>4793832.115786484</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>19052129.98599491</v>
+        <v>18270497.46421297</v>
       </c>
       <c r="C410" t="n">
-        <v>6536613.061371817</v>
+        <v>6001939.833903953</v>
       </c>
       <c r="D410" t="n">
-        <v>5003416.68844186</v>
+        <v>4587591.176743126</v>
       </c>
       <c r="E410" t="n">
-        <v>5461518.787811937</v>
+        <v>5662576.654984881</v>
       </c>
       <c r="F410" t="n">
-        <v>5851364.830400784</v>
+        <v>6852371.104855502</v>
       </c>
       <c r="G410" t="n">
-        <v>4912896.307238178</v>
+        <v>5491352.49102117</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>18918972.43149208</v>
+        <v>18142802.83040179</v>
       </c>
       <c r="C411" t="n">
-        <v>6532768.976833928</v>
+        <v>5998410.182707497</v>
       </c>
       <c r="D411" t="n">
-        <v>5002734.821642118</v>
+        <v>4586965.978741641</v>
       </c>
       <c r="E411" t="n">
-        <v>5461360.266904576</v>
+        <v>5662412.298360977</v>
       </c>
       <c r="F411" t="n">
-        <v>5851339.901681004</v>
+        <v>6852341.911522999</v>
       </c>
       <c r="G411" t="n">
-        <v>5539604.795796698</v>
+        <v>6191851.138778014</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>18783587.41869384</v>
+        <v>18012972.12198016</v>
       </c>
       <c r="C412" t="n">
-        <v>6528539.648440671</v>
+        <v>5994526.799322886</v>
       </c>
       <c r="D412" t="n">
-        <v>5001959.471770188</v>
+        <v>4586255.066888232</v>
       </c>
       <c r="E412" t="n">
-        <v>5461174.760478132</v>
+        <v>5662219.962785373</v>
       </c>
       <c r="F412" t="n">
-        <v>5851309.810914988</v>
+        <v>6852306.673061281</v>
       </c>
       <c r="G412" t="n">
-        <v>6168927.289755133</v>
+        <v>6895271.571194394</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>18645940.24788516</v>
+        <v>17880972.06282326</v>
       </c>
       <c r="C413" t="n">
-        <v>6523892.830371131</v>
+        <v>5990260.07553021</v>
       </c>
       <c r="D413" t="n">
-        <v>5001079.326429159</v>
+        <v>4585448.068940195</v>
       </c>
       <c r="E413" t="n">
-        <v>5460958.090902856</v>
+        <v>5661995.316834955</v>
       </c>
       <c r="F413" t="n">
-        <v>5851273.565786407</v>
+        <v>6852264.227396213</v>
       </c>
       <c r="G413" t="n">
-        <v>6168923.153224768</v>
+        <v>6895266.94761903</v>
       </c>
       <c r="H413" t="n">
-        <v>631893.4370821391</v>
+        <v>758614.8883705074</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>18505997.28019549</v>
+        <v>17746770.39412859</v>
       </c>
       <c r="C414" t="n">
-        <v>6518794.303571582</v>
+        <v>5985578.591280624</v>
       </c>
       <c r="D414" t="n">
-        <v>5000081.927228405</v>
+        <v>4584533.561902706</v>
       </c>
       <c r="E414" t="n">
-        <v>5460705.508553235</v>
+        <v>5661733.436033663</v>
       </c>
       <c r="F414" t="n">
-        <v>5851229.999669421</v>
+        <v>6852213.208324623</v>
       </c>
       <c r="G414" t="n">
-        <v>6168918.019977857</v>
+        <v>6895261.209971328</v>
       </c>
       <c r="H414" t="n">
-        <v>1266311.020558408</v>
+        <v>1520260.121610327</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>18363726.09563842</v>
+        <v>17610336.02597177</v>
       </c>
       <c r="C415" t="n">
-        <v>6513207.833078451</v>
+        <v>5980449.075510173</v>
       </c>
       <c r="D415" t="n">
-        <v>4998953.58451295</v>
+        <v>4583498.993844897</v>
       </c>
       <c r="E415" t="n">
-        <v>5460411.626078354</v>
+        <v>5661428.734703096</v>
       </c>
       <c r="F415" t="n">
-        <v>5851177.744346071</v>
+        <v>6852152.013564395</v>
       </c>
       <c r="G415" t="n">
-        <v>6168911.664331048</v>
+        <v>6895254.105995435</v>
       </c>
       <c r="H415" t="n">
-        <v>1903213.058059042</v>
+        <v>2284888.047345037</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>18219095.65811788</v>
+        <v>17471639.19554338</v>
       </c>
       <c r="C416" t="n">
-        <v>6507095.133287131</v>
+        <v>5974836.37424948</v>
       </c>
       <c r="D416" t="n">
-        <v>4997679.289801984</v>
+        <v>4582330.603615457</v>
       </c>
       <c r="E416" t="n">
-        <v>5460070.347109014</v>
+        <v>5661074.892045092</v>
       </c>
       <c r="F416" t="n">
-        <v>5851115.199090826</v>
+        <v>6852078.768550247</v>
       </c>
       <c r="G416" t="n">
-        <v>6168903.813080629</v>
+        <v>6895245.330319976</v>
       </c>
       <c r="H416" t="n">
-        <v>2542563.833369679</v>
+        <v>3052455.786743521</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>18072076.48709252</v>
+        <v>17330651.63177052</v>
       </c>
       <c r="C417" t="n">
-        <v>6500415.842229657</v>
+        <v>5968703.427005442</v>
       </c>
       <c r="D417" t="n">
-        <v>4996242.626446663</v>
+        <v>4581013.338925501</v>
       </c>
       <c r="E417" t="n">
-        <v>5459674.789233178</v>
+        <v>5660664.772281627</v>
       </c>
       <c r="F417" t="n">
-        <v>5851040.495753396</v>
+        <v>6851991.285543174</v>
       </c>
       <c r="G417" t="n">
-        <v>6168894.136338102</v>
+        <v>6895234.514214596</v>
       </c>
       <c r="H417" t="n">
-        <v>3184331.797186603</v>
+        <v>3822925.463527738</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>17922640.83552283</v>
+        <v>17187346.72596345</v>
       </c>
       <c r="C418" t="n">
-        <v>6493127.50594889</v>
+        <v>5962011.252413536</v>
       </c>
       <c r="D418" t="n">
-        <v>4994625.679105427</v>
+        <v>4579530.773347253</v>
       </c>
       <c r="E418" t="n">
-        <v>5459217.201116374</v>
+        <v>5660190.338724136</v>
       </c>
       <c r="F418" t="n">
-        <v>5850951.459453375</v>
+        <v>6851887.017601041</v>
       </c>
       <c r="G418" t="n">
-        <v>6168882.236785648</v>
+        <v>6895221.213580324</v>
       </c>
       <c r="H418" t="n">
-        <v>3828489.75023648</v>
+        <v>4596264.423815728</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>17770762.8736571</v>
+        <v>17041699.70806165</v>
       </c>
       <c r="C419" t="n">
-        <v>6485185.574072254</v>
+        <v>5954718.944173629</v>
       </c>
       <c r="D419" t="n">
-        <v>4992808.942726994</v>
+        <v>4577865.022861306</v>
       </c>
       <c r="E419" t="n">
-        <v>5458688.873697985</v>
+        <v>5659642.561700603</v>
       </c>
       <c r="F419" t="n">
-        <v>5850845.564485655</v>
+        <v>6851763.006940625</v>
       </c>
       <c r="G419" t="n">
-        <v>6168867.637118481</v>
+        <v>6895204.894913359</v>
       </c>
       <c r="H419" t="n">
-        <v>4475015.017905022</v>
+        <v>5372445.445770746</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>17616418.8781414</v>
+        <v>16893687.82798531</v>
       </c>
       <c r="C420" t="n">
-        <v>6476543.407693231</v>
+        <v>5946783.678286772</v>
       </c>
       <c r="D420" t="n">
-        <v>4990771.231826097</v>
+        <v>4575996.662672296</v>
       </c>
       <c r="E420" t="n">
-        <v>5458080.045458491</v>
+        <v>5659011.320335371</v>
       </c>
       <c r="F420" t="n">
-        <v>5850719.885024566</v>
+        <v>6851615.827208612</v>
       </c>
       <c r="G420" t="n">
-        <v>6168849.765414404</v>
+        <v>6895184.918952017</v>
       </c>
       <c r="H420" t="n">
-        <v>5123889.615486154</v>
+        <v>6151446.93798989</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>17459587.42586684</v>
+        <v>16743290.54152979</v>
       </c>
       <c r="C421" t="n">
-        <v>6467152.300662545</v>
+        <v>5938160.732604853</v>
       </c>
       <c r="D421" t="n">
-        <v>4988489.590934028</v>
+        <v>4573904.645101758</v>
       </c>
       <c r="E421" t="n">
-        <v>5457379.801827252</v>
+        <v>5658285.298253765</v>
       </c>
       <c r="F421" t="n">
-        <v>5850571.040208426</v>
+        <v>6851441.519171634</v>
       </c>
       <c r="G421" t="n">
-        <v>6168827.938142987</v>
+        <v>6895160.52168536</v>
       </c>
       <c r="H421" t="n">
-        <v>5775100.403128732</v>
+        <v>6933253.125524209</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>17300249.59189426</v>
+        <v>16590489.70017037</v>
       </c>
       <c r="C422" t="n">
-        <v>6456961.515372446</v>
+        <v>5928803.519687838</v>
       </c>
       <c r="D422" t="n">
-        <v>4985939.207203724</v>
+        <v>4571566.219456443</v>
       </c>
       <c r="E422" t="n">
-        <v>5456575.968885587</v>
+        <v>5657451.873372002</v>
       </c>
       <c r="F422" t="n">
-        <v>5850395.133185494</v>
+        <v>6851235.51933467</v>
       </c>
       <c r="G422" t="n">
-        <v>6168801.340497294</v>
+        <v>6895130.792369128</v>
       </c>
       <c r="H422" t="n">
-        <v>6428639.229519734</v>
+        <v>7717854.222376485</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>17138389.15072388</v>
+        <v>16435269.74407445</v>
       </c>
       <c r="C423" t="n">
-        <v>6445918.334085423</v>
+        <v>5918663.633933961</v>
       </c>
       <c r="D423" t="n">
-        <v>4983093.326246373</v>
+        <v>4568956.854859613</v>
       </c>
       <c r="E423" t="n">
-        <v>5455655.001616144</v>
+        <v>5656497.002032626</v>
       </c>
       <c r="F423" t="n">
-        <v>5850187.683708517</v>
+        <v>6850992.581004392</v>
       </c>
       <c r="G423" t="n">
-        <v>6168769.003700842</v>
+        <v>6895094.648160775</v>
       </c>
       <c r="H423" t="n">
-        <v>7084503.063304509</v>
+        <v>8505246.589276815</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>16973992.78010425</v>
+        <v>16277617.89754916</v>
       </c>
       <c r="C424" t="n">
-        <v>6433968.126812541</v>
+        <v>5907690.913905852</v>
       </c>
       <c r="D424" t="n">
-        <v>4979923.172371596</v>
+        <v>4566050.167119924</v>
       </c>
       <c r="E424" t="n">
-        <v>5454601.86705678</v>
+        <v>5655405.097856864</v>
       </c>
       <c r="F424" t="n">
-        <v>5849943.553878961</v>
+        <v>6850706.687330289</v>
       </c>
       <c r="G424" t="n">
-        <v>6168729.778911497</v>
+        <v>6895050.804950742</v>
       </c>
       <c r="H424" t="n">
-        <v>7742694.111200447</v>
+        <v>9295432.875483075</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>16807050.26650378</v>
+        <v>16117524.36608319</v>
       </c>
       <c r="C425" t="n">
-        <v>6421054.436685361</v>
+        <v>5895833.520719302</v>
       </c>
       <c r="D425" t="n">
-        <v>4976397.874494628</v>
+        <v>4562817.850796335</v>
       </c>
       <c r="E425" t="n">
-        <v>5453399.922835272</v>
+        <v>5654158.905807778</v>
       </c>
       <c r="F425" t="n">
-        <v>5849656.866665307</v>
+        <v>6850370.955883708</v>
       </c>
       <c r="G425" t="n">
-        <v>6168682.307313041</v>
+        <v>6894997.743932527</v>
       </c>
       <c r="H425" t="n">
-        <v>8403219.921717864</v>
+        <v>10088422.14330225</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>16637554.71129843</v>
+        <v>15954982.53407537</v>
       </c>
       <c r="C426" t="n">
-        <v>6407119.083688645</v>
+        <v>5883038.033290992</v>
       </c>
       <c r="D426" t="n">
-        <v>4972484.399059752</v>
+        <v>4559229.61769616</v>
       </c>
       <c r="E426" t="n">
-        <v>5452030.791690004</v>
+        <v>5652739.372091604</v>
       </c>
       <c r="F426" t="n">
-        <v>5849320.916853225</v>
+        <v>6849977.534374074</v>
       </c>
       <c r="G426" t="n">
-        <v>6168624.985954573</v>
+        <v>6894933.673419958</v>
       </c>
       <c r="H426" t="n">
-        <v>9066093.473352421</v>
+        <v>10884229.97396919</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>16465502.7366618</v>
+        <v>15789989.16227799</v>
       </c>
       <c r="C427" t="n">
-        <v>6392102.287528086</v>
+        <v>5869249.561156044</v>
       </c>
       <c r="D427" t="n">
-        <v>4968147.491407488</v>
+        <v>4555253.143115131</v>
       </c>
       <c r="E427" t="n">
-        <v>5450474.232720359</v>
+        <v>5651125.510668427</v>
       </c>
       <c r="F427" t="n">
-        <v>5848928.074130615</v>
+        <v>6849517.487154461</v>
       </c>
       <c r="G427" t="n">
-        <v>6168555.928868751</v>
+        <v>6894856.48538737</v>
       </c>
       <c r="H427" t="n">
-        <v>9731333.246065663</v>
+        <v>11682878.55346199</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>16290894.69008062</v>
+        <v>15622544.58392178</v>
       </c>
       <c r="C428" t="n">
-        <v>6375942.810298172</v>
+        <v>5854411.875466118</v>
       </c>
       <c r="D428" t="n">
-        <v>4963349.627081867</v>
+        <v>4550854.021191453</v>
       </c>
       <c r="E428" t="n">
-        <v>5448708.010258365</v>
+        <v>5649294.267296508</v>
       </c>
       <c r="F428" t="n">
-        <v>5848469.678068506</v>
+        <v>6848980.672236639</v>
       </c>
       <c r="G428" t="n">
-        <v>6168472.922972633</v>
+        <v>6894763.70617814</v>
       </c>
       <c r="H428" t="n">
-        <v>10398963.27481821</v>
+        <v>12484396.73677093</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>16113734.84635902</v>
+        <v>15452652.89843279</v>
       </c>
       <c r="C429" t="n">
-        <v>6358578.119489568</v>
+        <v>5838467.55866336</v>
       </c>
       <c r="D429" t="n">
-        <v>4958050.974631219</v>
+        <v>4545995.730798136</v>
       </c>
       <c r="E429" t="n">
-        <v>5446707.761408746</v>
+        <v>5647220.382196032</v>
       </c>
       <c r="F429" t="n">
-        <v>5847935.924830812</v>
+        <v>6848355.608620014</v>
       </c>
       <c r="G429" t="n">
-        <v>6168373.378230949</v>
+        <v>6894652.440800034</v>
       </c>
       <c r="H429" t="n">
-        <v>11069013.18386621</v>
+        <v>13288820.08907272</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>15934031.60592033</v>
+        <v>15280322.16159867</v>
       </c>
       <c r="C430" t="n">
-        <v>6339944.571733532</v>
+        <v>5821358.173195093</v>
       </c>
       <c r="D430" t="n">
-        <v>4952209.371499134</v>
+        <v>4540639.613437633</v>
       </c>
       <c r="E430" t="n">
-        <v>5444446.863466593</v>
+        <v>5644876.252585944</v>
       </c>
       <c r="F430" t="n">
-        <v>5847315.745533147</v>
+        <v>6847629.333840996</v>
       </c>
       <c r="G430" t="n">
-        <v>6168254.271541768</v>
+        <v>6894519.310203861</v>
       </c>
       <c r="H430" t="n">
-        <v>11741518.20047799</v>
+        <v>14096190.90219803</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>15751797.688167</v>
+        <v>15105564.57099578</v>
       </c>
       <c r="C431" t="n">
-        <v>6319977.617522907</v>
+        <v>5803024.449489359</v>
       </c>
       <c r="D431" t="n">
-        <v>4945780.314629644</v>
+        <v>4534744.864627809</v>
       </c>
       <c r="E431" t="n">
-        <v>5441896.302588431</v>
+        <v>5642231.79652035</v>
       </c>
       <c r="F431" t="n">
-        <v>5846596.676274066</v>
+        <v>6846787.251770208</v>
       </c>
       <c r="G431" t="n">
-        <v>6168112.083790304</v>
+        <v>6894360.380925821</v>
       </c>
       <c r="H431" t="n">
-        <v>12416519.14667169</v>
+        <v>14906558.18471208</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>15567050.31861666</v>
+        <v>14928396.64544778</v>
       </c>
       <c r="C432" t="n">
-        <v>6298612.026976324</v>
+        <v>5783406.493252325</v>
       </c>
       <c r="D432" t="n">
-        <v>4938716.967419744</v>
+        <v>4528268.540276637</v>
       </c>
       <c r="E432" t="n">
-        <v>5439024.545261426</v>
+        <v>5639254.319626016</v>
       </c>
       <c r="F432" t="n">
-        <v>5845764.719982337</v>
+        <v>6845812.970825645</v>
       </c>
       <c r="G432" t="n">
-        <v>6167942.72950924</v>
+        <v>6894171.086465887</v>
       </c>
       <c r="H432" t="n">
-        <v>13094062.40751823</v>
+        <v>15719977.62386108</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>15379811.40849803</v>
+        <v>14748839.39725353</v>
       </c>
       <c r="C433" t="n">
-        <v>6275782.136524519</v>
+        <v>5762444.011976496</v>
       </c>
       <c r="D433" t="n">
-        <v>4930970.184641303</v>
+        <v>4521165.579532909</v>
       </c>
       <c r="E433" t="n">
-        <v>5435797.414284218</v>
+        <v>5635908.386517649</v>
       </c>
       <c r="F433" t="n">
-        <v>5844804.20036136</v>
+        <v>6844688.132931033</v>
       </c>
       <c r="G433" t="n">
-        <v>6167741.478585064</v>
+        <v>6893946.13977565</v>
       </c>
       <c r="H433" t="n">
-        <v>13774199.87449983</v>
+        <v>16536511.51757167</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>15190107.72546387</v>
+        <v>14566918.49589629</v>
       </c>
       <c r="C434" t="n">
-        <v>6251422.11619717</v>
+        <v>5740076.560364367</v>
       </c>
       <c r="D434" t="n">
-        <v>4922488.556921174</v>
+        <v>4513388.845569662</v>
       </c>
       <c r="E434" t="n">
-        <v>5432177.971138747</v>
+        <v>5632155.698839392</v>
       </c>
       <c r="F434" t="n">
-        <v>5843697.608367196</v>
+        <v>6843392.233730514</v>
       </c>
       <c r="G434" t="n">
-        <v>6167502.869461182</v>
+        <v>6893679.436241754</v>
       </c>
       <c r="H434" t="n">
-        <v>14456988.86235809</v>
+        <v>17356228.67462355</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>14997971.05406041</v>
+        <v>14382664.42192977</v>
       </c>
       <c r="C435" t="n">
-        <v>6225466.25697603</v>
+        <v>5716243.804177044</v>
       </c>
       <c r="D435" t="n">
-        <v>4913218.476311004</v>
+        <v>4504889.185704602</v>
       </c>
       <c r="E435" t="n">
-        <v>5428126.406791964</v>
+        <v>5627954.982046571</v>
       </c>
       <c r="F435" t="n">
-        <v>5842425.441829795</v>
+        <v>6841902.434773496</v>
       </c>
       <c r="G435" t="n">
-        <v>6167220.6133116</v>
+        <v>6893363.946576759</v>
       </c>
       <c r="H435" t="n">
-        <v>15142491.99781566</v>
+        <v>18179204.28105507</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>14803438.34458475</v>
+        <v>14196112.60972848</v>
       </c>
       <c r="C436" t="n">
-        <v>6197849.277457753</v>
+        <v>5690885.801813036</v>
       </c>
       <c r="D436" t="n">
-        <v>4903104.224395467</v>
+        <v>4495615.512185812</v>
       </c>
       <c r="E436" t="n">
-        <v>5423599.943116348</v>
+        <v>5623261.883197148</v>
       </c>
       <c r="F436" t="n">
-        <v>5840966.039017357</v>
+        <v>6840193.368606516</v>
       </c>
       <c r="G436" t="n">
-        <v>6166887.488695788</v>
+        <v>6892991.599070431</v>
       </c>
       <c r="H436" t="n">
-        <v>15830777.0785046</v>
+        <v>19005519.73080084</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>14606551.8489634</v>
+        <v>14007303.5777918</v>
       </c>
       <c r="C437" t="n">
-        <v>6168506.648839064</v>
+        <v>5663943.302710758</v>
       </c>
       <c r="D437" t="n">
-        <v>4892088.084277905</v>
+        <v>4485514.904870447</v>
       </c>
       <c r="E437" t="n">
-        <v>5418552.747254707</v>
+        <v>5618028.882163985</v>
       </c>
       <c r="F437" t="n">
-        <v>5839295.407150732</v>
+        <v>6838236.937951189</v>
       </c>
       <c r="G437" t="n">
-        <v>6166495.226257632</v>
+        <v>6892553.150712843</v>
       </c>
       <c r="H437" t="n">
-        <v>16521916.90039313</v>
+        <v>19835262.41851011</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>14407359.24229841</v>
+        <v>13816283.04530342</v>
       </c>
       <c r="C438" t="n">
-        <v>6137374.937000694</v>
+        <v>5635358.061451102</v>
       </c>
       <c r="D438" t="n">
-        <v>4880110.477644783</v>
+        <v>4474532.736898001</v>
       </c>
       <c r="E438" t="n">
-        <v>5412935.861373987</v>
+        <v>5612205.218802638</v>
       </c>
       <c r="F438" t="n">
-        <v>5837387.047096889</v>
+        <v>6836002.110407591</v>
       </c>
       <c r="G438" t="n">
-        <v>6166034.383100964</v>
+        <v>6892038.04677861</v>
       </c>
       <c r="H438" t="n">
-        <v>17215989.05196243</v>
+        <v>20668525.49244733</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>14205913.72875056</v>
+        <v>13623102.03367068</v>
       </c>
       <c r="C439" t="n">
-        <v>6104392.160226581</v>
+        <v>5605073.166216419</v>
       </c>
       <c r="D439" t="n">
-        <v>4867110.127944288</v>
+        <v>4462612.824307404</v>
       </c>
       <c r="E439" t="n">
-        <v>5406697.150350668</v>
+        <v>5605736.838710881</v>
       </c>
       <c r="F439" t="n">
-        <v>5835211.775706058</v>
+        <v>6833454.710398228</v>
       </c>
       <c r="G439" t="n">
-        <v>6165494.206563105</v>
+        <v>6891434.268560781</v>
       </c>
       <c r="H439" t="n">
-        <v>17913075.67335807</v>
+        <v>21505407.56534326</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>14002274.13046496</v>
+        <v>13427816.95180185</v>
       </c>
       <c r="C440" t="n">
-        <v>6069498.160854585</v>
+        <v>5573033.380041427</v>
       </c>
       <c r="D440" t="n">
-        <v>4853024.250519559</v>
+        <v>4449697.6003686</v>
       </c>
       <c r="E440" t="n">
-        <v>5399781.270002514</v>
+        <v>5598566.360290937</v>
       </c>
       <c r="F440" t="n">
-        <v>5832737.547503782</v>
+        <v>6830557.210356526</v>
       </c>
       <c r="G440" t="n">
-        <v>6164862.48721749</v>
+        <v>6890728.169065649</v>
       </c>
       <c r="H440" t="n">
-        <v>18613263.17871901</v>
+        <v>22346012.38103905</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>13796504.95829093</v>
+        <v>13230489.66392473</v>
       </c>
       <c r="C441" t="n">
-        <v>6032634.988916837</v>
+        <v>5539185.493073068</v>
       </c>
       <c r="D441" t="n">
-        <v>4837788.770313799</v>
+        <v>4435728.315194562</v>
       </c>
       <c r="E441" t="n">
-        <v>5392129.658523797</v>
+        <v>5590633.065869413</v>
       </c>
       <c r="F441" t="n">
-        <v>5829929.277703818</v>
+        <v>6827268.523462156</v>
       </c>
       <c r="G441" t="n">
-        <v>6164125.401068562</v>
+        <v>6889904.296627298</v>
       </c>
       <c r="H441" t="n">
-        <v>19316641.93988127</v>
+        <v>23190448.43475918</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>13588676.46310739</v>
+        <v>13031187.53880627</v>
       </c>
       <c r="C442" t="n">
-        <v>5993747.295595097</v>
+        <v>5503478.683842507</v>
       </c>
       <c r="D442" t="n">
-        <v>4821338.567513468</v>
+        <v>4420645.260969482</v>
       </c>
       <c r="E442" t="n">
-        <v>5383680.553789487</v>
+        <v>5581872.919638515</v>
       </c>
       <c r="F442" t="n">
-        <v>5826748.668767223</v>
+        <v>6823543.800529187</v>
       </c>
       <c r="G442" t="n">
-        <v>6163267.341057981</v>
+        <v>6888945.206574937</v>
       </c>
       <c r="H442" t="n">
-        <v>20023305.92966024</v>
+        <v>24038828.54485667</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>13378864.66663508</v>
+        <v>12829983.47930073</v>
       </c>
       <c r="C443" t="n">
-        <v>5952782.734092329</v>
+        <v>5465864.887346761</v>
       </c>
       <c r="D443" t="n">
-        <v>4803607.751218288</v>
+        <v>4404388.022874537</v>
       </c>
       <c r="E443" t="n">
-        <v>5374369.039164301</v>
+        <v>5572218.615151495</v>
       </c>
       <c r="F443" t="n">
-        <v>5823154.042992674</v>
+        <v>6819334.233957244</v>
       </c>
       <c r="G443" t="n">
-        <v>6162270.738181621</v>
+        <v>6887831.261287798</v>
       </c>
       <c r="H443" t="n">
-        <v>20733352.32293907</v>
+        <v>24891269.37390279</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>13167151.37070017</v>
+        <v>12626955.93123327</v>
       </c>
       <c r="C444" t="n">
-        <v>5909692.365309345</v>
+        <v>5426299.167542333</v>
       </c>
       <c r="D444" t="n">
-        <v>4784529.960924684</v>
+        <v>4386895.75551554</v>
       </c>
       <c r="E444" t="n">
-        <v>5364127.120381223</v>
+        <v>5561599.655031328</v>
       </c>
       <c r="F444" t="n">
-        <v>5819100.183878604</v>
+        <v>6814586.871955121</v>
       </c>
       <c r="G444" t="n">
-        <v>6161115.872722719</v>
+        <v>6886540.41920241</v>
       </c>
       <c r="H444" t="n">
-        <v>21446881.05383612</v>
+        <v>25747890.89704778</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>12953624.14400781</v>
+        <v>12422188.87071611</v>
       </c>
       <c r="C445" t="n">
-        <v>5864431.065518236</v>
+        <v>5384740.091672311</v>
       </c>
       <c r="D445" t="n">
-        <v>4764038.695284869</v>
+        <v>4368107.484359418</v>
       </c>
       <c r="E445" t="n">
-        <v>5352883.835937786</v>
+        <v>5549942.465431094</v>
       </c>
       <c r="F445" t="n">
-        <v>5814538.189243685</v>
+        <v>6809244.446534232</v>
       </c>
       <c r="G445" t="n">
-        <v>6159780.676337741</v>
+        <v>6885048.01359559</v>
       </c>
       <c r="H445" t="n">
-        <v>22163994.32729065</v>
+        <v>26608815.8156587</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>12738376.28558975</v>
+        <v>12215771.76909569</v>
       </c>
       <c r="C446" t="n">
-        <v>5816957.933045579</v>
+        <v>5341150.103684245</v>
       </c>
       <c r="D446" t="n">
-        <v>4742067.667260096</v>
+        <v>4347962.431371274</v>
       </c>
       <c r="E446" t="n">
-        <v>5340565.403294256</v>
+        <v>5537170.547614219</v>
       </c>
       <c r="F446" t="n">
-        <v>5809415.339322719</v>
+        <v>6803245.219039384</v>
       </c>
       <c r="G446" t="n">
-        <v>6158240.525987874</v>
+        <v>6883326.522252929</v>
       </c>
       <c r="H446" t="n">
-        <v>22884796.08349925</v>
+        <v>27474168.91435274</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>12521506.76420627</v>
+        <v>12007799.53484081</v>
       </c>
       <c r="C447" t="n">
-        <v>5767236.69082162</v>
+        <v>5295495.893852135</v>
       </c>
       <c r="D447" t="n">
-        <v>4718551.18442711</v>
+        <v>4326400.363714216</v>
       </c>
       <c r="E447" t="n">
-        <v>5327095.402943471</v>
+        <v>5523204.668800582</v>
       </c>
       <c r="F447" t="n">
-        <v>5803674.983263934</v>
+        <v>6796522.847228889</v>
       </c>
       <c r="G447" t="n">
-        <v>6156468.030989327</v>
+        <v>6881345.329445899</v>
       </c>
       <c r="H447" t="n">
-        <v>23609391.41375756</v>
+        <v>28344076.35969029</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>12303120.13310998</v>
+        <v>11798372.4318032</v>
       </c>
       <c r="C448" t="n">
-        <v>5715236.081519525</v>
+        <v>5247748.761594623</v>
       </c>
       <c r="D448" t="n">
-        <v>4693424.552825548</v>
+        <v>4303361.964033677</v>
       </c>
       <c r="E448" t="n">
-        <v>5312395.002156114</v>
+        <v>5507963.09414864</v>
       </c>
       <c r="F448" t="n">
-        <v>5797256.447634273</v>
+        <v>6789006.278127667</v>
       </c>
       <c r="G448" t="n">
-        <v>6154432.814758319</v>
+        <v>6879070.481978947</v>
       </c>
       <c r="H448" t="n">
-        <v>24337885.9264167</v>
+        <v>29218664.93897886</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>12083326.41971414</v>
+        <v>11587595.97341242</v>
       </c>
       <c r="C449" t="n">
-        <v>5660930.251904929</v>
+        <v>5197884.968385997</v>
       </c>
       <c r="D449" t="n">
-        <v>4666624.502355631</v>
+        <v>4278789.220501027</v>
       </c>
       <c r="E449" t="n">
-        <v>5296383.219886678</v>
+        <v>5491361.861413537</v>
       </c>
       <c r="F449" t="n">
-        <v>5790094.970684711</v>
+        <v>6780619.671047161</v>
       </c>
       <c r="G449" t="n">
-        <v>6152101.293148878</v>
+        <v>6876464.441428282</v>
       </c>
       <c r="H449" t="n">
-        <v>25070385.06185566</v>
+        <v>30098061.23786824</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>11862240.98985385</v>
+        <v>11375580.79250582</v>
       </c>
       <c r="C450" t="n">
-        <v>5604299.122942464</v>
+        <v>5145886.077589263</v>
       </c>
       <c r="D450" t="n">
-        <v>4638089.631354889</v>
+        <v>4252625.834442275</v>
       </c>
       <c r="E450" t="n">
-        <v>5278977.233954628</v>
+        <v>5473315.099436671</v>
       </c>
       <c r="F450" t="n">
-        <v>5782121.666230764</v>
+        <v>6771282.355286814</v>
       </c>
       <c r="G450" t="n">
-        <v>6149436.451620527</v>
+        <v>6873485.835072736</v>
       </c>
       <c r="H450" t="n">
-        <v>25806993.35559799</v>
+        <v>30982390.75569088</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>11639984.38648034</v>
+        <v>11162442.48664053</v>
       </c>
       <c r="C451" t="n">
-        <v>5545328.742165993</v>
+        <v>5091739.278003653</v>
       </c>
       <c r="D451" t="n">
-        <v>4607760.867605299</v>
+        <v>4224817.643031682</v>
       </c>
       <c r="E451" t="n">
-        <v>5260092.731193346</v>
+        <v>5453735.391184879</v>
       </c>
       <c r="F451" t="n">
-        <v>5773263.52105717</v>
+        <v>6760908.827094759</v>
       </c>
       <c r="G451" t="n">
-        <v>6146397.623823863</v>
+        <v>6870089.208409473</v>
       </c>
       <c r="H451" t="n">
-        <v>26547813.64897707</v>
+        <v>31871776.95783198</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>11416682.14278762</v>
+        <v>10948301.43888681</v>
       </c>
       <c r="C452" t="n">
-        <v>5484011.614814326</v>
+        <v>5035437.687914534</v>
       </c>
       <c r="D452" t="n">
-        <v>4575581.942654004</v>
+        <v>4195313.054192488</v>
       </c>
       <c r="E452" t="n">
-        <v>5239644.300788582</v>
+        <v>5432534.181569068</v>
       </c>
       <c r="F452" t="n">
-        <v>5763443.429753383</v>
+        <v>6749408.790462708</v>
       </c>
       <c r="G452" t="n">
-        <v>6142940.274550188</v>
+        <v>6866224.782547616</v>
       </c>
       <c r="H452" t="n">
-        <v>27292946.2470694</v>
+        <v>32766340.2647928</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1792690.974651011</v>
+        <v>181317.5867854136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1794785.570745295</v>
+        <v>181529.4398680006</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1796909.445946861</v>
+        <v>181744.2543182469</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1799063.003032418</v>
+        <v>181962.0708740724</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1801246.649931886</v>
+        <v>182182.9307946062</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1803460.799770121</v>
+        <v>182406.8758644073</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1805705.870907654</v>
+        <v>182633.9483975851</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1807982.286980392</v>
+        <v>182864.1912418147</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1810290.476938237</v>
+        <v>183097.6477822428</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1812630.875082545</v>
+        <v>183334.3619452768</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1815003.92110239</v>
+        <v>183574.3782022521</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1817410.060109574</v>
+        <v>183817.7415729734</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1819849.742672337</v>
+        <v>184064.4976291245</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1822323.424847722</v>
+        <v>184314.6924975413</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1824831.568212552</v>
+        <v>184568.3728633453</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1827374.63989299</v>
+        <v>184825.5859729327</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1829953.112592628</v>
+        <v>185086.3796368164</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1832567.464619106</v>
+        <v>185350.8022323175</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1835218.179909224</v>
+        <v>185618.9027061055</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1837905.748052522</v>
+        <v>185890.7305765832</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1840630.664313343</v>
+        <v>186166.3359361186</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1843393.429651362</v>
+        <v>186445.7694531204</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1846194.550740591</v>
+        <v>186729.0823739608</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1849034.539986875</v>
+        <v>187016.3265247454</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1851913.915543913</v>
+        <v>187307.5543129329</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1854833.201327829</v>
+        <v>187602.8187288088</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1857792.927030341</v>
+        <v>187902.1733468184</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1860793.628130589</v>
+        <v>188205.6723267625</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1863835.845905703</v>
+        <v>188513.3704148652</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1866920.127440151</v>
+        <v>188825.3229447215</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1870047.02563402</v>
+        <v>189141.5858381331</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1873217.099210298</v>
+        <v>189462.2156058459</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1876430.91272129</v>
+        <v>189787.2693481983</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1879689.036554317</v>
+        <v>190116.8047556977</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1882992.046936834</v>
+        <v>190450.8801095393</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1886340.525941166</v>
+        <v>190789.5542820834</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1889735.061489004</v>
+        <v>191132.8867373109</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1893176.247355907</v>
+        <v>191480.9375312792</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1896664.683176019</v>
+        <v>191833.7673125981</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1900200.974447213</v>
+        <v>192191.4373229511</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1903785.732536954</v>
+        <v>192554.009397688</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1907419.574689145</v>
+        <v>192921.5459665173</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1911103.124032226</v>
+        <v>193294.1100543253</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1914837.009588874</v>
+        <v>193671.7652821573</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1918621.866287606</v>
+        <v>194054.5758683912</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1922458.334976629</v>
+        <v>194442.6066301388</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1926347.062440344</v>
+        <v>194835.9229849133</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1930288.701418829</v>
+        <v>195234.5909526021</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1934283.910630742</v>
+        <v>195638.677157782</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1938333.354800055</v>
+        <v>196048.2488324233</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1942437.704687044</v>
+        <v>196463.3738190243</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1946597.637123993</v>
+        <v>196884.1205742226</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1950813.835056073</v>
+        <v>197310.55817293</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1955086.987587885</v>
+        <v>197742.7563130389</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1959417.790036149</v>
+        <v>198180.7853207525</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1963806.943989039</v>
+        <v>198624.7161565858</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1968255.157372718</v>
+        <v>199074.6204220951</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1972763.144525543</v>
+        <v>199530.5703673827</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1977331.626280514</v>
+        <v>199992.6388994374</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1981961.330056503</v>
+        <v>200460.89959136</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1986652.989958792</v>
+        <v>200935.4266925335</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1991407.34688949</v>
+        <v>201416.2951397895</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>1996225.148668358</v>
+        <v>201903.5805696307</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>2001107.150164624</v>
+        <v>202397.3593315603</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>2006054.113440301</v>
+        <v>202897.7085025804</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>2011066.80790557</v>
+        <v>203404.7059029059</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>2016146.010486767</v>
+        <v>203918.4301129563</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>2021292.505807485</v>
+        <v>204438.960491672</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>2026507.086383331</v>
+        <v>204966.3771962127</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>2031790.552830809</v>
+        <v>205500.7612030854</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>2037143.714090839</v>
+        <v>206042.19433075</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>2042567.387667351</v>
+        <v>206590.7592637533</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>2048062.399881439</v>
+        <v>207146.5395784328</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>2053629.586141437</v>
+        <v>207709.6197702347</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>2059269.791229365</v>
+        <v>208280.0852826841</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>2064983.869604047</v>
+        <v>208858.0225380453</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>2070772.685721312</v>
+        <v>209443.5189697051</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>2076637.11437146</v>
+        <v>210036.6630563076</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>2082578.041034373</v>
+        <v>210637.5443576697</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>2088596.362252388</v>
+        <v>211246.2535524949</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>2094692.986021162</v>
+        <v>211862.8824779056</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>2100868.832198626</v>
+        <v>212487.5241708073</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>2107124.832932137</v>
+        <v>213120.2729110909</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>2113461.933103852</v>
+        <v>213761.2242666786</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>2119881.090794272</v>
+        <v>214410.4751404097</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>2126383.277763937</v>
+        <v>215068.1238187588</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>2132969.479953112</v>
+        <v>215734.2700223756</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>2139640.697999275</v>
+        <v>216409.0149584261</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>2146397.947772191</v>
+        <v>217092.4613747112</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>2153242.260926235</v>
+        <v>217784.7136155283</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>2160174.685469645</v>
+        <v>218485.8776792498</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>2167196.286350247</v>
+        <v>219196.0612775628</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>2174308.146057165</v>
+        <v>219915.3738963291</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>2181511.36523803</v>
+        <v>220643.9268580101</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>2188807.063330987</v>
+        <v>221381.8333855907</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>2196196.379210918</v>
+        <v>222129.2086679398</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>2203680.471849103</v>
+        <v>222886.1699265296</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>2211260.52098554</v>
+        <v>223652.8364834361</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>2218937.727813093</v>
+        <v>224429.3298305372</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>2226713.315672536</v>
+        <v>225215.7736998086</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>2234588.530757563</v>
+        <v>226012.2941346318</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>2242564.642828718</v>
+        <v>226819.0195620042</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>2250642.945935221</v>
+        <v>227636.0808655439</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>2258824.759143529</v>
+        <v>228463.6114591803</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>2267111.427271512</v>
+        <v>229301.7473614094</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>2275504.321627037</v>
+        <v>230150.627269998</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>2284004.840749701</v>
+        <v>231010.3926370013</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>2292614.411154446</v>
+        <v>231881.1877439782</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>2301334.488075779</v>
+        <v>232763.1597772602</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>2310166.556211223</v>
+        <v>233656.4589031481</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>2319112.130462669</v>
+        <v>234561.2383428939</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>2328172.756674265</v>
+        <v>235477.6544473321</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>2337350.01236543</v>
+        <v>236405.8667710198</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>2346645.507457639</v>
+        <v>237346.0381457449</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>2356060.884993568</v>
+        <v>238298.3347532626</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>2365597.821847195</v>
+        <v>239262.9261971179</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>2375258.029423537</v>
+        <v>240239.9855734162</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>2385043.254346583</v>
+        <v>241229.6895404062</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>2394955.279134153</v>
+        <v>242232.2183867345</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2404995.922858322</v>
+        <v>243247.7560982422</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2415167.041790151</v>
+        <v>244276.4904231785</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2425470.530027495</v>
+        <v>245318.6129356939</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2435908.320104649</v>
+        <v>246374.3190975049</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2446482.383582742</v>
+        <v>247443.8083176071</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2457194.731619762</v>
+        <v>248527.2840099283</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2468047.415519179</v>
+        <v>249624.953648819</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2479042.527256252</v>
+        <v>250737.0288222828</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2490182.199981081</v>
+        <v>251863.7252828582</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2501468.608497652</v>
+        <v>253005.2629960703</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2512903.969718134</v>
+        <v>254161.8661863782</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2524490.543091795</v>
+        <v>255333.7633805575</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2536230.631008026</v>
+        <v>256521.187448464</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2548126.579172992</v>
+        <v>257724.3756411286</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2560180.776959644</v>
+        <v>258943.5696261571</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2572395.657730782</v>
+        <v>260179.0155204086</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2584773.699135113</v>
+        <v>261430.9639199371</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2597317.423376283</v>
+        <v>262699.6699272027</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2610029.397454957</v>
+        <v>263985.393175557</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2622912.233384209</v>
+        <v>265288.397851028</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2635968.588378565</v>
+        <v>266608.9527114388</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2649201.165017119</v>
+        <v>267947.3311029088</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2662612.711381358</v>
+        <v>269303.8109737896</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2676206.021168367</v>
+        <v>270678.6748861194</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2689983.933780265</v>
+        <v>272072.2100246648</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2703949.334390773</v>
+        <v>273484.7082036565</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2718105.153990064</v>
+        <v>274916.4658713228</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2732454.36940897</v>
+        <v>276367.7841123415</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2747000.003323951</v>
+        <v>277838.9686483385</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2761745.124244186</v>
+        <v>279330.329836586</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2776692.846482312</v>
+        <v>280842.1826670404</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2791846.330110504</v>
+        <v>282374.8467579001</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2807208.780903546</v>
+        <v>283928.6463498495</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2822783.450270839</v>
+        <v>285503.9102991798</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2838573.635179206</v>
+        <v>287100.9720699842</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2854582.678068594</v>
+        <v>288720.1697256276</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2870813.966762729</v>
+        <v>290361.8459197137</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>2887270.934376992</v>
+        <v>292026.347886766</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>2903957.059225751</v>
+        <v>293714.0274328554</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>2920875.864731554</v>
+        <v>295425.2409264144</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>2938030.919338515</v>
+        <v>297160.3492894782</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>2955425.836432486</v>
+        <v>298919.7179896108</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>2973064.274270453</v>
+        <v>300703.7170327631</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>2990949.935921798</v>
+        <v>302512.7209573313</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>3009086.56922397</v>
+        <v>304347.108829676</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>3027477.966755318</v>
+        <v>306207.2642413719</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>3046127.965827697</v>
+        <v>308093.5753084606</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>3065040.448501552</v>
+        <v>310006.4346729766</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>3084219.341626204</v>
+        <v>311946.2395070214</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>3103668.616908076</v>
+        <v>313913.3915196662</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>3123392.291009563</v>
+        <v>315908.2969669477</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>3143394.425681252</v>
+        <v>317931.3666652448</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>3163679.127930214</v>
+        <v>319983.0160082993</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>3184250.550227065</v>
+        <v>322063.6649881576</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>3205112.890754432</v>
+        <v>324173.7382203019</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>3226270.393699483</v>
+        <v>326313.6649732371</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>3247727.349593106</v>
+        <v>328483.879202798</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>3269488.095698326</v>
+        <v>330684.8195914319</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>3291557.016450457</v>
+        <v>332916.9295927187</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>3313938.543951451</v>
+        <v>335180.6574813704</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>3336637.158520907</v>
+        <v>337476.4564089612</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>3359657.389306072</v>
+        <v>339804.7844656258</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>3383003.814953142</v>
+        <v>342166.1047479551</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>3406681.064342131</v>
+        <v>344560.8854333233</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>3430693.817387476</v>
+        <v>346989.5998608633</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>3455046.80590648</v>
+        <v>349452.7266193044</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>3479744.81455769</v>
+        <v>351950.7496418806</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3504792.681851163</v>
+        <v>354484.1583085125</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3530195.301232502</v>
+        <v>357053.44755545</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3555957.62224259</v>
+        <v>359659.11799257</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3582084.651754726</v>
+        <v>362301.6760285049</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3608581.455290891</v>
+        <v>364981.6340037716</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3635453.158418808</v>
+        <v>367699.5103320757</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3662704.948231344</v>
+        <v>370455.8296499404</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3690342.074909757</v>
+        <v>373251.1229748193</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3718369.853372272</v>
+        <v>376085.927871837</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3746793.665009336</v>
+        <v>378960.7886292958</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3775618.959506876</v>
+        <v>381876.2564430892</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3804851.256758885</v>
+        <v>384832.8896101413</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3834496.14887048</v>
+        <v>387831.2537310043</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>3864559.302252667</v>
+        <v>390871.9219217273</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>3895046.459809895</v>
+        <v>393955.4750351128</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>3925963.443221516</v>
+        <v>397082.501891468</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>3957316.15531789</v>
+        <v>400253.5995189323</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>3989110.582552968</v>
+        <v>403469.3734035591</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>4021352.797573509</v>
+        <v>406730.4377491747</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>4054048.961886232</v>
+        <v>410037.4157471403</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>4087205.328623725</v>
+        <v>413390.9398561041</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>4120828.245410112</v>
+        <v>416791.6520918431</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>4154924.157327302</v>
+        <v>420240.204327276</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>4189499.609982749</v>
+        <v>423737.2586027455</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>4224561.252679573</v>
+        <v>427283.487446653</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>4260115.841689928</v>
+        <v>430879.5742065363</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>4296170.243632474</v>
+        <v>434526.2133906751</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>4332731.438954826</v>
+        <v>438224.1110203149</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>4369806.525521846</v>
+        <v>441973.9849925995</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>4407402.722310671</v>
+        <v>445776.5654542907</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>4445527.373213325</v>
+        <v>449632.595186382</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>4484187.95094786</v>
+        <v>453542.8299996743</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>4523392.061078841</v>
+        <v>457508.0391414246</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>4563147.446148214</v>
+        <v>461529.0057131489</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>4603461.989917306</v>
+        <v>465606.5270996726</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4644343.721721062</v>
+        <v>469741.4154095265</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4685800.820935254</v>
+        <v>473934.4979267766</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4727841.621557836</v>
+        <v>478186.61757439</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4770474.616905103</v>
+        <v>482498.6333892205</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>4813708.464423853</v>
+        <v>486871.4210087234</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>4857551.99062031</v>
+        <v>491305.8731694774</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>4902014.196106782</v>
+        <v>495802.9002176187</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>4947104.260766942</v>
+        <v>500363.4306312723</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>4992831.549040664</v>
+        <v>504988.4115550739</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>5039205.615329169</v>
+        <v>509678.8093468602</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>5086236.209521355</v>
+        <v>514435.6101366181</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>5133933.282642082</v>
+        <v>519259.820397765</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>5182306.992623021</v>
+        <v>524152.4675308322</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>5231367.710196847</v>
+        <v>529114.6004596144</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>5281126.024915187</v>
+        <v>534147.2902398458</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>5331592.75129087</v>
+        <v>539251.6306804394</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>5382778.935064774</v>
+        <v>544428.7389773368</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>5434695.859597573</v>
+        <v>549679.7563599845</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>5487355.052386362</v>
+        <v>555005.8487504424</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>5540768.291706198</v>
+        <v>560408.2074351287</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>5594947.613376263</v>
+        <v>565888.0497491665</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>5649905.317650189</v>
+        <v>571446.6197732913</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5705653.976229977</v>
+        <v>577085.1890432568</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5762206.439402526</v>
+        <v>582805.0572716413</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5819575.843297735</v>
+        <v>588607.5530819532</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5877775.617266637</v>
+        <v>594494.034754876</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5936819.491377952</v>
+        <v>600465.8909864889</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5996721.50403091</v>
+        <v>606524.5416582463</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>6057496.009681954</v>
+        <v>612671.4386184823</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>6119157.686682557</v>
+        <v>618908.0664751426</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>6181721.54522481</v>
+        <v>625235.9433994255</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>6245202.93539125</v>
+        <v>631656.6219399656</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>6309617.555304674</v>
+        <v>638171.6898471242</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>6374981.459373311</v>
+        <v>644782.7709069295</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>6441311.066626165</v>
+        <v>651491.5257841346</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>6508623.169132682</v>
+        <v>658299.6528738079</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>6576934.940500388</v>
+        <v>665208.8891608036</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>6646263.944443434</v>
+        <v>672221.0110864117</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>6716628.143414254</v>
+        <v>679337.835421382</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>6788045.907289946</v>
+        <v>686561.2201444913</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>6860536.02210404</v>
+        <v>693893.0653256988</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>6934117.698813645</v>
+        <v>701335.314012876</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>7008810.582091141</v>
+        <v>708889.9531210224</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>7084634.759128423</v>
+        <v>716559.0143227541</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>7161610.768441223</v>
+        <v>724344.5749387913</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>7239759.60865968</v>
+        <v>732248.758827064</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>7319102.747290389</v>
+        <v>740273.7372689296</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>7399662.12943434</v>
+        <v>748421.7298509241</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>7481460.186443635</v>
+        <v>756695.0053403305</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>7564519.844499202</v>
+        <v>765095.8825527519</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>7648864.53309013</v>
+        <v>773626.7312097271</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>7734518.193374232</v>
+        <v>782289.9727843517</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>7821505.286398213</v>
+        <v>791088.0813326794</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>7909850.801154285</v>
+        <v>800023.5843085918</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>7999580.262449027</v>
+        <v>809099.0633596792</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>8090719.738558612</v>
+        <v>818317.1551015048</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>8183295.848643317</v>
+        <v>827680.5518675356</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>8277335.769892674</v>
+        <v>837192.0024318154</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>8372867.244371114</v>
+        <v>846854.312701356</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>8469918.585532565</v>
+        <v>856670.346375039</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>8568518.684370756</v>
+        <v>866643.0255656763</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>8668697.015170604</v>
+        <v>876775.3313817157</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>8770483.640824182</v>
+        <v>887070.3044649207</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>8873909.217673691</v>
+        <v>897531.0454801938</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>8979004.999841591</v>
+        <v>908160.7155535422</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>9085802.84300695</v>
+        <v>918962.536654025</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>9194335.207585348</v>
+        <v>929939.791915379</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>9304635.161267774</v>
+        <v>941095.8258928105</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>9416736.380872903</v>
+        <v>952434.0447503353</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>9530673.153464966</v>
+        <v>963957.9163738508</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>9646480.376688458</v>
+        <v>975670.9704049787</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>9764193.558268966</v>
+        <v>987576.7981905874</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>9883848.81462824</v>
+        <v>999679.0526427121</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>10005482.86856008</v>
+        <v>1011981.448003486</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>10129133.04591233</v>
+        <v>1024487.759509552</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>10254837.27121907</v>
+        <v>1037201.822950287</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>10382634.06222562</v>
+        <v>1050127.534114054</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>10512562.52324853</v>
+        <v>1063268.848116598</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>10644662.3373109</v>
+        <v>1076629.778605609</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>10778973.75699326</v>
+        <v>1090214.396835345</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>10915537.59393939</v>
+        <v>1257115.036895679</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>11054395.20695543</v>
+        <v>1426610.529747827</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>11195588.48864091</v>
+        <v>1598744.916083281</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>11339159.85048963</v>
+        <v>1773562.785463792</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>11485152.20639877</v>
+        <v>1951109.261696993</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>11633608.95452414</v>
+        <v>2131429.986443242</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>11784573.9574207</v>
+        <v>2314571.100985378</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>11938091.52040769</v>
+        <v>2500579.226093488</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>12094206.36809847</v>
+        <v>2689501.439917476</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>12252963.61903713</v>
+        <v>2881385.253841698</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>12414408.75838459</v>
+        <v>3076278.586237024</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>12578587.60859926</v>
+        <v>3274229.734047352</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>12745546.29805936</v>
+        <v>3475287.342149931</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>12915331.22757644</v>
+        <v>3679500.370431011</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>13087989.03475241</v>
+        <v>3886918.058521098</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>13263566.55613597</v>
+        <v>4097589.888137488</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>13442110.7871375</v>
+        <v>4311565.542984924</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>13623668.83966554</v>
+        <v>4528894.866169413</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>13808287.89745294</v>
+        <v>4749627.815084763</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>13996015.16904477</v>
+        <v>4973814.413735781</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>14186897.83842609</v>
+        <v>5201504.702467853</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>14380983.01327268</v>
+        <v>5432748.685077859</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>14578317.6708149</v>
+        <v>5667596.273288168</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>14778948.60131028</v>
+        <v>5906097.22857149</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>14982922.34912861</v>
+        <v>6148301.101321952</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>15190285.15145986</v>
+        <v>6394257.167375253</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>15401082.87466385</v>
+        <v>6644014.361888752</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>15615360.94828841</v>
+        <v>6897621.210600981</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>15833164.29679195</v>
+        <v>7155125.758499053</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>16054537.26901522</v>
+        <v>7416575.495931973</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>16279523.56545683</v>
+        <v>7682017.282217473</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>16508166.16341675</v>
+        <v>7951497.266800604</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>16740507.24008258</v>
+        <v>8225060.808032771</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>16976588.09364365</v>
+        <v>8502752.389650924</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>17216449.06252922</v>
+        <v>8784615.535048174</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>17460129.44287775</v>
+        <v>9070692.719438449</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>17707667.40435561</v>
+        <v>9361025.280029736</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>17959099.90445542</v>
+        <v>9655653.324332999</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>18214462.6014152</v>
+        <v>9954615.636745347</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>18473789.7659114</v>
+        <v>10257949.58355894</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>18737114.19169056</v>
+        <v>10565691.01655947</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>19004467.10531564</v>
+        <v>10877874.17539001</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>19275878.0752147</v>
+        <v>11194531.58886902</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>19551374.92023051</v>
+        <v>11515693.97546258</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>19830983.61788094</v>
+        <v>11841390.14312382</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>20114728.21255019</v>
+        <v>12171646.88872316</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>20402630.72384151</v>
+        <v>12506488.89730519</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>20694711.05533112</v>
+        <v>12845938.64141782</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>20990986.90397273</v>
+        <v>13190016.2807707</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>21291473.67041</v>
+        <v>13538739.56248846</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>21596184.37046218</v>
+        <v>13892123.7222342</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>21905129.54805512</v>
+        <v>14250181.38648617</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>22218317.18987506</v>
+        <v>14612922.47625818</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>22535752.64202903</v>
+        <v>14980354.11256073</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>22857438.52899767</v>
+        <v>15352480.52390479</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>22797941.77511024</v>
+        <v>15343870.05609418</v>
       </c>
       <c r="C358" t="n">
         <v>369046.258249862</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>22737745.73435352</v>
+        <v>15335007.29013677</v>
       </c>
       <c r="C359" t="n">
         <v>742828.7115434151</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>22676836.77200653</v>
+        <v>15325879.6117861</v>
       </c>
       <c r="C360" t="n">
         <v>1121354.670588481</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>22615200.84584998</v>
+        <v>15316473.78048362</v>
       </c>
       <c r="C361" t="n">
         <v>1504628.947460729</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>22552823.49466337</v>
+        <v>15306775.90543684</v>
       </c>
       <c r="C362" t="n">
         <v>1892653.804165306</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>22489689.82647495</v>
+        <v>15296771.42132337</v>
       </c>
       <c r="C363" t="n">
         <v>2285428.905291776</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>22425784.50658011</v>
+        <v>15286445.06366115</v>
       </c>
       <c r="C364" t="n">
         <v>2682951.275016111</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>22361091.74534575</v>
+        <v>15275780.84389077</v>
       </c>
       <c r="C365" t="n">
         <v>3085215.258692663</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>22295595.28582411</v>
+        <v>15264762.02422051</v>
       </c>
       <c r="C366" t="n">
         <v>3492212.489267806</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>22229278.39120227</v>
+        <v>15253371.09229142</v>
       </c>
       <c r="C367" t="n">
         <v>3903931.858733693</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>22162123.83211966</v>
+        <v>15241589.73572542</v>
       </c>
       <c r="C368" t="n">
         <v>4320359.494824413</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>22094113.8738907</v>
+        <v>15229398.81662627</v>
       </c>
       <c r="C369" t="n">
         <v>4741478.743140664</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>22025230.26367544</v>
+        <v>15216778.34611044</v>
       </c>
       <c r="C370" t="n">
         <v>5167270.154869087</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>21955454.21764748</v>
+        <v>15203707.45895199</v>
       </c>
       <c r="C371" t="n">
         <v>5597711.480242198</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>21884766.40821525</v>
+        <v>15190164.38843382</v>
       </c>
       <c r="C372" t="n">
         <v>6032777.667862197</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>21813146.95135956</v>
+        <v>15176126.4415057</v>
       </c>
       <c r="C373" t="n">
         <v>6032742.944899627</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>21740575.39415852</v>
+        <v>15161569.97435804</v>
       </c>
       <c r="C374" t="n">
         <v>6032702.766434887</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>21667030.70257858</v>
+        <v>15146470.36852993</v>
       </c>
       <c r="C375" t="n">
         <v>6032656.335425932</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>21592491.24961966</v>
+        <v>15130802.00767867</v>
       </c>
       <c r="C376" t="n">
         <v>6032602.74829444</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>21516934.80391087</v>
+        <v>15114538.25514836</v>
       </c>
       <c r="C377" t="n">
         <v>6032540.982237659</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>21440338.51886348</v>
+        <v>15097651.43248526</v>
       </c>
       <c r="C378" t="n">
         <v>6032469.881259516</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>21362678.92249715</v>
+        <v>15080112.7990575</v>
       </c>
       <c r="C379" t="n">
         <v>6032388.140824218</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>21283931.9080666</v>
+        <v>15061892.53294807</v>
       </c>
       <c r="C380" t="n">
         <v>6032294.291032849</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>21204072.72562566</v>
+        <v>15042959.71330057</v>
       </c>
       <c r="C381" t="n">
         <v>6032186.678221223</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>21123075.97467779</v>
+        <v>15023282.30430817</v>
       </c>
       <c r="C382" t="n">
         <v>6032063.444875812</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>21040915.59807222</v>
+        <v>15002827.14104753</v>
       </c>
       <c r="C383" t="n">
         <v>6031922.507764026</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>20957564.87731741</v>
+        <v>14981559.91737066</v>
       </c>
       <c r="C384" t="n">
         <v>6031761.534175422</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>20872996.42949411</v>
+        <v>14959445.17607833</v>
       </c>
       <c r="C385" t="n">
         <v>6031577.916172199</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>20787182.20596249</v>
+        <v>14936446.30161009</v>
       </c>
       <c r="C386" t="n">
         <v>6031368.742750021</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>20700093.4930687</v>
+        <v>14912525.51549609</v>
       </c>
       <c r="C387" t="n">
         <v>6031130.769814787</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>20611700.91506786</v>
+        <v>14887643.87482646</v>
       </c>
       <c r="C388" t="n">
         <v>6030860.387886876</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>20521974.43949067</v>
+        <v>14861761.27400326</v>
       </c>
       <c r="C389" t="n">
         <v>6030553.587452358</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>20430883.38519185</v>
+        <v>14834836.45004973</v>
       </c>
       <c r="C390" t="n">
         <v>6030205.92189045</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>20338396.43332779</v>
+        <v>14806826.99175879</v>
       </c>
       <c r="C391" t="n">
         <v>6029812.467918594</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>20244481.64151976</v>
+        <v>14777689.35297093</v>
       </c>
       <c r="C392" t="n">
         <v>6029367.783510844</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>20149106.46146725</v>
+        <v>14747378.87027708</v>
       </c>
       <c r="C393" t="n">
         <v>6028865.863262173</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>20052237.76028233</v>
+        <v>14715849.78544696</v>
       </c>
       <c r="C394" t="n">
         <v>6028300.091190714</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>19953841.84582148</v>
+        <v>14683055.27288686</v>
       </c>
       <c r="C395" t="n">
         <v>6027663.190992304</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>19853884.49629568</v>
+        <v>14648947.47243186</v>
       </c>
       <c r="C396" t="n">
         <v>6026947.173786768</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>19752330.9944408</v>
+        <v>14613477.5277778</v>
       </c>
       <c r="C397" t="n">
         <v>6026143.283423471</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>19649146.16653143</v>
+        <v>14576595.63085521</v>
       </c>
       <c r="C398" t="n">
         <v>6025241.939444857</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>19544294.42651887</v>
+        <v>14538251.07244312</v>
       </c>
       <c r="C399" t="n">
         <v>6024232.677840692</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>19437739.82556982</v>
+        <v>14498392.29931314</v>
       </c>
       <c r="C400" t="n">
         <v>6023104.089763085</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>19329446.10727536</v>
+        <v>14456966.9781845</v>
       </c>
       <c r="C401" t="n">
         <v>6021843.758412328</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>19219376.76879077</v>
+        <v>14413922.06675763</v>
       </c>
       <c r="C402" t="n">
         <v>6020438.194346655</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>19107495.12815319</v>
+        <v>14369203.89207827</v>
       </c>
       <c r="C403" t="n">
         <v>6018872.769514706</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>18993764.39800946</v>
+        <v>14322758.2364648</v>
       </c>
       <c r="C404" t="n">
         <v>6017131.65035757</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>18878147.76596701</v>
+        <v>14274530.43120908</v>
       </c>
       <c r="C405" t="n">
         <v>6015197.730377648</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>18760608.48175815</v>
+        <v>14224465.45823498</v>
       </c>
       <c r="C406" t="n">
         <v>6013052.562623712</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>18641109.95138283</v>
+        <v>14172508.05986926</v>
       </c>
       <c r="C407" t="n">
         <v>6010676.292595148</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>18519615.83836443</v>
+        <v>14118602.85684608</v>
       </c>
       <c r="C408" t="n">
         <v>6008047.592122842</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>18396090.17222046</v>
+        <v>14062694.47462919</v>
       </c>
       <c r="C409" t="n">
         <v>6005143.594839156</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>18270497.46421297</v>
+        <v>14004727.67809511</v>
       </c>
       <c r="C410" t="n">
         <v>6001939.833903953</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>18142802.83040179</v>
+        <v>13944647.51457571</v>
       </c>
       <c r="C411" t="n">
         <v>5998410.182707497</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>18012972.12198016</v>
+        <v>13882399.46521039</v>
       </c>
       <c r="C412" t="n">
         <v>5994526.799322886</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>17880972.06282326</v>
+        <v>13817929.60450576</v>
       </c>
       <c r="C413" t="n">
         <v>5990260.07553021</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>17746770.39412859</v>
+        <v>13751184.76794523</v>
       </c>
       <c r="C414" t="n">
         <v>5985578.591280624</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>17610336.02597177</v>
+        <v>13682112.72743219</v>
       </c>
       <c r="C415" t="n">
         <v>5980449.075510173</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>17471639.19554338</v>
+        <v>13610662.37428804</v>
       </c>
       <c r="C416" t="n">
         <v>5974836.37424948</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>17330651.63177052</v>
+        <v>13536783.90946218</v>
       </c>
       <c r="C417" t="n">
         <v>5968703.427005442</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>17187346.72596345</v>
+        <v>13460429.04054305</v>
       </c>
       <c r="C418" t="n">
         <v>5962011.252413536</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>17041699.70806165</v>
+        <v>13381551.1850909</v>
       </c>
       <c r="C419" t="n">
         <v>5954718.944173629</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>16893687.82798531</v>
+        <v>13300105.67974112</v>
       </c>
       <c r="C420" t="n">
         <v>5946783.678286772</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>16743290.54152979</v>
+        <v>13216049.99445559</v>
       </c>
       <c r="C421" t="n">
         <v>5938160.732604853</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>16590489.70017037</v>
+        <v>13129343.95122634</v>
       </c>
       <c r="C422" t="n">
         <v>5928803.519687838</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>16435269.74407445</v>
+        <v>13039949.94646353</v>
       </c>
       <c r="C423" t="n">
         <v>5918663.633933961</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>16277617.89754916</v>
+        <v>12947833.17622731</v>
       </c>
       <c r="C424" t="n">
         <v>5907690.913905852</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>16117524.36608319</v>
+        <v>12852961.86339264</v>
       </c>
       <c r="C425" t="n">
         <v>5895833.520719302</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>15954982.53407537</v>
+        <v>12755307.48576729</v>
       </c>
       <c r="C426" t="n">
         <v>5883038.033290992</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>15789989.16227799</v>
+        <v>12654845.00411722</v>
       </c>
       <c r="C427" t="n">
         <v>5869249.561156044</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>15622544.58392178</v>
+        <v>12551553.08899103</v>
       </c>
       <c r="C428" t="n">
         <v>5854411.875466118</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>15452652.89843279</v>
+        <v>12445414.34517705</v>
       </c>
       <c r="C429" t="n">
         <v>5838467.55866336</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>15280322.16159867</v>
+        <v>12336415.53257319</v>
       </c>
       <c r="C430" t="n">
         <v>5821358.173195093</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>15105564.57099578</v>
+        <v>12224547.78220279</v>
       </c>
       <c r="C431" t="n">
         <v>5803024.449489359</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>14928396.64544778</v>
+        <v>12109806.80606864</v>
       </c>
       <c r="C432" t="n">
         <v>5783406.493252325</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>14748839.39725353</v>
+        <v>11992193.09950405</v>
       </c>
       <c r="C433" t="n">
         <v>5762444.011976496</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>14566918.49589629</v>
+        <v>11871712.13465497</v>
       </c>
       <c r="C434" t="n">
         <v>5740076.560364367</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>14382664.42192977</v>
+        <v>11748374.5437102</v>
       </c>
       <c r="C435" t="n">
         <v>5716243.804177044</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>14196112.60972848</v>
+        <v>11622196.2904902</v>
       </c>
       <c r="C436" t="n">
         <v>5690885.801813036</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>14007303.5777918</v>
+        <v>11493198.82900771</v>
       </c>
       <c r="C437" t="n">
         <v>5663943.302710758</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>13816283.04530342</v>
+        <v>11361409.24762686</v>
       </c>
       <c r="C438" t="n">
         <v>5635358.061451102</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>13623102.03367068</v>
+        <v>11226860.39747216</v>
       </c>
       <c r="C439" t="n">
         <v>5605073.166216419</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>13427816.95180185</v>
+        <v>11089591.00377422</v>
       </c>
       <c r="C440" t="n">
         <v>5573033.380041427</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>13230489.66392473</v>
+        <v>10949645.75888623</v>
       </c>
       <c r="C441" t="n">
         <v>5539185.493073068</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>13031187.53880627</v>
+        <v>10807075.39576454</v>
       </c>
       <c r="C442" t="n">
         <v>5503478.683842507</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>12829983.47930073</v>
+        <v>10661936.74077653</v>
       </c>
       <c r="C443" t="n">
         <v>5465864.887346761</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>12626955.93123327</v>
+        <v>10514292.74478212</v>
       </c>
       <c r="C444" t="n">
         <v>5426299.167542333</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>12422188.87071611</v>
+        <v>10364212.49152775</v>
       </c>
       <c r="C445" t="n">
         <v>5384740.091672311</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>12215771.76909569</v>
+        <v>10211771.1824972</v>
       </c>
       <c r="C446" t="n">
         <v>5341150.103684245</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>12007799.53484081</v>
+        <v>10057050.09747834</v>
       </c>
       <c r="C447" t="n">
         <v>5295495.893852135</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>11798372.4318032</v>
+        <v>9900136.530230129</v>
       </c>
       <c r="C448" t="n">
         <v>5247748.761594623</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>11587595.97341242</v>
+        <v>9741123.698768903</v>
       </c>
       <c r="C449" t="n">
         <v>5197884.968385997</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>11375580.79250582</v>
+        <v>9580110.629935747</v>
       </c>
       <c r="C450" t="n">
         <v>5145886.077589263</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>11162442.48664053</v>
+        <v>9417202.018057304</v>
       </c>
       <c r="C451" t="n">
         <v>5091739.278003653</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>10948301.43888681</v>
+        <v>9252508.057669174</v>
       </c>
       <c r="C452" t="n">
         <v>5035437.687914534</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>181317.5867854136</v>
+        <v>60439.19559513787</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>181529.4398680006</v>
+        <v>60509.81328933353</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>181744.2543182469</v>
+        <v>60581.41810608232</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>181962.0708740724</v>
+        <v>60654.0236246908</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>182182.9307946062</v>
+        <v>60727.64359820206</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>182406.8758644073</v>
+        <v>60802.29195480243</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>182633.9483975851</v>
+        <v>60877.98279919504</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>182864.1912418147</v>
+        <v>60954.73041393824</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>183097.6477822428</v>
+        <v>61032.54926074761</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>183334.3619452768</v>
+        <v>61111.45398175892</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>183574.3782022521</v>
+        <v>61191.45940075068</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>183817.7415729734</v>
+        <v>61272.58052432448</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>184064.4976291245</v>
+        <v>61354.83254304152</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>184314.6924975413</v>
+        <v>61438.2308325138</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>184568.3728633453</v>
+        <v>61522.79095444845</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>184825.5859729327</v>
+        <v>61608.52865764426</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>185086.3796368164</v>
+        <v>61695.45987893883</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>185350.8022323175</v>
+        <v>61783.60074410585</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>185618.9027061055</v>
+        <v>61872.96756870184</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>185890.7305765832</v>
+        <v>61963.57685886108</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>186166.3359361186</v>
+        <v>62055.44531203951</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>186445.7694531204</v>
+        <v>62148.5898177068</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>186729.0823739608</v>
+        <v>62243.02745798694</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>187016.3265247454</v>
+        <v>62338.77550824847</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>187307.5543129329</v>
+        <v>62435.85143764424</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>187602.8187288088</v>
+        <v>62534.27290960291</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>187902.1733468184</v>
+        <v>62634.05778227284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>188205.6723267625</v>
+        <v>62735.22410892083</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>188513.3704148652</v>
+        <v>62837.79013828844</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>188825.3229447215</v>
+        <v>62941.77431490719</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>189141.5858381331</v>
+        <v>63047.19527937772</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>189462.2156058459</v>
+        <v>63154.0718686153</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>189787.2693481983</v>
+        <v>63262.42311606607</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>190116.8047556977</v>
+        <v>63372.26825189924</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>190450.8801095393</v>
+        <v>63483.62670317981</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>190789.5542820834</v>
+        <v>63596.5180940278</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>191132.8867373109</v>
+        <v>63710.96224577032</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>191480.9375312792</v>
+        <v>63826.9791770931</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>191833.7673125981</v>
+        <v>63944.58910419937</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>192191.4373229511</v>
+        <v>64063.8124409837</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>192554.009397688</v>
+        <v>64184.66979922937</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>192921.5459665173</v>
+        <v>64307.18198883911</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>193294.1100543253</v>
+        <v>64431.37001810841</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>193671.7652821573</v>
+        <v>64557.25509405245</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>194054.5758683912</v>
+        <v>64684.85862279712</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>194442.6066301388</v>
+        <v>64814.20221004627</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>194835.9229849133</v>
+        <v>64945.30766163779</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>195234.5909526021</v>
+        <v>65078.19698420074</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>195638.677157782</v>
+        <v>65212.89238592733</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>196048.2488324233</v>
+        <v>65349.41627747444</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>196463.3738190243</v>
+        <v>65487.7912730081</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>196884.1205742226</v>
+        <v>65628.04019140756</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>197310.55817293</v>
+        <v>65770.18605764335</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>197742.7563130389</v>
+        <v>65914.25210434629</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>198180.7853207525</v>
+        <v>66060.26177358418</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>198624.7161565858</v>
+        <v>66208.23871886195</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>199074.6204220951</v>
+        <v>66358.20680736499</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>199530.5703673827</v>
+        <v>66510.1901224609</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>199992.6388994374</v>
+        <v>66664.21296647913</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>200460.89959136</v>
+        <v>66820.29986378667</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>200935.4266925335</v>
+        <v>66978.47556417785</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201416.2951397895</v>
+        <v>67138.76504659651</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>201903.5805696307</v>
+        <v>67301.1935232102</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>202397.3593315603</v>
+        <v>67465.78644385349</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>202897.7085025804</v>
+        <v>67632.56950086013</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>203404.7059029059</v>
+        <v>67801.56863430204</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>203918.4301129563</v>
+        <v>67972.81003765207</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>204438.960491672</v>
+        <v>68146.32016389063</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>204966.3771962127</v>
+        <v>68322.1257320709</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>205500.7612030854</v>
+        <v>68500.25373436177</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>206042.19433075</v>
+        <v>68680.73144358333</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>206590.7592637533</v>
+        <v>68863.58642125111</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>207146.5395784328</v>
+        <v>69048.84652614431</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>207709.6197702347</v>
+        <v>69236.53992341156</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>208280.0852826841</v>
+        <v>69426.69509422807</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>208858.0225380453</v>
+        <v>69619.3408460151</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>209443.5189697051</v>
+        <v>69814.50632323501</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>210036.6630563076</v>
+        <v>70012.22101876917</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>210637.5443576697</v>
+        <v>70212.5147858899</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>211246.2535524949</v>
+        <v>70415.41785083158</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>211862.8824779056</v>
+        <v>70620.96082596853</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>212487.5241708073</v>
+        <v>70829.17472360239</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>213120.2729110909</v>
+        <v>71040.09097036363</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>213761.2242666786</v>
+        <v>71253.74142222622</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>214410.4751404097</v>
+        <v>71470.15838013658</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>215068.1238187588</v>
+        <v>71689.3746062529</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>215734.2700223756</v>
+        <v>71911.42334079182</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>216409.0149584261</v>
+        <v>72136.3383194754</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>217092.4613747112</v>
+        <v>72364.15379157031</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>217784.7136155283</v>
+        <v>72594.90453850942</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>218485.8776792498</v>
+        <v>72828.62589308326</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>219196.0612775628</v>
+        <v>73065.35375918759</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>219915.3738963291</v>
+        <v>73305.12463210967</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>220643.9268580101</v>
+        <v>73547.97561933666</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>221381.8333855907</v>
+        <v>73793.94446186355</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>222129.2086679398</v>
+        <v>74043.06955597991</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>222886.1699265296</v>
+        <v>74295.38997550981</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>223652.8364834361</v>
+        <v>74550.94549447871</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>224429.3298305372</v>
+        <v>74809.77661017906</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>225215.7736998086</v>
+        <v>75071.92456660284</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>226012.2941346318</v>
+        <v>75337.43137821062</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>226819.0195620042</v>
+        <v>75606.33985400142</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>227636.0808655439</v>
+        <v>75878.69362184801</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>228463.6114591803</v>
+        <v>76154.53715306007</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>229301.7473614094</v>
+        <v>76433.91578713647</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>230150.627269998</v>
+        <v>76716.87575666601</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>231010.3926370013</v>
+        <v>77003.46421233378</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>231881.1877439782</v>
+        <v>77293.72924799271</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>232763.1597772602</v>
+        <v>77587.71992575338</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>233656.4589031481</v>
+        <v>77885.48630104939</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>234561.2383428939</v>
+        <v>78187.07944763129</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>235477.6544473321</v>
+        <v>78492.55148244402</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>236405.8667710198</v>
+        <v>78801.95559033993</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>237346.0381457449</v>
+        <v>79115.34604858165</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>238298.3347532626</v>
+        <v>79432.77825108757</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>239262.9261971179</v>
+        <v>79754.30873237261</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>240239.9855734162</v>
+        <v>80079.99519113879</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>241229.6895404062</v>
+        <v>80409.89651346873</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>242232.2183867345</v>
+        <v>80744.07279557805</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>243247.7560982422</v>
+        <v>81082.58536608075</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>244276.4904231785</v>
+        <v>81425.49680772617</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>245318.6129356939</v>
+        <v>81772.87097856465</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>246374.3190975049</v>
+        <v>82124.77303250172</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>247443.8083176071</v>
+        <v>82481.2694392024</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>248527.2840099283</v>
+        <v>82842.42800330945</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>249624.953648819</v>
+        <v>83208.31788293962</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>250737.0288222828</v>
+        <v>83579.00960742758</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>251863.7252828582</v>
+        <v>83954.57509428609</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>253005.2629960703</v>
+        <v>84335.0876653568</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>254161.8661863782</v>
+        <v>84720.62206212604</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>255333.7633805575</v>
+        <v>85111.25446018582</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>256521.187448464</v>
+        <v>85507.06248282143</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>257724.3756411286</v>
+        <v>85908.12521370959</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>258943.5696261571</v>
+        <v>86314.52320871914</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>260179.0155204086</v>
+        <v>86726.33850680295</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>261430.9639199371</v>
+        <v>87143.65463997904</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>262699.6699272027</v>
+        <v>87566.55664240093</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>263985.393175557</v>
+        <v>87995.13105851898</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>265288.397851028</v>
+        <v>88429.46595034261</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>266608.9527114388</v>
+        <v>88869.65090381294</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>267947.3311029088</v>
+        <v>89315.77703430282</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>269303.8109737896</v>
+        <v>89767.93699126324</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>270678.6748861194</v>
+        <v>90226.22496203987</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>272072.2100246648</v>
+        <v>90690.73667488834</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>273484.7082036565</v>
+        <v>91161.56940121883</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>274916.4658713228</v>
+        <v>91638.82195710771</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>276367.7841123415</v>
+        <v>92122.59470411383</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>277838.9686483385</v>
+        <v>92612.98954944627</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>279330.329836586</v>
+        <v>93110.10994552872</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>280842.1826670404</v>
+        <v>93614.06088901346</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>282374.8467579001</v>
+        <v>94124.94891930003</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>283928.6463498495</v>
+        <v>94642.8821166165</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>285503.9102991798</v>
+        <v>95167.97009972662</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>287100.9720699842</v>
+        <v>95700.3240233281</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>288720.1697256276</v>
+        <v>96240.05657520918</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>290361.8459197137</v>
+        <v>96787.28197323791</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>292026.347886766</v>
+        <v>97342.11596225541</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>293714.0274328554</v>
+        <v>97904.67581095187</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>295425.2409264144</v>
+        <v>98475.08030880475</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>297160.3492894782</v>
+        <v>99053.4497631593</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>298919.7179896108</v>
+        <v>99639.90599653691</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>300703.7170327631</v>
+        <v>100234.5723442543</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>302512.7209573313</v>
+        <v>100837.5736524438</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>304347.108829676</v>
+        <v>101449.0362765587</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>306207.2642413719</v>
+        <v>102069.0880804573</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>308093.5753084606</v>
+        <v>102697.8584361536</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>310006.4346729766</v>
+        <v>103335.4782243255</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>311946.2395070214</v>
+        <v>103982.0798356739</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>313913.3915196662</v>
+        <v>104637.797173222</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>315908.2969669477</v>
+        <v>105302.7656556492</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>317931.3666652448</v>
+        <v>105977.1222217483</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>319983.0160082993</v>
+        <v>106661.0053360997</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>322063.6649881576</v>
+        <v>107354.5549960525</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>324173.7382203019</v>
+        <v>108057.9127401006</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>326313.6649732371</v>
+        <v>108771.2216577457</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>328483.879202798</v>
+        <v>109494.6264009327</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>330684.8195914319</v>
+        <v>110228.273197144</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>332916.9295927187</v>
+        <v>110972.3098642395</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>335180.6574813704</v>
+        <v>111726.8858271234</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>337476.4564089612</v>
+        <v>112492.1521363204</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>339804.7844656258</v>
+        <v>113268.261488542</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>342166.1047479551</v>
+        <v>114055.3682493184</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>344560.8854333233</v>
+        <v>114853.6284777744</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>346989.5998608633</v>
+        <v>115663.1999536211</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>349452.7266193044</v>
+        <v>116484.2422064347</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>351950.7496418806</v>
+        <v>117316.9165472936</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>354484.1583085125</v>
+        <v>118161.3861028375</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>357053.44755545</v>
+        <v>119017.8158518167</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>359659.11799257</v>
+        <v>119886.3726641901</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>362301.6760285049</v>
+        <v>120767.225342835</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>364981.6340037716</v>
+        <v>121660.544667924</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>367699.5103320757</v>
+        <v>122566.5034440252</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>370455.8296499404</v>
+        <v>123485.2765499801</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>373251.1229748193</v>
+        <v>124417.0409916064</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>376085.927871837</v>
+        <v>125361.9759572789</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>378960.7886292958</v>
+        <v>126320.262876432</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>381876.2564430892</v>
+        <v>127292.0854810297</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>384832.8896101413</v>
+        <v>128277.6298700471</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>387831.2537310043</v>
+        <v>129277.0845770014</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>390871.9219217273</v>
+        <v>130290.6406405757</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>393955.4750351128</v>
+        <v>131318.491678371</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>397082.501891468</v>
+        <v>132360.8339638227</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>400253.5995189323</v>
+        <v>133417.8665063108</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>403469.3734035591</v>
+        <v>134489.7911345197</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>406730.4377491747</v>
+        <v>135576.8125830583</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>410037.4157471403</v>
+        <v>136679.1385823801</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>413390.9398561041</v>
+        <v>137796.9799520347</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>416791.6520918431</v>
+        <v>138930.550697281</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>420240.204327276</v>
+        <v>140080.068109092</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>423737.2586027455</v>
+        <v>141245.7528675818</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>427283.487446653</v>
+        <v>142427.8291488844</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>430879.5742065363</v>
+        <v>143626.5247355121</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>434526.2133906751</v>
+        <v>144842.071130225</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>438224.1110203149</v>
+        <v>146074.7036734383</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>441973.9849925995</v>
+        <v>147324.6616641998</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>445776.5654542907</v>
+        <v>148592.1884847636</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>449632.595186382</v>
+        <v>149877.531728794</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>453542.8299996743</v>
+        <v>151180.9433332249</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>457508.0391414246</v>
+        <v>152502.6797138083</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>461529.0057131489</v>
+        <v>153843.001904383</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>465606.5270996726</v>
+        <v>155202.1756998908</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>469741.4154095265</v>
+        <v>156580.4718031755</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>473934.4979267766</v>
+        <v>157978.1659755921</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>478186.61757439</v>
+        <v>159395.5391914634</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>482498.6333892205</v>
+        <v>160832.8777964069</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>486871.4210087234</v>
+        <v>162290.4736695746</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>491305.8731694774</v>
+        <v>163768.6243898259</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>495802.9002176187</v>
+        <v>165267.6334058729</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>500363.4306312723</v>
+        <v>166787.8102104242</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>504988.4115550739</v>
+        <v>168329.4705183579</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>509678.8093468602</v>
+        <v>169892.9364489534</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>514435.6101366181</v>
+        <v>171478.536712206</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>519259.820397765</v>
+        <v>173086.606799255</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>524152.4675308322</v>
+        <v>174717.489176944</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>529114.6004596144</v>
+        <v>176371.5334865383</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>534147.2902398458</v>
+        <v>178049.0967466153</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>539251.6306804394</v>
+        <v>179750.5435601464</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>544428.7389773368</v>
+        <v>181476.2463257789</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>549679.7563599845</v>
+        <v>183226.5854533282</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>555005.8487504424</v>
+        <v>185001.9495834807</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>560408.2074351287</v>
+        <v>186802.7358117095</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>565888.0497491665</v>
+        <v>188629.3499163888</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>571446.6197732913</v>
+        <v>190482.2065910971</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>577085.1890432568</v>
+        <v>192361.7296810855</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>582805.0572716413</v>
+        <v>194268.3524238803</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>588607.5530819532</v>
+        <v>196202.5176939843</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>594494.034754876</v>
+        <v>198164.6782516253</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>600465.8909864889</v>
+        <v>200155.2969954962</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>606524.5416582463</v>
+        <v>202174.8472194154</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>612671.4386184823</v>
+        <v>204223.8128728275</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>618908.0664751426</v>
+        <v>206302.6888250474</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>625235.9433994255</v>
+        <v>208411.9811331417</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>631656.6219399656</v>
+        <v>210552.2073133218</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>638171.6898471242</v>
+        <v>212723.896615708</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>644782.7709069295</v>
+        <v>214927.5903023097</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>651491.5257841346</v>
+        <v>217163.8419280449</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>658299.6528738079</v>
+        <v>219433.2176246027</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>665208.8891608036</v>
+        <v>221736.2963869347</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>672221.0110864117</v>
+        <v>224073.6703621373</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>679337.835421382</v>
+        <v>226445.9451404606</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>686561.2201444913</v>
+        <v>228853.7400481637</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>693893.0653256988</v>
+        <v>231297.6884418996</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>701335.314012876</v>
+        <v>233778.4380042921</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>708889.9531210224</v>
+        <v>236296.6510403409</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>716559.0143227541</v>
+        <v>238853.0047742512</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>724344.5749387913</v>
+        <v>241448.1916462638</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>732248.758827064</v>
+        <v>244082.9196090214</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>740273.7372689296</v>
+        <v>246757.9124229765</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>748421.7298509241</v>
+        <v>249473.9099503081</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>756695.0053403305</v>
+        <v>252231.668446777</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>765095.8825527519</v>
+        <v>255031.9608509171</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>773626.7312097271</v>
+        <v>257875.5770699089</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>782289.9727843517</v>
+        <v>260763.3242614506</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>791088.0813326794</v>
+        <v>263696.0271108931</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>800023.5843085918</v>
+        <v>266674.528102864</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>809099.0633596792</v>
+        <v>269699.6877865597</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>818317.1551015048</v>
+        <v>272772.3850338351</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>827680.5518675356</v>
+        <v>275893.5172891786</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>837192.0024318154</v>
+        <v>279064.0008106052</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>846854.312701356</v>
+        <v>282284.770900452</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>856670.346375039</v>
+        <v>285556.7821250129</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>866643.0255656763</v>
+        <v>288881.0085218922</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>876775.3313817157</v>
+        <v>292258.4437939053</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>887070.3044649207</v>
+        <v>295690.1014883069</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>897531.0454801938</v>
+        <v>299177.0151600649</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>908160.7155535422</v>
+        <v>302720.2385178475</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>918962.536654025</v>
+        <v>306320.8455513418</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>929939.791915379</v>
+        <v>309979.9306384596</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>941095.8258928105</v>
+        <v>313698.6086309368</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>952434.0447503353</v>
+        <v>317478.0149167784</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>963957.9163738508</v>
+        <v>321319.3054579503</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>975670.9704049787</v>
+        <v>325223.6568016593</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>987576.7981905874</v>
+        <v>329192.2660635294</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>999679.0526427121</v>
+        <v>333226.3508809042</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1011981.448003486</v>
+        <v>337327.1493344952</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1024487.759509552</v>
+        <v>341495.9198365174</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1037201.822950287</v>
+        <v>345733.940983429</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1050127.534114054</v>
+        <v>350042.5113713513</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1063268.848116598</v>
+        <v>354422.9493721995</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1076629.778605609</v>
+        <v>358876.5928685363</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1090214.396835345</v>
+        <v>363404.7989451154</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1257115.036895679</v>
+        <v>419038.345631893</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1426610.529747827</v>
+        <v>475536.8432492758</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1598744.916083281</v>
+        <v>532914.9720277603</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1773562.785463792</v>
+        <v>591187.5951545972</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1951109.261696993</v>
+        <v>650369.7538989979</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>2131429.986443242</v>
+        <v>710476.6621477475</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>2314571.100985378</v>
+        <v>771523.7003284598</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>2500579.226093488</v>
+        <v>833526.4086978293</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>2689501.439917476</v>
+        <v>896500.4799724922</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>2881385.253841698</v>
+        <v>960461.7512805666</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>3076278.586237024</v>
+        <v>1025426.195412341</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>3274229.734047352</v>
+        <v>1091409.911349117</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>3475287.342149931</v>
+        <v>1158429.114049977</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>3679500.370431011</v>
+        <v>1226500.123477004</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>3886918.058521098</v>
+        <v>1295639.352840366</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>4097589.888137488</v>
+        <v>1365863.29604583</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>4311565.542984924</v>
+        <v>1437188.514328308</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>4528894.866169413</v>
+        <v>1509631.622056471</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>4749627.815084763</v>
+        <v>1583209.271694921</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>4973814.413735781</v>
+        <v>1657938.137911927</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>5201504.702467853</v>
+        <v>1733834.900822618</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>5432748.685077859</v>
+        <v>1810916.228359287</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>5667596.273288168</v>
+        <v>1889198.757762723</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>5906097.22857149</v>
+        <v>1968699.076190497</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>6148301.101321952</v>
+        <v>2049433.700440652</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>6394257.167375253</v>
+        <v>2131419.055791752</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>6644014.361888752</v>
+        <v>2214671.453962918</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>6897621.210600981</v>
+        <v>2299207.070200328</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>7155125.758499053</v>
+        <v>2385041.919499685</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>7416575.495931973</v>
+        <v>2472191.831977326</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>7682017.282217473</v>
+        <v>2560672.427405825</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>7951497.266800604</v>
+        <v>2650499.088933536</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>8225060.808032771</v>
+        <v>2741686.936010925</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>8502752.389650924</v>
+        <v>2834250.796550309</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>8784615.535048174</v>
+        <v>2928205.178349393</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>9070692.719438449</v>
+        <v>3023564.239812817</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>9361025.280029736</v>
+        <v>3120341.760009915</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>9655653.324332999</v>
+        <v>3218551.108111001</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>9954615.636745347</v>
+        <v>3318205.21224845</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>10257949.58355894</v>
+        <v>3419316.52785298</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>10565691.01655947</v>
+        <v>3521897.005519824</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>10877874.17539001</v>
+        <v>3625958.058463337</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>11194531.58886902</v>
+        <v>3731510.529623009</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>11515693.97546258</v>
+        <v>3838564.658487528</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>11841390.14312382</v>
+        <v>3947130.047707942</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>12171646.88872316</v>
+        <v>4057215.62957439</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>12506488.89730519</v>
+        <v>4168829.632435063</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>12845938.64141782</v>
+        <v>4281979.547139274</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>13190016.2807707</v>
+        <v>4396672.093590233</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>13538739.56248846</v>
+        <v>4512913.187496155</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>13892123.7222342</v>
+        <v>4630707.907411404</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14250181.38648617</v>
+        <v>4750060.462162058</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>14612922.47625818</v>
+        <v>4870974.15875273</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>14980354.11256073</v>
+        <v>4993451.370853576</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>15352480.52390479</v>
+        <v>5117493.507968266</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>15343870.05609418</v>
+        <v>5114623.352031394</v>
       </c>
       <c r="C358" t="n">
-        <v>369046.258249862</v>
+        <v>123015.419416621</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>15335007.29013677</v>
+        <v>5111669.096712261</v>
       </c>
       <c r="C359" t="n">
-        <v>742828.7115434151</v>
+        <v>247609.5705144723</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>15325879.6117861</v>
+        <v>5108626.537262034</v>
       </c>
       <c r="C360" t="n">
-        <v>1121354.670588481</v>
+        <v>373784.8901961613</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>15316473.78048362</v>
+        <v>5105491.260161207</v>
       </c>
       <c r="C361" t="n">
-        <v>1504628.947460729</v>
+        <v>501542.9824869109</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>15306775.90543684</v>
+        <v>5102258.635145618</v>
       </c>
       <c r="C362" t="n">
-        <v>1892653.804165306</v>
+        <v>630884.6013884367</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>15296771.42132337</v>
+        <v>5098923.807107791</v>
       </c>
       <c r="C363" t="n">
-        <v>2285428.905291776</v>
+        <v>761809.6350972609</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>15286445.06366115</v>
+        <v>5095481.687887051</v>
       </c>
       <c r="C364" t="n">
-        <v>2682951.275016111</v>
+        <v>894317.0916720394</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>15275780.84389077</v>
+        <v>5091926.947963589</v>
       </c>
       <c r="C365" t="n">
-        <v>3085215.258692663</v>
+        <v>1028405.086230891</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>15264762.02422051</v>
+        <v>5088254.008073505</v>
       </c>
       <c r="C366" t="n">
-        <v>3492212.489267806</v>
+        <v>1164070.829755938</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>15253371.09229142</v>
+        <v>5084457.030763809</v>
       </c>
       <c r="C367" t="n">
-        <v>3903931.858733693</v>
+        <v>1301310.619577901</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>15241589.73572542</v>
+        <v>5080529.911908473</v>
       </c>
       <c r="C368" t="n">
-        <v>4320359.494824413</v>
+        <v>1440119.831608142</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>15229398.81662627</v>
+        <v>5076466.272208759</v>
       </c>
       <c r="C369" t="n">
-        <v>4741478.743140664</v>
+        <v>1580492.914380226</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>15216778.34611044</v>
+        <v>5072259.448703483</v>
       </c>
       <c r="C370" t="n">
-        <v>5167270.154869087</v>
+        <v>1722423.384956367</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>15203707.45895199</v>
+        <v>5067902.486317332</v>
       </c>
       <c r="C371" t="n">
-        <v>5597711.480242198</v>
+        <v>1865903.826747404</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>15190164.38843382</v>
+        <v>5063388.129477942</v>
       </c>
       <c r="C372" t="n">
-        <v>6032777.667862197</v>
+        <v>2010925.889287404</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>15176126.4415057</v>
+        <v>5058708.813835231</v>
       </c>
       <c r="C373" t="n">
-        <v>6032742.944899627</v>
+        <v>2010914.314966547</v>
       </c>
       <c r="D373" t="n">
-        <v>439069.8257867363</v>
+        <v>146356.6085955788</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>15161569.97435804</v>
+        <v>5053856.658119347</v>
       </c>
       <c r="C374" t="n">
-        <v>6032702.766434887</v>
+        <v>2010900.922144968</v>
       </c>
       <c r="D374" t="n">
-        <v>882704.9580422784</v>
+        <v>294234.986014093</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>15146470.36852993</v>
+        <v>5048823.456176646</v>
       </c>
       <c r="C375" t="n">
-        <v>6032656.335425932</v>
+        <v>2010885.445141983</v>
       </c>
       <c r="D375" t="n">
-        <v>1330872.839997387</v>
+        <v>443624.2799991292</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>15130802.00767867</v>
+        <v>5043600.669226223</v>
       </c>
       <c r="C376" t="n">
-        <v>6032602.74829444</v>
+        <v>2010867.582764819</v>
       </c>
       <c r="D376" t="n">
-        <v>1783538.281065708</v>
+        <v>594512.7603552365</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>15114538.25514836</v>
+        <v>5038179.418382789</v>
       </c>
       <c r="C377" t="n">
-        <v>6032540.982237659</v>
+        <v>2010846.994079225</v>
       </c>
       <c r="D377" t="n">
-        <v>2240663.499053048</v>
+        <v>746887.8330176834</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>15097651.43248526</v>
+        <v>5032550.47749509</v>
       </c>
       <c r="C378" t="n">
-        <v>6032469.881259516</v>
+        <v>2010823.293753177</v>
       </c>
       <c r="D378" t="n">
-        <v>2702208.169673411</v>
+        <v>900736.056557804</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>15080112.7990575</v>
+        <v>5026704.266352499</v>
       </c>
       <c r="C379" t="n">
-        <v>6032388.140824218</v>
+        <v>2010796.046941411</v>
       </c>
       <c r="D379" t="n">
-        <v>3168129.483389604</v>
+        <v>1056043.161129869</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>15061892.53294807</v>
+        <v>5020630.844316023</v>
       </c>
       <c r="C380" t="n">
-        <v>6032294.291032849</v>
+        <v>2010764.763677621</v>
       </c>
       <c r="D380" t="n">
-        <v>3638382.209565253</v>
+        <v>1212794.069855085</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>15042959.71330057</v>
+        <v>5014319.904433526</v>
       </c>
       <c r="C381" t="n">
-        <v>6032186.678221223</v>
+        <v>2010728.892740412</v>
       </c>
       <c r="D381" t="n">
-        <v>4112918.76788273</v>
+        <v>1370972.922627578</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>15023282.30430817</v>
+        <v>5007760.768102725</v>
       </c>
       <c r="C382" t="n">
-        <v>6032063.444875812</v>
+        <v>2010687.814958609</v>
       </c>
       <c r="D382" t="n">
-        <v>4591689.306947669</v>
+        <v>1530563.102315891</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>15002827.14104753</v>
+        <v>5000942.380349181</v>
       </c>
       <c r="C383" t="n">
-        <v>6031922.507764026</v>
+        <v>2010640.835921347</v>
       </c>
       <c r="D383" t="n">
-        <v>4591680.700600526</v>
+        <v>1530560.23353351</v>
       </c>
       <c r="E383" t="n">
-        <v>546128.4089376653</v>
+        <v>182042.8029792222</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>14981559.91737066</v>
+        <v>4993853.305790223</v>
       </c>
       <c r="C384" t="n">
-        <v>6031761.534175422</v>
+        <v>2010587.17805848</v>
       </c>
       <c r="D384" t="n">
-        <v>4591670.440264329</v>
+        <v>1530556.813421444</v>
       </c>
       <c r="E384" t="n">
-        <v>1096926.386559249</v>
+        <v>365642.1288530838</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>14959445.17607833</v>
+        <v>4986481.725359446</v>
       </c>
       <c r="C385" t="n">
-        <v>6031577.916172199</v>
+        <v>2010525.972057405</v>
       </c>
       <c r="D385" t="n">
-        <v>4591658.228527992</v>
+        <v>1530552.742842665</v>
       </c>
       <c r="E385" t="n">
-        <v>1652330.805679337</v>
+        <v>550776.9352264471</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>14936446.30161009</v>
+        <v>4978815.433870031</v>
       </c>
       <c r="C386" t="n">
-        <v>6031368.742750021</v>
+        <v>2010456.247583346</v>
       </c>
       <c r="D386" t="n">
-        <v>4591643.718579382</v>
+        <v>1530547.906193128</v>
       </c>
       <c r="E386" t="n">
-        <v>2212276.460462009</v>
+        <v>737425.4868206712</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>14912525.51549609</v>
+        <v>4970841.838498699</v>
       </c>
       <c r="C387" t="n">
-        <v>6031130.769814787</v>
+        <v>2010376.923271601</v>
       </c>
       <c r="D387" t="n">
-        <v>4591626.50677173</v>
+        <v>1530542.168923911</v>
       </c>
       <c r="E387" t="n">
-        <v>2776696.201569538</v>
+        <v>925565.4005231817</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>14887643.87482646</v>
+        <v>4962547.958275487</v>
       </c>
       <c r="C388" t="n">
-        <v>6030860.387886876</v>
+        <v>2010286.795962297</v>
       </c>
       <c r="D388" t="n">
-        <v>4591606.124209852</v>
+        <v>1530535.374736618</v>
       </c>
       <c r="E388" t="n">
-        <v>3345521.079132385</v>
+        <v>1115173.693044131</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>14861761.27400326</v>
+        <v>4953920.424667758</v>
       </c>
       <c r="C389" t="n">
-        <v>6030553.587452358</v>
+        <v>2010184.529150791</v>
       </c>
       <c r="D389" t="n">
-        <v>4591582.02725041</v>
+        <v>1530527.342416804</v>
       </c>
       <c r="E389" t="n">
-        <v>3918680.493267789</v>
+        <v>1306226.831089266</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>14834836.45004973</v>
+        <v>4944945.483349915</v>
       </c>
       <c r="C390" t="n">
-        <v>6030205.92189045</v>
+        <v>2010068.640630155</v>
       </c>
       <c r="D390" t="n">
-        <v>4591553.586802822</v>
+        <v>1530517.862267608</v>
       </c>
       <c r="E390" t="n">
-        <v>4496102.351835918</v>
+        <v>1498700.783945309</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>14806826.99175879</v>
+        <v>4935608.997252931</v>
       </c>
       <c r="C391" t="n">
-        <v>6029812.467918594</v>
+        <v>2009937.489306203</v>
       </c>
       <c r="D391" t="n">
-        <v>4591520.076309857</v>
+        <v>1530506.692103286</v>
       </c>
       <c r="E391" t="n">
-        <v>5077713.235082864</v>
+        <v>1692571.078360959</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>14777689.35297093</v>
+        <v>4925896.45099031</v>
       </c>
       <c r="C392" t="n">
-        <v>6029367.783510844</v>
+        <v>2009789.261170287</v>
       </c>
       <c r="D392" t="n">
-        <v>4591480.658279673</v>
+        <v>1530493.552759892</v>
       </c>
       <c r="E392" t="n">
-        <v>5663438.566780202</v>
+        <v>1887812.855593405</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>14747378.87027708</v>
+        <v>4915792.956759026</v>
       </c>
       <c r="C393" t="n">
-        <v>6028865.863262173</v>
+        <v>2009621.95442073</v>
       </c>
       <c r="D393" t="n">
-        <v>4591434.369233971</v>
+        <v>1530478.123077992</v>
       </c>
       <c r="E393" t="n">
-        <v>5663431.57031103</v>
+        <v>1887810.523437015</v>
       </c>
       <c r="F393" t="n">
-        <v>666141.6868312198</v>
+        <v>222047.2289437397</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>14715849.78544696</v>
+        <v>4905283.261815657</v>
       </c>
       <c r="C394" t="n">
-        <v>6028300.091190714</v>
+        <v>2009433.363730243</v>
       </c>
       <c r="D394" t="n">
-        <v>4591380.102930536</v>
+        <v>1530460.03431018</v>
       </c>
       <c r="E394" t="n">
-        <v>5663423.096529177</v>
+        <v>1887807.698843064</v>
       </c>
       <c r="F394" t="n">
-        <v>1336760.699340148</v>
+        <v>445586.8997800488</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>14683055.27288686</v>
+        <v>4894351.757628955</v>
       </c>
       <c r="C395" t="n">
-        <v>6027663.190992304</v>
+        <v>2009221.063664107</v>
       </c>
       <c r="D395" t="n">
-        <v>4591316.591712602</v>
+        <v>1530438.863904202</v>
       </c>
       <c r="E395" t="n">
-        <v>5663412.852991556</v>
+        <v>1887804.284330523</v>
       </c>
       <c r="F395" t="n">
-        <v>2011770.441514305</v>
+        <v>670590.1471714342</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>14648947.47243186</v>
+        <v>4882982.490810622</v>
       </c>
       <c r="C396" t="n">
-        <v>6026947.173786768</v>
+        <v>2008982.391262261</v>
       </c>
       <c r="D396" t="n">
-        <v>4591242.38583268</v>
+        <v>1530414.128610894</v>
       </c>
       <c r="E396" t="n">
-        <v>5663400.493614115</v>
+        <v>1887800.164538043</v>
       </c>
       <c r="F396" t="n">
-        <v>2691083.90782603</v>
+        <v>897027.9692753423</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>14613477.5277778</v>
+        <v>4871159.175925937</v>
       </c>
       <c r="C397" t="n">
-        <v>6026143.283423471</v>
+        <v>2008714.42780783</v>
       </c>
       <c r="D397" t="n">
-        <v>4591155.830594744</v>
+        <v>1530385.276864915</v>
       </c>
       <c r="E397" t="n">
-        <v>5663385.609713276</v>
+        <v>1887795.203237763</v>
       </c>
       <c r="F397" t="n">
-        <v>3374613.91507973</v>
+        <v>1124871.305026575</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>14576595.63085521</v>
+        <v>4858865.210285073</v>
       </c>
       <c r="C398" t="n">
-        <v>6025241.939444857</v>
+        <v>2008413.979814958</v>
       </c>
       <c r="D398" t="n">
-        <v>4591055.041156439</v>
+        <v>1530351.680385481</v>
       </c>
       <c r="E398" t="n">
-        <v>5663367.719723918</v>
+        <v>1887789.239907977</v>
       </c>
       <c r="F398" t="n">
-        <v>4062273.339445177</v>
+        <v>1354091.113148391</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>14538251.07244312</v>
+        <v>4846083.690814374</v>
       </c>
       <c r="C399" t="n">
-        <v>6024232.677840692</v>
+        <v>2008077.559280235</v>
       </c>
       <c r="D399" t="n">
-        <v>4590937.874832399</v>
+        <v>1530312.624944134</v>
       </c>
       <c r="E399" t="n">
-        <v>5663346.257430359</v>
+        <v>1887782.085810123</v>
       </c>
       <c r="F399" t="n">
-        <v>4753975.358078297</v>
+        <v>1584658.452692764</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>14498392.29931314</v>
+        <v>4832797.433104382</v>
       </c>
       <c r="C400" t="n">
-        <v>6023104.089763085</v>
+        <v>2007701.363254367</v>
       </c>
       <c r="D400" t="n">
-        <v>4590801.900741143</v>
+        <v>1530267.300247049</v>
       </c>
       <c r="E400" t="n">
-        <v>5663320.558532322</v>
+        <v>1887773.519510778</v>
       </c>
       <c r="F400" t="n">
-        <v>5449633.694692808</v>
+        <v>1816544.564897601</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>14456966.9781845</v>
+        <v>4818988.99272817</v>
       </c>
       <c r="C401" t="n">
-        <v>6021843.758412328</v>
+        <v>2007281.252804115</v>
       </c>
       <c r="D401" t="n">
-        <v>4590644.366641837</v>
+        <v>1530214.788880614</v>
       </c>
       <c r="E401" t="n">
-        <v>5663289.845352948</v>
+        <v>1887763.28178432</v>
       </c>
       <c r="F401" t="n">
-        <v>6149162.868410095</v>
+        <v>2049720.956136697</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>14413922.06675763</v>
+        <v>4804640.688919213</v>
       </c>
       <c r="C402" t="n">
-        <v>6020438.194346655</v>
+        <v>2006812.73144889</v>
       </c>
       <c r="D402" t="n">
-        <v>4590462.162813552</v>
+        <v>1530154.054271185</v>
       </c>
       <c r="E402" t="n">
-        <v>5663253.209480912</v>
+        <v>1887751.069826976</v>
       </c>
       <c r="F402" t="n">
-        <v>6852478.445173927</v>
+        <v>2284159.481724639</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>14369203.89207827</v>
+        <v>4789734.630692758</v>
       </c>
       <c r="C403" t="n">
-        <v>6018872.769514706</v>
+        <v>2006290.923171574</v>
       </c>
       <c r="D403" t="n">
-        <v>4590251.782839049</v>
+        <v>1530083.927613017</v>
       </c>
       <c r="E403" t="n">
-        <v>5663209.592123887</v>
+        <v>1887736.530707966</v>
       </c>
       <c r="F403" t="n">
-        <v>6852472.441072792</v>
+        <v>2284157.480357595</v>
       </c>
       <c r="G403" t="n">
-        <v>674827.3945186753</v>
+        <v>224942.464839558</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>14322758.2364648</v>
+        <v>4774252.745488269</v>
       </c>
       <c r="C404" t="n">
-        <v>6017131.65035757</v>
+        <v>2005710.550119195</v>
       </c>
       <c r="D404" t="n">
-        <v>4590009.281167857</v>
+        <v>1530003.09372262</v>
       </c>
       <c r="E404" t="n">
-        <v>5663157.761935993</v>
+        <v>1887719.253978669</v>
       </c>
       <c r="F404" t="n">
-        <v>6852465.070436298</v>
+        <v>2284155.023478764</v>
       </c>
       <c r="G404" t="n">
-        <v>1353112.853277324</v>
+        <v>451037.6177591073</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>14274530.43120908</v>
+        <v>4758176.810403028</v>
       </c>
       <c r="C405" t="n">
-        <v>6015197.730377648</v>
+        <v>2005065.910125887</v>
       </c>
       <c r="D405" t="n">
-        <v>4589730.227349828</v>
+        <v>1529910.075783277</v>
       </c>
       <c r="E405" t="n">
-        <v>5663096.290068233</v>
+        <v>1887698.763356082</v>
       </c>
       <c r="F405" t="n">
-        <v>6852456.04127172</v>
+        <v>2284152.013757237</v>
       </c>
       <c r="G405" t="n">
-        <v>2034780.516704278</v>
+        <v>678260.1722347578</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>14224465.45823498</v>
+        <v>4741488.486078325</v>
       </c>
       <c r="C406" t="n">
-        <v>6013052.562623712</v>
+        <v>2004350.854207909</v>
       </c>
       <c r="D406" t="n">
-        <v>4589409.65685079</v>
+        <v>1529803.218950264</v>
       </c>
       <c r="E406" t="n">
-        <v>5663023.522178038</v>
+        <v>1887674.507392684</v>
       </c>
       <c r="F406" t="n">
-        <v>6852445.003651755</v>
+        <v>2284148.334550582</v>
       </c>
       <c r="G406" t="n">
-        <v>2719756.549048917</v>
+        <v>906585.5163496373</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>14172508.05986926</v>
+        <v>4724169.353289754</v>
       </c>
       <c r="C407" t="n">
-        <v>6010676.292595148</v>
+        <v>2003558.764198388</v>
       </c>
       <c r="D407" t="n">
-        <v>4589042.018386756</v>
+        <v>1529680.672795586</v>
       </c>
       <c r="E407" t="n">
-        <v>5662937.547122998</v>
+        <v>1887645.849041004</v>
       </c>
       <c r="F407" t="n">
-        <v>6852431.53921156</v>
+        <v>2284143.846403851</v>
       </c>
       <c r="G407" t="n">
-        <v>3407969.389015927</v>
+        <v>1135989.79633864</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>14118602.85684608</v>
+        <v>4706200.952282028</v>
       </c>
       <c r="C408" t="n">
-        <v>6008047.592122842</v>
+        <v>2002682.53070762</v>
       </c>
       <c r="D408" t="n">
-        <v>4588621.117742587</v>
+        <v>1529540.372580864</v>
       </c>
       <c r="E408" t="n">
-        <v>5662836.162054595</v>
+        <v>1887612.054018203</v>
       </c>
       <c r="F408" t="n">
-        <v>6852415.148950765</v>
+        <v>2284138.382983586</v>
       </c>
       <c r="G408" t="n">
-        <v>4099349.999518858</v>
+        <v>1366449.999839616</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>14062694.47462919</v>
+        <v>4687564.824876399</v>
       </c>
       <c r="C409" t="n">
-        <v>6005143.594839156</v>
+        <v>2001714.531613057</v>
       </c>
       <c r="D409" t="n">
-        <v>4588140.05807547</v>
+        <v>1529380.019358491</v>
       </c>
       <c r="E409" t="n">
-        <v>5662716.833621044</v>
+        <v>1887572.277873686</v>
       </c>
       <c r="F409" t="n">
-        <v>6852395.239108481</v>
+        <v>2284131.746369491</v>
       </c>
       <c r="G409" t="n">
-        <v>4793832.115786484</v>
+        <v>1597944.038595491</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>14004727.67809511</v>
+        <v>4668242.559365039</v>
       </c>
       <c r="C410" t="n">
-        <v>6001939.833903953</v>
+        <v>2000646.611301323</v>
       </c>
       <c r="D410" t="n">
-        <v>4587591.176743126</v>
+        <v>1529197.058914376</v>
       </c>
       <c r="E410" t="n">
-        <v>5662576.654984881</v>
+        <v>1887525.551661632</v>
       </c>
       <c r="F410" t="n">
-        <v>6852371.104855502</v>
+        <v>2284123.701618498</v>
       </c>
       <c r="G410" t="n">
-        <v>5491352.49102117</v>
+        <v>1830450.830340387</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>13944647.51457571</v>
+        <v>4648215.838191906</v>
       </c>
       <c r="C411" t="n">
-        <v>5998410.182707497</v>
+        <v>1999470.060902504</v>
       </c>
       <c r="D411" t="n">
-        <v>4586965.978741641</v>
+        <v>1528988.659580548</v>
       </c>
       <c r="E411" t="n">
-        <v>5662412.298360977</v>
+        <v>1887470.766120331</v>
       </c>
       <c r="F411" t="n">
-        <v>6852341.911522999</v>
+        <v>2284113.970507664</v>
       </c>
       <c r="G411" t="n">
-        <v>6191851.138778014</v>
+        <v>2063950.379592667</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>13882399.46521039</v>
+        <v>4627466.488403467</v>
       </c>
       <c r="C412" t="n">
-        <v>5994526.799322886</v>
+        <v>1998175.599774301</v>
       </c>
       <c r="D412" t="n">
-        <v>4586255.066888232</v>
+        <v>1528751.688962745</v>
       </c>
       <c r="E412" t="n">
-        <v>5662219.962785373</v>
+        <v>1887406.654261796</v>
       </c>
       <c r="F412" t="n">
-        <v>6852306.673061281</v>
+        <v>2284102.224353758</v>
       </c>
       <c r="G412" t="n">
-        <v>6895271.571194394</v>
+        <v>2298423.857064793</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>13817929.60450576</v>
+        <v>4605976.534835255</v>
       </c>
       <c r="C413" t="n">
-        <v>5990260.07553021</v>
+        <v>1996753.358510075</v>
       </c>
       <c r="D413" t="n">
-        <v>4585448.068940195</v>
+        <v>1528482.689646732</v>
       </c>
       <c r="E413" t="n">
-        <v>5661995.316834955</v>
+        <v>1887331.772278323</v>
       </c>
       <c r="F413" t="n">
-        <v>6852264.227396213</v>
+        <v>2284088.075798735</v>
       </c>
       <c r="G413" t="n">
-        <v>6895266.94761903</v>
+        <v>2298422.315873006</v>
       </c>
       <c r="H413" t="n">
-        <v>758614.8883705074</v>
+        <v>252871.6294568353</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>13751184.76794523</v>
+        <v>4583728.255981747</v>
       </c>
       <c r="C414" t="n">
-        <v>5985578.591280624</v>
+        <v>1995192.863760213</v>
       </c>
       <c r="D414" t="n">
-        <v>4584533.561902706</v>
+        <v>1528177.853967569</v>
       </c>
       <c r="E414" t="n">
-        <v>5661733.436033663</v>
+        <v>1887244.478677892</v>
       </c>
       <c r="F414" t="n">
-        <v>6852213.208324623</v>
+        <v>2284071.069441538</v>
       </c>
       <c r="G414" t="n">
-        <v>6895261.209971328</v>
+        <v>2298420.403323771</v>
       </c>
       <c r="H414" t="n">
-        <v>1520260.121610327</v>
+        <v>506753.373870108</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>13682112.72743219</v>
+        <v>4560704.242477397</v>
       </c>
       <c r="C415" t="n">
-        <v>5980449.075510173</v>
+        <v>1993483.025170063</v>
       </c>
       <c r="D415" t="n">
-        <v>4583498.993844897</v>
+        <v>1527832.9979483</v>
       </c>
       <c r="E415" t="n">
-        <v>5661428.734703096</v>
+        <v>1887142.911567703</v>
       </c>
       <c r="F415" t="n">
-        <v>6852152.013564395</v>
+        <v>2284050.671188129</v>
       </c>
       <c r="G415" t="n">
-        <v>6895254.105995435</v>
+        <v>2298418.035331806</v>
       </c>
       <c r="H415" t="n">
-        <v>2284888.047345037</v>
+        <v>761629.3491150108</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>13610662.37428804</v>
+        <v>4536887.458096018</v>
       </c>
       <c r="C416" t="n">
-        <v>5974836.37424948</v>
+        <v>1991612.124749833</v>
       </c>
       <c r="D416" t="n">
-        <v>4582330.603615457</v>
+        <v>1527443.534538487</v>
       </c>
       <c r="E416" t="n">
-        <v>5661074.892045092</v>
+        <v>1887024.964015035</v>
       </c>
       <c r="F416" t="n">
-        <v>6852078.768550247</v>
+        <v>2284026.256183413</v>
       </c>
       <c r="G416" t="n">
-        <v>6895245.330319976</v>
+        <v>2298415.110106654</v>
       </c>
       <c r="H416" t="n">
-        <v>3052455.786743521</v>
+        <v>1017485.262247839</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>13536783.90946218</v>
+        <v>4512261.303154061</v>
       </c>
       <c r="C417" t="n">
-        <v>5968703.427005442</v>
+        <v>1989567.809001819</v>
       </c>
       <c r="D417" t="n">
-        <v>4581013.338925501</v>
+        <v>1527004.446308501</v>
       </c>
       <c r="E417" t="n">
-        <v>5660664.772281627</v>
+        <v>1886888.257427214</v>
       </c>
       <c r="F417" t="n">
-        <v>6851991.285543174</v>
+        <v>2283997.095181056</v>
       </c>
       <c r="G417" t="n">
-        <v>6895234.514214596</v>
+        <v>2298411.504738193</v>
       </c>
       <c r="H417" t="n">
-        <v>3822925.463527738</v>
+        <v>1274308.487842577</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>13460429.04054305</v>
+        <v>4486809.680181016</v>
       </c>
       <c r="C418" t="n">
-        <v>5962011.252413536</v>
+        <v>1987337.084137851</v>
       </c>
       <c r="D418" t="n">
-        <v>4579530.773347253</v>
+        <v>1526510.257782419</v>
       </c>
       <c r="E418" t="n">
-        <v>5660190.338724136</v>
+        <v>1886730.11290805</v>
       </c>
       <c r="F418" t="n">
-        <v>6851887.017601041</v>
+        <v>2283962.339200344</v>
       </c>
       <c r="G418" t="n">
-        <v>6895221.213580324</v>
+        <v>2298407.071193436</v>
       </c>
       <c r="H418" t="n">
-        <v>4596264.423815728</v>
+        <v>1532088.141271907</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>13381551.1850909</v>
+        <v>4460517.061696968</v>
       </c>
       <c r="C419" t="n">
-        <v>5954718.944173629</v>
+        <v>1984906.314724548</v>
       </c>
       <c r="D419" t="n">
-        <v>4577865.022861306</v>
+        <v>1525955.007620436</v>
       </c>
       <c r="E419" t="n">
-        <v>5659642.561700603</v>
+        <v>1886547.520566872</v>
       </c>
       <c r="F419" t="n">
-        <v>6851763.006940625</v>
+        <v>2283921.002313539</v>
       </c>
       <c r="G419" t="n">
-        <v>6895204.894913359</v>
+        <v>2298401.631637781</v>
       </c>
       <c r="H419" t="n">
-        <v>5372445.445770746</v>
+        <v>1790815.148590246</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>13300105.67974112</v>
+        <v>4433368.559913708</v>
       </c>
       <c r="C420" t="n">
-        <v>5946783.678286772</v>
+        <v>1982261.226095596</v>
       </c>
       <c r="D420" t="n">
-        <v>4575996.662672296</v>
+        <v>1525332.220890766</v>
       </c>
       <c r="E420" t="n">
-        <v>5659011.320335371</v>
+        <v>1886337.106778462</v>
       </c>
       <c r="F420" t="n">
-        <v>6851615.827208612</v>
+        <v>2283871.942402869</v>
       </c>
       <c r="G420" t="n">
-        <v>6895184.918952017</v>
+        <v>2298394.972984001</v>
       </c>
       <c r="H420" t="n">
-        <v>6151446.93798989</v>
+        <v>2050482.312663293</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>13216049.99445559</v>
+        <v>4405349.998151865</v>
       </c>
       <c r="C421" t="n">
-        <v>5938160.732604853</v>
+        <v>1979386.910868289</v>
       </c>
       <c r="D421" t="n">
-        <v>4573904.645101758</v>
+        <v>1524634.881700587</v>
       </c>
       <c r="E421" t="n">
-        <v>5658285.298253765</v>
+        <v>1886095.099417926</v>
       </c>
       <c r="F421" t="n">
-        <v>6851441.519171634</v>
+        <v>2283813.839723875</v>
       </c>
       <c r="G421" t="n">
-        <v>6895160.52168536</v>
+        <v>2298386.840561782</v>
       </c>
       <c r="H421" t="n">
-        <v>6933253.125524209</v>
+        <v>2311084.375174732</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>13129343.95122634</v>
+        <v>4376447.983742116</v>
       </c>
       <c r="C422" t="n">
-        <v>5928803.519687838</v>
+        <v>1976267.839895951</v>
       </c>
       <c r="D422" t="n">
-        <v>4571566.219456443</v>
+        <v>1523855.406485482</v>
       </c>
       <c r="E422" t="n">
-        <v>5657451.873372002</v>
+        <v>1885817.291124005</v>
       </c>
       <c r="F422" t="n">
-        <v>6851235.51933467</v>
+        <v>2283745.173111554</v>
       </c>
       <c r="G422" t="n">
-        <v>6895130.792369128</v>
+        <v>2298376.930789705</v>
       </c>
       <c r="H422" t="n">
-        <v>7717854.222376485</v>
+        <v>2572618.074125491</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>13039949.94646353</v>
+        <v>4346649.982154512</v>
       </c>
       <c r="C423" t="n">
-        <v>5918663.633933961</v>
+        <v>1972887.877977993</v>
       </c>
       <c r="D423" t="n">
-        <v>4568956.854859613</v>
+        <v>1522985.618286539</v>
       </c>
       <c r="E423" t="n">
-        <v>5656497.002032626</v>
+        <v>1885499.000677546</v>
       </c>
       <c r="F423" t="n">
-        <v>6850992.581004392</v>
+        <v>2283664.193668128</v>
       </c>
       <c r="G423" t="n">
-        <v>6895094.648160775</v>
+        <v>2298364.882720253</v>
       </c>
       <c r="H423" t="n">
-        <v>8505246.589276815</v>
+        <v>2835082.196425601</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>12947833.17622731</v>
+        <v>4315944.392075772</v>
       </c>
       <c r="C424" t="n">
-        <v>5907690.913905852</v>
+        <v>1969230.304635289</v>
       </c>
       <c r="D424" t="n">
-        <v>4566050.167119924</v>
+        <v>1522016.722373309</v>
       </c>
       <c r="E424" t="n">
-        <v>5655405.097856864</v>
+        <v>1885135.032618959</v>
       </c>
       <c r="F424" t="n">
-        <v>6850706.687330289</v>
+        <v>2283568.89577676</v>
       </c>
       <c r="G424" t="n">
-        <v>6895050.804950742</v>
+        <v>2298350.268316909</v>
       </c>
       <c r="H424" t="n">
-        <v>9295432.875483075</v>
+        <v>3098477.62516102</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>12852961.86339264</v>
+        <v>4284320.621130882</v>
       </c>
       <c r="C425" t="n">
-        <v>5895833.520719302</v>
+        <v>1965277.840239772</v>
       </c>
       <c r="D425" t="n">
-        <v>4562817.850796335</v>
+        <v>1520939.283598779</v>
       </c>
       <c r="E425" t="n">
-        <v>5654158.905807778</v>
+        <v>1884719.635269264</v>
       </c>
       <c r="F425" t="n">
-        <v>6850370.955883708</v>
+        <v>2283456.985294567</v>
       </c>
       <c r="G425" t="n">
-        <v>6894997.743932527</v>
+        <v>2298332.581310838</v>
       </c>
       <c r="H425" t="n">
-        <v>10088422.14330225</v>
+        <v>3362807.381100745</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>12755307.48576729</v>
+        <v>4251769.161922431</v>
       </c>
       <c r="C426" t="n">
-        <v>5883038.033290992</v>
+        <v>1961012.67776367</v>
       </c>
       <c r="D426" t="n">
-        <v>4559229.61769616</v>
+        <v>1519743.205898721</v>
       </c>
       <c r="E426" t="n">
-        <v>5652739.372091604</v>
+        <v>1884246.457363873</v>
       </c>
       <c r="F426" t="n">
-        <v>6849977.534374074</v>
+        <v>2283325.844791356</v>
       </c>
       <c r="G426" t="n">
-        <v>6894933.673419958</v>
+        <v>2298311.224473314</v>
       </c>
       <c r="H426" t="n">
-        <v>10884229.97396919</v>
+        <v>3628076.657989724</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>12654845.00411722</v>
+        <v>4218281.668039075</v>
       </c>
       <c r="C427" t="n">
-        <v>5869249.561156044</v>
+        <v>1956416.520385353</v>
       </c>
       <c r="D427" t="n">
-        <v>4555253.143115131</v>
+        <v>1518417.714371711</v>
       </c>
       <c r="E427" t="n">
-        <v>5651125.510668427</v>
+        <v>1883708.503556147</v>
       </c>
       <c r="F427" t="n">
-        <v>6849517.487154461</v>
+        <v>2283172.495718152</v>
       </c>
       <c r="G427" t="n">
-        <v>6894856.48538737</v>
+        <v>2298285.495129119</v>
       </c>
       <c r="H427" t="n">
-        <v>11682878.55346199</v>
+        <v>3894292.851153992</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>12551553.08899103</v>
+        <v>4183851.029663682</v>
       </c>
       <c r="C428" t="n">
-        <v>5854411.875466118</v>
+        <v>1951470.625155378</v>
       </c>
       <c r="D428" t="n">
-        <v>4550854.021191453</v>
+        <v>1516951.340397152</v>
       </c>
       <c r="E428" t="n">
-        <v>5649294.267296508</v>
+        <v>1883098.08909884</v>
       </c>
       <c r="F428" t="n">
-        <v>6848980.672236639</v>
+        <v>2282993.55741221</v>
       </c>
       <c r="G428" t="n">
-        <v>6894763.70617814</v>
+        <v>2298254.568726042</v>
       </c>
       <c r="H428" t="n">
-        <v>12484396.73677093</v>
+        <v>4161465.578923636</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>12445414.34517705</v>
+        <v>4148471.448392352</v>
       </c>
       <c r="C429" t="n">
-        <v>5838467.55866336</v>
+        <v>1946155.852887791</v>
       </c>
       <c r="D429" t="n">
-        <v>4545995.730798136</v>
+        <v>1515331.910266046</v>
       </c>
       <c r="E429" t="n">
-        <v>5647220.382196032</v>
+        <v>1882406.794065348</v>
       </c>
       <c r="F429" t="n">
-        <v>6848355.608620014</v>
+        <v>2282785.202873336</v>
       </c>
       <c r="G429" t="n">
-        <v>6894652.440800034</v>
+        <v>2298217.480266673</v>
       </c>
       <c r="H429" t="n">
-        <v>13288820.08907272</v>
+        <v>4429606.696357566</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>12336415.53257319</v>
+        <v>4112138.51085773</v>
       </c>
       <c r="C430" t="n">
-        <v>5821358.173195093</v>
+        <v>1940452.724398369</v>
       </c>
       <c r="D430" t="n">
-        <v>4540639.613437633</v>
+        <v>1513546.537812545</v>
       </c>
       <c r="E430" t="n">
-        <v>5644876.252585944</v>
+        <v>1881625.417528653</v>
       </c>
       <c r="F430" t="n">
-        <v>6847629.333840996</v>
+        <v>2282543.11128033</v>
       </c>
       <c r="G430" t="n">
-        <v>6894519.310203861</v>
+        <v>2298173.103401281</v>
       </c>
       <c r="H430" t="n">
-        <v>14096190.90219803</v>
+        <v>4698730.30073267</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>12224547.78220279</v>
+        <v>4074849.260734265</v>
       </c>
       <c r="C431" t="n">
-        <v>5803024.449489359</v>
+        <v>1934341.483163125</v>
       </c>
       <c r="D431" t="n">
-        <v>4534744.864627809</v>
+        <v>1511581.621542604</v>
       </c>
       <c r="E431" t="n">
-        <v>5642231.79652035</v>
+        <v>1880743.932173454</v>
       </c>
       <c r="F431" t="n">
-        <v>6846787.251770208</v>
+        <v>2282262.417256733</v>
       </c>
       <c r="G431" t="n">
-        <v>6894360.380925821</v>
+        <v>2298120.126975269</v>
       </c>
       <c r="H431" t="n">
-        <v>14906558.18471208</v>
+        <v>4968852.728237352</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>12109806.80606864</v>
+        <v>4036602.268689547</v>
       </c>
       <c r="C432" t="n">
-        <v>5783406.493252325</v>
+        <v>1927802.164417447</v>
       </c>
       <c r="D432" t="n">
-        <v>4528268.540276637</v>
+        <v>1509422.84675888</v>
       </c>
       <c r="E432" t="n">
-        <v>5639254.319626016</v>
+        <v>1879751.439875343</v>
       </c>
       <c r="F432" t="n">
-        <v>6845812.970825645</v>
+        <v>2281937.65694188</v>
       </c>
       <c r="G432" t="n">
-        <v>6894171.086465887</v>
+        <v>2298057.028821957</v>
       </c>
       <c r="H432" t="n">
-        <v>15719977.62386108</v>
+        <v>5239992.54128702</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>11992193.09950405</v>
+        <v>3997397.699834685</v>
       </c>
       <c r="C433" t="n">
-        <v>5762444.011976496</v>
+        <v>1920814.670658837</v>
       </c>
       <c r="D433" t="n">
-        <v>4521165.579532909</v>
+        <v>1507055.193177637</v>
       </c>
       <c r="E433" t="n">
-        <v>5635908.386517649</v>
+        <v>1878636.12883922</v>
       </c>
       <c r="F433" t="n">
-        <v>6844688.132931033</v>
+        <v>2281562.710977009</v>
       </c>
       <c r="G433" t="n">
-        <v>6893946.13977565</v>
+        <v>2297982.046591879</v>
       </c>
       <c r="H433" t="n">
-        <v>16536511.51757167</v>
+        <v>5512170.505857214</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>11871712.13465497</v>
+        <v>3957237.378218324</v>
       </c>
       <c r="C434" t="n">
-        <v>5740076.560364367</v>
+        <v>1913358.853454794</v>
       </c>
       <c r="D434" t="n">
-        <v>4513388.845569662</v>
+        <v>1504462.948523222</v>
       </c>
       <c r="E434" t="n">
-        <v>5632155.698839392</v>
+        <v>1877385.232946469</v>
       </c>
       <c r="F434" t="n">
-        <v>6843392.233730514</v>
+        <v>2281130.744576835</v>
       </c>
       <c r="G434" t="n">
-        <v>6893679.436241754</v>
+        <v>2297893.145413913</v>
       </c>
       <c r="H434" t="n">
-        <v>17356228.67462355</v>
+        <v>5785409.558207837</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>11748374.5437102</v>
+        <v>3916124.847903401</v>
       </c>
       <c r="C435" t="n">
-        <v>5716243.804177044</v>
+        <v>1905414.601392353</v>
       </c>
       <c r="D435" t="n">
-        <v>4504889.185704602</v>
+        <v>1501629.728568202</v>
       </c>
       <c r="E435" t="n">
-        <v>5627954.982046571</v>
+        <v>1875984.994015528</v>
       </c>
       <c r="F435" t="n">
-        <v>6841902.434773496</v>
+        <v>2280634.144924496</v>
       </c>
       <c r="G435" t="n">
-        <v>6893363.946576759</v>
+        <v>2297787.982192248</v>
       </c>
       <c r="H435" t="n">
-        <v>18179204.28105507</v>
+        <v>6059734.760351681</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>11622196.2904902</v>
+        <v>3874065.430163405</v>
       </c>
       <c r="C436" t="n">
-        <v>5690885.801813036</v>
+        <v>1896961.933937684</v>
       </c>
       <c r="D436" t="n">
-        <v>4495615.512185812</v>
+        <v>1498538.504061938</v>
       </c>
       <c r="E436" t="n">
-        <v>5623261.883197148</v>
+        <v>1874420.627732387</v>
       </c>
       <c r="F436" t="n">
-        <v>6840193.368606516</v>
+        <v>2280064.45620217</v>
       </c>
       <c r="G436" t="n">
-        <v>6892991.599070431</v>
+        <v>2297663.866356805</v>
       </c>
       <c r="H436" t="n">
-        <v>19005519.73080084</v>
+        <v>6335173.243600269</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>11493198.82900771</v>
+        <v>3831066.276335905</v>
       </c>
       <c r="C437" t="n">
-        <v>5663943.302710758</v>
+        <v>1887981.100903591</v>
       </c>
       <c r="D437" t="n">
-        <v>4485514.904870447</v>
+        <v>1495171.634956817</v>
       </c>
       <c r="E437" t="n">
-        <v>5618028.882163985</v>
+        <v>1872676.294054666</v>
       </c>
       <c r="F437" t="n">
-        <v>6838236.937951189</v>
+        <v>2279412.312650393</v>
       </c>
       <c r="G437" t="n">
-        <v>6892553.150712843</v>
+        <v>2297517.716904277</v>
       </c>
       <c r="H437" t="n">
-        <v>19835262.41851011</v>
+        <v>6611754.139503357</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>11361409.24762686</v>
+        <v>3787136.415875621</v>
       </c>
       <c r="C438" t="n">
-        <v>5635358.061451102</v>
+        <v>1878452.687150372</v>
       </c>
       <c r="D438" t="n">
-        <v>4474532.736898001</v>
+        <v>1491510.912299335</v>
       </c>
       <c r="E438" t="n">
-        <v>5612205.218802638</v>
+        <v>1870735.072934217</v>
       </c>
       <c r="F438" t="n">
-        <v>6836002.110407591</v>
+        <v>2278667.370135861</v>
       </c>
       <c r="G438" t="n">
-        <v>6892038.04677861</v>
+        <v>2297346.015592865</v>
       </c>
       <c r="H438" t="n">
-        <v>20668525.49244733</v>
+        <v>6889508.49748243</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>11226860.39747216</v>
+        <v>3742286.799157388</v>
       </c>
       <c r="C439" t="n">
-        <v>5605073.166216419</v>
+        <v>1868357.722072144</v>
       </c>
       <c r="D439" t="n">
-        <v>4462612.824307404</v>
+        <v>1487537.608102469</v>
       </c>
       <c r="E439" t="n">
-        <v>5605736.838710881</v>
+        <v>1868578.946236965</v>
       </c>
       <c r="F439" t="n">
-        <v>6833454.710398228</v>
+        <v>2277818.236799407</v>
       </c>
       <c r="G439" t="n">
-        <v>6891434.268560781</v>
+        <v>2297144.756186923</v>
       </c>
       <c r="H439" t="n">
-        <v>21505407.56534326</v>
+        <v>7168469.188447741</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>11089591.00377422</v>
+        <v>3696530.334591406</v>
       </c>
       <c r="C440" t="n">
-        <v>5573033.380041427</v>
+        <v>1857677.793347147</v>
       </c>
       <c r="D440" t="n">
-        <v>4449697.6003686</v>
+        <v>1483232.533456201</v>
       </c>
       <c r="E440" t="n">
-        <v>5598566.360290937</v>
+        <v>1866188.78676365</v>
       </c>
       <c r="F440" t="n">
-        <v>6830557.210356526</v>
+        <v>2276852.403452173</v>
       </c>
       <c r="G440" t="n">
-        <v>6890728.169065649</v>
+        <v>2296909.389688545</v>
       </c>
       <c r="H440" t="n">
-        <v>22346012.38103905</v>
+        <v>7448670.793679669</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>10949645.75888623</v>
+        <v>3649881.919628747</v>
       </c>
       <c r="C441" t="n">
-        <v>5539185.493073068</v>
+        <v>1846395.164357694</v>
       </c>
       <c r="D441" t="n">
-        <v>4435728.315194562</v>
+        <v>1478576.105064855</v>
       </c>
       <c r="E441" t="n">
-        <v>5590633.065869413</v>
+        <v>1863544.355289809</v>
       </c>
       <c r="F441" t="n">
-        <v>6827268.523462156</v>
+        <v>2275756.174487383</v>
       </c>
       <c r="G441" t="n">
-        <v>6889904.296627298</v>
+        <v>2296634.765542428</v>
       </c>
       <c r="H441" t="n">
-        <v>23190448.43475918</v>
+        <v>7730149.478253048</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>10807075.39576454</v>
+        <v>3602358.465254846</v>
       </c>
       <c r="C442" t="n">
-        <v>5503478.683842507</v>
+        <v>1834492.894614174</v>
       </c>
       <c r="D442" t="n">
-        <v>4420645.260969482</v>
+        <v>1473548.420323162</v>
       </c>
       <c r="E442" t="n">
-        <v>5581872.919638515</v>
+        <v>1860624.306546177</v>
       </c>
       <c r="F442" t="n">
-        <v>6823543.800529187</v>
+        <v>2274514.600176393</v>
       </c>
       <c r="G442" t="n">
-        <v>6888945.206574937</v>
+        <v>2296315.068858308</v>
       </c>
       <c r="H442" t="n">
-        <v>24038828.54485667</v>
+        <v>8012942.848285543</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>10661936.74077653</v>
+        <v>3553978.913592179</v>
       </c>
       <c r="C443" t="n">
-        <v>5465864.887346761</v>
+        <v>1821954.962448925</v>
       </c>
       <c r="D443" t="n">
-        <v>4404388.022874537</v>
+        <v>1468129.34095818</v>
       </c>
       <c r="E443" t="n">
-        <v>5572218.615151495</v>
+        <v>1857406.205050502</v>
       </c>
       <c r="F443" t="n">
-        <v>6819334.233957244</v>
+        <v>2273111.411319079</v>
       </c>
       <c r="G443" t="n">
-        <v>6887831.261287798</v>
+        <v>2295943.753762595</v>
       </c>
       <c r="H443" t="n">
-        <v>24891269.37390279</v>
+        <v>8297089.791300919</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>10514292.74478212</v>
+        <v>3504764.248260709</v>
       </c>
       <c r="C444" t="n">
-        <v>5426299.167542333</v>
+        <v>1808766.389180782</v>
       </c>
       <c r="D444" t="n">
-        <v>4386895.75551554</v>
+        <v>1462298.585171848</v>
       </c>
       <c r="E444" t="n">
-        <v>5561599.655031328</v>
+        <v>1853866.551677113</v>
       </c>
       <c r="F444" t="n">
-        <v>6814586.871955121</v>
+        <v>2271528.957318372</v>
       </c>
       <c r="G444" t="n">
-        <v>6886540.41920241</v>
+        <v>2295513.473067465</v>
       </c>
       <c r="H444" t="n">
-        <v>25747890.89704778</v>
+        <v>8582630.299015909</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>10364212.49152775</v>
+        <v>3454737.497175917</v>
       </c>
       <c r="C445" t="n">
-        <v>5384740.091672311</v>
+        <v>1794913.363890775</v>
       </c>
       <c r="D445" t="n">
-        <v>4368107.484359418</v>
+        <v>1456035.828119807</v>
       </c>
       <c r="E445" t="n">
-        <v>5549942.465431094</v>
+        <v>1849980.821810369</v>
       </c>
       <c r="F445" t="n">
-        <v>6809244.446534232</v>
+        <v>2269748.148844742</v>
       </c>
       <c r="G445" t="n">
-        <v>6885048.01359559</v>
+        <v>2295016.004531858</v>
       </c>
       <c r="H445" t="n">
-        <v>26608815.8156587</v>
+        <v>8869605.271886218</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>10211771.1824972</v>
+        <v>3403923.727499069</v>
       </c>
       <c r="C446" t="n">
-        <v>5341150.103684245</v>
+        <v>1780383.367894753</v>
       </c>
       <c r="D446" t="n">
-        <v>4347962.431371274</v>
+        <v>1449320.810457092</v>
       </c>
       <c r="E446" t="n">
-        <v>5537170.547614219</v>
+        <v>1845723.515871411</v>
       </c>
       <c r="F446" t="n">
-        <v>6803245.219039384</v>
+        <v>2267748.406346459</v>
       </c>
       <c r="G446" t="n">
-        <v>6883326.522252929</v>
+        <v>2294442.174084305</v>
       </c>
       <c r="H446" t="n">
-        <v>27474168.91435274</v>
+        <v>9158056.304784227</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>10057050.09747834</v>
+        <v>3352350.032492782</v>
       </c>
       <c r="C447" t="n">
-        <v>5295495.893852135</v>
+        <v>1765165.297950716</v>
       </c>
       <c r="D447" t="n">
-        <v>4326400.363714216</v>
+        <v>1442133.454571406</v>
       </c>
       <c r="E447" t="n">
-        <v>5523204.668800582</v>
+        <v>1841068.222933532</v>
       </c>
       <c r="F447" t="n">
-        <v>6796522.847228889</v>
+        <v>2265507.615742961</v>
       </c>
       <c r="G447" t="n">
-        <v>6881345.329445899</v>
+        <v>2293781.776481961</v>
       </c>
       <c r="H447" t="n">
-        <v>28344076.35969029</v>
+        <v>9448025.453230081</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>9900136.530230129</v>
+        <v>3300045.510076711</v>
       </c>
       <c r="C448" t="n">
-        <v>5247748.761594623</v>
+        <v>1749249.587198212</v>
       </c>
       <c r="D448" t="n">
-        <v>4303361.964033677</v>
+        <v>1434453.988011226</v>
       </c>
       <c r="E448" t="n">
-        <v>5507963.09414864</v>
+        <v>1835987.698049551</v>
       </c>
       <c r="F448" t="n">
-        <v>6789006.278127667</v>
+        <v>2263002.09270922</v>
       </c>
       <c r="G448" t="n">
-        <v>6879070.481978947</v>
+        <v>2293023.493992977</v>
       </c>
       <c r="H448" t="n">
-        <v>29218664.93897886</v>
+        <v>9739554.979659604</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>9741123.698768903</v>
+        <v>3247041.232922969</v>
       </c>
       <c r="C449" t="n">
-        <v>5197884.968385997</v>
+        <v>1732628.322795337</v>
       </c>
       <c r="D449" t="n">
-        <v>4278789.220501027</v>
+        <v>1426263.073500343</v>
       </c>
       <c r="E449" t="n">
-        <v>5491361.861413537</v>
+        <v>1830453.953804516</v>
       </c>
       <c r="F449" t="n">
-        <v>6780619.671047161</v>
+        <v>2260206.557015718</v>
       </c>
       <c r="G449" t="n">
-        <v>6876464.441428282</v>
+        <v>2292154.813809423</v>
       </c>
       <c r="H449" t="n">
-        <v>30098061.23786824</v>
+        <v>10032687.0792894</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>9580110.629935747</v>
+        <v>3193370.209978583</v>
       </c>
       <c r="C450" t="n">
-        <v>5145886.077589263</v>
+        <v>1715295.359196425</v>
       </c>
       <c r="D450" t="n">
-        <v>4252625.834442275</v>
+        <v>1417541.944814092</v>
       </c>
       <c r="E450" t="n">
-        <v>5473315.099436671</v>
+        <v>1824438.366478895</v>
       </c>
       <c r="F450" t="n">
-        <v>6771282.355286814</v>
+        <v>2257094.118428935</v>
       </c>
       <c r="G450" t="n">
-        <v>6873485.835072736</v>
+        <v>2291161.94502424</v>
       </c>
       <c r="H450" t="n">
-        <v>30982390.75569088</v>
+        <v>10327463.58523027</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>9417202.018057304</v>
+        <v>3139067.339352436</v>
       </c>
       <c r="C451" t="n">
-        <v>5091739.278003653</v>
+        <v>1697246.426001222</v>
       </c>
       <c r="D451" t="n">
-        <v>4224817.643031682</v>
+        <v>1408272.547677228</v>
       </c>
       <c r="E451" t="n">
-        <v>5453735.391184879</v>
+        <v>1817911.797061631</v>
       </c>
       <c r="F451" t="n">
-        <v>6760908.827094759</v>
+        <v>2253636.275698251</v>
       </c>
       <c r="G451" t="n">
-        <v>6870089.208409473</v>
+        <v>2290029.736136487</v>
       </c>
       <c r="H451" t="n">
-        <v>31871776.95783198</v>
+        <v>10623925.65261064</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>9252508.057669174</v>
+        <v>3084169.352556393</v>
       </c>
       <c r="C452" t="n">
-        <v>5035437.687914534</v>
+        <v>1678479.229304849</v>
       </c>
       <c r="D452" t="n">
-        <v>4195313.054192488</v>
+        <v>1398437.68473083</v>
       </c>
       <c r="E452" t="n">
-        <v>5432534.181569068</v>
+        <v>1810844.727189694</v>
       </c>
       <c r="F452" t="n">
-        <v>6749408.790462708</v>
+        <v>2249802.930154233</v>
       </c>
       <c r="G452" t="n">
-        <v>6866224.782547616</v>
+        <v>2288741.594182534</v>
       </c>
       <c r="H452" t="n">
-        <v>32766340.2647928</v>
+        <v>10922113.42159758</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>60439.19559513787</v>
+        <v>84614.87383319302</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>60509.81328933353</v>
+        <v>84713.73860506693</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>60581.41810608232</v>
+        <v>84813.98534851526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>60654.0236246908</v>
+        <v>84915.63307456713</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>60727.64359820206</v>
+        <v>85018.7010374829</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>60802.29195480243</v>
+        <v>85123.20873672341</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>60877.98279919504</v>
+        <v>85229.17591887306</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>60954.73041393824</v>
+        <v>85336.62257951353</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>61032.54926074761</v>
+        <v>85445.56896504667</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>61111.45398175892</v>
+        <v>85556.03557446254</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>61191.45940075068</v>
+        <v>85668.043161051</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>61272.58052432448</v>
+        <v>85781.61273405427</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>61354.83254304152</v>
+        <v>85896.76556025809</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>61438.2308325138</v>
+        <v>86013.52316551933</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>61522.79095444845</v>
+        <v>86131.90733622786</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>61608.52865764426</v>
+        <v>86251.94012070195</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>61695.45987893883</v>
+        <v>86373.64383051432</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>61783.60074410585</v>
+        <v>86497.04104174819</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>61872.96756870184</v>
+        <v>86622.15459618256</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>61963.57685886108</v>
+        <v>86749.00760240549</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>62055.44531203951</v>
+        <v>86877.62343685531</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>62148.5898177068</v>
+        <v>87008.02574478953</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>62243.02745798694</v>
+        <v>87140.23844118169</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>62338.77550824847</v>
+        <v>87274.28571154785</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>62435.85143764424</v>
+        <v>87410.19201270198</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>62534.27290960291</v>
+        <v>87547.98207344406</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>62634.05778227284</v>
+        <v>87687.68089518191</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>62735.22410892083</v>
+        <v>87829.31375248918</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>62837.79013828844</v>
+        <v>87972.90619360378</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>62941.77431490719</v>
+        <v>88118.4840408701</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>63047.19527937772</v>
+        <v>88266.0733911288</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>63154.0718686153</v>
+        <v>88415.70061606141</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>63262.42311606607</v>
+        <v>88567.39236249249</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>63372.26825189924</v>
+        <v>88721.17555265895</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>63483.62670317981</v>
+        <v>88877.0773844517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>63596.5180940278</v>
+        <v>89035.12533163889</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>63710.96224577032</v>
+        <v>89195.34714407845</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>63826.9791770931</v>
+        <v>89357.77084793035</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>63944.58910419937</v>
+        <v>89522.42474587914</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>64063.8124409837</v>
+        <v>89689.33741737714</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>64184.66979922937</v>
+        <v>89858.53771892114</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>64307.18198883911</v>
+        <v>90030.0547843747</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>64431.37001810841</v>
+        <v>90203.91802535178</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>64557.25509405245</v>
+        <v>90380.15713167349</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>64684.85862279712</v>
+        <v>90558.80207191595</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>64814.20221004627</v>
+        <v>90739.88309406473</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>64945.30766163779</v>
+        <v>90923.43072629292</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>65078.19698420074</v>
+        <v>91109.47577788105</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>65212.89238592733</v>
+        <v>91298.04934029831</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>65349.41627747444</v>
+        <v>91489.1827884642</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>65487.7912730081</v>
+        <v>91682.90778221133</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>65628.04019140756</v>
+        <v>91879.25626797059</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>65770.18605764335</v>
+        <v>92078.26048070067</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>65914.25210434629</v>
+        <v>92279.95294608477</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>66060.26177358418</v>
+        <v>92484.36648301782</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>66208.23871886195</v>
+        <v>92691.53420640669</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>66358.20680736499</v>
+        <v>92901.48953031102</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>66510.1901224609</v>
+        <v>93114.26617144533</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>66664.21296647913</v>
+        <v>93329.8981530708</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>66820.29986378667</v>
+        <v>93548.41980930134</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>66978.47556417785</v>
+        <v>93769.86578984899</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>67138.76504659651</v>
+        <v>93994.2710652352</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>67301.1935232102</v>
+        <v>94221.67093249444</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>67465.78644385349</v>
+        <v>94452.10102139485</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>67632.56950086013</v>
+        <v>94685.59730120421</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>67801.56863430204</v>
+        <v>94922.19608802283</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>67972.81003765207</v>
+        <v>95161.93405271297</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>68146.32016389063</v>
+        <v>95404.84822944683</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>68322.1257320709</v>
+        <v>95650.9760248993</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>68500.25373436177</v>
+        <v>95900.35522810651</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>68680.73144358333</v>
+        <v>96153.02402101661</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>68863.58642125111</v>
+        <v>96409.02098975152</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>69048.84652614431</v>
+        <v>96668.38513660198</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>69236.53992341156</v>
+        <v>96931.1558927763</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>69426.69509422807</v>
+        <v>97197.37313191926</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>69619.3408460151</v>
+        <v>97467.07718442117</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>69814.50632323501</v>
+        <v>97740.30885252896</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>70012.22101876917</v>
+        <v>98017.10942627689</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>70212.5147858899</v>
+        <v>98297.52070024585</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>70415.41785083158</v>
+        <v>98581.58499116426</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>70620.96082596853</v>
+        <v>98869.34515635594</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>70829.17472360239</v>
+        <v>99160.84461304333</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>71040.09097036363</v>
+        <v>99456.12735850913</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>71253.74142222622</v>
+        <v>99755.23799111668</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>71470.15838013658</v>
+        <v>100058.2217321912</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>71689.3746062529</v>
+        <v>100365.1244487541</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>71911.42334079182</v>
+        <v>100675.9926771086</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>72136.3383194754</v>
+        <v>100990.8736472656</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>72364.15379157031</v>
+        <v>101309.8153081985</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>72594.90453850942</v>
+        <v>101632.8663539131</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>72828.62589308326</v>
+        <v>101960.0762503166</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>73065.35375918759</v>
+        <v>102291.4952628626</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>73305.12463210967</v>
+        <v>102627.1744849536</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>73547.97561933666</v>
+        <v>102967.1658670714</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>73793.94446186355</v>
+        <v>103311.522246609</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>74043.06955597991</v>
+        <v>103660.2973783719</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>74295.38997550981</v>
+        <v>104013.5459657137</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>74550.94549447871</v>
+        <v>104371.3236922702</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>74809.77661017906</v>
+        <v>104733.6872542507</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>75071.92456660284</v>
+        <v>105100.694393244</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>75337.43137821062</v>
+        <v>105472.4039294948</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>75606.33985400142</v>
+        <v>105848.8757956021</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>75878.69362184801</v>
+        <v>106230.1710705872</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>76154.53715306007</v>
+        <v>106616.3520142842</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>76433.91578713647</v>
+        <v>107007.4821019911</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>76716.87575666601</v>
+        <v>107403.6260593324</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>77003.46421233378</v>
+        <v>107804.8498972673</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>77293.72924799271</v>
+        <v>108211.2209471898</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>77587.71992575338</v>
+        <v>108622.8078960547</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>77885.48630104939</v>
+        <v>109039.6808214691</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>78187.07944763129</v>
+        <v>109461.9112266839</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>78492.55148244402</v>
+        <v>109889.5720754217</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>78801.95559033993</v>
+        <v>110322.7378264758</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>79115.34604858165</v>
+        <v>110761.4844680142</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>79432.77825108757</v>
+        <v>111205.8895515226</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>79754.30873237261</v>
+        <v>111656.0322253216</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>80079.99519113879</v>
+        <v>112111.9932675942</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>80409.89651346873</v>
+        <v>112573.8551188563</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>80744.07279557805</v>
+        <v>113041.7019138093</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>81082.58536608075</v>
+        <v>113515.6195125131</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>81425.49680772617</v>
+        <v>113995.6955308166</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>81772.87097856465</v>
+        <v>114482.0193699906</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>82124.77303250172</v>
+        <v>114974.6822455024</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>82481.2694392024</v>
+        <v>115473.7772148834</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>82842.42800330945</v>
+        <v>115979.3992046333</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>83208.31788293962</v>
+        <v>116491.6450361155</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>83579.00960742758</v>
+        <v>117010.6134503987</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>83954.57509428609</v>
+        <v>117536.4051320006</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>84335.0876653568</v>
+        <v>118069.1227314995</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>84720.62206212604</v>
+        <v>118608.8708869764</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>85111.25446018582</v>
+        <v>119155.7562442602</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>85507.06248282143</v>
+        <v>119709.8874759499</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>85908.12521370959</v>
+        <v>120271.3752991934</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>86314.52320871914</v>
+        <v>120840.3324922067</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>86726.33850680295</v>
+        <v>121416.8739095241</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>87143.65463997904</v>
+        <v>122001.1164959706</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>87566.55664240093</v>
+        <v>122593.1792993612</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>87995.13105851898</v>
+        <v>123193.1834819265</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>88429.46595034261</v>
+        <v>123801.2523304797</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>88869.65090381294</v>
+        <v>124417.5112653382</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>89315.77703430282</v>
+        <v>125042.087848024</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>89767.93699126324</v>
+        <v>125675.1117877685</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>90226.22496203987</v>
+        <v>126316.7149468558</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>90690.73667488834</v>
+        <v>126967.0313448437</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>91161.56940121883</v>
+        <v>127626.1971617064</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>91638.82195710771</v>
+        <v>128294.3507399508</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>92122.59470411383</v>
+        <v>128971.6325857592</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>92612.98954944627</v>
+        <v>129658.1853692247</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>93110.10994552872</v>
+        <v>130354.1539237402</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>93614.06088901346</v>
+        <v>131059.6852446188</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>94124.94891930003</v>
+        <v>131774.9284870201</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>94642.8821166165</v>
+        <v>132500.0349632631</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>95167.97009972662</v>
+        <v>133235.1581396173</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>95700.3240233281</v>
+        <v>133980.4536326593</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>96240.05657520918</v>
+        <v>134736.0792052929</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>96787.28197323791</v>
+        <v>135502.194762533</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>97342.11596225541</v>
+        <v>136278.9623471575</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>97904.67581095187</v>
+        <v>137066.5461353326</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>98475.08030880475</v>
+        <v>137865.1124323266</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>99053.4497631593</v>
+        <v>138674.8296684231</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>99639.90599653691</v>
+        <v>139495.8683951517</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>100234.5723442543</v>
+        <v>140328.4012819561</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>100837.5736524438</v>
+        <v>141172.6031134213</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>101449.0362765587</v>
+        <v>142028.6507871821</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>102069.0880804573</v>
+        <v>142896.7233126402</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>102697.8584361536</v>
+        <v>143777.001810615</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>103335.4782243255</v>
+        <v>144669.6695140557</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>103982.0798356739</v>
+        <v>145574.9117699434</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>104637.797173222</v>
+        <v>146492.9160425108</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>105302.7656556492</v>
+        <v>147423.8719179089</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>105977.1222217483</v>
+        <v>148367.9711104476</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>106661.0053360997</v>
+        <v>149325.4074705396</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>107354.5549960525</v>
+        <v>150296.3769944734</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>108057.9127401006</v>
+        <v>151281.0778361409</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>108771.2216577457</v>
+        <v>152279.710320844</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>109494.6264009327</v>
+        <v>153292.4769613058</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>110228.273197144</v>
+        <v>154319.5824760015</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>110972.3098642395</v>
+        <v>155361.2338099353</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>111726.8858271234</v>
+        <v>156417.6401579728</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>112492.1521363204</v>
+        <v>157489.0129908487</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>113268.261488542</v>
+        <v>158575.5660839587</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>114055.3682493184</v>
+        <v>159677.5155490457</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>114853.6284777744</v>
+        <v>160795.0798688841</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>115663.1999536211</v>
+        <v>161928.4799350696</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>116484.2422064347</v>
+        <v>163077.9390890087</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>117316.9165472936</v>
+        <v>164243.683166211</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>118161.3861028375</v>
+        <v>165425.9405439726</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>119017.8158518167</v>
+        <v>166624.9421925433</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>119886.3726641901</v>
+        <v>167840.921729866</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>120767.225342835</v>
+        <v>169074.115479969</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>121660.544667924</v>
+        <v>170324.7625350934</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>122566.5034440252</v>
+        <v>171593.1048216354</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>123485.2765499801</v>
+        <v>172879.3871699722</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>124417.0409916064</v>
+        <v>174183.857388249</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>125361.9759572789</v>
+        <v>175506.7663401905</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>126320.262876432</v>
+        <v>176848.3680270048</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>127292.0854810297</v>
+        <v>178208.9196734416</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>128277.6298700471</v>
+        <v>179588.6818180659</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>129277.0845770014</v>
+        <v>180987.9184078021</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>130290.6406405757</v>
+        <v>182406.8968968061</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>131318.491678371</v>
+        <v>183845.8883497193</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>132360.8339638227</v>
+        <v>185305.1675493518</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>133417.8665063108</v>
+        <v>186785.0131088351</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>134489.7911345197</v>
+        <v>188285.7075883276</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>135576.8125830583</v>
+        <v>189807.5376162816</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>136679.1385823801</v>
+        <v>191350.794015332</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>137796.9799520347</v>
+        <v>192915.7719328486</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>138930.550697281</v>
+        <v>194502.7709761935</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>140080.068109092</v>
+        <v>196112.0953527288</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>141245.7528675818</v>
+        <v>197744.0540146146</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>142427.8291488844</v>
+        <v>199398.9608084382</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>143626.5247355121</v>
+        <v>201077.1346297171</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>144842.071130225</v>
+        <v>202778.899582315</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>146074.7036734383</v>
+        <v>204504.5851428136</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>147324.6616641998</v>
+        <v>206254.5263298796</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>148592.1884847636</v>
+        <v>208029.063878669</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>149877.531728794</v>
+        <v>209828.5444203117</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>151180.9433332249</v>
+        <v>211653.3206665149</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>152502.6797138083</v>
+        <v>213503.7515993315</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>153843.001904383</v>
+        <v>215380.2026661361</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>155202.1756998908</v>
+        <v>217283.0459798472</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>156580.4718031755</v>
+        <v>219212.6605244456</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>157978.1659755921</v>
+        <v>221169.4323658291</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>159395.5391914634</v>
+        <v>223153.7548680486</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>160832.8777964069</v>
+        <v>225166.0289149697</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>162290.4736695746</v>
+        <v>227206.6631374044</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>163768.6243898259</v>
+        <v>229276.0741457562</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>165267.6334058729</v>
+        <v>231374.6867682221</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>166787.8102104242</v>
+        <v>233502.9342945937</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>168329.4705183579</v>
+        <v>235661.2587257012</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>169892.9364489534</v>
+        <v>237850.1110285347</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>171478.536712206</v>
+        <v>240069.9513970883</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>173086.606799255</v>
+        <v>242321.2495189571</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>174717.489176944</v>
+        <v>244604.4848477216</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>176371.5334865383</v>
+        <v>246920.1468811534</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>178049.0967466153</v>
+        <v>249268.7354452615</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>179750.5435601464</v>
+        <v>251650.7609842051</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>181476.2463257789</v>
+        <v>254066.7448560906</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>183226.5854533282</v>
+        <v>256517.2196346594</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>185001.9495834807</v>
+        <v>259002.7294168731</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>186802.7358117095</v>
+        <v>261523.8301363933</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>188629.3499163888</v>
+        <v>264081.0898829444</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>190482.2065910971</v>
+        <v>266675.089227536</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>192361.7296810855</v>
+        <v>269306.4215535197</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>194268.3524238803</v>
+        <v>271975.6933934325</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>196202.5176939843</v>
+        <v>274683.5247715781</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>198164.6782516253</v>
+        <v>277430.5495522754</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>200155.2969954962</v>
+        <v>280217.4157936948</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>202174.8472194154</v>
+        <v>283044.7861071817</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>204223.8128728275</v>
+        <v>285913.3380219587</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>206302.6888250474</v>
+        <v>288823.7643550664</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>208411.9811331417</v>
+        <v>291776.7735863985</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>210552.2073133218</v>
+        <v>294773.0902386507</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>212723.896615708</v>
+        <v>297813.4552619914</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>214927.5903023097</v>
+        <v>300898.6264232337</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>217163.8419280449</v>
+        <v>304029.3786992629</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>219433.2176246027</v>
+        <v>307206.5046744436</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>221736.2963869347</v>
+        <v>310430.8149417083</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>224073.6703621373</v>
+        <v>313703.1385069921</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>226445.9451404606</v>
+        <v>317024.3231966448</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>228853.7400481637</v>
+        <v>320395.2360674292</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>231297.6884418996</v>
+        <v>323816.7638186594</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>233778.4380042921</v>
+        <v>327289.8132060087</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>236296.6510403409</v>
+        <v>330815.3114564772</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>238853.0047742512</v>
+        <v>334394.2066839518</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>241448.1916462638</v>
+        <v>338027.4683047693</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>244082.9196090214</v>
+        <v>341716.08745263</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>246757.9124229765</v>
+        <v>345461.0773921673</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>249473.9099503081</v>
+        <v>349263.4739304312</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>252231.668446777</v>
+        <v>353124.3358254878</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>255031.9608509171</v>
+        <v>357044.745191284</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>257875.5770699089</v>
+        <v>361025.8078978726</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>260763.3242614506</v>
+        <v>365068.6539660309</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>263696.0271108931</v>
+        <v>369174.4379552502</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>266674.528102864</v>
+        <v>373344.3393440096</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>269699.6877865597</v>
+        <v>377579.5629011837</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>272772.3850338351</v>
+        <v>381881.3390473689</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>275893.5172891786</v>
+        <v>386250.92420485</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>279064.0008106052</v>
+        <v>390689.6011348472</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>282284.770900452</v>
+        <v>395198.6792606328</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>285556.7821250129</v>
+        <v>399779.4949750181</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>288881.0085218922</v>
+        <v>404433.4119306489</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>292258.4437939053</v>
+        <v>409161.8213114674</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>295690.1014883069</v>
+        <v>413966.1420836299</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>299177.0151600649</v>
+        <v>418847.821224091</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>302720.2385178475</v>
+        <v>423808.3339249862</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>306320.8455513418</v>
+        <v>428849.1837718785</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>309979.9306384596</v>
+        <v>433971.9028938437</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>313698.6086309368</v>
+        <v>439178.0520833115</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>317478.0149167784</v>
+        <v>444469.2208834899</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>321319.3054579503</v>
+        <v>449847.0276411303</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>325223.6568016593</v>
+        <v>455313.1195223233</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>329192.2660635294</v>
+        <v>460869.1724889409</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>333226.3508809042</v>
+        <v>466516.8912332657</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>337327.1493344952</v>
+        <v>472258.0090682935</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>341495.9198365174</v>
+        <v>478094.2877711243</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>345733.940983429</v>
+        <v>484027.5173768008</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>350042.5113713513</v>
+        <v>490059.5159198918</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>354422.9493721995</v>
+        <v>496192.1291210791</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>358876.5928685363</v>
+        <v>502427.2300159507</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>363404.7989451154</v>
+        <v>508766.7185231614</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>419038.345631893</v>
+        <v>586653.6838846499</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>475536.8432492758</v>
+        <v>665751.5805489861</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>532914.9720277603</v>
+        <v>746080.9608388646</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>591187.5951545972</v>
+        <v>827662.633216436</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>650369.7538989979</v>
+        <v>910517.6554585968</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>710476.6621477475</v>
+        <v>994667.3270068462</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>771523.7003284598</v>
+        <v>1080133.180459844</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>833526.4086978293</v>
+        <v>1166936.972176961</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>896500.4799724922</v>
+        <v>1255100.671961489</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>960461.7512805666</v>
+        <v>1344646.451792793</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1025426.195412341</v>
+        <v>1435596.673577278</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1091409.911349117</v>
+        <v>1527973.875888765</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1158429.114049977</v>
+        <v>1621800.759669968</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1226500.123477004</v>
+        <v>1717100.172867805</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1295639.352840366</v>
+        <v>1813895.093976513</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1365863.29604583</v>
+        <v>1912208.614464161</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1437188.514328308</v>
+        <v>2012063.920059632</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1509631.622056471</v>
+        <v>2113484.270879059</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1583209.271694921</v>
+        <v>2216492.98037289</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1657938.137911927</v>
+        <v>2321113.393076699</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1733834.900822618</v>
+        <v>2427368.861151665</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1810916.228359287</v>
+        <v>2535282.719703002</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1889198.757762723</v>
+        <v>2644878.260867813</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1968699.076190497</v>
+        <v>2756178.706666697</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2049433.700440652</v>
+        <v>2869207.180616912</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2131419.055791752</v>
+        <v>2983986.678108453</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2214671.453962918</v>
+        <v>3100540.035548086</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2299207.070200328</v>
+        <v>3218889.898280459</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2385041.919499685</v>
+        <v>3339058.687299558</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2472191.831977326</v>
+        <v>3461068.564768255</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2560672.427405825</v>
+        <v>3584941.398368156</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2650499.088933536</v>
+        <v>3710698.72450695</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2741686.936010925</v>
+        <v>3838361.710415293</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2834250.796550309</v>
+        <v>3967951.115170432</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2928205.178349393</v>
+        <v>4099487.24968915</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3023564.239812817</v>
+        <v>4232989.935737943</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3120341.760009915</v>
+        <v>4368478.46401388</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3218551.108111001</v>
+        <v>4505971.551355401</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3318205.21224845</v>
+        <v>4645487.297147828</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3419316.52785298</v>
+        <v>4787043.138994173</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3521897.005519824</v>
+        <v>4930655.807727754</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3625958.058463337</v>
+        <v>5076341.281848672</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3731510.529623009</v>
+        <v>5224114.74147221</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3838564.658487528</v>
+        <v>5373990.521882541</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3947130.047707942</v>
+        <v>5525982.06679112</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>4057215.62957439</v>
+        <v>5680101.881404144</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>4168829.632435063</v>
+        <v>5836361.485409087</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>4281979.547139274</v>
+        <v>5994771.365994985</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>4396672.093590233</v>
+        <v>6155340.931026325</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>4512913.187496155</v>
+        <v>6318078.462494614</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>4630707.907411404</v>
+        <v>6482991.070375964</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>4750060.462162058</v>
+        <v>6650084.647026882</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>4870974.15875273</v>
+        <v>6819363.822253819</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>4993451.370853576</v>
+        <v>6990831.919195008</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>5117493.507968266</v>
+        <v>7164490.91115557</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>5114623.352031394</v>
+        <v>7160472.692843953</v>
       </c>
       <c r="C358" t="n">
-        <v>123015.419416621</v>
+        <v>172221.5871832694</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>5111669.096712261</v>
+        <v>7156336.73539716</v>
       </c>
       <c r="C359" t="n">
-        <v>247609.5705144723</v>
+        <v>346653.3987202613</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>5108626.537262034</v>
+        <v>7152077.152166848</v>
       </c>
       <c r="C360" t="n">
-        <v>373784.8901961613</v>
+        <v>523298.8462746259</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>5105491.260161207</v>
+        <v>7147687.764225692</v>
       </c>
       <c r="C361" t="n">
-        <v>501542.9824869109</v>
+        <v>702160.1754816752</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>5102258.635145618</v>
+        <v>7143162.089203864</v>
       </c>
       <c r="C362" t="n">
-        <v>630884.6013884367</v>
+        <v>883238.4419438115</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>5098923.807107791</v>
+        <v>7138493.329950905</v>
       </c>
       <c r="C363" t="n">
-        <v>761809.6350972609</v>
+        <v>1066533.489136165</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>5095481.687887051</v>
+        <v>7133674.363041874</v>
       </c>
       <c r="C364" t="n">
-        <v>894317.0916720394</v>
+        <v>1252043.928340855</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>5091926.947963589</v>
+        <v>7128697.727149025</v>
       </c>
       <c r="C365" t="n">
-        <v>1028405.086230891</v>
+        <v>1439767.120723247</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>5088254.008073505</v>
+        <v>7123555.611302908</v>
       </c>
       <c r="C366" t="n">
-        <v>1164070.829755938</v>
+        <v>1629699.161658314</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>5084457.030763809</v>
+        <v>7118239.843069332</v>
       </c>
       <c r="C367" t="n">
-        <v>1301310.619577901</v>
+        <v>1821834.867409061</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>5080529.911908473</v>
+        <v>7112741.876671863</v>
       </c>
       <c r="C368" t="n">
-        <v>1440119.831608142</v>
+        <v>2016167.764251398</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>5076466.272208759</v>
+        <v>7107052.781092264</v>
       </c>
       <c r="C369" t="n">
-        <v>1580492.914380226</v>
+        <v>2212690.080132316</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>5072259.448703483</v>
+        <v>7101163.228184875</v>
       </c>
       <c r="C370" t="n">
-        <v>1722423.384956367</v>
+        <v>2411392.738938913</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>5067902.486317332</v>
+        <v>7095063.480844266</v>
       </c>
       <c r="C371" t="n">
-        <v>1865903.826747404</v>
+        <v>2612265.357446366</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>5063388.129477942</v>
+        <v>7088743.381269122</v>
       </c>
       <c r="C372" t="n">
-        <v>2010925.889287404</v>
+        <v>2815296.245002365</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5058708.813835231</v>
+        <v>7082192.339369324</v>
       </c>
       <c r="C373" t="n">
-        <v>2010914.314966547</v>
+        <v>2815280.040953166</v>
       </c>
       <c r="D373" t="n">
-        <v>146356.6085955788</v>
+        <v>204899.2520338104</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>5053856.658119347</v>
+        <v>7075399.321367086</v>
       </c>
       <c r="C374" t="n">
-        <v>2010900.922144968</v>
+        <v>2815261.291002954</v>
       </c>
       <c r="D374" t="n">
-        <v>294234.986014093</v>
+        <v>411928.9804197302</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>5048823.456176646</v>
+        <v>7068352.838647305</v>
       </c>
       <c r="C375" t="n">
-        <v>2010885.445141983</v>
+        <v>2815239.623198776</v>
       </c>
       <c r="D375" t="n">
-        <v>443624.2799991292</v>
+        <v>621073.9919987809</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>5043600.669226223</v>
+        <v>7061040.936916711</v>
       </c>
       <c r="C376" t="n">
-        <v>2010867.582764819</v>
+        <v>2815214.615870746</v>
       </c>
       <c r="D376" t="n">
-        <v>594512.7603552365</v>
+        <v>832317.864497331</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>5038179.418382789</v>
+        <v>7053451.185735904</v>
       </c>
       <c r="C377" t="n">
-        <v>2010846.994079225</v>
+        <v>2815185.791710916</v>
       </c>
       <c r="D377" t="n">
-        <v>746887.8330176834</v>
+        <v>1045642.966224756</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>5032550.47749509</v>
+        <v>7045570.668493126</v>
       </c>
       <c r="C378" t="n">
-        <v>2010823.293753177</v>
+        <v>2815152.611254448</v>
       </c>
       <c r="D378" t="n">
-        <v>900736.056557804</v>
+        <v>1261030.479180926</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>5026704.266352499</v>
+        <v>7037385.972893499</v>
       </c>
       <c r="C379" t="n">
-        <v>2010796.046941411</v>
+        <v>2815114.465717976</v>
       </c>
       <c r="D379" t="n">
-        <v>1056043.161129869</v>
+        <v>1478460.425581816</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>5020630.844316023</v>
+        <v>7028883.182042432</v>
       </c>
       <c r="C380" t="n">
-        <v>2010764.763677621</v>
+        <v>2815070.66914867</v>
       </c>
       <c r="D380" t="n">
-        <v>1212794.069855085</v>
+        <v>1697911.697797119</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>5014319.904433526</v>
+        <v>7020047.866206934</v>
       </c>
       <c r="C381" t="n">
-        <v>2010728.892740412</v>
+        <v>2815020.449836577</v>
       </c>
       <c r="D381" t="n">
-        <v>1370972.922627578</v>
+        <v>1919362.091678608</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>5007760.768102725</v>
+        <v>7010865.075343814</v>
       </c>
       <c r="C382" t="n">
-        <v>2010687.814958609</v>
+        <v>2814962.940942054</v>
       </c>
       <c r="D382" t="n">
-        <v>1530563.102315891</v>
+        <v>2142788.343242247</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>5000942.380349181</v>
+        <v>7001319.332488852</v>
       </c>
       <c r="C383" t="n">
-        <v>2010640.835921347</v>
+        <v>2814897.170289886</v>
       </c>
       <c r="D383" t="n">
-        <v>1530560.23353351</v>
+        <v>2142784.326946913</v>
       </c>
       <c r="E383" t="n">
-        <v>182042.8029792222</v>
+        <v>336415.0999056027</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>4993853.305790223</v>
+        <v>6991394.628106311</v>
       </c>
       <c r="C384" t="n">
-        <v>2010587.17805848</v>
+        <v>2814822.049281871</v>
       </c>
       <c r="D384" t="n">
-        <v>1530556.813421444</v>
+        <v>2142779.538790022</v>
       </c>
       <c r="E384" t="n">
-        <v>365642.1288530838</v>
+        <v>675706.654120499</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>4986481.725359446</v>
+        <v>6981074.415503222</v>
       </c>
       <c r="C385" t="n">
-        <v>2010525.972057405</v>
+        <v>2814736.360880367</v>
       </c>
       <c r="D385" t="n">
-        <v>1530552.742842665</v>
+        <v>2142773.839979731</v>
       </c>
       <c r="E385" t="n">
-        <v>550776.9352264471</v>
+        <v>1017835.776298474</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>4978815.433870031</v>
+        <v>6970341.607418044</v>
       </c>
       <c r="C386" t="n">
-        <v>2010456.247583346</v>
+        <v>2814638.746616684</v>
       </c>
       <c r="D386" t="n">
-        <v>1530547.906193128</v>
+        <v>2142767.068670379</v>
       </c>
       <c r="E386" t="n">
-        <v>737425.4868206712</v>
+        <v>1362762.299644601</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>4970841.838498699</v>
+        <v>6959178.573898179</v>
       </c>
       <c r="C387" t="n">
-        <v>2010376.923271601</v>
+        <v>2814527.69258024</v>
       </c>
       <c r="D387" t="n">
-        <v>1530542.168923911</v>
+        <v>2142759.036493475</v>
       </c>
       <c r="E387" t="n">
-        <v>925565.4005231817</v>
+        <v>1710444.86016684</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>4962547.958275487</v>
+        <v>6947567.141585679</v>
       </c>
       <c r="C388" t="n">
-        <v>2010286.795962297</v>
+        <v>2814401.514347216</v>
       </c>
       <c r="D388" t="n">
-        <v>1530535.374736618</v>
+        <v>2142749.524631266</v>
       </c>
       <c r="E388" t="n">
-        <v>1115173.693044131</v>
+        <v>2060840.984745554</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>4953920.424667758</v>
+        <v>6935488.594534858</v>
       </c>
       <c r="C389" t="n">
-        <v>2010184.529150791</v>
+        <v>2814258.340811107</v>
       </c>
       <c r="D389" t="n">
-        <v>1530527.342416804</v>
+        <v>2142738.279383526</v>
       </c>
       <c r="E389" t="n">
-        <v>1306226.831089266</v>
+        <v>2413907.183852964</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>4944945.483349915</v>
+        <v>6922923.67668988</v>
       </c>
       <c r="C390" t="n">
-        <v>2010068.640630155</v>
+        <v>2814096.096882217</v>
       </c>
       <c r="D390" t="n">
-        <v>1530517.862267608</v>
+        <v>2142725.007174651</v>
       </c>
       <c r="E390" t="n">
-        <v>1498700.783945309</v>
+        <v>2769599.048730933</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>4935608.997252931</v>
+        <v>6909852.596154102</v>
       </c>
       <c r="C391" t="n">
-        <v>2009937.489306203</v>
+        <v>2813912.485028684</v>
       </c>
       <c r="D391" t="n">
-        <v>1530506.692103286</v>
+        <v>2142709.3689446</v>
       </c>
       <c r="E391" t="n">
-        <v>1692571.078360959</v>
+        <v>3127871.352811052</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>4925896.45099031</v>
+        <v>6896255.031386434</v>
       </c>
       <c r="C392" t="n">
-        <v>2009789.261170287</v>
+        <v>2813704.965638401</v>
       </c>
       <c r="D392" t="n">
-        <v>1530493.552759892</v>
+        <v>2142690.973863848</v>
       </c>
       <c r="E392" t="n">
-        <v>1887812.855593405</v>
+        <v>3488678.157136613</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>4915792.956759026</v>
+        <v>6882110.139462636</v>
       </c>
       <c r="C393" t="n">
-        <v>2009621.95442073</v>
+        <v>2813470.736189021</v>
       </c>
       <c r="D393" t="n">
-        <v>1530478.123077992</v>
+        <v>2142669.372309188</v>
       </c>
       <c r="E393" t="n">
-        <v>1887810.523437015</v>
+        <v>3488673.847311603</v>
       </c>
       <c r="F393" t="n">
-        <v>222047.2289437397</v>
+        <v>341952.7325733591</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>4905283.261815657</v>
+        <v>6867396.566541919</v>
       </c>
       <c r="C394" t="n">
-        <v>2009433.363730243</v>
+        <v>2813206.70922234</v>
       </c>
       <c r="D394" t="n">
-        <v>1530460.03431018</v>
+        <v>2142644.048034252</v>
       </c>
       <c r="E394" t="n">
-        <v>1887807.698843064</v>
+        <v>3488668.627461982</v>
       </c>
       <c r="F394" t="n">
-        <v>445586.8997800488</v>
+        <v>686203.8256612752</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>4894351.757628955</v>
+        <v>6852092.460680537</v>
       </c>
       <c r="C395" t="n">
-        <v>2009221.063664107</v>
+        <v>2812909.489129749</v>
       </c>
       <c r="D395" t="n">
-        <v>1530438.863904202</v>
+        <v>2142614.409465882</v>
       </c>
       <c r="E395" t="n">
-        <v>1887804.284330523</v>
+        <v>3488662.317442807</v>
       </c>
       <c r="F395" t="n">
-        <v>670590.1471714342</v>
+        <v>1032708.826644009</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>4882982.490810622</v>
+        <v>6836175.487134871</v>
       </c>
       <c r="C396" t="n">
-        <v>2008982.391262261</v>
+        <v>2812575.347767165</v>
       </c>
       <c r="D396" t="n">
-        <v>1530414.128610894</v>
+        <v>2142579.780055252</v>
       </c>
       <c r="E396" t="n">
-        <v>1887800.164538043</v>
+        <v>3488654.704066303</v>
       </c>
       <c r="F396" t="n">
-        <v>897027.9692753423</v>
+        <v>1381423.072684027</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>4871159.175925937</v>
+        <v>6819622.846296308</v>
       </c>
       <c r="C397" t="n">
-        <v>2008714.42780783</v>
+        <v>2812200.198930962</v>
       </c>
       <c r="D397" t="n">
-        <v>1530385.276864915</v>
+        <v>2142539.387610882</v>
       </c>
       <c r="E397" t="n">
-        <v>1887795.203237763</v>
+        <v>3488645.535583387</v>
       </c>
       <c r="F397" t="n">
-        <v>1124871.305026575</v>
+        <v>1732301.809740926</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>4858865.210285073</v>
+        <v>6802411.2943991</v>
       </c>
       <c r="C398" t="n">
-        <v>2008413.979814958</v>
+        <v>2811779.57174094</v>
       </c>
       <c r="D398" t="n">
-        <v>1530351.680385481</v>
+        <v>2142492.352539673</v>
       </c>
       <c r="E398" t="n">
-        <v>1887789.239907977</v>
+        <v>3488634.515349942</v>
       </c>
       <c r="F398" t="n">
-        <v>1354091.113148391</v>
+        <v>2085300.314248522</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>4846083.690814374</v>
+        <v>6784517.167140125</v>
       </c>
       <c r="C399" t="n">
-        <v>2008077.559280235</v>
+        <v>2811308.582992329</v>
       </c>
       <c r="D399" t="n">
-        <v>1530312.624944134</v>
+        <v>2142437.674921788</v>
       </c>
       <c r="E399" t="n">
-        <v>1887782.085810123</v>
+        <v>3488621.294577109</v>
       </c>
       <c r="F399" t="n">
-        <v>1584658.452692764</v>
+        <v>2440374.017146857</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>4832797.433104382</v>
+        <v>6765916.406346134</v>
       </c>
       <c r="C400" t="n">
-        <v>2007701.363254367</v>
+        <v>2810781.908556113</v>
       </c>
       <c r="D400" t="n">
-        <v>1530267.300247049</v>
+        <v>2142374.220345868</v>
       </c>
       <c r="E400" t="n">
-        <v>1887773.519510778</v>
+        <v>3488605.464055919</v>
       </c>
       <c r="F400" t="n">
-        <v>1816544.564897601</v>
+        <v>2797478.629942305</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>4818988.99272817</v>
+        <v>6746584.589819436</v>
       </c>
       <c r="C401" t="n">
-        <v>2007281.252804115</v>
+        <v>2810193.75392576</v>
       </c>
       <c r="D401" t="n">
-        <v>1530214.788880614</v>
+        <v>2142300.704432858</v>
       </c>
       <c r="E401" t="n">
-        <v>1887763.28178432</v>
+        <v>3488586.544737424</v>
       </c>
       <c r="F401" t="n">
-        <v>2049720.956136697</v>
+        <v>3156570.272450512</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>4804640.688919213</v>
+        <v>6726496.964486896</v>
       </c>
       <c r="C402" t="n">
-        <v>2006812.73144889</v>
+        <v>2809537.824028446</v>
       </c>
       <c r="D402" t="n">
-        <v>1530154.054271185</v>
+        <v>2142215.675979658</v>
       </c>
       <c r="E402" t="n">
-        <v>1887751.069826976</v>
+        <v>3488563.977040251</v>
       </c>
       <c r="F402" t="n">
-        <v>2284159.481724639</v>
+        <v>3517605.601855945</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,19 +10906,19 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>4789734.630692758</v>
+        <v>6705628.48296986</v>
       </c>
       <c r="C403" t="n">
-        <v>2006290.923171574</v>
+        <v>2808807.292440204</v>
       </c>
       <c r="D403" t="n">
-        <v>1530083.927613017</v>
+        <v>2142117.498658224</v>
       </c>
       <c r="E403" t="n">
-        <v>1887736.530707966</v>
+        <v>3488537.108748323</v>
       </c>
       <c r="F403" t="n">
-        <v>2284157.480357595</v>
+        <v>3517602.519750695</v>
       </c>
       <c r="G403" t="n">
         <v>224942.464839558</v>
@@ -10932,19 +10932,19 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>4774252.745488269</v>
+        <v>6683953.843683572</v>
       </c>
       <c r="C404" t="n">
-        <v>2005710.550119195</v>
+        <v>2807994.770166873</v>
       </c>
       <c r="D404" t="n">
-        <v>1530003.09372262</v>
+        <v>2142004.331211668</v>
       </c>
       <c r="E404" t="n">
-        <v>1887719.253978669</v>
+        <v>3488505.18135258</v>
       </c>
       <c r="F404" t="n">
-        <v>2284155.023478764</v>
+        <v>3517598.736157295</v>
       </c>
       <c r="G404" t="n">
         <v>451037.6177591073</v>
@@ -10958,19 +10958,19 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>4758176.810403028</v>
+        <v>6661447.534564237</v>
       </c>
       <c r="C405" t="n">
-        <v>2005065.910125887</v>
+        <v>2807092.274176242</v>
       </c>
       <c r="D405" t="n">
-        <v>1529910.075783277</v>
+        <v>2141874.106096587</v>
       </c>
       <c r="E405" t="n">
-        <v>1887698.763356082</v>
+        <v>3488467.314682041</v>
       </c>
       <c r="F405" t="n">
-        <v>2284152.013757237</v>
+        <v>3517594.101186146</v>
       </c>
       <c r="G405" t="n">
         <v>678260.1722347578</v>
@@ -10984,19 +10984,19 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>4741488.486078325</v>
+        <v>6638083.880509655</v>
       </c>
       <c r="C406" t="n">
-        <v>2004350.854207909</v>
+        <v>2806091.195891073</v>
       </c>
       <c r="D406" t="n">
-        <v>1529803.218950264</v>
+        <v>2141724.50653037</v>
       </c>
       <c r="E406" t="n">
-        <v>1887674.507392684</v>
+        <v>3488422.48966168</v>
       </c>
       <c r="F406" t="n">
-        <v>2284148.334550582</v>
+        <v>3517588.435207896</v>
       </c>
       <c r="G406" t="n">
         <v>906585.5163496373</v>
@@ -11010,19 +11010,19 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>4724169.353289754</v>
+        <v>6613837.094605656</v>
       </c>
       <c r="C407" t="n">
-        <v>2003558.764198388</v>
+        <v>2804982.269877743</v>
       </c>
       <c r="D407" t="n">
-        <v>1529680.672795586</v>
+        <v>2141552.94191382</v>
       </c>
       <c r="E407" t="n">
-        <v>1887645.849041004</v>
+        <v>3488369.529027776</v>
       </c>
       <c r="F407" t="n">
-        <v>2284143.846403851</v>
+        <v>3517581.52346193</v>
       </c>
       <c r="G407" t="n">
         <v>1135989.79633864</v>
@@ -11036,19 +11036,19 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>4706200.952282028</v>
+        <v>6588681.333194836</v>
       </c>
       <c r="C408" t="n">
-        <v>2002682.53070762</v>
+        <v>2803755.542990667</v>
       </c>
       <c r="D408" t="n">
-        <v>1529540.372580864</v>
+        <v>2141356.521613209</v>
       </c>
       <c r="E408" t="n">
-        <v>1887612.054018203</v>
+        <v>3488307.075825638</v>
       </c>
       <c r="F408" t="n">
-        <v>2284138.382983586</v>
+        <v>3517573.109794723</v>
       </c>
       <c r="G408" t="n">
         <v>1366449.999839616</v>
@@ -11062,19 +11062,19 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>4687564.824876399</v>
+        <v>6562590.754826958</v>
       </c>
       <c r="C409" t="n">
-        <v>2001714.531613057</v>
+        <v>2802400.34425828</v>
       </c>
       <c r="D409" t="n">
-        <v>1529380.019358491</v>
+        <v>2141132.027101887</v>
       </c>
       <c r="E409" t="n">
-        <v>1887572.277873686</v>
+        <v>3488233.569510572</v>
       </c>
       <c r="F409" t="n">
-        <v>2284131.746369491</v>
+        <v>3517562.889409016</v>
       </c>
       <c r="G409" t="n">
         <v>1597944.038595491</v>
@@ -11088,19 +11088,19 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>4668242.559365039</v>
+        <v>6535539.583111052</v>
       </c>
       <c r="C410" t="n">
-        <v>2000646.611301323</v>
+        <v>2800905.255821852</v>
       </c>
       <c r="D410" t="n">
-        <v>1529197.058914376</v>
+        <v>2140875.882480126</v>
       </c>
       <c r="E410" t="n">
-        <v>1887525.551661632</v>
+        <v>3488147.219470696</v>
       </c>
       <c r="F410" t="n">
-        <v>2284123.701618498</v>
+        <v>3517550.500492488</v>
       </c>
       <c r="G410" t="n">
         <v>1830450.830340387</v>
@@ -11114,19 +11114,19 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>4648215.838191906</v>
+        <v>6507502.173468666</v>
       </c>
       <c r="C411" t="n">
-        <v>1999470.060902504</v>
+        <v>2799258.085263506</v>
       </c>
       <c r="D411" t="n">
-        <v>1528988.659580548</v>
+        <v>2140584.123412767</v>
       </c>
       <c r="E411" t="n">
-        <v>1887470.766120331</v>
+        <v>3488045.975790371</v>
       </c>
       <c r="F411" t="n">
-        <v>2284113.970507664</v>
+        <v>3517535.514581802</v>
       </c>
       <c r="G411" t="n">
         <v>2063950.379592667</v>
@@ -11140,19 +11140,19 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>4627466.488403467</v>
+        <v>6478453.083764852</v>
       </c>
       <c r="C412" t="n">
-        <v>1998175.599774301</v>
+        <v>2797445.83968402</v>
       </c>
       <c r="D412" t="n">
-        <v>1528751.688962745</v>
+        <v>2140252.364547843</v>
       </c>
       <c r="E412" t="n">
-        <v>1887406.654261796</v>
+        <v>3487927.497075798</v>
       </c>
       <c r="F412" t="n">
-        <v>2284102.224353758</v>
+        <v>3517517.425504787</v>
       </c>
       <c r="G412" t="n">
         <v>2298423.857064793</v>
@@ -11166,19 +11166,19 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>4605976.534835255</v>
+        <v>6448367.148769354</v>
       </c>
       <c r="C413" t="n">
-        <v>1996753.358510075</v>
+        <v>2795454.701914106</v>
       </c>
       <c r="D413" t="n">
-        <v>1528482.689646732</v>
+        <v>2139875.765505425</v>
       </c>
       <c r="E413" t="n">
-        <v>1887331.772278323</v>
+        <v>3487789.115170342</v>
       </c>
       <c r="F413" t="n">
-        <v>2284088.075798735</v>
+        <v>3517495.636730052</v>
       </c>
       <c r="G413" t="n">
         <v>2298422.315873006</v>
@@ -11192,19 +11192,19 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>4583728.255981747</v>
+        <v>6417219.558374445</v>
       </c>
       <c r="C414" t="n">
-        <v>1995192.863760213</v>
+        <v>2793270.009264298</v>
       </c>
       <c r="D414" t="n">
-        <v>1528177.853967569</v>
+        <v>2139448.995554597</v>
       </c>
       <c r="E414" t="n">
-        <v>1887244.478677892</v>
+        <v>3487627.796596746</v>
       </c>
       <c r="F414" t="n">
-        <v>2284071.069441538</v>
+        <v>3517469.446939969</v>
       </c>
       <c r="G414" t="n">
         <v>2298420.403323771</v>
@@ -11218,19 +11218,19 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>4560704.242477397</v>
+        <v>6384985.939468356</v>
       </c>
       <c r="C415" t="n">
-        <v>1993483.025170063</v>
+        <v>2790876.235238088</v>
       </c>
       <c r="D415" t="n">
-        <v>1527832.9979483</v>
+        <v>2138966.19712762</v>
       </c>
       <c r="E415" t="n">
-        <v>1887142.911567703</v>
+        <v>3487440.100577116</v>
       </c>
       <c r="F415" t="n">
-        <v>2284050.671188129</v>
+        <v>3517438.033629719</v>
       </c>
       <c r="G415" t="n">
         <v>2298418.035331806</v>
@@ -11244,19 +11244,19 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>4536887.458096018</v>
+        <v>6351642.441334425</v>
       </c>
       <c r="C416" t="n">
-        <v>1991612.124749833</v>
+        <v>2788256.974649766</v>
       </c>
       <c r="D416" t="n">
-        <v>1527443.534538487</v>
+        <v>2138420.948353881</v>
       </c>
       <c r="E416" t="n">
-        <v>1887024.964015035</v>
+        <v>3487222.133499784</v>
       </c>
       <c r="F416" t="n">
-        <v>2284026.256183413</v>
+        <v>3517400.434522456</v>
       </c>
       <c r="G416" t="n">
         <v>2298415.110106654</v>
@@ -11270,19 +11270,19 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>4512261.303154061</v>
+        <v>6317165.824415686</v>
       </c>
       <c r="C417" t="n">
-        <v>1989567.809001819</v>
+        <v>2785394.932602546</v>
       </c>
       <c r="D417" t="n">
-        <v>1527004.446308501</v>
+        <v>2137806.224831901</v>
       </c>
       <c r="E417" t="n">
-        <v>1886888.257427214</v>
+        <v>3486969.499725492</v>
       </c>
       <c r="F417" t="n">
-        <v>2283997.095181056</v>
+        <v>3517355.526578826</v>
       </c>
       <c r="G417" t="n">
         <v>2298411.504738193</v>
@@ -11296,19 +11296,19 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>4486809.680181016</v>
+        <v>6281533.552253423</v>
       </c>
       <c r="C418" t="n">
-        <v>1987337.084137851</v>
+        <v>2782271.917792991</v>
       </c>
       <c r="D418" t="n">
-        <v>1526510.257782419</v>
+        <v>2137114.360895386</v>
       </c>
       <c r="E418" t="n">
-        <v>1886730.11290805</v>
+        <v>3486677.248654077</v>
       </c>
       <c r="F418" t="n">
-        <v>2283962.339200344</v>
+        <v>3517302.00236853</v>
       </c>
       <c r="G418" t="n">
         <v>2298407.071193436</v>
@@ -11322,19 +11322,19 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>4460517.061696968</v>
+        <v>6244723.886375754</v>
       </c>
       <c r="C419" t="n">
-        <v>1984906.314724548</v>
+        <v>2778868.840614368</v>
       </c>
       <c r="D419" t="n">
-        <v>1525955.007620436</v>
+        <v>2136337.01066861</v>
       </c>
       <c r="E419" t="n">
-        <v>1886547.520566872</v>
+        <v>3486339.818007581</v>
       </c>
       <c r="F419" t="n">
-        <v>2283921.002313539</v>
+        <v>3517238.34356285</v>
       </c>
       <c r="G419" t="n">
         <v>2298401.631637781</v>
@@ -11348,19 +11348,19 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>4433368.559913708</v>
+        <v>6206715.983879191</v>
       </c>
       <c r="C420" t="n">
-        <v>1982261.226095596</v>
+        <v>2775165.716533834</v>
       </c>
       <c r="D420" t="n">
-        <v>1525332.220890766</v>
+        <v>2135465.109247073</v>
       </c>
       <c r="E420" t="n">
-        <v>1886337.106778462</v>
+        <v>3485950.973326597</v>
       </c>
       <c r="F420" t="n">
-        <v>2283871.942402869</v>
+        <v>3517162.791300417</v>
       </c>
       <c r="G420" t="n">
         <v>2298394.972984001</v>
@@ -11374,19 +11374,19 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>4405349.998151865</v>
+        <v>6167489.997412609</v>
       </c>
       <c r="C421" t="n">
-        <v>1979386.910868289</v>
+        <v>2771141.675215605</v>
       </c>
       <c r="D421" t="n">
-        <v>1524634.881700587</v>
+        <v>2134488.834380821</v>
       </c>
       <c r="E421" t="n">
-        <v>1886095.099417926</v>
+        <v>3485503.743724328</v>
       </c>
       <c r="F421" t="n">
-        <v>2283813.839723875</v>
+        <v>3517073.313174768</v>
       </c>
       <c r="G421" t="n">
         <v>2298386.840561782</v>
@@ -11400,19 +11400,19 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>4376447.983742116</v>
+        <v>6127027.177238959</v>
       </c>
       <c r="C422" t="n">
-        <v>1976267.839895951</v>
+        <v>2766774.975854331</v>
       </c>
       <c r="D422" t="n">
-        <v>1523855.406485482</v>
+        <v>2133397.569079674</v>
       </c>
       <c r="E422" t="n">
-        <v>1885817.291124005</v>
+        <v>3484990.353997161</v>
       </c>
       <c r="F422" t="n">
-        <v>2283745.173111554</v>
+        <v>3516967.566591794</v>
       </c>
       <c r="G422" t="n">
         <v>2298376.930789705</v>
@@ -11426,19 +11426,19 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>4346649.982154512</v>
+        <v>6085309.975016317</v>
       </c>
       <c r="C423" t="n">
-        <v>1972887.877977993</v>
+        <v>2762043.02916919</v>
       </c>
       <c r="D423" t="n">
-        <v>1522985.618286539</v>
+        <v>2132179.865601155</v>
       </c>
       <c r="E423" t="n">
-        <v>1885499.000677546</v>
+        <v>3484402.153252106</v>
       </c>
       <c r="F423" t="n">
-        <v>2283664.193668128</v>
+        <v>3516842.858248918</v>
       </c>
       <c r="G423" t="n">
         <v>2298364.882720253</v>
@@ -11452,19 +11452,19 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>4315944.392075772</v>
+        <v>6042322.148906081</v>
       </c>
       <c r="C424" t="n">
-        <v>1969230.304635289</v>
+        <v>2756922.426489404</v>
       </c>
       <c r="D424" t="n">
-        <v>1522016.722373309</v>
+        <v>2130823.411322632</v>
       </c>
       <c r="E424" t="n">
-        <v>1885135.032618959</v>
+        <v>3483729.540279837</v>
       </c>
       <c r="F424" t="n">
-        <v>2283568.89577676</v>
+        <v>3516696.099496211</v>
       </c>
       <c r="G424" t="n">
         <v>2298350.268316909</v>
@@ -11478,19 +11478,19 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>4284320.621130882</v>
+        <v>5998048.869583234</v>
       </c>
       <c r="C425" t="n">
-        <v>1965277.840239772</v>
+        <v>2751388.976335681</v>
       </c>
       <c r="D425" t="n">
-        <v>1520939.283598779</v>
+        <v>2129314.997038291</v>
       </c>
       <c r="E425" t="n">
-        <v>1884719.635269264</v>
+        <v>3482961.8859776</v>
       </c>
       <c r="F425" t="n">
-        <v>2283456.985294567</v>
+        <v>3516523.757353633</v>
       </c>
       <c r="G425" t="n">
         <v>2298332.581310838</v>
@@ -11504,19 +11504,19 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>4251769.161922431</v>
+        <v>5952476.826691406</v>
       </c>
       <c r="C426" t="n">
-        <v>1961012.67776367</v>
+        <v>2745417.748869137</v>
       </c>
       <c r="D426" t="n">
-        <v>1519743.205898721</v>
+        <v>2127640.488258209</v>
       </c>
       <c r="E426" t="n">
-        <v>1884246.457363873</v>
+        <v>3482087.453208437</v>
       </c>
       <c r="F426" t="n">
-        <v>2283325.844791356</v>
+        <v>3516321.800978689</v>
       </c>
       <c r="G426" t="n">
         <v>2298311.224473314</v>
@@ -11530,19 +11530,19 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>4218281.668039075</v>
+        <v>5905594.335254704</v>
       </c>
       <c r="C427" t="n">
-        <v>1956416.520385353</v>
+        <v>2738983.128539494</v>
       </c>
       <c r="D427" t="n">
-        <v>1518417.714371711</v>
+        <v>2125784.800120396</v>
       </c>
       <c r="E427" t="n">
-        <v>1883708.503556147</v>
+        <v>3481093.314571759</v>
       </c>
       <c r="F427" t="n">
-        <v>2283172.495718152</v>
+        <v>3516085.643405953</v>
       </c>
       <c r="G427" t="n">
         <v>2298285.495129119</v>
@@ -11556,19 +11556,19 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>4183851.029663682</v>
+        <v>5857391.441529152</v>
       </c>
       <c r="C428" t="n">
-        <v>1951470.625155378</v>
+        <v>2732058.875217529</v>
       </c>
       <c r="D428" t="n">
-        <v>1516951.340397152</v>
+        <v>2123731.876556013</v>
       </c>
       <c r="E428" t="n">
-        <v>1883098.08909884</v>
+        <v>3479965.268654657</v>
       </c>
       <c r="F428" t="n">
-        <v>2282993.55741221</v>
+        <v>3515810.078414804</v>
       </c>
       <c r="G428" t="n">
         <v>2298254.568726042</v>
@@ -11582,19 +11582,19 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>4148471.448392352</v>
+        <v>5807860.027749292</v>
       </c>
       <c r="C429" t="n">
-        <v>1946155.852887791</v>
+        <v>2724618.194042908</v>
       </c>
       <c r="D429" t="n">
-        <v>1515331.910266046</v>
+        <v>2121464.674372464</v>
       </c>
       <c r="E429" t="n">
-        <v>1882406.794065348</v>
+        <v>3478687.755432764</v>
       </c>
       <c r="F429" t="n">
-        <v>2282785.202873336</v>
+        <v>3515489.212424936</v>
       </c>
       <c r="G429" t="n">
         <v>2298217.480266673</v>
@@ -11608,19 +11608,19 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>4112138.51085773</v>
+        <v>5756993.91520082</v>
       </c>
       <c r="C430" t="n">
-        <v>1940452.724398369</v>
+        <v>2716633.814157717</v>
       </c>
       <c r="D430" t="n">
-        <v>1513546.537812545</v>
+        <v>2118965.152937564</v>
       </c>
       <c r="E430" t="n">
-        <v>1881625.417528653</v>
+        <v>3477243.771592951</v>
       </c>
       <c r="F430" t="n">
-        <v>2282543.11128033</v>
+        <v>3515116.391371707</v>
       </c>
       <c r="G430" t="n">
         <v>2298173.103401281</v>
@@ -11634,19 +11634,19 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>4074849.260734265</v>
+        <v>5704788.965027971</v>
       </c>
       <c r="C431" t="n">
-        <v>1934341.483163125</v>
+        <v>2708078.076428374</v>
       </c>
       <c r="D431" t="n">
-        <v>1511581.621542604</v>
+        <v>2116214.270159645</v>
       </c>
       <c r="E431" t="n">
-        <v>1880743.932173454</v>
+        <v>3475614.786656544</v>
       </c>
       <c r="F431" t="n">
-        <v>2282262.417256733</v>
+        <v>3514684.122575369</v>
       </c>
       <c r="G431" t="n">
         <v>2298120.126975269</v>
@@ -11660,19 +11660,19 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>4036602.268689547</v>
+        <v>5651243.176165365</v>
       </c>
       <c r="C432" t="n">
-        <v>1927802.164417447</v>
+        <v>2698923.030184425</v>
       </c>
       <c r="D432" t="n">
-        <v>1509422.84675888</v>
+        <v>2113191.985462432</v>
       </c>
       <c r="E432" t="n">
-        <v>1879751.439875343</v>
+        <v>3473780.660889634</v>
       </c>
       <c r="F432" t="n">
-        <v>2281937.65694188</v>
+        <v>3514183.991690495</v>
       </c>
       <c r="G432" t="n">
         <v>2298057.028821957</v>
@@ -11686,19 +11686,19 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>3997397.699834685</v>
+        <v>5596356.779768559</v>
       </c>
       <c r="C433" t="n">
-        <v>1920814.670658837</v>
+        <v>2689140.538922371</v>
       </c>
       <c r="D433" t="n">
-        <v>1507055.193177637</v>
+        <v>2109877.270448692</v>
       </c>
       <c r="E433" t="n">
-        <v>1878636.12883922</v>
+        <v>3471719.56609488</v>
       </c>
       <c r="F433" t="n">
-        <v>2281562.710977009</v>
+        <v>3513606.574904594</v>
       </c>
       <c r="G433" t="n">
         <v>2297982.046591879</v>
@@ -11712,19 +11712,19 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>3957237.378218324</v>
+        <v>5540132.329505656</v>
       </c>
       <c r="C434" t="n">
-        <v>1913358.853454794</v>
+        <v>2678702.394836713</v>
       </c>
       <c r="D434" t="n">
-        <v>1504462.948523222</v>
+        <v>2106248.12793251</v>
       </c>
       <c r="E434" t="n">
-        <v>1877385.232946469</v>
+        <v>3469407.910485073</v>
       </c>
       <c r="F434" t="n">
-        <v>2281130.744576835</v>
+        <v>3512941.346648326</v>
       </c>
       <c r="G434" t="n">
         <v>2297893.145413913</v>
@@ -11738,19 +11738,19 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>3916124.847903401</v>
+        <v>5482574.787064761</v>
       </c>
       <c r="C435" t="n">
-        <v>1905414.601392353</v>
+        <v>2667580.441949294</v>
       </c>
       <c r="D435" t="n">
-        <v>1501629.728568202</v>
+        <v>2102281.619995482</v>
       </c>
       <c r="E435" t="n">
-        <v>1875984.994015528</v>
+        <v>3466820.268940696</v>
       </c>
       <c r="F435" t="n">
-        <v>2280634.144924496</v>
+        <v>3512176.583183724</v>
       </c>
       <c r="G435" t="n">
         <v>2297787.982192248</v>
@@ -11764,19 +11764,19 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>3874065.430163405</v>
+        <v>5423691.602228764</v>
       </c>
       <c r="C436" t="n">
-        <v>1896961.933937684</v>
+        <v>2655746.707512757</v>
       </c>
       <c r="D436" t="n">
-        <v>1498538.504061938</v>
+        <v>2097953.905686714</v>
       </c>
       <c r="E436" t="n">
-        <v>1874420.627732387</v>
+        <v>3463929.320049451</v>
       </c>
       <c r="F436" t="n">
-        <v>2280064.45620217</v>
+        <v>3511299.262551342</v>
       </c>
       <c r="G436" t="n">
         <v>2297663.866356805</v>
@@ -11790,19 +11790,19 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>3831066.276335905</v>
+        <v>5363492.786870269</v>
       </c>
       <c r="C437" t="n">
-        <v>1887981.100903591</v>
+        <v>2643173.541265026</v>
       </c>
       <c r="D437" t="n">
-        <v>1495171.634956817</v>
+        <v>2093240.288939543</v>
       </c>
       <c r="E437" t="n">
-        <v>1872676.294054666</v>
+        <v>3460705.791413023</v>
       </c>
       <c r="F437" t="n">
-        <v>2279412.312650393</v>
+        <v>3510294.961481606</v>
       </c>
       <c r="G437" t="n">
         <v>2297517.716904277</v>
@@ -11816,19 +11816,19 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>3787136.415875621</v>
+        <v>5301990.982225869</v>
       </c>
       <c r="C438" t="n">
-        <v>1878452.687150372</v>
+        <v>2629833.762010521</v>
       </c>
       <c r="D438" t="n">
-        <v>1491510.912299335</v>
+        <v>2088115.277219068</v>
       </c>
       <c r="E438" t="n">
-        <v>1870735.072934217</v>
+        <v>3457118.414782434</v>
       </c>
       <c r="F438" t="n">
-        <v>2278667.370135861</v>
+        <v>3509147.750009226</v>
       </c>
       <c r="G438" t="n">
         <v>2297346.015592865</v>
@@ -11842,19 +11842,19 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>3742286.799157388</v>
+        <v>5239201.518820344</v>
       </c>
       <c r="C439" t="n">
-        <v>1868357.722072144</v>
+        <v>2615700.810901002</v>
       </c>
       <c r="D439" t="n">
-        <v>1487537.608102469</v>
+        <v>2082552.651343456</v>
       </c>
       <c r="E439" t="n">
-        <v>1868578.946236965</v>
+        <v>3453133.892645911</v>
       </c>
       <c r="F439" t="n">
-        <v>2277818.236799407</v>
+        <v>3507840.084671087</v>
       </c>
       <c r="G439" t="n">
         <v>2297144.756186923</v>
@@ -11868,19 +11868,19 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>3696530.334591406</v>
+        <v>5175142.468427967</v>
       </c>
       <c r="C440" t="n">
-        <v>1857677.793347147</v>
+        <v>2600748.910686006</v>
       </c>
       <c r="D440" t="n">
-        <v>1483232.533456201</v>
+        <v>2076525.546838681</v>
       </c>
       <c r="E440" t="n">
-        <v>1866188.78676365</v>
+        <v>3448716.877939226</v>
       </c>
       <c r="F440" t="n">
-        <v>2276852.403452173</v>
+        <v>3506352.701316346</v>
       </c>
       <c r="G440" t="n">
         <v>2296909.389688545</v>
@@ -11894,19 +11894,19 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>3649881.919628747</v>
+        <v>5109834.687480242</v>
       </c>
       <c r="C441" t="n">
-        <v>1846395.164357694</v>
+        <v>2584953.230100771</v>
       </c>
       <c r="D441" t="n">
-        <v>1478576.105064855</v>
+        <v>2070006.547090797</v>
       </c>
       <c r="E441" t="n">
-        <v>1863544.355289809</v>
+        <v>3443829.968575567</v>
       </c>
       <c r="F441" t="n">
-        <v>2275756.174487383</v>
+        <v>3504664.508710571</v>
       </c>
       <c r="G441" t="n">
         <v>2296634.765542428</v>
@@ -11920,19 +11920,19 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>3602358.465254846</v>
+        <v>5043301.851356785</v>
       </c>
       <c r="C442" t="n">
-        <v>1834492.894614174</v>
+        <v>2568290.052459843</v>
       </c>
       <c r="D442" t="n">
-        <v>1473548.420323162</v>
+        <v>2062967.788452426</v>
       </c>
       <c r="E442" t="n">
-        <v>1860624.306546177</v>
+        <v>3438433.718497334</v>
       </c>
       <c r="F442" t="n">
-        <v>2274514.600176393</v>
+        <v>3502752.484271646</v>
       </c>
       <c r="G442" t="n">
         <v>2296315.068858308</v>
@@ -11946,19 +11946,19 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>3553978.913592179</v>
+        <v>4975570.479029052</v>
       </c>
       <c r="C443" t="n">
-        <v>1821954.962448925</v>
+        <v>2550736.947428494</v>
       </c>
       <c r="D443" t="n">
-        <v>1468129.34095818</v>
+        <v>2055381.077341452</v>
       </c>
       <c r="E443" t="n">
-        <v>1857406.205050502</v>
+        <v>3432486.666933328</v>
       </c>
       <c r="F443" t="n">
-        <v>2273111.411319079</v>
+        <v>3500591.573431382</v>
       </c>
       <c r="G443" t="n">
         <v>2295943.753762595</v>
@@ -11972,19 +11972,19 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>3504764.248260709</v>
+        <v>4906669.947564993</v>
       </c>
       <c r="C444" t="n">
-        <v>1808766.389180782</v>
+        <v>2532272.944853095</v>
       </c>
       <c r="D444" t="n">
-        <v>1462298.585171848</v>
+        <v>2047218.019240587</v>
       </c>
       <c r="E444" t="n">
-        <v>1853866.551677113</v>
+        <v>3425945.387499306</v>
       </c>
       <c r="F444" t="n">
-        <v>2271528.957318372</v>
+        <v>3498154.594270291</v>
       </c>
       <c r="G444" t="n">
         <v>2295513.473067465</v>
@@ -11998,19 +11998,19 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3454737.497175917</v>
+        <v>4836632.496046283</v>
       </c>
       <c r="C445" t="n">
-        <v>1794913.363890775</v>
+        <v>2512878.709447085</v>
       </c>
       <c r="D445" t="n">
-        <v>1456035.828119807</v>
+        <v>2038450.15936773</v>
       </c>
       <c r="E445" t="n">
-        <v>1849980.821810369</v>
+        <v>3418764.558705563</v>
       </c>
       <c r="F445" t="n">
-        <v>2269748.148844742</v>
+        <v>3495412.149220903</v>
       </c>
       <c r="G445" t="n">
         <v>2295016.004531858</v>
@@ -12024,19 +12024,19 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3403923.727499069</v>
+        <v>4765493.218498695</v>
       </c>
       <c r="C446" t="n">
-        <v>1780383.367894753</v>
+        <v>2492536.715052654</v>
       </c>
       <c r="D446" t="n">
-        <v>1449320.810457092</v>
+        <v>2029049.13463993</v>
       </c>
       <c r="E446" t="n">
-        <v>1845723.515871411</v>
+        <v>3410897.057330368</v>
       </c>
       <c r="F446" t="n">
-        <v>2267748.406346459</v>
+        <v>3492332.545773547</v>
       </c>
       <c r="G446" t="n">
         <v>2294442.174084305</v>
@@ -12050,19 +12050,19 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3352350.032492782</v>
+        <v>4693290.045489894</v>
       </c>
       <c r="C447" t="n">
-        <v>1765165.297950716</v>
+        <v>2471231.417131003</v>
       </c>
       <c r="D447" t="n">
-        <v>1442133.454571406</v>
+        <v>2018986.836399969</v>
       </c>
       <c r="E447" t="n">
-        <v>1841068.222933532</v>
+        <v>3402294.075981166</v>
       </c>
       <c r="F447" t="n">
-        <v>2265507.615742961</v>
+        <v>3488881.728244159</v>
       </c>
       <c r="G447" t="n">
         <v>2293781.776481961</v>
@@ -12076,19 +12076,19 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>3300045.510076711</v>
+        <v>4620063.714107396</v>
       </c>
       <c r="C448" t="n">
-        <v>1749249.587198212</v>
+        <v>2448949.422077497</v>
       </c>
       <c r="D448" t="n">
-        <v>1434453.988011226</v>
+        <v>2008235.583215717</v>
       </c>
       <c r="E448" t="n">
-        <v>1835987.698049551</v>
+        <v>3392905.265995571</v>
       </c>
       <c r="F448" t="n">
-        <v>2263002.09270922</v>
+        <v>3485023.222772199</v>
       </c>
       <c r="G448" t="n">
         <v>2293023.493992977</v>
@@ -12102,19 +12102,19 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>3247041.232922969</v>
+        <v>4545857.726092154</v>
       </c>
       <c r="C449" t="n">
-        <v>1732628.322795337</v>
+        <v>2425679.651913471</v>
       </c>
       <c r="D449" t="n">
-        <v>1426263.073500343</v>
+        <v>1996768.302900481</v>
       </c>
       <c r="E449" t="n">
-        <v>1830453.953804516</v>
+        <v>3382678.906630746</v>
       </c>
       <c r="F449" t="n">
-        <v>2260206.557015718</v>
+        <v>3480718.097804206</v>
       </c>
       <c r="G449" t="n">
         <v>2292154.813809423</v>
@@ -12128,19 +12128,19 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>3193370.209978583</v>
+        <v>4470718.293970017</v>
       </c>
       <c r="C450" t="n">
-        <v>1715295.359196425</v>
+        <v>2401413.502874995</v>
       </c>
       <c r="D450" t="n">
-        <v>1417541.944814092</v>
+        <v>1984558.722739729</v>
       </c>
       <c r="E450" t="n">
-        <v>1824438.366478895</v>
+        <v>3371562.101252998</v>
       </c>
       <c r="F450" t="n">
-        <v>2257094.118428935</v>
+        <v>3475924.942380561</v>
       </c>
       <c r="G450" t="n">
         <v>2291161.94502424</v>
@@ -12154,19 +12154,19 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>3139067.339352436</v>
+        <v>4394694.27509341</v>
       </c>
       <c r="C451" t="n">
-        <v>1697246.426001222</v>
+        <v>2376144.99640171</v>
       </c>
       <c r="D451" t="n">
-        <v>1408272.547677228</v>
+        <v>1971581.566748119</v>
       </c>
       <c r="E451" t="n">
-        <v>1817911.797061631</v>
+        <v>3359501.000969894</v>
       </c>
       <c r="F451" t="n">
-        <v>2253636.275698251</v>
+        <v>3470599.864575306</v>
       </c>
       <c r="G451" t="n">
         <v>2290029.736136487</v>
@@ -12180,19 +12180,19 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>3084169.352556393</v>
+        <v>4317837.09357895</v>
       </c>
       <c r="C452" t="n">
-        <v>1678479.229304849</v>
+        <v>2349870.921026789</v>
       </c>
       <c r="D452" t="n">
-        <v>1398437.68473083</v>
+        <v>1957812.758623162</v>
       </c>
       <c r="E452" t="n">
-        <v>1810844.727189694</v>
+        <v>3346441.055846554</v>
       </c>
       <c r="F452" t="n">
-        <v>2249802.930154233</v>
+        <v>3464696.512437519</v>
       </c>
       <c r="G452" t="n">
         <v>2288741.594182534</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>84614.87383319302</v>
+        <v>46538.18060825617</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>84713.73860506693</v>
+        <v>46592.55623278682</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>84813.98534851526</v>
+        <v>46647.69194168339</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>84915.63307456713</v>
+        <v>46703.59819101193</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>85018.7010374829</v>
+        <v>46760.2855706156</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>85123.20873672341</v>
+        <v>46817.7648051979</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>85229.17591887306</v>
+        <v>46876.04675538019</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>85336.62257951353</v>
+        <v>46935.14241873245</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>85445.56896504667</v>
+        <v>46995.06293077567</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>85556.03557446254</v>
+        <v>47055.81956595441</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>85668.043161051</v>
+        <v>47117.42373857804</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>85781.61273405427</v>
+        <v>47179.88700372986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>85896.76556025809</v>
+        <v>47243.22105814197</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>86013.52316551933</v>
+        <v>47307.43774103563</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>86131.90733622786</v>
+        <v>47372.54903492532</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>86251.94012070195</v>
+        <v>47438.56706638609</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>86373.64383051432</v>
+        <v>47505.50410678289</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>86497.04104174819</v>
+        <v>47573.37257296152</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>86622.15459618256</v>
+        <v>47642.18502790043</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>86749.00760240549</v>
+        <v>47711.95418132304</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>86877.62343685531</v>
+        <v>47782.69289027042</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>87008.02574478953</v>
+        <v>47854.41415963425</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>87140.23844118169</v>
+        <v>47927.13114264995</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>87274.28571154785</v>
+        <v>48000.85714135133</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>87410.19201270198</v>
+        <v>48075.6056069861</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>87547.98207344406</v>
+        <v>48151.39014039424</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>87687.68089518191</v>
+        <v>48228.22449235007</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>87829.31375248918</v>
+        <v>48306.12256386907</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>87972.90619360378</v>
+        <v>48385.0984064821</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>88118.4840408701</v>
+        <v>48465.16622247853</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>88266.0733911288</v>
+        <v>48546.34036512088</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>88415.70061606141</v>
+        <v>48628.63533883378</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>88567.39236249249</v>
+        <v>48712.06579937087</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>88721.17555265895</v>
+        <v>48796.64655396243</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>88877.0773844517</v>
+        <v>48882.39256144846</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>89035.12533163889</v>
+        <v>48969.31893240141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>89195.34714407845</v>
+        <v>49057.44092924316</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>89357.77084793035</v>
+        <v>49146.7739663617</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>89522.42474587914</v>
+        <v>49237.33361023355</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>89689.33741737714</v>
+        <v>49329.13557955746</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>89858.53771892114</v>
+        <v>49422.19574540662</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>90030.0547843747</v>
+        <v>49516.53013140611</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>90203.91802535178</v>
+        <v>49612.15491394349</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>90380.15713167349</v>
+        <v>49709.08642242041</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>90558.80207191595</v>
+        <v>49807.34113955378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>90739.88309406473</v>
+        <v>49906.93570173561</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>90923.43072629292</v>
+        <v>50007.8868994611</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>91109.47577788105</v>
+        <v>50110.21167783459</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>91298.04934029831</v>
+        <v>50213.92713716407</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>91489.1827884642</v>
+        <v>50319.05053365532</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>91682.90778221133</v>
+        <v>50425.59928021628</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>91879.25626797059</v>
+        <v>50533.59094738385</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>92078.26048070067</v>
+        <v>50643.04326438538</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>92279.95294608477</v>
+        <v>50753.97412034665</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>92484.36648301782</v>
+        <v>50866.4015656598</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>92691.53420640669</v>
+        <v>50980.34381352369</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>92901.48953031102</v>
+        <v>51095.81924167105</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>93114.26617144533</v>
+        <v>51212.8463942949</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>93329.8981530708</v>
+        <v>51331.44398418894</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>93548.41980930134</v>
+        <v>51451.63089511576</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>93769.86578984899</v>
+        <v>51573.42618441697</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>93994.2710652352</v>
+        <v>51696.84908587936</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>94221.67093249444</v>
+        <v>51821.91901287191</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>94452.10102139485</v>
+        <v>51948.65556176717</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>94685.59730120421</v>
+        <v>52077.0785156623</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>94922.19608802283</v>
+        <v>52207.20784841254</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>95161.93405271297</v>
+        <v>52339.06372899209</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>95404.84822944683</v>
+        <v>52472.6665261958</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>95650.9760248993</v>
+        <v>52608.03681369457</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>95900.35522810651</v>
+        <v>52745.19537545856</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>96153.02402101661</v>
+        <v>52884.16321155914</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>96409.02098975152</v>
+        <v>53024.96154436336</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>96668.38513660198</v>
+        <v>53167.61182513111</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>96931.1558927763</v>
+        <v>53312.1357410269</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>97197.37313191926</v>
+        <v>53458.55522255559</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>97467.07718442117</v>
+        <v>53606.89245143162</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>97740.30885252896</v>
+        <v>53757.16986889094</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>98017.10942627689</v>
+        <v>53909.41018445226</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>98297.52070024585</v>
+        <v>54063.63638513524</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>98581.58499116426</v>
+        <v>54219.87174514035</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>98869.34515635594</v>
+        <v>54378.1398359958</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>99160.84461304333</v>
+        <v>54538.46453717384</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>99456.12735850913</v>
+        <v>54700.87004718003</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>99755.23799111668</v>
+        <v>54865.38089511418</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>100058.2217321912</v>
+        <v>55032.02195270519</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>100365.1244487541</v>
+        <v>55200.81844681475</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>100675.9926771086</v>
+        <v>55371.79597240973</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>100990.8736472656</v>
+        <v>55544.98050599609</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>101309.8153081985</v>
+        <v>55720.3984195092</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>101632.8663539131</v>
+        <v>55898.07649465225</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>101960.0762503166</v>
+        <v>56078.04193767418</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>102291.4952628626</v>
+        <v>56260.32239457443</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>102627.1744849536</v>
+        <v>56444.9459667245</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>102967.1658670714</v>
+        <v>56631.94122688925</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>103311.522246609</v>
+        <v>56821.33723563498</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>103660.2973783719</v>
+        <v>57013.16355810455</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>104013.5459657137</v>
+        <v>57207.45028114259</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>104371.3236922702</v>
+        <v>57404.2280307486</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>104733.6872542507</v>
+        <v>57603.52798983788</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>105100.694393244</v>
+        <v>57805.38191628418</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>105472.4039294948</v>
+        <v>58009.8221612222</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>105848.8757956021</v>
+        <v>58216.8816875811</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>106230.1710705872</v>
+        <v>58426.59408882299</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>106616.3520142842</v>
+        <v>58638.99360785628</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>107007.4821019911</v>
+        <v>58854.11515609511</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>107403.6260593324</v>
+        <v>59071.99433263279</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>107804.8498972673</v>
+        <v>59292.66744349708</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>108211.2209471898</v>
+        <v>59516.17152095437</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>108622.8078960547</v>
+        <v>59742.54434283012</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>109039.6808214691</v>
+        <v>59971.82445180805</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>109461.9112266839</v>
+        <v>60204.05117467609</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>109889.5720754217</v>
+        <v>60439.2646414819</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>110322.7378264758</v>
+        <v>60677.50580456176</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>110761.4844680142</v>
+        <v>60918.81645740788</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>111205.8895515226</v>
+        <v>61163.23925333744</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>111656.0322253216</v>
+        <v>61410.81772392689</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>112111.9932675942</v>
+        <v>61661.5962971769</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>112573.8551188563</v>
+        <v>61915.62031537092</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>113041.7019138093</v>
+        <v>62172.93605259512</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>113515.6195125131</v>
+        <v>62433.59073188218</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>113995.6955308166</v>
+        <v>62697.63254194918</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>114482.0193699906</v>
+        <v>62965.11065349482</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>114974.6822455024</v>
+        <v>63236.07523502628</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>115473.7772148834</v>
+        <v>63510.57746818588</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>115979.3992046333</v>
+        <v>63788.66956254834</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>116491.6450361155</v>
+        <v>64070.40476986353</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>117010.6134503987</v>
+        <v>64355.8373977193</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>117536.4051320006</v>
+        <v>64645.02282260033</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>118069.1227314995</v>
+        <v>64938.0175023247</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>118608.8708869764</v>
+        <v>65234.87898783704</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>119155.7562442602</v>
+        <v>65535.66593434317</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>119709.8874759499</v>
+        <v>65840.4381117725</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>120271.3752991934</v>
+        <v>66149.25641455634</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>120840.3324922067</v>
+        <v>66462.18287071375</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>121416.8739095241</v>
+        <v>66779.28065023823</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>122001.1164959706</v>
+        <v>67100.61407278386</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>122593.1792993612</v>
+        <v>67426.24861464871</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>123193.1834819265</v>
+        <v>67756.25091505963</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>123801.2523304797</v>
+        <v>68090.68878176382</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>124417.5112653382</v>
+        <v>68429.63119593599</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>125042.087848024</v>
+        <v>68773.14831641318</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>125675.1117877685</v>
+        <v>69121.31148327269</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>126316.7149468558</v>
+        <v>69474.19322077067</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>126967.0313448437</v>
+        <v>69831.86723966403</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>127626.1971617064</v>
+        <v>70194.40843893851</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>128294.3507399508</v>
+        <v>70561.89290697293</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>128971.6325857592</v>
+        <v>70934.39792216763</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>129658.1853692247</v>
+        <v>71312.00195307359</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>130354.1539237402</v>
+        <v>71694.78465805709</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>131059.6852446188</v>
+        <v>72082.82688454037</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>131774.9284870201</v>
+        <v>72476.21066786101</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>132500.0349632631</v>
+        <v>72875.01922979471</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>133235.1581396173</v>
+        <v>73279.33697678951</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>133980.4536326593</v>
+        <v>73689.24949796265</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>134736.0792052929</v>
+        <v>74104.84356291105</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>135502.194762533</v>
+        <v>74526.20711939322</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>136278.9623471575</v>
+        <v>74953.42929093666</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>137066.5461353326</v>
+        <v>75386.60037443289</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>137865.1124323266</v>
+        <v>75825.81183777961</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>138674.8296684231</v>
+        <v>76271.1563176327</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>139495.8683951517</v>
+        <v>76722.72761733344</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>140328.4012819561</v>
+        <v>77180.6207050759</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>141172.6031134213</v>
+        <v>77644.9317123817</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>142028.6507871821</v>
+        <v>78115.75793295019</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>142896.7233126402</v>
+        <v>78593.19782195214</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>143777.001810615</v>
+        <v>79077.35099583816</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>144669.6695140557</v>
+        <v>79568.31823273066</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>145574.9117699434</v>
+        <v>80066.2014734689</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>146492.9160425108</v>
+        <v>80571.10382338098</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>147423.8719179089</v>
+        <v>81083.1295548499</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>148367.9711104476</v>
+        <v>81602.38411074616</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>149325.4074705396</v>
+        <v>82128.97410879676</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>150296.3769944734</v>
+        <v>82663.00734696044</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>151281.0778361409</v>
+        <v>83204.59280987746</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>152279.710320844</v>
+        <v>83753.8406764643</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>153292.4769613058</v>
+        <v>84310.86232871818</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>154319.5824760015</v>
+        <v>84875.77036180091</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>155361.2338099353</v>
+        <v>85448.67859546444</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>156417.6401579728</v>
+        <v>86029.70208688504</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>157489.0129908487</v>
+        <v>86618.95714496673</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>158575.5660839587</v>
+        <v>87216.56134617732</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>159677.5155490457</v>
+        <v>87822.63355197513</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>160795.0798688841</v>
+        <v>88437.29392788631</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>161928.4799350696</v>
+        <v>89060.66396428824</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>163077.9390890087</v>
+        <v>89692.8664989548</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>164243.683166211</v>
+        <v>90334.02574141604</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>165425.9405439726</v>
+        <v>90984.26729918497</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>166624.9421925433</v>
+        <v>91643.71820589887</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>167840.921729866</v>
+        <v>92312.50695142636</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>169074.115479969</v>
+        <v>92990.76351398301</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>170324.7625350934</v>
+        <v>93678.61939430138</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>171593.1048216354</v>
+        <v>94376.20765189943</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>172879.3871699722</v>
+        <v>95083.66294348474</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>174183.857388249</v>
+        <v>95801.12156353697</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>175506.7663401905</v>
+        <v>96528.72148710482</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>176848.3680270048</v>
+        <v>97266.60241485255</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>178208.9196734416</v>
+        <v>98014.90582039287</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>179588.6818180659</v>
+        <v>98773.77499993626</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>180987.9184078021</v>
+        <v>99543.35512429112</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>182406.8968968061</v>
+        <v>100323.7932932433</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>183845.8883497193</v>
+        <v>101115.2385923456</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>185305.1675493518</v>
+        <v>101917.8421521435</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>186785.0131088351</v>
+        <v>102731.7572098593</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>188285.7075883276</v>
+        <v>103557.1391735802</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>189807.5376162816</v>
+        <v>104394.1456889549</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>191350.794015332</v>
+        <v>105242.9367084326</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>192915.7719328486</v>
+        <v>106103.6745630667</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>194502.7709761935</v>
+        <v>106976.5240369065</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>196112.0953527288</v>
+        <v>107861.6524440009</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>197744.0540146146</v>
+        <v>108759.2297080381</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>199398.9608084382</v>
+        <v>109669.428444641</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>201077.1346297171</v>
+        <v>110592.4240463444</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>202778.899582315</v>
+        <v>111528.3947702732</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>204504.5851428136</v>
+        <v>112477.5218285476</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>206254.5263298796</v>
+        <v>113439.9894814338</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>208029.063878669</v>
+        <v>114415.985133268</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>209828.5444203117</v>
+        <v>115405.6994311714</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>211653.3206665149</v>
+        <v>116409.3263665831</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>213503.7515993315</v>
+        <v>117427.0633796323</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>215380.2026661361</v>
+        <v>118459.1114663748</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>217283.0459798472</v>
+        <v>119505.675288916</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>219212.6605244456</v>
+        <v>120566.9632884451</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>221169.4323658291</v>
+        <v>121643.1878012059</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>223153.7548680486</v>
+        <v>122734.5651774268</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>225166.0289149697</v>
+        <v>123841.3159032334</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>227206.6631374044</v>
+        <v>124963.6647255724</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>229276.0741457562</v>
+        <v>126101.8407801659</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>231374.6867682221</v>
+        <v>127256.0777225222</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>233502.9342945937</v>
+        <v>128426.6138620266</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>235661.2587257012</v>
+        <v>129613.6922991356</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>237850.1110285347</v>
+        <v>130817.5610656942</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>240069.9513970883</v>
+        <v>132038.4732683986</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>242321.2495189571</v>
+        <v>133276.6872354263</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>244604.4848477216</v>
+        <v>134532.466666247</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>246920.1468811534</v>
+        <v>135806.0807846344</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>249268.7354452615</v>
+        <v>137097.8044948938</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>251650.7609842051</v>
+        <v>138407.9185413129</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>254066.7448560906</v>
+        <v>139736.7096708498</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>256517.2196346594</v>
+        <v>141084.4707990626</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>259002.7294168731</v>
+        <v>142451.5011792802</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>261523.8301363933</v>
+        <v>143838.1065750163</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>264081.0898829444</v>
+        <v>145244.5994356194</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>266675.089227536</v>
+        <v>146671.2990751448</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>269306.4215535197</v>
+        <v>148118.5318544358</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>271975.6933934325</v>
+        <v>149586.6313663879</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>274683.5247715781</v>
+        <v>151075.938624368</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>277430.5495522754</v>
+        <v>152586.8022537515</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>280217.4157936948</v>
+        <v>154119.5786865322</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>283044.7861071817</v>
+        <v>155674.6323589499</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>285913.3380219587</v>
+        <v>157252.3359120771</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>288823.7643550664</v>
+        <v>158853.0703952865</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>291776.7735863985</v>
+        <v>160477.2254725191</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>294773.0902386507</v>
+        <v>162125.1996312579</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>297813.4552619914</v>
+        <v>163797.4003940953</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>300898.6264232337</v>
+        <v>165494.2445327785</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>304029.3786992629</v>
+        <v>167216.1582845945</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>307206.5046744436</v>
+        <v>168963.577570944</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>310430.8149417083</v>
+        <v>170736.9482179397</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>313703.1385069921</v>
+        <v>172536.7261788457</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>317024.3231966448</v>
+        <v>174363.3777581546</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>320395.2360674292</v>
+        <v>176217.3798370861</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>323816.7638186594</v>
+        <v>178099.2201002626</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>327289.8132060087</v>
+        <v>180009.3972633048</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>330815.3114564772</v>
+        <v>181948.4213010626</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>334394.2066839518</v>
+        <v>183916.8136761735</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>338027.4683047693</v>
+        <v>185915.1075676231</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>341716.08745263</v>
+        <v>187943.8480989466</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>345461.0773921673</v>
+        <v>190003.5925656919</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>349263.4739304312</v>
+        <v>192094.9106617372</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>353124.3358254878</v>
+        <v>194218.3847040182</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>357044.745191284</v>
+        <v>196374.6098552062</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>361025.8078978726</v>
+        <v>198564.1943438298</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>365068.6539660309</v>
+        <v>200787.7596813169</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>369174.4379552502</v>
+        <v>203045.9408753876</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>373344.3393440096</v>
+        <v>205339.3866392052</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>377579.5629011837</v>
+        <v>207668.759595651</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>381881.3390473689</v>
+        <v>210034.736476053</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>386250.92420485</v>
+        <v>212438.0083126675</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>390689.6011348472</v>
+        <v>214879.2806241662</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>395198.6792606328</v>
+        <v>217359.273593348</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>399779.4949750181</v>
+        <v>219878.7222362599</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>404433.4119306489</v>
+        <v>222438.3765618568</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>409161.8213114674</v>
+        <v>225039.0017213071</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>413966.1420836299</v>
+        <v>227681.3781459964</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>418847.821224091</v>
+        <v>230366.3016732499</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>423808.3339249862</v>
+        <v>233094.5836587424</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>428849.1837718785</v>
+        <v>235867.0510745332</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>433971.9028938437</v>
+        <v>238684.546591614</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>439178.0520833115</v>
+        <v>241547.9286458213</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>444469.2208834899</v>
+        <v>244458.0714859194</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>449847.0276411303</v>
+        <v>247415.8652026216</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>455313.1195223233</v>
+        <v>250422.2157372778</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>460869.1724889409</v>
+        <v>253478.0448689176</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>466516.8912332657</v>
+        <v>256584.2901782962</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>472258.0090682935</v>
+        <v>259741.9049875614</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>478094.2877711243</v>
+        <v>262951.8582741185</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>484027.5173768008</v>
+        <v>266215.1345572405</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>490059.5159198918</v>
+        <v>269532.7337559406</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>496192.1291210791</v>
+        <v>272905.6710165937</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>502427.2300159507</v>
+        <v>276334.9765087729</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>508766.7185231614</v>
+        <v>279821.6951877389</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>586653.6838846499</v>
+        <v>322659.5261365576</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>665751.5805489861</v>
+        <v>366163.3693019423</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>746080.9608388646</v>
+        <v>410344.5284613754</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>827662.633216436</v>
+        <v>455214.4482690397</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>910517.6554585968</v>
+        <v>500784.7105022282</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>994667.3270068462</v>
+        <v>547067.0298537656</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1080133.180459844</v>
+        <v>594073.249252914</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1166936.972176961</v>
+        <v>641815.3346973286</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1255100.671961489</v>
+        <v>690305.369578819</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1344646.451792793</v>
+        <v>739555.5484860362</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1435596.673577278</v>
+        <v>789578.1704675027</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1527973.875888765</v>
+        <v>840385.6317388203</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1621800.759669968</v>
+        <v>891990.4178184824</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1717100.172867805</v>
+        <v>944405.0950772929</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1813895.093976513</v>
+        <v>997642.3016870823</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1912208.614464161</v>
+        <v>1051714.737955289</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2012063.920059632</v>
+        <v>1106635.156032797</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2113484.270879059</v>
+        <v>1162416.348983483</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2216492.98037289</v>
+        <v>1219071.13920509</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2321113.393076699</v>
+        <v>1276612.366192184</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2427368.861151665</v>
+        <v>1335052.873633416</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2535282.719703002</v>
+        <v>1394405.495836651</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2644878.260867813</v>
+        <v>1454683.043477297</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2756178.706666697</v>
+        <v>1515898.288666683</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2869207.180616912</v>
+        <v>1578063.949339302</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2983986.678108453</v>
+        <v>1641192.672959649</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>3100540.035548086</v>
+        <v>1705297.019551448</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>3218889.898280459</v>
+        <v>1770389.444054252</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3339058.687299558</v>
+        <v>1836482.278014757</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3461068.564768255</v>
+        <v>1903587.710622541</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3584941.398368156</v>
+        <v>1971717.769102485</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3710698.72450695</v>
+        <v>2040884.298478822</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3838361.710415293</v>
+        <v>2111098.940728412</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3967951.115170432</v>
+        <v>2182373.113343738</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>4099487.24968915</v>
+        <v>2254717.987329032</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>4232989.935737943</v>
+        <v>2328144.46465587</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>4368478.46401388</v>
+        <v>2402663.155207634</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>4505971.551355401</v>
+        <v>2478284.353245471</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>4645487.297147828</v>
+        <v>2555018.013431305</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>4787043.138994173</v>
+        <v>2632873.726446795</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>4930655.807727754</v>
+        <v>2711860.694250265</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>5076341.281848672</v>
+        <v>2791987.70501677</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>5224114.74147221</v>
+        <v>2873263.107809717</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>5373990.521882541</v>
+        <v>2955694.787035396</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>5525982.06679112</v>
+        <v>3039290.136735115</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>5680101.881404144</v>
+        <v>3124056.03477228</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>5836361.485409087</v>
+        <v>3209998.816974998</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>5994771.365994985</v>
+        <v>3297124.251297241</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>6155340.931026325</v>
+        <v>3385437.512064479</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>6318078.462494614</v>
+        <v>3474943.154372038</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>6482991.070375964</v>
+        <v>3565645.088706781</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>6650084.647026882</v>
+        <v>3657546.555864784</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>6819363.822253819</v>
+        <v>3750650.102239601</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>6990831.919195008</v>
+        <v>3844957.555557256</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>7164490.91115557</v>
+        <v>3940470.001135564</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>7160472.692843953</v>
+        <v>3938259.981064175</v>
       </c>
       <c r="C358" t="n">
-        <v>172221.5871832694</v>
+        <v>94721.87295079816</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>7156336.73539716</v>
+        <v>3935985.20446844</v>
       </c>
       <c r="C359" t="n">
-        <v>346653.3987202613</v>
+        <v>190659.3692961437</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>7152077.152166848</v>
+        <v>3933642.433691766</v>
       </c>
       <c r="C360" t="n">
-        <v>523298.8462746259</v>
+        <v>287814.3654510442</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>7147687.764225692</v>
+        <v>3931228.270324131</v>
       </c>
       <c r="C361" t="n">
-        <v>702160.1754816752</v>
+        <v>386188.0965149214</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>7143162.089203864</v>
+        <v>3928739.149062126</v>
       </c>
       <c r="C362" t="n">
-        <v>883238.4419438115</v>
+        <v>485781.1430690963</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>7138493.329950905</v>
+        <v>3926171.331472998</v>
       </c>
       <c r="C363" t="n">
-        <v>1066533.489136165</v>
+        <v>586593.4190248909</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>7133674.363041874</v>
+        <v>3923520.89967303</v>
       </c>
       <c r="C364" t="n">
-        <v>1252043.928340855</v>
+        <v>688624.1605874703</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>7128697.727149025</v>
+        <v>3920783.749931965</v>
       </c>
       <c r="C365" t="n">
-        <v>1439767.120723247</v>
+        <v>791871.9163977858</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>7123555.611302908</v>
+        <v>3917955.586216598</v>
       </c>
       <c r="C366" t="n">
-        <v>1629699.161658314</v>
+        <v>896334.5389120725</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>7118239.843069332</v>
+        <v>3915031.913688133</v>
       </c>
       <c r="C367" t="n">
-        <v>1821834.867409061</v>
+        <v>1002009.177074984</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>7112741.876671863</v>
+        <v>3912008.032169526</v>
       </c>
       <c r="C368" t="n">
-        <v>2016167.764251398</v>
+        <v>1108892.270338269</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>7107052.781092264</v>
+        <v>3908879.029600745</v>
       </c>
       <c r="C369" t="n">
-        <v>2212690.080132316</v>
+        <v>1216979.544072774</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>7101163.228184875</v>
+        <v>3905639.775501681</v>
       </c>
       <c r="C370" t="n">
-        <v>2411392.738938913</v>
+        <v>1326266.006416402</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>7095063.480844266</v>
+        <v>3902284.914464345</v>
       </c>
       <c r="C371" t="n">
-        <v>2612265.357446366</v>
+        <v>1436745.946595501</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>7088743.381269122</v>
+        <v>3898808.859698017</v>
       </c>
       <c r="C372" t="n">
-        <v>2815296.245002365</v>
+        <v>1548412.934751301</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>7082192.339369324</v>
+        <v>3895205.78665313</v>
       </c>
       <c r="C373" t="n">
-        <v>2815280.040953166</v>
+        <v>1548404.022524242</v>
       </c>
       <c r="D373" t="n">
-        <v>204899.2520338104</v>
+        <v>112694.5886185957</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>7075399.321367086</v>
+        <v>3891469.626751898</v>
       </c>
       <c r="C374" t="n">
-        <v>2815261.291002954</v>
+        <v>1548393.710051625</v>
       </c>
       <c r="D374" t="n">
-        <v>411928.9804197302</v>
+        <v>226560.9392308516</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>7068352.838647305</v>
+        <v>3887594.061256018</v>
       </c>
       <c r="C375" t="n">
-        <v>2815239.623198776</v>
+        <v>1548381.792759327</v>
       </c>
       <c r="D375" t="n">
-        <v>621073.9919987809</v>
+        <v>341590.6955993295</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>7061040.936916711</v>
+        <v>3883572.515304192</v>
       </c>
       <c r="C376" t="n">
-        <v>2815214.615870746</v>
+        <v>1548368.03872891</v>
       </c>
       <c r="D376" t="n">
-        <v>832317.864497331</v>
+        <v>457774.8254735321</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>7053451.185735904</v>
+        <v>3879398.152154747</v>
       </c>
       <c r="C377" t="n">
-        <v>2815185.791710916</v>
+        <v>1548352.185441003</v>
       </c>
       <c r="D377" t="n">
-        <v>1045642.966224756</v>
+        <v>575103.6314236162</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>7045570.668493126</v>
+        <v>3875063.86767122</v>
       </c>
       <c r="C378" t="n">
-        <v>2815152.611254448</v>
+        <v>1548333.936189947</v>
       </c>
       <c r="D378" t="n">
-        <v>1261030.479180926</v>
+        <v>693566.7635495092</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>7037385.972893499</v>
+        <v>3870562.285091424</v>
       </c>
       <c r="C379" t="n">
-        <v>2815114.465717976</v>
+        <v>1548312.956144887</v>
       </c>
       <c r="D379" t="n">
-        <v>1478460.425581816</v>
+        <v>813153.234069999</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>7028883.182042432</v>
+        <v>3865885.750123339</v>
       </c>
       <c r="C380" t="n">
-        <v>2815070.66914867</v>
+        <v>1548288.868031769</v>
       </c>
       <c r="D380" t="n">
-        <v>1697911.697797119</v>
+        <v>933851.4337884153</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>7020047.866206934</v>
+        <v>3861026.326413815</v>
       </c>
       <c r="C381" t="n">
-        <v>2815020.449836577</v>
+        <v>1548261.247410117</v>
       </c>
       <c r="D381" t="n">
-        <v>1919362.091678608</v>
+        <v>1055649.150423235</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>7010865.075343814</v>
+        <v>3855975.791439099</v>
       </c>
       <c r="C382" t="n">
-        <v>2814962.940942054</v>
+        <v>1548229.617518129</v>
       </c>
       <c r="D382" t="n">
-        <v>2142788.343242247</v>
+        <v>1178533.588783236</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>7001319.332488852</v>
+        <v>3850725.632868869</v>
       </c>
       <c r="C383" t="n">
-        <v>2814897.170289886</v>
+        <v>1548193.443659437</v>
       </c>
       <c r="D383" t="n">
-        <v>2142784.326946913</v>
+        <v>1178531.379820802</v>
       </c>
       <c r="E383" t="n">
-        <v>336415.0999056027</v>
+        <v>185028.3049480815</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>6991394.628106311</v>
+        <v>3845267.045458472</v>
       </c>
       <c r="C384" t="n">
-        <v>2814822.049281871</v>
+        <v>1548152.127105029</v>
       </c>
       <c r="D384" t="n">
-        <v>2142779.538790022</v>
+        <v>1178528.746334512</v>
       </c>
       <c r="E384" t="n">
-        <v>675706.654120499</v>
+        <v>371638.6597662745</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>6981074.415503222</v>
+        <v>3839590.928526773</v>
       </c>
       <c r="C385" t="n">
-        <v>2814736.360880367</v>
+        <v>1548104.998484202</v>
       </c>
       <c r="D385" t="n">
-        <v>2142773.839979731</v>
+        <v>1178525.611988852</v>
       </c>
       <c r="E385" t="n">
-        <v>1017835.776298474</v>
+        <v>559809.6769641609</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>6970341.607418044</v>
+        <v>3833687.884079923</v>
       </c>
       <c r="C386" t="n">
-        <v>2814638.746616684</v>
+        <v>1548051.310639176</v>
       </c>
       <c r="D386" t="n">
-        <v>2142767.068670379</v>
+        <v>1178521.887768709</v>
       </c>
       <c r="E386" t="n">
-        <v>1362762.299644601</v>
+        <v>749519.2648045304</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>6959178.573898179</v>
+        <v>3827548.215643999</v>
       </c>
       <c r="C387" t="n">
-        <v>2814527.69258024</v>
+        <v>1547990.230919133</v>
       </c>
       <c r="D387" t="n">
-        <v>2142759.036493475</v>
+        <v>1178517.470071411</v>
       </c>
       <c r="E387" t="n">
-        <v>1710444.86016684</v>
+        <v>940744.673091762</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>6947567.141585679</v>
+        <v>3821161.927872125</v>
       </c>
       <c r="C388" t="n">
-        <v>2814401.514347216</v>
+        <v>1547920.832890969</v>
       </c>
       <c r="D388" t="n">
-        <v>2142749.524631266</v>
+        <v>1178512.238547196</v>
       </c>
       <c r="E388" t="n">
-        <v>2060840.984745554</v>
+        <v>1291141.357545905</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>6935488.594534858</v>
+        <v>3814518.726994172</v>
       </c>
       <c r="C389" t="n">
-        <v>2814258.340811107</v>
+        <v>1547842.087446109</v>
       </c>
       <c r="D389" t="n">
-        <v>2142738.279383526</v>
+        <v>1178506.053660939</v>
       </c>
       <c r="E389" t="n">
-        <v>2413907.183852964</v>
+        <v>1644208.238436623</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>6922923.67668988</v>
+        <v>3807608.022179434</v>
       </c>
       <c r="C390" t="n">
-        <v>2814096.096882217</v>
+        <v>1547752.85328522</v>
       </c>
       <c r="D390" t="n">
-        <v>2142725.007174651</v>
+        <v>1178498.753946058</v>
       </c>
       <c r="E390" t="n">
-        <v>2769599.048730933</v>
+        <v>1999900.931950257</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>6909852.596154102</v>
+        <v>3800418.927884758</v>
       </c>
       <c r="C391" t="n">
-        <v>2813912.485028684</v>
+        <v>1547651.866765776</v>
       </c>
       <c r="D391" t="n">
-        <v>2142709.3689446</v>
+        <v>1178490.15291953</v>
       </c>
       <c r="E391" t="n">
-        <v>3127871.352811052</v>
+        <v>2358174.241208467</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>6896255.031386434</v>
+        <v>3792940.267262539</v>
       </c>
       <c r="C392" t="n">
-        <v>2813704.965638401</v>
+        <v>1547537.731101121</v>
       </c>
       <c r="D392" t="n">
-        <v>2142690.973863848</v>
+        <v>1178480.035625117</v>
       </c>
       <c r="E392" t="n">
-        <v>3488678.157136613</v>
+        <v>2718982.262516639</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,16 +10646,16 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>6882110.139462636</v>
+        <v>3785160.576704449</v>
       </c>
       <c r="C393" t="n">
-        <v>2813470.736189021</v>
+        <v>1547408.904903962</v>
       </c>
       <c r="D393" t="n">
-        <v>2142669.372309188</v>
+        <v>1178468.154770053</v>
       </c>
       <c r="E393" t="n">
-        <v>3488673.847311603</v>
+        <v>2718979.423267818</v>
       </c>
       <c r="F393" t="n">
         <v>341952.7325733591</v>
@@ -10672,16 +10672,16 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>6867396.566541919</v>
+        <v>3777068.111598055</v>
       </c>
       <c r="C394" t="n">
-        <v>2813206.70922234</v>
+        <v>1547263.690072287</v>
       </c>
       <c r="D394" t="n">
-        <v>2142644.048034252</v>
+        <v>1178454.226418839</v>
       </c>
       <c r="E394" t="n">
-        <v>3488668.627461982</v>
+        <v>2718975.97700447</v>
       </c>
       <c r="F394" t="n">
         <v>686203.8256612752</v>
@@ -10698,16 +10698,16 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>6852092.460680537</v>
+        <v>3768650.853374296</v>
       </c>
       <c r="C395" t="n">
-        <v>2812909.489129749</v>
+        <v>1547100.219021362</v>
       </c>
       <c r="D395" t="n">
-        <v>2142614.409465882</v>
+        <v>1178437.925206235</v>
       </c>
       <c r="E395" t="n">
-        <v>3488662.317442807</v>
+        <v>2718971.801890384</v>
       </c>
       <c r="F395" t="n">
         <v>1032708.826644009</v>
@@ -10724,16 +10724,16 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>6836175.487134871</v>
+        <v>3759896.517924179</v>
       </c>
       <c r="C396" t="n">
-        <v>2812575.347767165</v>
+        <v>1546916.441271941</v>
       </c>
       <c r="D396" t="n">
-        <v>2142579.780055252</v>
+        <v>1178418.879030389</v>
       </c>
       <c r="E396" t="n">
-        <v>3488654.704066303</v>
+        <v>2718966.753388403</v>
       </c>
       <c r="F396" t="n">
         <v>1381423.072684027</v>
@@ -10750,16 +10750,16 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>6819622.846296308</v>
+        <v>3750792.565462971</v>
       </c>
       <c r="C397" t="n">
-        <v>2812200.198930962</v>
+        <v>1546710.109412029</v>
       </c>
       <c r="D397" t="n">
-        <v>2142539.387610882</v>
+        <v>1178396.663185985</v>
       </c>
       <c r="E397" t="n">
-        <v>3488645.535583387</v>
+        <v>2718960.66039894</v>
       </c>
       <c r="F397" t="n">
         <v>1732301.809740926</v>
@@ -10776,16 +10776,16 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>6802411.2943991</v>
+        <v>3741326.211919506</v>
       </c>
       <c r="C398" t="n">
-        <v>2811779.57174094</v>
+        <v>1546478.764457517</v>
       </c>
       <c r="D398" t="n">
-        <v>2142492.352539673</v>
+        <v>1178370.79389682</v>
       </c>
       <c r="E398" t="n">
-        <v>3488634.515349942</v>
+        <v>2718953.32081493</v>
       </c>
       <c r="F398" t="n">
         <v>2085300.314248522</v>
@@ -10802,16 +10802,16 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>6784517.167140125</v>
+        <v>3731484.441927067</v>
       </c>
       <c r="C399" t="n">
-        <v>2811308.582992329</v>
+        <v>1546219.720645781</v>
       </c>
       <c r="D399" t="n">
-        <v>2142437.674921788</v>
+        <v>1178340.721206983</v>
       </c>
       <c r="E399" t="n">
-        <v>3488621.294577109</v>
+        <v>2718944.496418844</v>
       </c>
       <c r="F399" t="n">
         <v>2440374.017146857</v>
@@ -10828,16 +10828,16 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>6765916.406346134</v>
+        <v>3721254.023490374</v>
       </c>
       <c r="C400" t="n">
-        <v>2810781.908556113</v>
+        <v>1545930.049705863</v>
       </c>
       <c r="D400" t="n">
-        <v>2142374.220345868</v>
+        <v>1178305.821190227</v>
       </c>
       <c r="E400" t="n">
-        <v>3488605.464055919</v>
+        <v>2718933.907040342</v>
       </c>
       <c r="F400" t="n">
         <v>2797478.629942305</v>
@@ -10854,16 +10854,16 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>6746584.589819436</v>
+        <v>3710621.524400691</v>
       </c>
       <c r="C401" t="n">
-        <v>2810193.75392576</v>
+        <v>1545606.564659168</v>
       </c>
       <c r="D401" t="n">
-        <v>2142300.704432858</v>
+        <v>1178265.387438072</v>
       </c>
       <c r="E401" t="n">
-        <v>3488586.544737424</v>
+        <v>2718921.223885927</v>
       </c>
       <c r="F401" t="n">
         <v>3156570.272450512</v>
@@ -10880,16 +10880,16 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>6726496.964486896</v>
+        <v>3699573.330467794</v>
       </c>
       <c r="C402" t="n">
-        <v>2809537.824028446</v>
+        <v>1545245.803215645</v>
       </c>
       <c r="D402" t="n">
-        <v>2142215.675979658</v>
+        <v>1178218.621788813</v>
       </c>
       <c r="E402" t="n">
-        <v>3488563.977040251</v>
+        <v>2718906.061944551</v>
       </c>
       <c r="F402" t="n">
         <v>3517605.601855945</v>
@@ -10906,16 +10906,16 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>6705628.48296986</v>
+        <v>3688095.665633423</v>
       </c>
       <c r="C403" t="n">
-        <v>2808807.292440204</v>
+        <v>1544844.010842112</v>
       </c>
       <c r="D403" t="n">
-        <v>2142117.498658224</v>
+        <v>1178164.624262023</v>
       </c>
       <c r="E403" t="n">
-        <v>3488537.108748323</v>
+        <v>2718887.971365699</v>
       </c>
       <c r="F403" t="n">
         <v>3517602.519750695</v>
@@ -10932,16 +10932,16 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>6683953.843683572</v>
+        <v>3676174.614025966</v>
       </c>
       <c r="C404" t="n">
-        <v>2807994.770166873</v>
+        <v>1544397.123591781</v>
       </c>
       <c r="D404" t="n">
-        <v>2142004.331211668</v>
+        <v>1178102.382166417</v>
       </c>
       <c r="E404" t="n">
-        <v>3488505.18135258</v>
+        <v>2718866.427699066</v>
       </c>
       <c r="F404" t="n">
         <v>3517598.736157295</v>
@@ -10958,16 +10958,16 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>6661447.534564237</v>
+        <v>3663796.144010331</v>
       </c>
       <c r="C405" t="n">
-        <v>2807092.274176242</v>
+        <v>1543900.750796933</v>
       </c>
       <c r="D405" t="n">
-        <v>2141874.106096587</v>
+        <v>1178030.758353123</v>
       </c>
       <c r="E405" t="n">
-        <v>3488467.314682041</v>
+        <v>2718840.820877804</v>
       </c>
       <c r="F405" t="n">
         <v>3517594.101186146</v>
@@ -10984,16 +10984,16 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>6638083.880509655</v>
+        <v>3650946.134280312</v>
       </c>
       <c r="C406" t="n">
-        <v>2806091.195891073</v>
+        <v>1543350.15774009</v>
       </c>
       <c r="D406" t="n">
-        <v>2141724.50653037</v>
+        <v>1177948.478591704</v>
       </c>
       <c r="E406" t="n">
-        <v>3488422.48966168</v>
+        <v>2718810.442820478</v>
       </c>
       <c r="F406" t="n">
         <v>3517588.435207896</v>
@@ -11010,16 +11010,16 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>6613837.094605656</v>
+        <v>3637610.402033111</v>
       </c>
       <c r="C407" t="n">
-        <v>2804982.269877743</v>
+        <v>1542740.248432759</v>
       </c>
       <c r="D407" t="n">
-        <v>2141552.94191382</v>
+        <v>1177854.118052601</v>
       </c>
       <c r="E407" t="n">
-        <v>3488369.529027776</v>
+        <v>2718774.473520651</v>
       </c>
       <c r="F407" t="n">
         <v>3517581.52346193</v>
@@ -11036,16 +11036,16 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>6588681.333194836</v>
+        <v>3623774.733257162</v>
       </c>
       <c r="C408" t="n">
-        <v>2803755.542990667</v>
+        <v>1542065.548644867</v>
       </c>
       <c r="D408" t="n">
-        <v>2141356.521613209</v>
+        <v>1177746.086887265</v>
       </c>
       <c r="E408" t="n">
-        <v>3488307.075825638</v>
+        <v>2718731.965487533</v>
       </c>
       <c r="F408" t="n">
         <v>3517573.109794723</v>
@@ -11062,16 +11062,16 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>6562590.754826958</v>
+        <v>3609424.915154828</v>
       </c>
       <c r="C409" t="n">
-        <v>2802400.34425828</v>
+        <v>1541320.189342054</v>
       </c>
       <c r="D409" t="n">
-        <v>2141132.027101887</v>
+        <v>1177622.614906038</v>
       </c>
       <c r="E409" t="n">
-        <v>3488233.569510572</v>
+        <v>2718681.826396716</v>
       </c>
       <c r="F409" t="n">
         <v>3517562.889409016</v>
@@ -11088,16 +11088,16 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>6535539.583111052</v>
+        <v>3594546.770711079</v>
       </c>
       <c r="C410" t="n">
-        <v>2800905.255821852</v>
+        <v>1540497.890702019</v>
       </c>
       <c r="D410" t="n">
-        <v>2140875.882480126</v>
+        <v>1177481.735364069</v>
       </c>
       <c r="E410" t="n">
-        <v>3488147.219470696</v>
+        <v>2718622.799806814</v>
       </c>
       <c r="F410" t="n">
         <v>3517550.500492488</v>
@@ -11114,16 +11114,16 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>6507502.173468666</v>
+        <v>3579126.195407767</v>
       </c>
       <c r="C411" t="n">
-        <v>2799258.085263506</v>
+        <v>1539591.946894928</v>
       </c>
       <c r="D411" t="n">
-        <v>2140584.123412767</v>
+        <v>1177321.267877022</v>
       </c>
       <c r="E411" t="n">
-        <v>3488045.975790371</v>
+        <v>2718553.443796305</v>
       </c>
       <c r="F411" t="n">
         <v>3517535.514581802</v>
@@ -11140,16 +11140,16 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>6478453.083764852</v>
+        <v>3563149.196070669</v>
       </c>
       <c r="C412" t="n">
-        <v>2797445.83968402</v>
+        <v>1538595.211826212</v>
       </c>
       <c r="D412" t="n">
-        <v>2140252.364547843</v>
+        <v>1177138.800501314</v>
       </c>
       <c r="E412" t="n">
-        <v>3487927.497075798</v>
+        <v>2718472.10737519</v>
       </c>
       <c r="F412" t="n">
         <v>3517517.425504787</v>
@@ -11166,16 +11166,16 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>6448367.148769354</v>
+        <v>3546601.931823146</v>
       </c>
       <c r="C413" t="n">
-        <v>2795454.701914106</v>
+        <v>1537500.086052758</v>
       </c>
       <c r="D413" t="n">
-        <v>2139875.765505425</v>
+        <v>1176931.671027984</v>
       </c>
       <c r="E413" t="n">
-        <v>3487789.115170342</v>
+        <v>2718376.904528674</v>
       </c>
       <c r="F413" t="n">
         <v>3517495.636730052</v>
@@ -11192,16 +11192,16 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>6417219.558374445</v>
+        <v>3529470.757105944</v>
       </c>
       <c r="C414" t="n">
-        <v>2793270.009264298</v>
+        <v>1536298.505095364</v>
       </c>
       <c r="D414" t="n">
-        <v>2139448.995554597</v>
+        <v>1176696.947555028</v>
       </c>
       <c r="E414" t="n">
-        <v>3487627.796596746</v>
+        <v>2718265.685755266</v>
       </c>
       <c r="F414" t="n">
         <v>3517469.446939969</v>
@@ -11218,16 +11218,16 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>6384985.939468356</v>
+        <v>3511742.266707596</v>
       </c>
       <c r="C415" t="n">
-        <v>2790876.235238088</v>
+        <v>1534981.929380948</v>
       </c>
       <c r="D415" t="n">
-        <v>2138966.19712762</v>
+        <v>1176431.408420191</v>
       </c>
       <c r="E415" t="n">
-        <v>3487440.100577116</v>
+        <v>2718136.006969902</v>
       </c>
       <c r="F415" t="n">
         <v>3517438.033629719</v>
@@ -11244,16 +11244,16 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>6351642.441334425</v>
+        <v>3493403.342733935</v>
       </c>
       <c r="C416" t="n">
-        <v>2788256.974649766</v>
+        <v>1533541.336057371</v>
       </c>
       <c r="D416" t="n">
-        <v>2138420.948353881</v>
+        <v>1176131.521594635</v>
       </c>
       <c r="E416" t="n">
-        <v>3487222.133499784</v>
+        <v>2717985.0956542</v>
       </c>
       <c r="F416" t="n">
         <v>3517400.434522456</v>
@@ -11270,16 +11270,16 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>6317165.824415686</v>
+        <v>3474441.203428627</v>
       </c>
       <c r="C417" t="n">
-        <v>2785394.932602546</v>
+        <v>1531967.212931401</v>
       </c>
       <c r="D417" t="n">
-        <v>2137806.224831901</v>
+        <v>1175793.423657546</v>
       </c>
       <c r="E417" t="n">
-        <v>3486969.499725492</v>
+        <v>2717809.814151316</v>
       </c>
       <c r="F417" t="n">
         <v>3517355.526578826</v>
@@ -11296,16 +11296,16 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>6281533.552253423</v>
+        <v>3454843.453739384</v>
       </c>
       <c r="C418" t="n">
-        <v>2782271.917792991</v>
+        <v>1530249.554786145</v>
       </c>
       <c r="D418" t="n">
-        <v>2137114.360895386</v>
+        <v>1175412.898492462</v>
       </c>
       <c r="E418" t="n">
-        <v>3486677.248654077</v>
+        <v>2717606.620022261</v>
       </c>
       <c r="F418" t="n">
         <v>3517302.00236853</v>
@@ -11322,16 +11322,16 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>6244723.886375754</v>
+        <v>3434598.137506664</v>
       </c>
       <c r="C419" t="n">
-        <v>2778868.840614368</v>
+        <v>1528377.862337902</v>
       </c>
       <c r="D419" t="n">
-        <v>2136337.01066861</v>
+        <v>1174985.355867736</v>
       </c>
       <c r="E419" t="n">
-        <v>3486339.818007581</v>
+        <v>2717371.523404503</v>
       </c>
       <c r="F419" t="n">
         <v>3517238.34356285</v>
@@ -11348,16 +11348,16 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>6206715.983879191</v>
+        <v>3413693.791133556</v>
       </c>
       <c r="C420" t="n">
-        <v>2775165.716533834</v>
+        <v>1526341.144093609</v>
       </c>
       <c r="D420" t="n">
-        <v>2135465.109247073</v>
+        <v>1174505.81008589</v>
       </c>
       <c r="E420" t="n">
-        <v>3485950.973326597</v>
+        <v>2717100.041342456</v>
       </c>
       <c r="F420" t="n">
         <v>3517162.791300417</v>
@@ -11374,16 +11374,16 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>6167489.997412609</v>
+        <v>3392119.498576936</v>
       </c>
       <c r="C421" t="n">
-        <v>2771141.675215605</v>
+        <v>1524127.921368583</v>
       </c>
       <c r="D421" t="n">
-        <v>2134488.834380821</v>
+        <v>1173968.858909452</v>
       </c>
       <c r="E421" t="n">
-        <v>3485503.743724328</v>
+        <v>2716787.14909335</v>
       </c>
       <c r="F421" t="n">
         <v>3517073.313174768</v>
@@ -11400,16 +11400,16 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>6127027.177238959</v>
+        <v>3369864.947481429</v>
       </c>
       <c r="C422" t="n">
-        <v>2766774.975854331</v>
+        <v>1521726.236719883</v>
       </c>
       <c r="D422" t="n">
-        <v>2133397.569079674</v>
+        <v>1173368.662993821</v>
       </c>
       <c r="E422" t="n">
-        <v>3484990.353997161</v>
+        <v>2716427.228451325</v>
       </c>
       <c r="F422" t="n">
         <v>3516967.566591794</v>
@@ -11426,16 +11426,16 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>6085309.975016317</v>
+        <v>3346920.486258975</v>
       </c>
       <c r="C423" t="n">
-        <v>2762043.02916919</v>
+        <v>1519123.666043055</v>
       </c>
       <c r="D423" t="n">
-        <v>2132179.865601155</v>
+        <v>1172698.926080635</v>
       </c>
       <c r="E423" t="n">
-        <v>3484402.153252106</v>
+        <v>2716014.013177445</v>
       </c>
       <c r="F423" t="n">
         <v>3516842.858248918</v>
@@ -11452,16 +11452,16 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>6042322.148906081</v>
+        <v>3323277.181898344</v>
       </c>
       <c r="C424" t="n">
-        <v>2756922.426489404</v>
+        <v>1516307.334569172</v>
       </c>
       <c r="D424" t="n">
-        <v>2130823.411322632</v>
+        <v>1171952.876227448</v>
       </c>
       <c r="E424" t="n">
-        <v>3483729.540279837</v>
+        <v>2715540.531673963</v>
       </c>
       <c r="F424" t="n">
         <v>3516696.099496211</v>
@@ -11478,16 +11478,16 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>5998048.869583234</v>
+        <v>3298926.878270778</v>
       </c>
       <c r="C425" t="n">
-        <v>2751388.976335681</v>
+        <v>1513263.936984625</v>
       </c>
       <c r="D425" t="n">
-        <v>2129314.997038291</v>
+        <v>1171123.24837106</v>
       </c>
       <c r="E425" t="n">
-        <v>3482961.8859776</v>
+        <v>2714999.047097437</v>
       </c>
       <c r="F425" t="n">
         <v>3516523.757353633</v>
@@ -11504,16 +11504,16 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>5952476.826691406</v>
+        <v>3273862.254680273</v>
       </c>
       <c r="C426" t="n">
-        <v>2745417.748869137</v>
+        <v>1509979.761878025</v>
       </c>
       <c r="D426" t="n">
-        <v>2127640.488258209</v>
+        <v>1170202.268542015</v>
       </c>
       <c r="E426" t="n">
-        <v>3482087.453208437</v>
+        <v>2714380.995167264</v>
       </c>
       <c r="F426" t="n">
         <v>3516321.800978689</v>
@@ -11530,16 +11530,16 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>5905594.335254704</v>
+        <v>3248076.884390087</v>
       </c>
       <c r="C427" t="n">
-        <v>2738983.128539494</v>
+        <v>1506440.720696721</v>
       </c>
       <c r="D427" t="n">
-        <v>2125784.800120396</v>
+        <v>1169181.640066218</v>
       </c>
       <c r="E427" t="n">
-        <v>3481093.314571759</v>
+        <v>2713676.919993554</v>
       </c>
       <c r="F427" t="n">
         <v>3516085.643405953</v>
@@ -11556,16 +11556,16 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>5857391.441529152</v>
+        <v>3221565.292841034</v>
       </c>
       <c r="C428" t="n">
-        <v>2732058.875217529</v>
+        <v>1502632.381369641</v>
       </c>
       <c r="D428" t="n">
-        <v>2123731.876556013</v>
+        <v>1168052.532105807</v>
       </c>
       <c r="E428" t="n">
-        <v>3479965.268654657</v>
+        <v>2712876.408320712</v>
       </c>
       <c r="F428" t="n">
         <v>3515810.078414804</v>
@@ -11582,16 +11582,16 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>5807860.027749292</v>
+        <v>3194323.015262111</v>
       </c>
       <c r="C429" t="n">
-        <v>2724618.194042908</v>
+        <v>1498540.0067236</v>
       </c>
       <c r="D429" t="n">
-        <v>2121464.674372464</v>
+        <v>1166805.570904856</v>
       </c>
       <c r="E429" t="n">
-        <v>3478687.755432764</v>
+        <v>2711968.02266014</v>
       </c>
       <c r="F429" t="n">
         <v>3515489.212424936</v>
@@ -11608,16 +11608,16 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>5756993.91520082</v>
+        <v>3166346.653360452</v>
       </c>
       <c r="C430" t="n">
-        <v>2716633.814157717</v>
+        <v>1494148.597786745</v>
       </c>
       <c r="D430" t="n">
-        <v>2118965.152937564</v>
+        <v>1165430.83411566</v>
       </c>
       <c r="E430" t="n">
-        <v>3477243.771592951</v>
+        <v>2710939.233866463</v>
       </c>
       <c r="F430" t="n">
         <v>3515116.391371707</v>
@@ -11634,16 +11634,16 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>5704788.965027971</v>
+        <v>3137633.930765384</v>
       </c>
       <c r="C431" t="n">
-        <v>2708078.076428374</v>
+        <v>1489442.942035606</v>
       </c>
       <c r="D431" t="n">
-        <v>2116214.270159645</v>
+        <v>1163917.848587805</v>
       </c>
       <c r="E431" t="n">
-        <v>3475614.786656544</v>
+        <v>2709776.353795763</v>
       </c>
       <c r="F431" t="n">
         <v>3514684.122575369</v>
@@ -11660,16 +11660,16 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>5651243.176165365</v>
+        <v>3108183.746890951</v>
       </c>
       <c r="C432" t="n">
-        <v>2698923.030184425</v>
+        <v>1484407.666601434</v>
       </c>
       <c r="D432" t="n">
-        <v>2113191.985462432</v>
+        <v>1162255.592004338</v>
       </c>
       <c r="E432" t="n">
-        <v>3473780.660889634</v>
+        <v>2708464.468770591</v>
       </c>
       <c r="F432" t="n">
         <v>3514183.991690495</v>
@@ -11686,16 +11686,16 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>5596356.779768559</v>
+        <v>3077996.228872708</v>
       </c>
       <c r="C433" t="n">
-        <v>2689140.538922371</v>
+        <v>1479027.296407304</v>
       </c>
       <c r="D433" t="n">
-        <v>2109877.270448692</v>
+        <v>1160432.498746781</v>
       </c>
       <c r="E433" t="n">
-        <v>3471719.56609488</v>
+        <v>2706987.374663689</v>
       </c>
       <c r="F433" t="n">
         <v>3513606.574904594</v>
@@ -11712,16 +11712,16 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>5540132.329505656</v>
+        <v>3047072.78122811</v>
       </c>
       <c r="C434" t="n">
-        <v>2678702.394836713</v>
+        <v>1473286.317160191</v>
       </c>
       <c r="D434" t="n">
-        <v>2106248.12793251</v>
+        <v>1158436.470362881</v>
       </c>
       <c r="E434" t="n">
-        <v>3469407.910485073</v>
+        <v>2705327.514499196</v>
       </c>
       <c r="F434" t="n">
         <v>3512941.346648326</v>
@@ -11738,16 +11738,16 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>5482574.787064761</v>
+        <v>3015416.132885619</v>
       </c>
       <c r="C435" t="n">
-        <v>2667580.441949294</v>
+        <v>1467169.243072112</v>
       </c>
       <c r="D435" t="n">
-        <v>2102281.619995482</v>
+        <v>1156254.890997516</v>
       </c>
       <c r="E435" t="n">
-        <v>3466820.268940696</v>
+        <v>2703465.919554993</v>
       </c>
       <c r="F435" t="n">
         <v>3512176.583183724</v>
@@ -11764,16 +11764,16 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>5423691.602228764</v>
+        <v>2983030.38122582</v>
       </c>
       <c r="C436" t="n">
-        <v>2655746.707512757</v>
+        <v>1460660.689132016</v>
       </c>
       <c r="D436" t="n">
-        <v>2097953.905686714</v>
+        <v>1153874.648127693</v>
       </c>
       <c r="E436" t="n">
-        <v>3463929.320049451</v>
+        <v>2701382.15503115</v>
       </c>
       <c r="F436" t="n">
         <v>3511299.262551342</v>
@@ -11790,16 +11790,16 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>5363492.786870269</v>
+        <v>2949921.032778648</v>
       </c>
       <c r="C437" t="n">
-        <v>2643173.541265026</v>
+        <v>1453745.447695765</v>
       </c>
       <c r="D437" t="n">
-        <v>2093240.288939543</v>
+        <v>1151282.158916749</v>
       </c>
       <c r="E437" t="n">
-        <v>3460705.791413023</v>
+        <v>2699054.27142531</v>
       </c>
       <c r="F437" t="n">
         <v>3510294.961481606</v>
@@ -11816,16 +11816,16 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>5301990.982225869</v>
+        <v>2916095.040224228</v>
       </c>
       <c r="C438" t="n">
-        <v>2629833.762010521</v>
+        <v>1446408.569105787</v>
       </c>
       <c r="D438" t="n">
-        <v>2088115.277219068</v>
+        <v>1148463.402470488</v>
       </c>
       <c r="E438" t="n">
-        <v>3457118.414782434</v>
+        <v>2696458.762824256</v>
       </c>
       <c r="F438" t="n">
         <v>3509147.750009226</v>
@@ -11842,16 +11842,16 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>5239201.518820344</v>
+        <v>2881560.835351189</v>
       </c>
       <c r="C439" t="n">
-        <v>2615700.810901002</v>
+        <v>1438635.445995551</v>
       </c>
       <c r="D439" t="n">
-        <v>2082552.651343456</v>
+        <v>1145403.958238901</v>
       </c>
       <c r="E439" t="n">
-        <v>3453133.892645911</v>
+        <v>2693570.533379905</v>
       </c>
       <c r="F439" t="n">
         <v>3507840.084671087</v>
@@ -11868,16 +11868,16 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>5175142.468427967</v>
+        <v>2846328.357635382</v>
       </c>
       <c r="C440" t="n">
-        <v>2600748.910686006</v>
+        <v>1430411.900877303</v>
       </c>
       <c r="D440" t="n">
-        <v>2076525.546838681</v>
+        <v>1142089.050761275</v>
       </c>
       <c r="E440" t="n">
-        <v>3448716.877939226</v>
+        <v>2690362.873285254</v>
       </c>
       <c r="F440" t="n">
         <v>3506352.701316346</v>
@@ -11894,16 +11894,16 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>5109834.687480242</v>
+        <v>2810409.078114135</v>
       </c>
       <c r="C441" t="n">
-        <v>2584953.230100771</v>
+        <v>1421724.276555424</v>
       </c>
       <c r="D441" t="n">
-        <v>2070006.547090797</v>
+        <v>1138503.600899938</v>
       </c>
       <c r="E441" t="n">
-        <v>3443829.968575567</v>
+        <v>2686807.445599316</v>
       </c>
       <c r="F441" t="n">
         <v>3504664.508710571</v>
@@ -11920,16 +11920,16 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>5043301.851356785</v>
+        <v>2773816.018246233</v>
       </c>
       <c r="C442" t="n">
-        <v>2568290.052459843</v>
+        <v>1412559.528852914</v>
       </c>
       <c r="D442" t="n">
-        <v>2062967.788452426</v>
+        <v>1134632.283648834</v>
       </c>
       <c r="E442" t="n">
-        <v>3438433.718497334</v>
+        <v>2682874.285287553</v>
       </c>
       <c r="F442" t="n">
         <v>3502752.484271646</v>
@@ -11946,16 +11946,16 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>4975570.479029052</v>
+        <v>2736563.763465977</v>
       </c>
       <c r="C443" t="n">
-        <v>2550736.947428494</v>
+        <v>1402905.321085672</v>
       </c>
       <c r="D443" t="n">
-        <v>2055381.077341452</v>
+        <v>1130459.592537799</v>
       </c>
       <c r="E443" t="n">
-        <v>3432486.666933328</v>
+        <v>2678531.811843561</v>
       </c>
       <c r="F443" t="n">
         <v>3500591.573431382</v>
@@ -11972,16 +11972,16 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>4906669.947564993</v>
+        <v>2698668.471160746</v>
       </c>
       <c r="C444" t="n">
-        <v>2532272.944853095</v>
+        <v>1392750.119669202</v>
       </c>
       <c r="D444" t="n">
-        <v>2047218.019240587</v>
+        <v>1125969.910582323</v>
       </c>
       <c r="E444" t="n">
-        <v>3425945.387499306</v>
+        <v>2673746.856836974</v>
       </c>
       <c r="F444" t="n">
         <v>3498154.594270291</v>
@@ -11998,16 +11998,16 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>4836632.496046283</v>
+        <v>2660147.872825457</v>
       </c>
       <c r="C445" t="n">
-        <v>2512878.709447085</v>
+        <v>1382083.290195897</v>
       </c>
       <c r="D445" t="n">
-        <v>2038450.15936773</v>
+        <v>1121147.587652251</v>
       </c>
       <c r="E445" t="n">
-        <v>3418764.558705563</v>
+        <v>2668484.707689454</v>
       </c>
       <c r="F445" t="n">
         <v>3495412.149220903</v>
@@ -12024,16 +12024,16 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>4765493.218498695</v>
+        <v>2621021.270174283</v>
       </c>
       <c r="C446" t="n">
-        <v>2492536.715052654</v>
+        <v>1370895.19327896</v>
       </c>
       <c r="D446" t="n">
-        <v>2029049.13463993</v>
+        <v>1115977.024051961</v>
       </c>
       <c r="E446" t="n">
-        <v>3410897.057330368</v>
+        <v>2662709.168913995</v>
       </c>
       <c r="F446" t="n">
         <v>3492332.545773547</v>
@@ -12050,16 +12050,16 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>4693290.045489894</v>
+        <v>2581309.525019443</v>
       </c>
       <c r="C447" t="n">
-        <v>2471231.417131003</v>
+        <v>1359177.279422052</v>
       </c>
       <c r="D447" t="n">
-        <v>2018986.836399969</v>
+        <v>1110442.760019983</v>
       </c>
       <c r="E447" t="n">
-        <v>3402294.075981166</v>
+        <v>2656382.641960794</v>
       </c>
       <c r="F447" t="n">
         <v>3488881.728244159</v>
@@ -12076,16 +12076,16 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>4620063.714107396</v>
+        <v>2541035.042759068</v>
       </c>
       <c r="C448" t="n">
-        <v>2448949.422077497</v>
+        <v>1346922.182142623</v>
       </c>
       <c r="D448" t="n">
-        <v>2008235.583215717</v>
+        <v>1104529.570768644</v>
       </c>
       <c r="E448" t="n">
-        <v>3392905.265995571</v>
+        <v>2649466.224694842</v>
       </c>
       <c r="F448" t="n">
         <v>3485023.222772199</v>
@@ -12102,16 +12102,16 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>4545857.726092154</v>
+        <v>2500221.749350684</v>
       </c>
       <c r="C449" t="n">
-        <v>2425679.651913471</v>
+        <v>1334123.808552409</v>
       </c>
       <c r="D449" t="n">
-        <v>1996768.302900481</v>
+        <v>1098222.566595264</v>
       </c>
       <c r="E449" t="n">
-        <v>3382678.906630746</v>
+        <v>2641919.83138526</v>
       </c>
       <c r="F449" t="n">
         <v>3480718.097804206</v>
@@ -12128,16 +12128,16 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>4470718.293970017</v>
+        <v>2458895.061683509</v>
       </c>
       <c r="C450" t="n">
-        <v>2401413.502874995</v>
+        <v>1320777.426581248</v>
       </c>
       <c r="D450" t="n">
-        <v>1984558.722739729</v>
+        <v>1091507.297506851</v>
       </c>
       <c r="E450" t="n">
-        <v>3371562.101252998</v>
+        <v>2633702.333914162</v>
       </c>
       <c r="F450" t="n">
         <v>3475924.942380561</v>
@@ -12154,16 +12154,16 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>4394694.27509341</v>
+        <v>2417081.851301377</v>
       </c>
       <c r="C451" t="n">
-        <v>2376144.99640171</v>
+        <v>1306879.748020941</v>
       </c>
       <c r="D451" t="n">
-        <v>1971581.566748119</v>
+        <v>1084369.861711466</v>
       </c>
       <c r="E451" t="n">
-        <v>3359501.000969894</v>
+        <v>2624771.724713577</v>
       </c>
       <c r="F451" t="n">
         <v>3470599.864575306</v>
@@ -12180,16 +12180,16 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>4317837.09357895</v>
+        <v>2374810.401468422</v>
       </c>
       <c r="C452" t="n">
-        <v>2349870.921026789</v>
+        <v>1292429.006564734</v>
       </c>
       <c r="D452" t="n">
-        <v>1957812.758623162</v>
+        <v>1076797.017242739</v>
       </c>
       <c r="E452" t="n">
-        <v>3346441.055846554</v>
+        <v>2615085.301713543</v>
       </c>
       <c r="F452" t="n">
         <v>3464696.512437519</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>46538.18060825617</v>
+        <v>181317.5867854136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>46592.55623278682</v>
+        <v>181529.4398680006</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>46647.69194168339</v>
+        <v>181744.2543182469</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>46703.59819101193</v>
+        <v>181962.0708740724</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>46760.2855706156</v>
+        <v>182182.9307946062</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>46817.7648051979</v>
+        <v>182406.8758644073</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>46876.04675538019</v>
+        <v>182633.9483975851</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>46935.14241873245</v>
+        <v>182864.1912418147</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>46995.06293077567</v>
+        <v>183097.6477822428</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>47055.81956595441</v>
+        <v>183334.3619452768</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>47117.42373857804</v>
+        <v>183574.3782022521</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>47179.88700372986</v>
+        <v>183817.7415729734</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>47243.22105814197</v>
+        <v>184064.4976291245</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>47307.43774103563</v>
+        <v>184314.6924975413</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>47372.54903492532</v>
+        <v>184568.3728633453</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>47438.56706638609</v>
+        <v>184825.5859729327</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>47505.50410678289</v>
+        <v>185086.3796368164</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>47573.37257296152</v>
+        <v>185350.8022323175</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>47642.18502790043</v>
+        <v>185618.9027061055</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>47711.95418132304</v>
+        <v>185890.7305765832</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>47782.69289027042</v>
+        <v>186166.3359361186</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>47854.41415963425</v>
+        <v>186445.7694531204</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>47927.13114264995</v>
+        <v>186729.0823739608</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>48000.85714135133</v>
+        <v>187016.3265247454</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>48075.6056069861</v>
+        <v>187307.5543129329</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>48151.39014039424</v>
+        <v>187602.8187288088</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>48228.22449235007</v>
+        <v>187902.1733468184</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>48306.12256386907</v>
+        <v>188205.6723267625</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>48385.0984064821</v>
+        <v>188513.3704148652</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>48465.16622247853</v>
+        <v>188825.3229447215</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>48546.34036512088</v>
+        <v>189141.5858381331</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>48628.63533883378</v>
+        <v>189462.2156058459</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>48712.06579937087</v>
+        <v>189787.2693481983</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>48796.64655396243</v>
+        <v>190116.8047556977</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>48882.39256144846</v>
+        <v>190450.8801095393</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>48969.31893240141</v>
+        <v>190789.5542820834</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>49057.44092924316</v>
+        <v>191132.8867373109</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>49146.7739663617</v>
+        <v>191480.9375312792</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>49237.33361023355</v>
+        <v>191833.7673125981</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>49329.13557955746</v>
+        <v>192191.4373229511</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>49422.19574540662</v>
+        <v>192554.009397688</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>49516.53013140611</v>
+        <v>192921.5459665173</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>49612.15491394349</v>
+        <v>193294.1100543253</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>49709.08642242041</v>
+        <v>193671.7652821573</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>49807.34113955378</v>
+        <v>194054.5758683912</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>49906.93570173561</v>
+        <v>194442.6066301388</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>50007.8868994611</v>
+        <v>194835.9229849133</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>50110.21167783459</v>
+        <v>195234.5909526021</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>50213.92713716407</v>
+        <v>195638.677157782</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>50319.05053365532</v>
+        <v>196048.2488324233</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>50425.59928021628</v>
+        <v>196463.3738190243</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>50533.59094738385</v>
+        <v>196884.1205742226</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>50643.04326438538</v>
+        <v>197310.55817293</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>50753.97412034665</v>
+        <v>197742.7563130389</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>50866.4015656598</v>
+        <v>198180.7853207525</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>50980.34381352369</v>
+        <v>198624.7161565858</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>51095.81924167105</v>
+        <v>199074.6204220951</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>51212.8463942949</v>
+        <v>199530.5703673827</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>51331.44398418894</v>
+        <v>199992.6388994374</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>51451.63089511576</v>
+        <v>200460.89959136</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>51573.42618441697</v>
+        <v>200935.4266925335</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>51696.84908587936</v>
+        <v>201416.2951397895</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>51821.91901287191</v>
+        <v>201903.5805696307</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>51948.65556176717</v>
+        <v>202397.3593315603</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>52077.0785156623</v>
+        <v>202897.7085025804</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>52207.20784841254</v>
+        <v>203404.7059029059</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>52339.06372899209</v>
+        <v>203918.4301129563</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>52472.6665261958</v>
+        <v>204438.960491672</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>52608.03681369457</v>
+        <v>204966.3771962127</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>52745.19537545856</v>
+        <v>205500.7612030854</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>52884.16321155914</v>
+        <v>206042.19433075</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>53024.96154436336</v>
+        <v>206590.7592637533</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>53167.61182513111</v>
+        <v>207146.5395784328</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>53312.1357410269</v>
+        <v>207709.6197702347</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>53458.55522255559</v>
+        <v>208280.0852826841</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>53606.89245143162</v>
+        <v>208858.0225380453</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>53757.16986889094</v>
+        <v>209443.5189697051</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>53909.41018445226</v>
+        <v>210036.6630563076</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>54063.63638513524</v>
+        <v>210637.5443576697</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>54219.87174514035</v>
+        <v>211246.2535524949</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>54378.1398359958</v>
+        <v>211862.8824779056</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>54538.46453717384</v>
+        <v>212487.5241708073</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>54700.87004718003</v>
+        <v>213120.2729110909</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>54865.38089511418</v>
+        <v>213761.2242666786</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>55032.02195270519</v>
+        <v>214410.4751404097</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>55200.81844681475</v>
+        <v>215068.1238187588</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>55371.79597240973</v>
+        <v>215734.2700223756</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>55544.98050599609</v>
+        <v>216409.0149584261</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>55720.3984195092</v>
+        <v>217092.4613747112</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>55898.07649465225</v>
+        <v>217784.7136155283</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>56078.04193767418</v>
+        <v>218485.8776792498</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>56260.32239457443</v>
+        <v>219196.0612775628</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>56444.9459667245</v>
+        <v>219915.3738963291</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>56631.94122688925</v>
+        <v>220643.9268580101</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>56821.33723563498</v>
+        <v>221381.8333855907</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>57013.16355810455</v>
+        <v>222129.2086679398</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>57207.45028114259</v>
+        <v>222886.1699265296</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>57404.2280307486</v>
+        <v>223652.8364834361</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>57603.52798983788</v>
+        <v>224429.3298305372</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>57805.38191628418</v>
+        <v>225215.7736998086</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>58009.8221612222</v>
+        <v>226012.2941346318</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>58216.8816875811</v>
+        <v>226819.0195620042</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>58426.59408882299</v>
+        <v>227636.0808655439</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>58638.99360785628</v>
+        <v>228463.6114591803</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>58854.11515609511</v>
+        <v>229301.7473614094</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>59071.99433263279</v>
+        <v>230150.627269998</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>59292.66744349708</v>
+        <v>231010.3926370013</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>59516.17152095437</v>
+        <v>231881.1877439782</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>59742.54434283012</v>
+        <v>232763.1597772602</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>59971.82445180805</v>
+        <v>233656.4589031481</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>60204.05117467609</v>
+        <v>234561.2383428939</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>60439.2646414819</v>
+        <v>235477.6544473321</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>60677.50580456176</v>
+        <v>236405.8667710198</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>60918.81645740788</v>
+        <v>237346.0381457449</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>61163.23925333744</v>
+        <v>238298.3347532626</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>61410.81772392689</v>
+        <v>239262.9261971179</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>61661.5962971769</v>
+        <v>240239.9855734162</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>61915.62031537092</v>
+        <v>241229.6895404062</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>62172.93605259512</v>
+        <v>242232.2183867345</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>62433.59073188218</v>
+        <v>243247.7560982422</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>62697.63254194918</v>
+        <v>244276.4904231785</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>62965.11065349482</v>
+        <v>245318.6129356939</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>63236.07523502628</v>
+        <v>246374.3190975049</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>63510.57746818588</v>
+        <v>247443.8083176071</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>63788.66956254834</v>
+        <v>248527.2840099283</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>64070.40476986353</v>
+        <v>249624.953648819</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>64355.8373977193</v>
+        <v>250737.0288222828</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>64645.02282260033</v>
+        <v>251863.7252828582</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>64938.0175023247</v>
+        <v>253005.2629960703</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>65234.87898783704</v>
+        <v>254161.8661863782</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>65535.66593434317</v>
+        <v>255333.7633805575</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>65840.4381117725</v>
+        <v>256521.187448464</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>66149.25641455634</v>
+        <v>257724.3756411286</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>66462.18287071375</v>
+        <v>258943.5696261571</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>66779.28065023823</v>
+        <v>260179.0155204086</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>67100.61407278386</v>
+        <v>261430.9639199371</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>67426.24861464871</v>
+        <v>262699.6699272027</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>67756.25091505963</v>
+        <v>263985.393175557</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>68090.68878176382</v>
+        <v>265288.397851028</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>68429.63119593599</v>
+        <v>266608.9527114388</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>68773.14831641318</v>
+        <v>267947.3311029088</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>69121.31148327269</v>
+        <v>269303.8109737896</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>69474.19322077067</v>
+        <v>270678.6748861194</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>69831.86723966403</v>
+        <v>272072.2100246648</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>70194.40843893851</v>
+        <v>273484.7082036565</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>70561.89290697293</v>
+        <v>274916.4658713228</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>70934.39792216763</v>
+        <v>276367.7841123415</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>71312.00195307359</v>
+        <v>277838.9686483385</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>71694.78465805709</v>
+        <v>279330.329836586</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>72082.82688454037</v>
+        <v>280842.1826670404</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>72476.21066786101</v>
+        <v>282374.8467579001</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>72875.01922979471</v>
+        <v>283928.6463498495</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>73279.33697678951</v>
+        <v>285503.9102991798</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>73689.24949796265</v>
+        <v>287100.9720699842</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>74104.84356291105</v>
+        <v>288720.1697256276</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>74526.20711939322</v>
+        <v>290361.8459197137</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>74953.42929093666</v>
+        <v>292026.347886766</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>75386.60037443289</v>
+        <v>293714.0274328554</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>75825.81183777961</v>
+        <v>295425.2409264144</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>76271.1563176327</v>
+        <v>297160.3492894782</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>76722.72761733344</v>
+        <v>298919.7179896108</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>77180.6207050759</v>
+        <v>300703.7170327631</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>77644.9317123817</v>
+        <v>302512.7209573313</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>78115.75793295019</v>
+        <v>304347.108829676</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>78593.19782195214</v>
+        <v>306207.2642413719</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>79077.35099583816</v>
+        <v>308093.5753084606</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>79568.31823273066</v>
+        <v>310006.4346729766</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>80066.2014734689</v>
+        <v>311946.2395070214</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>80571.10382338098</v>
+        <v>313913.3915196662</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>81083.1295548499</v>
+        <v>315908.2969669477</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>81602.38411074616</v>
+        <v>317931.3666652448</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>82128.97410879676</v>
+        <v>319983.0160082993</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>82663.00734696044</v>
+        <v>322063.6649881576</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>83204.59280987746</v>
+        <v>324173.7382203019</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>83753.8406764643</v>
+        <v>326313.6649732371</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>84310.86232871818</v>
+        <v>328483.879202798</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>84875.77036180091</v>
+        <v>330684.8195914319</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>85448.67859546444</v>
+        <v>332916.9295927187</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>86029.70208688504</v>
+        <v>335180.6574813704</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>86618.95714496673</v>
+        <v>337476.4564089612</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>87216.56134617732</v>
+        <v>339804.7844656258</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>87822.63355197513</v>
+        <v>342166.1047479551</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>88437.29392788631</v>
+        <v>344560.8854333233</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>89060.66396428824</v>
+        <v>346989.5998608633</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>89692.8664989548</v>
+        <v>349452.7266193044</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>90334.02574141604</v>
+        <v>351950.7496418806</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>90984.26729918497</v>
+        <v>354484.1583085125</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>91643.71820589887</v>
+        <v>357053.44755545</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>92312.50695142636</v>
+        <v>359659.11799257</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>92990.76351398301</v>
+        <v>362301.6760285049</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>93678.61939430138</v>
+        <v>364981.6340037716</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>94376.20765189943</v>
+        <v>367699.5103320757</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>95083.66294348474</v>
+        <v>370455.8296499404</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>95801.12156353697</v>
+        <v>373251.1229748193</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>96528.72148710482</v>
+        <v>376085.927871837</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>97266.60241485255</v>
+        <v>378960.7886292958</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>98014.90582039287</v>
+        <v>381876.2564430892</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>98773.77499993626</v>
+        <v>384832.8896101413</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>99543.35512429112</v>
+        <v>387831.2537310043</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>100323.7932932433</v>
+        <v>390871.9219217273</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>101115.2385923456</v>
+        <v>393955.4750351128</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>101917.8421521435</v>
+        <v>397082.501891468</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>102731.7572098593</v>
+        <v>400253.5995189323</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>103557.1391735802</v>
+        <v>403469.3734035591</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>104394.1456889549</v>
+        <v>406730.4377491747</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>105242.9367084326</v>
+        <v>410037.4157471403</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>106103.6745630667</v>
+        <v>413390.9398561041</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>106976.5240369065</v>
+        <v>416791.6520918431</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>107861.6524440009</v>
+        <v>420240.204327276</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>108759.2297080381</v>
+        <v>423737.2586027455</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>109669.428444641</v>
+        <v>427283.487446653</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>110592.4240463444</v>
+        <v>430879.5742065363</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>111528.3947702732</v>
+        <v>434526.2133906751</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>112477.5218285476</v>
+        <v>438224.1110203149</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>113439.9894814338</v>
+        <v>441973.9849925995</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>114415.985133268</v>
+        <v>445776.5654542907</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>115405.6994311714</v>
+        <v>449632.595186382</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>116409.3263665831</v>
+        <v>453542.8299996743</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>117427.0633796323</v>
+        <v>457508.0391414246</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>118459.1114663748</v>
+        <v>461529.0057131489</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>119505.675288916</v>
+        <v>465606.5270996726</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>120566.9632884451</v>
+        <v>469741.4154095265</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>121643.1878012059</v>
+        <v>473934.4979267766</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>122734.5651774268</v>
+        <v>478186.61757439</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>123841.3159032334</v>
+        <v>482498.6333892205</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>124963.6647255724</v>
+        <v>486871.4210087234</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>126101.8407801659</v>
+        <v>491305.8731694774</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>127256.0777225222</v>
+        <v>495802.9002176187</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>128426.6138620266</v>
+        <v>500363.4306312723</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>129613.6922991356</v>
+        <v>504988.4115550739</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>130817.5610656942</v>
+        <v>509678.8093468602</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>132038.4732683986</v>
+        <v>514435.6101366181</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>133276.6872354263</v>
+        <v>519259.820397765</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>134532.466666247</v>
+        <v>524152.4675308322</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>135806.0807846344</v>
+        <v>529114.6004596144</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>137097.8044948938</v>
+        <v>534147.2902398458</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>138407.9185413129</v>
+        <v>539251.6306804394</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>139736.7096708498</v>
+        <v>544428.7389773368</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>141084.4707990626</v>
+        <v>549679.7563599845</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>142451.5011792802</v>
+        <v>555005.8487504424</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>143838.1065750163</v>
+        <v>560408.2074351287</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>145244.5994356194</v>
+        <v>565888.0497491665</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>146671.2990751448</v>
+        <v>571446.6197732913</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>148118.5318544358</v>
+        <v>577085.1890432568</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>149586.6313663879</v>
+        <v>582805.0572716413</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>151075.938624368</v>
+        <v>588607.5530819532</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>152586.8022537515</v>
+        <v>594494.034754876</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>154119.5786865322</v>
+        <v>600465.8909864889</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>155674.6323589499</v>
+        <v>606524.5416582463</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>157252.3359120771</v>
+        <v>612671.4386184823</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>158853.0703952865</v>
+        <v>618908.0664751426</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>160477.2254725191</v>
+        <v>625235.9433994255</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>162125.1996312579</v>
+        <v>631656.6219399656</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>163797.4003940953</v>
+        <v>638171.6898471242</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>165494.2445327785</v>
+        <v>644782.7709069295</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>167216.1582845945</v>
+        <v>651491.5257841346</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>168963.577570944</v>
+        <v>658299.6528738079</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>170736.9482179397</v>
+        <v>665208.8891608036</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>172536.7261788457</v>
+        <v>672221.0110864117</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>174363.3777581546</v>
+        <v>679337.835421382</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>176217.3798370861</v>
+        <v>686561.2201444913</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>178099.2201002626</v>
+        <v>693893.0653256988</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>180009.3972633048</v>
+        <v>701335.314012876</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>181948.4213010626</v>
+        <v>708889.9531210224</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>183916.8136761735</v>
+        <v>716559.0143227541</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>185915.1075676231</v>
+        <v>724344.5749387913</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>187943.8480989466</v>
+        <v>732248.758827064</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>190003.5925656919</v>
+        <v>740273.7372689296</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>192094.9106617372</v>
+        <v>748421.7298509241</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>194218.3847040182</v>
+        <v>756695.0053403305</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>196374.6098552062</v>
+        <v>765095.8825527519</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>198564.1943438298</v>
+        <v>773626.7312097271</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>200787.7596813169</v>
+        <v>782289.9727843517</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>203045.9408753876</v>
+        <v>791088.0813326794</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>205339.3866392052</v>
+        <v>800023.5843085918</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>207668.759595651</v>
+        <v>809099.0633596792</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>210034.736476053</v>
+        <v>818317.1551015048</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>212438.0083126675</v>
+        <v>827680.5518675356</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>214879.2806241662</v>
+        <v>837192.0024318154</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>217359.273593348</v>
+        <v>846854.312701356</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>219878.7222362599</v>
+        <v>856670.346375039</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>222438.3765618568</v>
+        <v>866643.0255656763</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>225039.0017213071</v>
+        <v>876775.3313817157</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>227681.3781459964</v>
+        <v>887070.3044649207</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>230366.3016732499</v>
+        <v>897531.0454801938</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>233094.5836587424</v>
+        <v>908160.7155535422</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>235867.0510745332</v>
+        <v>918962.536654025</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>238684.546591614</v>
+        <v>929939.791915379</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>241547.9286458213</v>
+        <v>941095.8258928105</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>244458.0714859194</v>
+        <v>952434.0447503353</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>247415.8652026216</v>
+        <v>963957.9163738508</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>250422.2157372778</v>
+        <v>975670.9704049787</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>253478.0448689176</v>
+        <v>987576.7981905874</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>256584.2901782962</v>
+        <v>999679.0526427121</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>259741.9049875614</v>
+        <v>1011981.448003486</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>262951.8582741185</v>
+        <v>1024487.759509552</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>266215.1345572405</v>
+        <v>1037201.822950287</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>269532.7337559406</v>
+        <v>1050127.534114054</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>272905.6710165937</v>
+        <v>1063268.848116598</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>276334.9765087729</v>
+        <v>1076629.778605609</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>279821.6951877389</v>
+        <v>1090214.396835345</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>322659.5261365576</v>
+        <v>1257115.036895679</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>366163.3693019423</v>
+        <v>1426610.529747827</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>410344.5284613754</v>
+        <v>1598744.916083281</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>455214.4482690397</v>
+        <v>1773562.785463792</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>500784.7105022282</v>
+        <v>1951109.261696993</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>547067.0298537656</v>
+        <v>2131429.986443242</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>594073.249252914</v>
+        <v>2314571.100985378</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>641815.3346973286</v>
+        <v>2500579.226093488</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>690305.369578819</v>
+        <v>2689501.439917476</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>739555.5484860362</v>
+        <v>2881385.253841698</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>789578.1704675027</v>
+        <v>3076278.586237024</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>840385.6317388203</v>
+        <v>3274229.734047352</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>891990.4178184824</v>
+        <v>3475287.342149931</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>944405.0950772929</v>
+        <v>3679500.370431011</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>997642.3016870823</v>
+        <v>3886918.058521098</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1051714.737955289</v>
+        <v>4097589.888137488</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1106635.156032797</v>
+        <v>4311565.542984924</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1162416.348983483</v>
+        <v>4528894.866169413</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1219071.13920509</v>
+        <v>4749627.815084763</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1276612.366192184</v>
+        <v>4973814.413735781</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1335052.873633416</v>
+        <v>5201504.702467853</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1394405.495836651</v>
+        <v>5432748.685077859</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1454683.043477297</v>
+        <v>5667596.273288168</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1515898.288666683</v>
+        <v>5906097.22857149</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1578063.949339302</v>
+        <v>6148301.101321952</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1641192.672959649</v>
+        <v>6394257.167375253</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1705297.019551448</v>
+        <v>6644014.361888752</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1770389.444054252</v>
+        <v>6897621.210600981</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1836482.278014757</v>
+        <v>7155125.758499053</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1903587.710622541</v>
+        <v>7416575.495931973</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1971717.769102485</v>
+        <v>7682017.282217473</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2040884.298478822</v>
+        <v>7951497.266800604</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2111098.940728412</v>
+        <v>8225060.808032771</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2182373.113343738</v>
+        <v>8502752.389650924</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2254717.987329032</v>
+        <v>8784615.535048174</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2328144.46465587</v>
+        <v>9070692.719438449</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2402663.155207634</v>
+        <v>9361025.280029736</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2478284.353245471</v>
+        <v>9655653.324332999</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2555018.013431305</v>
+        <v>9954615.636745347</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2632873.726446795</v>
+        <v>10257949.58355894</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2711860.694250265</v>
+        <v>10565691.01655947</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2791987.70501677</v>
+        <v>10877874.17539001</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2873263.107809717</v>
+        <v>11194531.58886902</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2955694.787035396</v>
+        <v>11515693.97546258</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3039290.136735115</v>
+        <v>11841390.14312382</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3124056.03477228</v>
+        <v>12171646.88872316</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3209998.816974998</v>
+        <v>12506488.89730519</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3297124.251297241</v>
+        <v>12845938.64141782</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3385437.512064479</v>
+        <v>13190016.2807707</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3474943.154372038</v>
+        <v>13538739.56248846</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3565645.088706781</v>
+        <v>13892123.7222342</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3657546.555864784</v>
+        <v>14250181.38648617</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3750650.102239601</v>
+        <v>14612922.47625818</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3844957.555557256</v>
+        <v>14980354.11256073</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3940470.001135564</v>
+        <v>15352480.52390479</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3938259.981064175</v>
+        <v>15343870.05609418</v>
       </c>
       <c r="C358" t="n">
-        <v>94721.87295079816</v>
+        <v>369046.258249862</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3935985.20446844</v>
+        <v>15335007.29013677</v>
       </c>
       <c r="C359" t="n">
-        <v>190659.3692961437</v>
+        <v>742828.7115434151</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3933642.433691766</v>
+        <v>15325879.6117861</v>
       </c>
       <c r="C360" t="n">
-        <v>287814.3654510442</v>
+        <v>1121354.670588481</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3931228.270324131</v>
+        <v>15316473.78048362</v>
       </c>
       <c r="C361" t="n">
-        <v>386188.0965149214</v>
+        <v>1504628.947460729</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3928739.149062126</v>
+        <v>15306775.90543684</v>
       </c>
       <c r="C362" t="n">
-        <v>485781.1430690963</v>
+        <v>1892653.804165306</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3926171.331472998</v>
+        <v>15296771.42132337</v>
       </c>
       <c r="C363" t="n">
-        <v>586593.4190248909</v>
+        <v>2285428.905291776</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3923520.89967303</v>
+        <v>15286445.06366115</v>
       </c>
       <c r="C364" t="n">
-        <v>688624.1605874703</v>
+        <v>2682951.275016111</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3920783.749931965</v>
+        <v>15275780.84389077</v>
       </c>
       <c r="C365" t="n">
-        <v>791871.9163977858</v>
+        <v>3085215.258692663</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3917955.586216598</v>
+        <v>15264762.02422051</v>
       </c>
       <c r="C366" t="n">
-        <v>896334.5389120725</v>
+        <v>3492212.489267806</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3915031.913688133</v>
+        <v>15253371.09229142</v>
       </c>
       <c r="C367" t="n">
-        <v>1002009.177074984</v>
+        <v>3903931.858733693</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3912008.032169526</v>
+        <v>15241589.73572542</v>
       </c>
       <c r="C368" t="n">
-        <v>1108892.270338269</v>
+        <v>4320359.494824413</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3908879.029600745</v>
+        <v>15229398.81662627</v>
       </c>
       <c r="C369" t="n">
-        <v>1216979.544072774</v>
+        <v>4741478.743140664</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>3905639.775501681</v>
+        <v>15216778.34611044</v>
       </c>
       <c r="C370" t="n">
-        <v>1326266.006416402</v>
+        <v>5167270.154869087</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>3902284.914464345</v>
+        <v>15203707.45895199</v>
       </c>
       <c r="C371" t="n">
-        <v>1436745.946595501</v>
+        <v>5597711.480242198</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>3898808.859698017</v>
+        <v>15190164.38843382</v>
       </c>
       <c r="C372" t="n">
-        <v>1548412.934751301</v>
+        <v>6032777.667862197</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3895205.78665313</v>
+        <v>15176126.4415057</v>
       </c>
       <c r="C373" t="n">
-        <v>1548404.022524242</v>
+        <v>6032742.944899627</v>
       </c>
       <c r="D373" t="n">
-        <v>112694.5886185957</v>
+        <v>439069.8257867363</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3891469.626751898</v>
+        <v>15161569.97435804</v>
       </c>
       <c r="C374" t="n">
-        <v>1548393.710051625</v>
+        <v>6032702.766434887</v>
       </c>
       <c r="D374" t="n">
-        <v>226560.9392308516</v>
+        <v>882704.9580422784</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3887594.061256018</v>
+        <v>15146470.36852993</v>
       </c>
       <c r="C375" t="n">
-        <v>1548381.792759327</v>
+        <v>6032656.335425932</v>
       </c>
       <c r="D375" t="n">
-        <v>341590.6955993295</v>
+        <v>1330872.839997387</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3883572.515304192</v>
+        <v>15130802.00767867</v>
       </c>
       <c r="C376" t="n">
-        <v>1548368.03872891</v>
+        <v>6032602.74829444</v>
       </c>
       <c r="D376" t="n">
-        <v>457774.8254735321</v>
+        <v>1783538.281065708</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3879398.152154747</v>
+        <v>15114538.25514836</v>
       </c>
       <c r="C377" t="n">
-        <v>1548352.185441003</v>
+        <v>6032540.982237659</v>
       </c>
       <c r="D377" t="n">
-        <v>575103.6314236162</v>
+        <v>2240663.499053048</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3875063.86767122</v>
+        <v>15097651.43248526</v>
       </c>
       <c r="C378" t="n">
-        <v>1548333.936189947</v>
+        <v>6032469.881259516</v>
       </c>
       <c r="D378" t="n">
-        <v>693566.7635495092</v>
+        <v>2702208.169673411</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3870562.285091424</v>
+        <v>15080112.7990575</v>
       </c>
       <c r="C379" t="n">
-        <v>1548312.956144887</v>
+        <v>6032388.140824218</v>
       </c>
       <c r="D379" t="n">
-        <v>813153.234069999</v>
+        <v>3168129.483389604</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3865885.750123339</v>
+        <v>15061892.53294807</v>
       </c>
       <c r="C380" t="n">
-        <v>1548288.868031769</v>
+        <v>6032294.291032849</v>
       </c>
       <c r="D380" t="n">
-        <v>933851.4337884153</v>
+        <v>3638382.209565253</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3861026.326413815</v>
+        <v>15042959.71330057</v>
       </c>
       <c r="C381" t="n">
-        <v>1548261.247410117</v>
+        <v>6032186.678221223</v>
       </c>
       <c r="D381" t="n">
-        <v>1055649.150423235</v>
+        <v>4112918.76788273</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3855975.791439099</v>
+        <v>15023282.30430817</v>
       </c>
       <c r="C382" t="n">
-        <v>1548229.617518129</v>
+        <v>6032063.444875812</v>
       </c>
       <c r="D382" t="n">
-        <v>1178533.588783236</v>
+        <v>4591689.306947669</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3850725.632868869</v>
+        <v>15002827.14104753</v>
       </c>
       <c r="C383" t="n">
-        <v>1548193.443659437</v>
+        <v>6031922.507764026</v>
       </c>
       <c r="D383" t="n">
-        <v>1178531.379820802</v>
+        <v>4591680.700600526</v>
       </c>
       <c r="E383" t="n">
-        <v>185028.3049480815</v>
+        <v>546128.4089376653</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3845267.045458472</v>
+        <v>14981559.91737066</v>
       </c>
       <c r="C384" t="n">
-        <v>1548152.127105029</v>
+        <v>6031761.534175422</v>
       </c>
       <c r="D384" t="n">
-        <v>1178528.746334512</v>
+        <v>4591670.440264329</v>
       </c>
       <c r="E384" t="n">
-        <v>371638.6597662745</v>
+        <v>1096926.386559249</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3839590.928526773</v>
+        <v>14959445.17607833</v>
       </c>
       <c r="C385" t="n">
-        <v>1548104.998484202</v>
+        <v>6031577.916172199</v>
       </c>
       <c r="D385" t="n">
-        <v>1178525.611988852</v>
+        <v>4591658.228527992</v>
       </c>
       <c r="E385" t="n">
-        <v>559809.6769641609</v>
+        <v>1652330.805679337</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3833687.884079923</v>
+        <v>14936446.30161009</v>
       </c>
       <c r="C386" t="n">
-        <v>1548051.310639176</v>
+        <v>6031368.742750021</v>
       </c>
       <c r="D386" t="n">
-        <v>1178521.887768709</v>
+        <v>4591643.718579382</v>
       </c>
       <c r="E386" t="n">
-        <v>749519.2648045304</v>
+        <v>2212276.460462009</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3827548.215643999</v>
+        <v>14912525.51549609</v>
       </c>
       <c r="C387" t="n">
-        <v>1547990.230919133</v>
+        <v>6031130.769814787</v>
       </c>
       <c r="D387" t="n">
-        <v>1178517.470071411</v>
+        <v>4591626.50677173</v>
       </c>
       <c r="E387" t="n">
-        <v>940744.673091762</v>
+        <v>2776696.201569538</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3821161.927872125</v>
+        <v>14887643.87482646</v>
       </c>
       <c r="C388" t="n">
-        <v>1547920.832890969</v>
+        <v>6030860.387886876</v>
       </c>
       <c r="D388" t="n">
-        <v>1178512.238547196</v>
+        <v>4591606.124209852</v>
       </c>
       <c r="E388" t="n">
-        <v>1291141.357545905</v>
+        <v>3345521.079132385</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3814518.726994172</v>
+        <v>14861761.27400326</v>
       </c>
       <c r="C389" t="n">
-        <v>1547842.087446109</v>
+        <v>6030553.587452358</v>
       </c>
       <c r="D389" t="n">
-        <v>1178506.053660939</v>
+        <v>4591582.02725041</v>
       </c>
       <c r="E389" t="n">
-        <v>1644208.238436623</v>
+        <v>3918680.493267789</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3807608.022179434</v>
+        <v>14834836.45004973</v>
       </c>
       <c r="C390" t="n">
-        <v>1547752.85328522</v>
+        <v>6030205.92189045</v>
       </c>
       <c r="D390" t="n">
-        <v>1178498.753946058</v>
+        <v>4591553.586802822</v>
       </c>
       <c r="E390" t="n">
-        <v>1999900.931950257</v>
+        <v>4496102.351835918</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3800418.927884758</v>
+        <v>14806826.99175879</v>
       </c>
       <c r="C391" t="n">
-        <v>1547651.866765776</v>
+        <v>6029812.467918594</v>
       </c>
       <c r="D391" t="n">
-        <v>1178490.15291953</v>
+        <v>4591520.076309857</v>
       </c>
       <c r="E391" t="n">
-        <v>2358174.241208467</v>
+        <v>5077713.235082864</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3792940.267262539</v>
+        <v>14777689.35297093</v>
       </c>
       <c r="C392" t="n">
-        <v>1547537.731101121</v>
+        <v>6029367.783510844</v>
       </c>
       <c r="D392" t="n">
-        <v>1178480.035625117</v>
+        <v>4591480.658279673</v>
       </c>
       <c r="E392" t="n">
-        <v>2718982.262516639</v>
+        <v>5663438.566780202</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3785160.576704449</v>
+        <v>14747378.87027708</v>
       </c>
       <c r="C393" t="n">
-        <v>1547408.904903962</v>
+        <v>6028865.863262173</v>
       </c>
       <c r="D393" t="n">
-        <v>1178468.154770053</v>
+        <v>4591434.369233971</v>
       </c>
       <c r="E393" t="n">
-        <v>2718979.423267818</v>
+        <v>5663431.57031103</v>
       </c>
       <c r="F393" t="n">
-        <v>341952.7325733591</v>
+        <v>666141.6868312198</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3777068.111598055</v>
+        <v>14715849.78544696</v>
       </c>
       <c r="C394" t="n">
-        <v>1547263.690072287</v>
+        <v>6028300.091190714</v>
       </c>
       <c r="D394" t="n">
-        <v>1178454.226418839</v>
+        <v>4591380.102930536</v>
       </c>
       <c r="E394" t="n">
-        <v>2718975.97700447</v>
+        <v>5663423.096529177</v>
       </c>
       <c r="F394" t="n">
-        <v>686203.8256612752</v>
+        <v>1336760.699340148</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3768650.853374296</v>
+        <v>14683055.27288686</v>
       </c>
       <c r="C395" t="n">
-        <v>1547100.219021362</v>
+        <v>6027663.190992304</v>
       </c>
       <c r="D395" t="n">
-        <v>1178437.925206235</v>
+        <v>4591316.591712602</v>
       </c>
       <c r="E395" t="n">
-        <v>2718971.801890384</v>
+        <v>5663412.852991556</v>
       </c>
       <c r="F395" t="n">
-        <v>1032708.826644009</v>
+        <v>2011770.441514305</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3759896.517924179</v>
+        <v>14648947.47243186</v>
       </c>
       <c r="C396" t="n">
-        <v>1546916.441271941</v>
+        <v>6026947.173786768</v>
       </c>
       <c r="D396" t="n">
-        <v>1178418.879030389</v>
+        <v>4591242.38583268</v>
       </c>
       <c r="E396" t="n">
-        <v>2718966.753388403</v>
+        <v>5663400.493614115</v>
       </c>
       <c r="F396" t="n">
-        <v>1381423.072684027</v>
+        <v>2691083.90782603</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3750792.565462971</v>
+        <v>14613477.5277778</v>
       </c>
       <c r="C397" t="n">
-        <v>1546710.109412029</v>
+        <v>6026143.283423471</v>
       </c>
       <c r="D397" t="n">
-        <v>1178396.663185985</v>
+        <v>4591155.830594744</v>
       </c>
       <c r="E397" t="n">
-        <v>2718960.66039894</v>
+        <v>5663385.609713276</v>
       </c>
       <c r="F397" t="n">
-        <v>1732301.809740926</v>
+        <v>3374613.91507973</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3741326.211919506</v>
+        <v>14576595.63085521</v>
       </c>
       <c r="C398" t="n">
-        <v>1546478.764457517</v>
+        <v>6025241.939444857</v>
       </c>
       <c r="D398" t="n">
-        <v>1178370.79389682</v>
+        <v>4591055.041156439</v>
       </c>
       <c r="E398" t="n">
-        <v>2718953.32081493</v>
+        <v>5663367.719723918</v>
       </c>
       <c r="F398" t="n">
-        <v>2085300.314248522</v>
+        <v>4062273.339445177</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3731484.441927067</v>
+        <v>14538251.07244312</v>
       </c>
       <c r="C399" t="n">
-        <v>1546219.720645781</v>
+        <v>6024232.677840692</v>
       </c>
       <c r="D399" t="n">
-        <v>1178340.721206983</v>
+        <v>4590937.874832399</v>
       </c>
       <c r="E399" t="n">
-        <v>2718944.496418844</v>
+        <v>5663346.257430359</v>
       </c>
       <c r="F399" t="n">
-        <v>2440374.017146857</v>
+        <v>4753975.358078297</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3721254.023490374</v>
+        <v>14498392.29931314</v>
       </c>
       <c r="C400" t="n">
-        <v>1545930.049705863</v>
+        <v>6023104.089763085</v>
       </c>
       <c r="D400" t="n">
-        <v>1178305.821190227</v>
+        <v>4590801.900741143</v>
       </c>
       <c r="E400" t="n">
-        <v>2718933.907040342</v>
+        <v>5663320.558532322</v>
       </c>
       <c r="F400" t="n">
-        <v>2797478.629942305</v>
+        <v>5449633.694692808</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3710621.524400691</v>
+        <v>14456966.9781845</v>
       </c>
       <c r="C401" t="n">
-        <v>1545606.564659168</v>
+        <v>6021843.758412328</v>
       </c>
       <c r="D401" t="n">
-        <v>1178265.387438072</v>
+        <v>4590644.366641837</v>
       </c>
       <c r="E401" t="n">
-        <v>2718921.223885927</v>
+        <v>5663289.845352948</v>
       </c>
       <c r="F401" t="n">
-        <v>3156570.272450512</v>
+        <v>6149162.868410095</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3699573.330467794</v>
+        <v>14413922.06675763</v>
       </c>
       <c r="C402" t="n">
-        <v>1545245.803215645</v>
+        <v>6020438.194346655</v>
       </c>
       <c r="D402" t="n">
-        <v>1178218.621788813</v>
+        <v>4590462.162813552</v>
       </c>
       <c r="E402" t="n">
-        <v>2718906.061944551</v>
+        <v>5663253.209480912</v>
       </c>
       <c r="F402" t="n">
-        <v>3517605.601855945</v>
+        <v>6852478.445173927</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>3688095.665633423</v>
+        <v>14369203.89207827</v>
       </c>
       <c r="C403" t="n">
-        <v>1544844.010842112</v>
+        <v>6018872.769514706</v>
       </c>
       <c r="D403" t="n">
-        <v>1178164.624262023</v>
+        <v>4590251.782839049</v>
       </c>
       <c r="E403" t="n">
-        <v>2718887.971365699</v>
+        <v>5663209.592123887</v>
       </c>
       <c r="F403" t="n">
-        <v>3517602.519750695</v>
+        <v>6852472.441072792</v>
       </c>
       <c r="G403" t="n">
-        <v>224942.464839558</v>
+        <v>674827.3945186753</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>3676174.614025966</v>
+        <v>14322758.2364648</v>
       </c>
       <c r="C404" t="n">
-        <v>1544397.123591781</v>
+        <v>6017131.65035757</v>
       </c>
       <c r="D404" t="n">
-        <v>1178102.382166417</v>
+        <v>4590009.281167857</v>
       </c>
       <c r="E404" t="n">
-        <v>2718866.427699066</v>
+        <v>5663157.761935993</v>
       </c>
       <c r="F404" t="n">
-        <v>3517598.736157295</v>
+        <v>6852465.070436298</v>
       </c>
       <c r="G404" t="n">
-        <v>451037.6177591073</v>
+        <v>1353112.853277324</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>3663796.144010331</v>
+        <v>14274530.43120908</v>
       </c>
       <c r="C405" t="n">
-        <v>1543900.750796933</v>
+        <v>6015197.730377648</v>
       </c>
       <c r="D405" t="n">
-        <v>1178030.758353123</v>
+        <v>4589730.227349828</v>
       </c>
       <c r="E405" t="n">
-        <v>2718840.820877804</v>
+        <v>5663096.290068233</v>
       </c>
       <c r="F405" t="n">
-        <v>3517594.101186146</v>
+        <v>6852456.04127172</v>
       </c>
       <c r="G405" t="n">
-        <v>678260.1722347578</v>
+        <v>2034780.516704278</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>3650946.134280312</v>
+        <v>14224465.45823498</v>
       </c>
       <c r="C406" t="n">
-        <v>1543350.15774009</v>
+        <v>6013052.562623712</v>
       </c>
       <c r="D406" t="n">
-        <v>1177948.478591704</v>
+        <v>4589409.65685079</v>
       </c>
       <c r="E406" t="n">
-        <v>2718810.442820478</v>
+        <v>5663023.522178038</v>
       </c>
       <c r="F406" t="n">
-        <v>3517588.435207896</v>
+        <v>6852445.003651755</v>
       </c>
       <c r="G406" t="n">
-        <v>906585.5163496373</v>
+        <v>2719756.549048917</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>3637610.402033111</v>
+        <v>14172508.05986926</v>
       </c>
       <c r="C407" t="n">
-        <v>1542740.248432759</v>
+        <v>6010676.292595148</v>
       </c>
       <c r="D407" t="n">
-        <v>1177854.118052601</v>
+        <v>4589042.018386756</v>
       </c>
       <c r="E407" t="n">
-        <v>2718774.473520651</v>
+        <v>5662937.547122998</v>
       </c>
       <c r="F407" t="n">
-        <v>3517581.52346193</v>
+        <v>6852431.53921156</v>
       </c>
       <c r="G407" t="n">
-        <v>1135989.79633864</v>
+        <v>3407969.389015927</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>3623774.733257162</v>
+        <v>14118602.85684608</v>
       </c>
       <c r="C408" t="n">
-        <v>1542065.548644867</v>
+        <v>6008047.592122842</v>
       </c>
       <c r="D408" t="n">
-        <v>1177746.086887265</v>
+        <v>4588621.117742587</v>
       </c>
       <c r="E408" t="n">
-        <v>2718731.965487533</v>
+        <v>5662836.162054595</v>
       </c>
       <c r="F408" t="n">
-        <v>3517573.109794723</v>
+        <v>6852415.148950765</v>
       </c>
       <c r="G408" t="n">
-        <v>1366449.999839616</v>
+        <v>4099349.999518858</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>3609424.915154828</v>
+        <v>14062694.47462919</v>
       </c>
       <c r="C409" t="n">
-        <v>1541320.189342054</v>
+        <v>6005143.594839156</v>
       </c>
       <c r="D409" t="n">
-        <v>1177622.614906038</v>
+        <v>4588140.05807547</v>
       </c>
       <c r="E409" t="n">
-        <v>2718681.826396716</v>
+        <v>5662716.833621044</v>
       </c>
       <c r="F409" t="n">
-        <v>3517562.889409016</v>
+        <v>6852395.239108481</v>
       </c>
       <c r="G409" t="n">
-        <v>1597944.038595491</v>
+        <v>4793832.115786484</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>3594546.770711079</v>
+        <v>14004727.67809511</v>
       </c>
       <c r="C410" t="n">
-        <v>1540497.890702019</v>
+        <v>6001939.833903953</v>
       </c>
       <c r="D410" t="n">
-        <v>1177481.735364069</v>
+        <v>4587591.176743126</v>
       </c>
       <c r="E410" t="n">
-        <v>2718622.799806814</v>
+        <v>5662576.654984881</v>
       </c>
       <c r="F410" t="n">
-        <v>3517550.500492488</v>
+        <v>6852371.104855502</v>
       </c>
       <c r="G410" t="n">
-        <v>1830450.830340387</v>
+        <v>5491352.49102117</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>3579126.195407767</v>
+        <v>13944647.51457571</v>
       </c>
       <c r="C411" t="n">
-        <v>1539591.946894928</v>
+        <v>5998410.182707497</v>
       </c>
       <c r="D411" t="n">
-        <v>1177321.267877022</v>
+        <v>4586965.978741641</v>
       </c>
       <c r="E411" t="n">
-        <v>2718553.443796305</v>
+        <v>5662412.298360977</v>
       </c>
       <c r="F411" t="n">
-        <v>3517535.514581802</v>
+        <v>6852341.911522999</v>
       </c>
       <c r="G411" t="n">
-        <v>2063950.379592667</v>
+        <v>6191851.138778014</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>3563149.196070669</v>
+        <v>13882399.46521039</v>
       </c>
       <c r="C412" t="n">
-        <v>1538595.211826212</v>
+        <v>5994526.799322886</v>
       </c>
       <c r="D412" t="n">
-        <v>1177138.800501314</v>
+        <v>4586255.066888232</v>
       </c>
       <c r="E412" t="n">
-        <v>2718472.10737519</v>
+        <v>5662219.962785373</v>
       </c>
       <c r="F412" t="n">
-        <v>3517517.425504787</v>
+        <v>6852306.673061281</v>
       </c>
       <c r="G412" t="n">
-        <v>2298423.857064793</v>
+        <v>6895271.571194394</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>3546601.931823146</v>
+        <v>13817929.60450576</v>
       </c>
       <c r="C413" t="n">
-        <v>1537500.086052758</v>
+        <v>5990260.07553021</v>
       </c>
       <c r="D413" t="n">
-        <v>1176931.671027984</v>
+        <v>4585448.068940195</v>
       </c>
       <c r="E413" t="n">
-        <v>2718376.904528674</v>
+        <v>5661995.316834955</v>
       </c>
       <c r="F413" t="n">
-        <v>3517495.636730052</v>
+        <v>6852264.227396213</v>
       </c>
       <c r="G413" t="n">
-        <v>2298422.315873006</v>
+        <v>6895266.94761903</v>
       </c>
       <c r="H413" t="n">
-        <v>252871.6294568353</v>
+        <v>758614.8883705074</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>3529470.757105944</v>
+        <v>13751184.76794523</v>
       </c>
       <c r="C414" t="n">
-        <v>1536298.505095364</v>
+        <v>5985578.591280624</v>
       </c>
       <c r="D414" t="n">
-        <v>1176696.947555028</v>
+        <v>4584533.561902706</v>
       </c>
       <c r="E414" t="n">
-        <v>2718265.685755266</v>
+        <v>5661733.436033663</v>
       </c>
       <c r="F414" t="n">
-        <v>3517469.446939969</v>
+        <v>6852213.208324623</v>
       </c>
       <c r="G414" t="n">
-        <v>2298420.403323771</v>
+        <v>6895261.209971328</v>
       </c>
       <c r="H414" t="n">
-        <v>506753.373870108</v>
+        <v>1520260.121610327</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>3511742.266707596</v>
+        <v>13682112.72743219</v>
       </c>
       <c r="C415" t="n">
-        <v>1534981.929380948</v>
+        <v>5980449.075510173</v>
       </c>
       <c r="D415" t="n">
-        <v>1176431.408420191</v>
+        <v>4583498.993844897</v>
       </c>
       <c r="E415" t="n">
-        <v>2718136.006969902</v>
+        <v>5661428.734703096</v>
       </c>
       <c r="F415" t="n">
-        <v>3517438.033629719</v>
+        <v>6852152.013564395</v>
       </c>
       <c r="G415" t="n">
-        <v>2298418.035331806</v>
+        <v>6895254.105995435</v>
       </c>
       <c r="H415" t="n">
-        <v>761629.3491150108</v>
+        <v>2284888.047345037</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>3493403.342733935</v>
+        <v>13610662.37428804</v>
       </c>
       <c r="C416" t="n">
-        <v>1533541.336057371</v>
+        <v>5974836.37424948</v>
       </c>
       <c r="D416" t="n">
-        <v>1176131.521594635</v>
+        <v>4582330.603615457</v>
       </c>
       <c r="E416" t="n">
-        <v>2717985.0956542</v>
+        <v>5661074.892045092</v>
       </c>
       <c r="F416" t="n">
-        <v>3517400.434522456</v>
+        <v>6852078.768550247</v>
       </c>
       <c r="G416" t="n">
-        <v>2298415.110106654</v>
+        <v>6895245.330319976</v>
       </c>
       <c r="H416" t="n">
-        <v>1017485.262247839</v>
+        <v>3052455.786743521</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>3474441.203428627</v>
+        <v>13536783.90946218</v>
       </c>
       <c r="C417" t="n">
-        <v>1531967.212931401</v>
+        <v>5968703.427005442</v>
       </c>
       <c r="D417" t="n">
-        <v>1175793.423657546</v>
+        <v>4581013.338925501</v>
       </c>
       <c r="E417" t="n">
-        <v>2717809.814151316</v>
+        <v>5660664.772281627</v>
       </c>
       <c r="F417" t="n">
-        <v>3517355.526578826</v>
+        <v>6851991.285543174</v>
       </c>
       <c r="G417" t="n">
-        <v>2298411.504738193</v>
+        <v>6895234.514214596</v>
       </c>
       <c r="H417" t="n">
-        <v>1274308.487842577</v>
+        <v>3822925.463527738</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>3454843.453739384</v>
+        <v>13460429.04054305</v>
       </c>
       <c r="C418" t="n">
-        <v>1530249.554786145</v>
+        <v>5962011.252413536</v>
       </c>
       <c r="D418" t="n">
-        <v>1175412.898492462</v>
+        <v>4579530.773347253</v>
       </c>
       <c r="E418" t="n">
-        <v>2717606.620022261</v>
+        <v>5660190.338724136</v>
       </c>
       <c r="F418" t="n">
-        <v>3517302.00236853</v>
+        <v>6851887.017601041</v>
       </c>
       <c r="G418" t="n">
-        <v>2298407.071193436</v>
+        <v>6895221.213580324</v>
       </c>
       <c r="H418" t="n">
-        <v>1532088.141271907</v>
+        <v>4596264.423815728</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>3434598.137506664</v>
+        <v>13381551.1850909</v>
       </c>
       <c r="C419" t="n">
-        <v>1528377.862337902</v>
+        <v>5954718.944173629</v>
       </c>
       <c r="D419" t="n">
-        <v>1174985.355867736</v>
+        <v>4577865.022861306</v>
       </c>
       <c r="E419" t="n">
-        <v>2717371.523404503</v>
+        <v>5659642.561700603</v>
       </c>
       <c r="F419" t="n">
-        <v>3517238.34356285</v>
+        <v>6851763.006940625</v>
       </c>
       <c r="G419" t="n">
-        <v>2298401.631637781</v>
+        <v>6895204.894913359</v>
       </c>
       <c r="H419" t="n">
-        <v>1790815.148590246</v>
+        <v>5372445.445770746</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>3413693.791133556</v>
+        <v>13300105.67974112</v>
       </c>
       <c r="C420" t="n">
-        <v>1526341.144093609</v>
+        <v>5946783.678286772</v>
       </c>
       <c r="D420" t="n">
-        <v>1174505.81008589</v>
+        <v>4575996.662672296</v>
       </c>
       <c r="E420" t="n">
-        <v>2717100.041342456</v>
+        <v>5659011.320335371</v>
       </c>
       <c r="F420" t="n">
-        <v>3517162.791300417</v>
+        <v>6851615.827208612</v>
       </c>
       <c r="G420" t="n">
-        <v>2298394.972984001</v>
+        <v>6895184.918952017</v>
       </c>
       <c r="H420" t="n">
-        <v>2050482.312663293</v>
+        <v>6151446.93798989</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>3392119.498576936</v>
+        <v>13216049.99445559</v>
       </c>
       <c r="C421" t="n">
-        <v>1524127.921368583</v>
+        <v>5938160.732604853</v>
       </c>
       <c r="D421" t="n">
-        <v>1173968.858909452</v>
+        <v>4573904.645101758</v>
       </c>
       <c r="E421" t="n">
-        <v>2716787.14909335</v>
+        <v>5658285.298253765</v>
       </c>
       <c r="F421" t="n">
-        <v>3517073.313174768</v>
+        <v>6851441.519171634</v>
       </c>
       <c r="G421" t="n">
-        <v>2298386.840561782</v>
+        <v>6895160.52168536</v>
       </c>
       <c r="H421" t="n">
-        <v>2311084.375174732</v>
+        <v>6933253.125524209</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>3369864.947481429</v>
+        <v>13129343.95122634</v>
       </c>
       <c r="C422" t="n">
-        <v>1521726.236719883</v>
+        <v>5928803.519687838</v>
       </c>
       <c r="D422" t="n">
-        <v>1173368.662993821</v>
+        <v>4571566.219456443</v>
       </c>
       <c r="E422" t="n">
-        <v>2716427.228451325</v>
+        <v>5657451.873372002</v>
       </c>
       <c r="F422" t="n">
-        <v>3516967.566591794</v>
+        <v>6851235.51933467</v>
       </c>
       <c r="G422" t="n">
-        <v>2298376.930789705</v>
+        <v>6895130.792369128</v>
       </c>
       <c r="H422" t="n">
-        <v>2572618.074125491</v>
+        <v>7717854.222376485</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>3346920.486258975</v>
+        <v>13039949.94646353</v>
       </c>
       <c r="C423" t="n">
-        <v>1519123.666043055</v>
+        <v>5918663.633933961</v>
       </c>
       <c r="D423" t="n">
-        <v>1172698.926080635</v>
+        <v>4568956.854859613</v>
       </c>
       <c r="E423" t="n">
-        <v>2716014.013177445</v>
+        <v>5656497.002032626</v>
       </c>
       <c r="F423" t="n">
-        <v>3516842.858248918</v>
+        <v>6850992.581004392</v>
       </c>
       <c r="G423" t="n">
-        <v>2298364.882720253</v>
+        <v>6895094.648160775</v>
       </c>
       <c r="H423" t="n">
-        <v>2835082.196425601</v>
+        <v>8505246.589276815</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>3323277.181898344</v>
+        <v>12947833.17622731</v>
       </c>
       <c r="C424" t="n">
-        <v>1516307.334569172</v>
+        <v>5907690.913905852</v>
       </c>
       <c r="D424" t="n">
-        <v>1171952.876227448</v>
+        <v>4566050.167119924</v>
       </c>
       <c r="E424" t="n">
-        <v>2715540.531673963</v>
+        <v>5655405.097856864</v>
       </c>
       <c r="F424" t="n">
-        <v>3516696.099496211</v>
+        <v>6850706.687330289</v>
       </c>
       <c r="G424" t="n">
-        <v>2298350.268316909</v>
+        <v>6895050.804950742</v>
       </c>
       <c r="H424" t="n">
-        <v>3098477.62516102</v>
+        <v>9295432.875483075</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>3298926.878270778</v>
+        <v>12852961.86339264</v>
       </c>
       <c r="C425" t="n">
-        <v>1513263.936984625</v>
+        <v>5895833.520719302</v>
       </c>
       <c r="D425" t="n">
-        <v>1171123.24837106</v>
+        <v>4562817.850796335</v>
       </c>
       <c r="E425" t="n">
-        <v>2714999.047097437</v>
+        <v>5654158.905807778</v>
       </c>
       <c r="F425" t="n">
-        <v>3516523.757353633</v>
+        <v>6850370.955883708</v>
       </c>
       <c r="G425" t="n">
-        <v>2298332.581310838</v>
+        <v>6894997.743932527</v>
       </c>
       <c r="H425" t="n">
-        <v>3362807.381100745</v>
+        <v>10088422.14330225</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>3273862.254680273</v>
+        <v>12755307.48576729</v>
       </c>
       <c r="C426" t="n">
-        <v>1509979.761878025</v>
+        <v>5883038.033290992</v>
       </c>
       <c r="D426" t="n">
-        <v>1170202.268542015</v>
+        <v>4559229.61769616</v>
       </c>
       <c r="E426" t="n">
-        <v>2714380.995167264</v>
+        <v>5652739.372091604</v>
       </c>
       <c r="F426" t="n">
-        <v>3516321.800978689</v>
+        <v>6849977.534374074</v>
       </c>
       <c r="G426" t="n">
-        <v>2298311.224473314</v>
+        <v>6894933.673419958</v>
       </c>
       <c r="H426" t="n">
-        <v>3628076.657989724</v>
+        <v>10884229.97396919</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>3248076.884390087</v>
+        <v>12654845.00411722</v>
       </c>
       <c r="C427" t="n">
-        <v>1506440.720696721</v>
+        <v>5869249.561156044</v>
       </c>
       <c r="D427" t="n">
-        <v>1169181.640066218</v>
+        <v>4555253.143115131</v>
       </c>
       <c r="E427" t="n">
-        <v>2713676.919993554</v>
+        <v>5651125.510668427</v>
       </c>
       <c r="F427" t="n">
-        <v>3516085.643405953</v>
+        <v>6849517.487154461</v>
       </c>
       <c r="G427" t="n">
-        <v>2298285.495129119</v>
+        <v>6894856.48538737</v>
       </c>
       <c r="H427" t="n">
-        <v>3894292.851153992</v>
+        <v>11682878.55346199</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>3221565.292841034</v>
+        <v>12551553.08899103</v>
       </c>
       <c r="C428" t="n">
-        <v>1502632.381369641</v>
+        <v>5854411.875466118</v>
       </c>
       <c r="D428" t="n">
-        <v>1168052.532105807</v>
+        <v>4550854.021191453</v>
       </c>
       <c r="E428" t="n">
-        <v>2712876.408320712</v>
+        <v>5649294.267296508</v>
       </c>
       <c r="F428" t="n">
-        <v>3515810.078414804</v>
+        <v>6848980.672236639</v>
       </c>
       <c r="G428" t="n">
-        <v>2298254.568726042</v>
+        <v>6894763.70617814</v>
       </c>
       <c r="H428" t="n">
-        <v>4161465.578923636</v>
+        <v>12484396.73677093</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>3194323.015262111</v>
+        <v>12445414.34517705</v>
       </c>
       <c r="C429" t="n">
-        <v>1498540.0067236</v>
+        <v>5838467.55866336</v>
       </c>
       <c r="D429" t="n">
-        <v>1166805.570904856</v>
+        <v>4545995.730798136</v>
       </c>
       <c r="E429" t="n">
-        <v>2711968.02266014</v>
+        <v>5647220.382196032</v>
       </c>
       <c r="F429" t="n">
-        <v>3515489.212424936</v>
+        <v>6848355.608620014</v>
       </c>
       <c r="G429" t="n">
-        <v>2298217.480266673</v>
+        <v>6894652.440800034</v>
       </c>
       <c r="H429" t="n">
-        <v>4429606.696357566</v>
+        <v>13288820.08907272</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>3166346.653360452</v>
+        <v>12336415.53257319</v>
       </c>
       <c r="C430" t="n">
-        <v>1494148.597786745</v>
+        <v>5821358.173195093</v>
       </c>
       <c r="D430" t="n">
-        <v>1165430.83411566</v>
+        <v>4540639.613437633</v>
       </c>
       <c r="E430" t="n">
-        <v>2710939.233866463</v>
+        <v>5644876.252585944</v>
       </c>
       <c r="F430" t="n">
-        <v>3515116.391371707</v>
+        <v>6847629.333840996</v>
       </c>
       <c r="G430" t="n">
-        <v>2298173.103401281</v>
+        <v>6894519.310203861</v>
       </c>
       <c r="H430" t="n">
-        <v>4698730.30073267</v>
+        <v>14096190.90219803</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>3137633.930765384</v>
+        <v>12224547.78220279</v>
       </c>
       <c r="C431" t="n">
-        <v>1489442.942035606</v>
+        <v>5803024.449489359</v>
       </c>
       <c r="D431" t="n">
-        <v>1163917.848587805</v>
+        <v>4534744.864627809</v>
       </c>
       <c r="E431" t="n">
-        <v>2709776.353795763</v>
+        <v>5642231.79652035</v>
       </c>
       <c r="F431" t="n">
-        <v>3514684.122575369</v>
+        <v>6846787.251770208</v>
       </c>
       <c r="G431" t="n">
-        <v>2298120.126975269</v>
+        <v>6894360.380925821</v>
       </c>
       <c r="H431" t="n">
-        <v>4968852.728237352</v>
+        <v>14906558.18471208</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>3108183.746890951</v>
+        <v>12109806.80606864</v>
       </c>
       <c r="C432" t="n">
-        <v>1484407.666601434</v>
+        <v>5783406.493252325</v>
       </c>
       <c r="D432" t="n">
-        <v>1162255.592004338</v>
+        <v>4528268.540276637</v>
       </c>
       <c r="E432" t="n">
-        <v>2708464.468770591</v>
+        <v>5639254.319626016</v>
       </c>
       <c r="F432" t="n">
-        <v>3514183.991690495</v>
+        <v>6845812.970825645</v>
       </c>
       <c r="G432" t="n">
-        <v>2298057.028821957</v>
+        <v>6894171.086465887</v>
       </c>
       <c r="H432" t="n">
-        <v>5239992.54128702</v>
+        <v>15719977.62386108</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>3077996.228872708</v>
+        <v>11992193.09950405</v>
       </c>
       <c r="C433" t="n">
-        <v>1479027.296407304</v>
+        <v>5762444.011976496</v>
       </c>
       <c r="D433" t="n">
-        <v>1160432.498746781</v>
+        <v>4521165.579532909</v>
       </c>
       <c r="E433" t="n">
-        <v>2706987.374663689</v>
+        <v>5635908.386517649</v>
       </c>
       <c r="F433" t="n">
-        <v>3513606.574904594</v>
+        <v>6844688.132931033</v>
       </c>
       <c r="G433" t="n">
-        <v>2297982.046591879</v>
+        <v>6893946.13977565</v>
       </c>
       <c r="H433" t="n">
-        <v>5512170.505857214</v>
+        <v>16536511.51757167</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>3047072.78122811</v>
+        <v>11871712.13465497</v>
       </c>
       <c r="C434" t="n">
-        <v>1473286.317160191</v>
+        <v>5740076.560364367</v>
       </c>
       <c r="D434" t="n">
-        <v>1158436.470362881</v>
+        <v>4513388.845569662</v>
       </c>
       <c r="E434" t="n">
-        <v>2705327.514499196</v>
+        <v>5632155.698839392</v>
       </c>
       <c r="F434" t="n">
-        <v>3512941.346648326</v>
+        <v>6843392.233730514</v>
       </c>
       <c r="G434" t="n">
-        <v>2297893.145413913</v>
+        <v>6893679.436241754</v>
       </c>
       <c r="H434" t="n">
-        <v>5785409.558207837</v>
+        <v>17356228.67462355</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>3015416.132885619</v>
+        <v>11748374.5437102</v>
       </c>
       <c r="C435" t="n">
-        <v>1467169.243072112</v>
+        <v>5716243.804177044</v>
       </c>
       <c r="D435" t="n">
-        <v>1156254.890997516</v>
+        <v>4504889.185704602</v>
       </c>
       <c r="E435" t="n">
-        <v>2703465.919554993</v>
+        <v>5627954.982046571</v>
       </c>
       <c r="F435" t="n">
-        <v>3512176.583183724</v>
+        <v>6841902.434773496</v>
       </c>
       <c r="G435" t="n">
-        <v>2297787.982192248</v>
+        <v>6893363.946576759</v>
       </c>
       <c r="H435" t="n">
-        <v>6059734.760351681</v>
+        <v>18179204.28105507</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>2983030.38122582</v>
+        <v>11622196.2904902</v>
       </c>
       <c r="C436" t="n">
-        <v>1460660.689132016</v>
+        <v>5690885.801813036</v>
       </c>
       <c r="D436" t="n">
-        <v>1153874.648127693</v>
+        <v>4495615.512185812</v>
       </c>
       <c r="E436" t="n">
-        <v>2701382.15503115</v>
+        <v>5623261.883197148</v>
       </c>
       <c r="F436" t="n">
-        <v>3511299.262551342</v>
+        <v>6840193.368606516</v>
       </c>
       <c r="G436" t="n">
-        <v>2297663.866356805</v>
+        <v>6892991.599070431</v>
       </c>
       <c r="H436" t="n">
-        <v>6335173.243600269</v>
+        <v>19005519.73080084</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>2949921.032778648</v>
+        <v>11493198.82900771</v>
       </c>
       <c r="C437" t="n">
-        <v>1453745.447695765</v>
+        <v>5663943.302710758</v>
       </c>
       <c r="D437" t="n">
-        <v>1151282.158916749</v>
+        <v>4485514.904870447</v>
       </c>
       <c r="E437" t="n">
-        <v>2699054.27142531</v>
+        <v>5618028.882163985</v>
       </c>
       <c r="F437" t="n">
-        <v>3510294.961481606</v>
+        <v>6838236.937951189</v>
       </c>
       <c r="G437" t="n">
-        <v>2297517.716904277</v>
+        <v>6892553.150712843</v>
       </c>
       <c r="H437" t="n">
-        <v>6611754.139503357</v>
+        <v>19835262.41851011</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>2916095.040224228</v>
+        <v>11361409.24762686</v>
       </c>
       <c r="C438" t="n">
-        <v>1446408.569105787</v>
+        <v>5635358.061451102</v>
       </c>
       <c r="D438" t="n">
-        <v>1148463.402470488</v>
+        <v>4474532.736898001</v>
       </c>
       <c r="E438" t="n">
-        <v>2696458.762824256</v>
+        <v>5612205.218802638</v>
       </c>
       <c r="F438" t="n">
-        <v>3509147.750009226</v>
+        <v>6836002.110407591</v>
       </c>
       <c r="G438" t="n">
-        <v>2297346.015592865</v>
+        <v>6892038.04677861</v>
       </c>
       <c r="H438" t="n">
-        <v>6889508.49748243</v>
+        <v>20668525.49244733</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>2881560.835351189</v>
+        <v>11226860.39747216</v>
       </c>
       <c r="C439" t="n">
-        <v>1438635.445995551</v>
+        <v>5605073.166216419</v>
       </c>
       <c r="D439" t="n">
-        <v>1145403.958238901</v>
+        <v>4462612.824307404</v>
       </c>
       <c r="E439" t="n">
-        <v>2693570.533379905</v>
+        <v>5605736.838710881</v>
       </c>
       <c r="F439" t="n">
-        <v>3507840.084671087</v>
+        <v>6833454.710398228</v>
       </c>
       <c r="G439" t="n">
-        <v>2297144.756186923</v>
+        <v>6891434.268560781</v>
       </c>
       <c r="H439" t="n">
-        <v>7168469.188447741</v>
+        <v>21505407.56534326</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>2846328.357635382</v>
+        <v>11089591.00377422</v>
       </c>
       <c r="C440" t="n">
-        <v>1430411.900877303</v>
+        <v>5573033.380041427</v>
       </c>
       <c r="D440" t="n">
-        <v>1142089.050761275</v>
+        <v>4449697.6003686</v>
       </c>
       <c r="E440" t="n">
-        <v>2690362.873285254</v>
+        <v>5598566.360290937</v>
       </c>
       <c r="F440" t="n">
-        <v>3506352.701316346</v>
+        <v>6830557.210356526</v>
       </c>
       <c r="G440" t="n">
-        <v>2296909.389688545</v>
+        <v>6890728.169065649</v>
       </c>
       <c r="H440" t="n">
-        <v>7448670.793679669</v>
+        <v>22346012.38103905</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>2810409.078114135</v>
+        <v>10949645.75888623</v>
       </c>
       <c r="C441" t="n">
-        <v>1421724.276555424</v>
+        <v>5539185.493073068</v>
       </c>
       <c r="D441" t="n">
-        <v>1138503.600899938</v>
+        <v>4435728.315194562</v>
       </c>
       <c r="E441" t="n">
-        <v>2686807.445599316</v>
+        <v>5590633.065869413</v>
       </c>
       <c r="F441" t="n">
-        <v>3504664.508710571</v>
+        <v>6827268.523462156</v>
       </c>
       <c r="G441" t="n">
-        <v>2296634.765542428</v>
+        <v>6889904.296627298</v>
       </c>
       <c r="H441" t="n">
-        <v>7730149.478253048</v>
+        <v>23190448.43475918</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>2773816.018246233</v>
+        <v>10807075.39576454</v>
       </c>
       <c r="C442" t="n">
-        <v>1412559.528852914</v>
+        <v>5503478.683842507</v>
       </c>
       <c r="D442" t="n">
-        <v>1134632.283648834</v>
+        <v>4420645.260969482</v>
       </c>
       <c r="E442" t="n">
-        <v>2682874.285287553</v>
+        <v>5581872.919638515</v>
       </c>
       <c r="F442" t="n">
-        <v>3502752.484271646</v>
+        <v>6823543.800529187</v>
       </c>
       <c r="G442" t="n">
-        <v>2296315.068858308</v>
+        <v>6888945.206574937</v>
       </c>
       <c r="H442" t="n">
-        <v>8012942.848285543</v>
+        <v>24038828.54485667</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>2736563.763465977</v>
+        <v>10661936.74077653</v>
       </c>
       <c r="C443" t="n">
-        <v>1402905.321085672</v>
+        <v>5465864.887346761</v>
       </c>
       <c r="D443" t="n">
-        <v>1130459.592537799</v>
+        <v>4404388.022874537</v>
       </c>
       <c r="E443" t="n">
-        <v>2678531.811843561</v>
+        <v>5572218.615151495</v>
       </c>
       <c r="F443" t="n">
-        <v>3500591.573431382</v>
+        <v>6819334.233957244</v>
       </c>
       <c r="G443" t="n">
-        <v>2295943.753762595</v>
+        <v>6887831.261287798</v>
       </c>
       <c r="H443" t="n">
-        <v>8297089.791300919</v>
+        <v>24891269.37390279</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>2698668.471160746</v>
+        <v>10514292.74478212</v>
       </c>
       <c r="C444" t="n">
-        <v>1392750.119669202</v>
+        <v>5426299.167542333</v>
       </c>
       <c r="D444" t="n">
-        <v>1125969.910582323</v>
+        <v>4386895.75551554</v>
       </c>
       <c r="E444" t="n">
-        <v>2673746.856836974</v>
+        <v>5561599.655031328</v>
       </c>
       <c r="F444" t="n">
-        <v>3498154.594270291</v>
+        <v>6814586.871955121</v>
       </c>
       <c r="G444" t="n">
-        <v>2295513.473067465</v>
+        <v>6886540.41920241</v>
       </c>
       <c r="H444" t="n">
-        <v>8582630.299015909</v>
+        <v>25747890.89704778</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>2660147.872825457</v>
+        <v>10364212.49152775</v>
       </c>
       <c r="C445" t="n">
-        <v>1382083.290195897</v>
+        <v>5384740.091672311</v>
       </c>
       <c r="D445" t="n">
-        <v>1121147.587652251</v>
+        <v>4368107.484359418</v>
       </c>
       <c r="E445" t="n">
-        <v>2668484.707689454</v>
+        <v>5549942.465431094</v>
       </c>
       <c r="F445" t="n">
-        <v>3495412.149220903</v>
+        <v>6809244.446534232</v>
       </c>
       <c r="G445" t="n">
-        <v>2295016.004531858</v>
+        <v>6885048.01359559</v>
       </c>
       <c r="H445" t="n">
-        <v>8869605.271886218</v>
+        <v>26608815.8156587</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>2621021.270174283</v>
+        <v>10211771.1824972</v>
       </c>
       <c r="C446" t="n">
-        <v>1370895.19327896</v>
+        <v>5341150.103684245</v>
       </c>
       <c r="D446" t="n">
-        <v>1115977.024051961</v>
+        <v>4347962.431371274</v>
       </c>
       <c r="E446" t="n">
-        <v>2662709.168913995</v>
+        <v>5537170.547614219</v>
       </c>
       <c r="F446" t="n">
-        <v>3492332.545773547</v>
+        <v>6803245.219039384</v>
       </c>
       <c r="G446" t="n">
-        <v>2294442.174084305</v>
+        <v>6883326.522252929</v>
       </c>
       <c r="H446" t="n">
-        <v>9158056.304784227</v>
+        <v>27474168.91435274</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>2581309.525019443</v>
+        <v>10057050.09747834</v>
       </c>
       <c r="C447" t="n">
-        <v>1359177.279422052</v>
+        <v>5295495.893852135</v>
       </c>
       <c r="D447" t="n">
-        <v>1110442.760019983</v>
+        <v>4326400.363714216</v>
       </c>
       <c r="E447" t="n">
-        <v>2656382.641960794</v>
+        <v>5523204.668800582</v>
       </c>
       <c r="F447" t="n">
-        <v>3488881.728244159</v>
+        <v>6796522.847228889</v>
       </c>
       <c r="G447" t="n">
-        <v>2293781.776481961</v>
+        <v>6881345.329445899</v>
       </c>
       <c r="H447" t="n">
-        <v>9448025.453230081</v>
+        <v>28344076.35969029</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>2541035.042759068</v>
+        <v>9900136.530230129</v>
       </c>
       <c r="C448" t="n">
-        <v>1346922.182142623</v>
+        <v>5247748.761594623</v>
       </c>
       <c r="D448" t="n">
-        <v>1104529.570768644</v>
+        <v>4303361.964033677</v>
       </c>
       <c r="E448" t="n">
-        <v>2649466.224694842</v>
+        <v>5507963.09414864</v>
       </c>
       <c r="F448" t="n">
-        <v>3485023.222772199</v>
+        <v>6789006.278127667</v>
       </c>
       <c r="G448" t="n">
-        <v>2293023.493992977</v>
+        <v>6879070.481978947</v>
       </c>
       <c r="H448" t="n">
-        <v>9739554.979659604</v>
+        <v>29218664.93897886</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>2500221.749350684</v>
+        <v>9741123.698768903</v>
       </c>
       <c r="C449" t="n">
-        <v>1334123.808552409</v>
+        <v>5197884.968385997</v>
       </c>
       <c r="D449" t="n">
-        <v>1098222.566595264</v>
+        <v>4278789.220501027</v>
       </c>
       <c r="E449" t="n">
-        <v>2641919.83138526</v>
+        <v>5491361.861413537</v>
       </c>
       <c r="F449" t="n">
-        <v>3480718.097804206</v>
+        <v>6780619.671047161</v>
       </c>
       <c r="G449" t="n">
-        <v>2292154.813809423</v>
+        <v>6876464.441428282</v>
       </c>
       <c r="H449" t="n">
-        <v>10032687.0792894</v>
+        <v>30098061.23786824</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>2458895.061683509</v>
+        <v>9580110.629935747</v>
       </c>
       <c r="C450" t="n">
-        <v>1320777.426581248</v>
+        <v>5145886.077589263</v>
       </c>
       <c r="D450" t="n">
-        <v>1091507.297506851</v>
+        <v>4252625.834442275</v>
       </c>
       <c r="E450" t="n">
-        <v>2633702.333914162</v>
+        <v>5473315.099436671</v>
       </c>
       <c r="F450" t="n">
-        <v>3475924.942380561</v>
+        <v>6771282.355286814</v>
       </c>
       <c r="G450" t="n">
-        <v>2291161.94502424</v>
+        <v>6873485.835072736</v>
       </c>
       <c r="H450" t="n">
-        <v>10327463.58523027</v>
+        <v>30982390.75569088</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>2417081.851301377</v>
+        <v>9417202.018057304</v>
       </c>
       <c r="C451" t="n">
-        <v>1306879.748020941</v>
+        <v>5091739.278003653</v>
       </c>
       <c r="D451" t="n">
-        <v>1084369.861711466</v>
+        <v>4224817.643031682</v>
       </c>
       <c r="E451" t="n">
-        <v>2624771.724713577</v>
+        <v>5453735.391184879</v>
       </c>
       <c r="F451" t="n">
-        <v>3470599.864575306</v>
+        <v>6760908.827094759</v>
       </c>
       <c r="G451" t="n">
-        <v>2290029.736136487</v>
+        <v>6870089.208409473</v>
       </c>
       <c r="H451" t="n">
-        <v>10623925.65261064</v>
+        <v>31871776.95783198</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>2374810.401468422</v>
+        <v>9252508.057669174</v>
       </c>
       <c r="C452" t="n">
-        <v>1292429.006564734</v>
+        <v>5035437.687914534</v>
       </c>
       <c r="D452" t="n">
-        <v>1076797.017242739</v>
+        <v>4195313.054192488</v>
       </c>
       <c r="E452" t="n">
-        <v>2615085.301713543</v>
+        <v>5432534.181569068</v>
       </c>
       <c r="F452" t="n">
-        <v>3464696.512437519</v>
+        <v>6749408.790462708</v>
       </c>
       <c r="G452" t="n">
-        <v>2288741.594182534</v>
+        <v>6866224.782547616</v>
       </c>
       <c r="H452" t="n">
-        <v>10922113.42159758</v>
+        <v>32766340.2647928</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>181317.5867854136</v>
+        <v>60439.12784920448</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>181529.4398680006</v>
+        <v>60509.77257263701</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>181744.2543182469</v>
+        <v>60581.43240556232</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>181962.0708740724</v>
+        <v>60654.12183590714</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>182182.9307946062</v>
+        <v>60727.85555564237</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>182406.8758644073</v>
+        <v>60802.64846358377</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>182633.9483975851</v>
+        <v>60878.51566822889</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>182864.1912418147</v>
+        <v>60955.47249063108</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>183097.6477822428</v>
+        <v>61033.53446731123</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>183334.3619452768</v>
+        <v>61112.71735320695</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>183574.3782022521</v>
+        <v>61193.03712466046</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>183817.7415729734</v>
+        <v>61274.50998244511</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>184064.4976291245</v>
+        <v>61357.15235483119</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>184314.6924975413</v>
+        <v>61440.98090069156</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>184568.3728633453</v>
+        <v>61526.01251264718</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>184825.5859729327</v>
+        <v>61612.26432025366</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>185086.3796368164</v>
+        <v>61699.75369322882</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>185350.8022323175</v>
+        <v>61788.49824472162</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>185618.9027061055</v>
+        <v>61878.51583462366</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>185890.7305765832</v>
+        <v>61969.82457292278</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>186166.3359361186</v>
+        <v>62062.44282310022</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>186445.7694531204</v>
+        <v>62156.38920557102</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>186729.0823739608</v>
+        <v>62251.68260116867</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>187016.3265247454</v>
+        <v>62348.34215467443</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>187307.5543129329</v>
+        <v>62446.38727839166</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>187602.8187288088</v>
+        <v>62545.83765576597</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>187902.1733468184</v>
+        <v>62646.71324505136</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>188205.6723267625</v>
+        <v>62749.03428302321</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>188513.3704148652</v>
+        <v>62852.82128873857</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>188825.3229447215</v>
+        <v>62958.09506734416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>189141.5858381331</v>
+        <v>63064.87671393283</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>189462.2156058459</v>
+        <v>63173.18761744889</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>189787.2693481983</v>
+        <v>63283.04946464273</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>190116.8047556977</v>
+        <v>63394.48424407617</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>190450.8801095393</v>
+        <v>63507.51425017751</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>190789.5542820834</v>
+        <v>63622.16208734863</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>191132.8867373109</v>
+        <v>63738.4506741234</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>191480.9375312792</v>
+        <v>63856.40324737872</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>191833.7673125981</v>
+        <v>63976.04336659842</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>192191.4373229511</v>
+        <v>64097.39491819128</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>192554.009397688</v>
+        <v>64220.48211986228</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>192921.5459665173</v>
+        <v>64345.32952504019</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>193294.1100543253</v>
+        <v>64471.96202735921</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>193671.7652821573</v>
+        <v>64600.40486519783</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>194054.5758683912</v>
+        <v>64730.68362627401</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>194442.6066301388</v>
+        <v>64862.82425229804</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>194835.9229849133</v>
+        <v>64996.85304368324</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>195234.5909526021</v>
+        <v>65132.79666431611</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>195638.677157782</v>
+        <v>65270.6821463852</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>196048.2488324233</v>
+        <v>65410.53689527093</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>196463.3738190243</v>
+        <v>65552.38869449578</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>196884.1205742226</v>
+        <v>65696.26571073658</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>197310.55817293</v>
+        <v>65842.1964988988</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>197742.7563130389</v>
+        <v>65990.21000725412</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>198180.7853207525</v>
+        <v>66140.33558264194</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>198624.7161565858</v>
+        <v>66292.6029757353</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>199074.6204220951</v>
+        <v>66447.0423463724</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>199530.5703673827</v>
+        <v>66603.68426895433</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>199992.6388994374</v>
+        <v>66762.55973790951</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>200460.89959136</v>
+        <v>66923.7001732263</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>200935.4266925335</v>
+        <v>67087.13742605408</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>201416.2951397895</v>
+        <v>67252.90378437357</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>201903.5805696307</v>
+        <v>67421.03197873806</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>202397.3593315603</v>
+        <v>67591.55518808523</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>202897.7085025804</v>
+        <v>67764.50704562145</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>203404.7059029059</v>
+        <v>67939.92164477905</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>203918.4301129563</v>
+        <v>68117.8335452473</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>204438.960491672</v>
+        <v>68298.27777907837</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>204966.3771962127</v>
+        <v>68481.28985686928</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>205500.7612030854</v>
+        <v>68666.90577402055</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>206042.19433075</v>
+        <v>68855.16201707255</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>206590.7592637533</v>
+        <v>69046.0955701208</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>207146.5395784328</v>
+        <v>69239.74392131102</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>207709.6197702347</v>
+        <v>69436.14506941552</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>208280.0852826841</v>
+        <v>69635.337530491</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>208858.0225380453</v>
+        <v>69837.36034462009</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>209443.5189697051</v>
+        <v>70042.25308273683</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>210036.6630563076</v>
+        <v>70250.05585353776</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>210637.5443576697</v>
+        <v>70460.8093104795</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>211246.2535524949</v>
+        <v>70674.55465886481</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>211862.8824779056</v>
+        <v>70891.33366301692</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>212487.5241708073</v>
+        <v>71111.18865354492</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>213120.2729110909</v>
+        <v>71334.16253470091</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>213761.2242666786</v>
+        <v>71560.29879183001</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>214410.4751404097</v>
+        <v>71789.64149891508</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>215068.1238187588</v>
+        <v>72022.23532621744</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>215734.2700223756</v>
+        <v>72258.12554801482</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>216409.0149584261</v>
+        <v>72497.35805043874</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>217092.4613747112</v>
+        <v>72739.9793394119</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>217784.7136155283</v>
+        <v>72986.03654868799</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>218485.8776792498</v>
+        <v>73235.57744799518</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>219196.0612775628</v>
+        <v>73488.65045128542</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>219915.3738963291</v>
+        <v>73745.30462509039</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>220643.9268580101</v>
+        <v>74005.58969698731</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>221381.8333855907</v>
+        <v>74269.55606417495</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>222129.2086679398</v>
+        <v>74537.25480216273</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>222886.1699265296</v>
+        <v>74808.73767357532</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>223652.8364834361</v>
+        <v>75084.05713707293</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>224429.3298305372</v>
+        <v>75363.2663563919</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>225215.7736998086</v>
+        <v>75646.41920950546</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>226012.2941346318</v>
+        <v>75933.57029790881</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>226819.0195620042</v>
+        <v>76224.77495602951</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>227636.0808655439</v>
+        <v>76520.08926076617</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>228463.6114591803</v>
+        <v>76819.57004115831</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>229301.7473614094</v>
+        <v>77123.27488818907</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>230150.627269998</v>
+        <v>77431.26216472418</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>231010.3926370013</v>
+        <v>77743.59101558999</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>231881.1877439782</v>
+        <v>78060.32137779269</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>232763.1597772602</v>
+        <v>78381.51399088252</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>233656.4589031481</v>
+        <v>78707.23040746586</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>234561.2383428939</v>
+        <v>79037.53300386792</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>235477.6544473321</v>
+        <v>79372.48499095034</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>236405.8667710198</v>
+        <v>79712.15042508549</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>237346.0381457449</v>
+        <v>80056.59421929349</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>238298.3347532626</v>
+        <v>80405.88215454288</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>239262.9261971179</v>
+        <v>80760.08089122095</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>240239.9855734162</v>
+        <v>81119.25798077667</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>241229.6895404062</v>
+        <v>81483.48187754107</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>242232.2183867345</v>
+        <v>81852.8219507274</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>243247.7560982422</v>
+        <v>82227.34849661938</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>244276.4904231785</v>
+        <v>82607.13275094749</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>245318.6129356939</v>
+        <v>82992.24690146229</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>246374.3190975049</v>
+        <v>83382.76410070655</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>247443.8083176071</v>
+        <v>83778.75847899351</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>248527.2840099283</v>
+        <v>84180.30515759598</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>249624.953648819</v>
+        <v>84587.48026215094</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>250737.0288222828</v>
+        <v>85000.36093628741</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>251863.7252828582</v>
+        <v>85419.02535548164</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>253005.2629960703</v>
+        <v>85843.55274114769</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>254161.8661863782</v>
+        <v>86274.02337496802</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>255333.7633805575</v>
+        <v>86710.5186134723</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>256521.187448464</v>
+        <v>87153.12090287184</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>257724.3756411286</v>
+        <v>87601.91379415474</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>258943.5696261571</v>
+        <v>88056.98195845231</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>260179.0155204086</v>
+        <v>88518.41120268169</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>261430.9639199371</v>
+        <v>88986.28848547596</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>262699.6699272027</v>
+        <v>89460.7019334077</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>263985.393175557</v>
+        <v>89941.74085751562</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>265288.397851028</v>
+        <v>90429.49577014484</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>266608.9527114388</v>
+        <v>90924.05840210876</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>267947.3311029088</v>
+        <v>91425.5217201827</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>269303.8109737896</v>
+        <v>91933.97994494061</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>270678.6748861194</v>
+        <v>92449.52856894433</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>272072.2100246648</v>
+        <v>92972.26437529839</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>273484.7082036565</v>
+        <v>93502.28545657932</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>274916.4658713228</v>
+        <v>94039.69123415419</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>276367.7841123415</v>
+        <v>94584.5824778994</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>277838.9686483385</v>
+        <v>95137.06132633264</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>279330.329836586</v>
+        <v>95697.23130717289</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>280842.1826670404</v>
+        <v>96265.19735834059</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>282374.8467579001</v>
+        <v>96841.06584941417</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>283928.6463498495</v>
+        <v>97424.94460355719</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>285503.9102991798</v>
+        <v>98016.94291993223</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>287100.9720699842</v>
+        <v>98617.17159661737</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>288720.1697256276</v>
+        <v>99225.74295404219</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>290361.8459197137</v>
+        <v>99842.77085896228</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>292026.347886766</v>
+        <v>100468.3707489879</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>293714.0274328554</v>
+        <v>101102.6596576876</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>295425.2409264144</v>
+        <v>101745.7562402864</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>297160.3492894782</v>
+        <v>102397.7807999776</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>298919.7179896108</v>
+        <v>103058.8553148703</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>300703.7170327631</v>
+        <v>103729.1034655942</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>302512.7209573313</v>
+        <v>104408.650663585</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>304347.108829676</v>
+        <v>105097.6240800716</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>306207.2642413719</v>
+        <v>105796.1526757929</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>308093.5753084606</v>
+        <v>106504.3672314664</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>310006.4346729766</v>
+        <v>107222.4003790365</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>311946.2395070214</v>
+        <v>107950.3866337282</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>313913.3915196662</v>
+        <v>108688.4624269355</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>315908.2969669477</v>
+        <v>109436.7661399728</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>317931.3666652448</v>
+        <v>110195.4381387186</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>319983.0160082993</v>
+        <v>110964.6208091843</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>322063.6649881576</v>
+        <v>111744.4585940385</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>324173.7382203019</v>
+        <v>112535.0980301205</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>326313.6649732371</v>
+        <v>113336.6877869777</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>328483.879202798</v>
+        <v>114149.3787064621</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>330684.8195914319</v>
+        <v>114973.3238434219</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>332916.9295927187</v>
+        <v>115808.6785075278</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>335180.6574813704</v>
+        <v>116655.6003062705</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>337476.4564089612</v>
+        <v>117514.2491891718</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>339804.7844656258</v>
+        <v>118384.787493251</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>342166.1047479551</v>
+        <v>119267.3799897874</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>344560.8854333233</v>
+        <v>120162.1939324259</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>346989.5998608633</v>
+        <v>121069.3991066694</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>349452.7266193044</v>
+        <v>121989.1678808064</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>351950.7496418806</v>
+        <v>122921.6752583211</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>354484.1583085125</v>
+        <v>123867.0989318379</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>357053.44755545</v>
+        <v>124825.6193386486</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>359659.11799257</v>
+        <v>125797.4197178788</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>362301.6760285049</v>
+        <v>126782.6861693463</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>364981.6340037716</v>
+        <v>127781.6077141657</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>367699.5103320757</v>
+        <v>128794.3763571613</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>370455.8296499404</v>
+        <v>129821.1871511431</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>373251.1229748193</v>
+        <v>130862.2382631082</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>376085.927871837</v>
+        <v>131917.7310424317</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>378960.7886292958</v>
+        <v>132987.8700911078</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>381876.2564430892</v>
+        <v>134072.8633361094</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>384832.8896101413</v>
+        <v>135172.9221039324</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>387831.2537310043</v>
+        <v>136288.2611973931</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>390871.9219217273</v>
+        <v>137419.0989747497</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>393955.4750351128</v>
+        <v>138565.6574312215</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>397082.501891468</v>
+        <v>139728.1622829759</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>400253.5995189323</v>
+        <v>140906.8430536618</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>403469.3734035591</v>
+        <v>142101.9331635656</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>406730.4377491747</v>
+        <v>143313.6700214673</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>410037.4157471403</v>
+        <v>144542.295119277</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>413390.9398561041</v>
+        <v>145788.0541295347</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>416791.6520918431</v>
+        <v>147051.1970058546</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>420240.204327276</v>
+        <v>148331.9780863984</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>423737.2586027455</v>
+        <v>149630.6562004657</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>427283.487446653</v>
+        <v>150947.4947782842</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>430879.5742065363</v>
+        <v>152282.7619640933</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>434526.2133906751</v>
+        <v>153636.7307326046</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>438224.1110203149</v>
+        <v>155009.679008936</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>441973.9849925995</v>
+        <v>156401.8897921047</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>445776.5654542907</v>
+        <v>157813.651282176</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>449632.595186382</v>
+        <v>159245.2570111592</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>453542.8299996743</v>
+        <v>160697.0059777426</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>457508.0391414246</v>
+        <v>162169.2027859639</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>461529.0057131489</v>
+        <v>163662.1577879107</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>465606.5270996726</v>
+        <v>165176.1872305421</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>469741.4154095265</v>
+        <v>166711.6134067295</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>473934.4979267766</v>
+        <v>168268.7648106088</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>478186.61757439</v>
+        <v>169847.9762973385</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>482498.6333892205</v>
+        <v>171449.589247354</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>486871.4210087234</v>
+        <v>173073.9517352162</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>491305.8731694774</v>
+        <v>174721.4187031363</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>495802.9002176187</v>
+        <v>176392.3521392743</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>500363.4306312723</v>
+        <v>178087.1212608921</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>504988.4115550739</v>
+        <v>179806.1027024522</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>509678.8093468602</v>
+        <v>181549.6807087373</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>514435.6101366181</v>
+        <v>183318.2473330778</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>519259.820397765</v>
+        <v>185112.2026407591</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>524152.4675308322</v>
+        <v>186931.9549176808</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>529114.6004596144</v>
+        <v>188777.9208843396</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>534147.2902398458</v>
+        <v>190650.5259151965</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>539251.6306804394</v>
+        <v>192550.2042634865</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>544428.7389773368</v>
+        <v>194477.3992915259</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>549679.7563599845</v>
+        <v>196432.5637065597</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>555005.8487504424</v>
+        <v>198416.1598021924</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>560408.2074351287</v>
+        <v>200428.6597054285</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>565888.0497491665</v>
+        <v>202470.5456293531</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>571446.6197732913</v>
+        <v>204542.3101314571</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>577085.1890432568</v>
+        <v>206644.4563776221</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>582805.0572716413</v>
+        <v>208777.4984117496</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>588607.5530819532</v>
+        <v>210941.9614310227</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>594494.034754876</v>
+        <v>213138.3820667676</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>600465.8909864889</v>
+        <v>215367.3086708733</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>606524.5416582463</v>
+        <v>217629.3016077098</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>612671.4386184823</v>
+        <v>219924.9335514775</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>618908.0664751426</v>
+        <v>222254.7897888907</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>625235.9433994255</v>
+        <v>224619.4685271005</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>631656.6219399656</v>
+        <v>227019.5812067216</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>638171.6898471242</v>
+        <v>229455.7528198283</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>644782.7709069295</v>
+        <v>231928.6222327489</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>651491.5257841346</v>
+        <v>234438.8425134758</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>658299.6528738079</v>
+        <v>236987.0812634808</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>665208.8891608036</v>
+        <v>239574.0209536978</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>672221.0110864117</v>
+        <v>242200.35926442</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>679337.835421382</v>
+        <v>244866.8094288128</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>686561.2201444913</v>
+        <v>247574.1005797386</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>693893.0653256988</v>
+        <v>250322.9780995351</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>701335.314012876</v>
+        <v>253114.2039723729</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>708889.9531210224</v>
+        <v>255948.5571387845</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>716559.0143227541</v>
+        <v>258826.8338519057</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>724344.5749387913</v>
+        <v>261749.8480349579</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>732248.758827064</v>
+        <v>264718.4316394415</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>740273.7372689296</v>
+        <v>267733.4350034791</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>748421.7298509241</v>
+        <v>270795.7272097071</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>756695.0053403305</v>
+        <v>273906.1964420655</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>765095.8825527519</v>
+        <v>277065.7503407963</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>773626.7312097271</v>
+        <v>280275.3163549113</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>782289.9727843517</v>
+        <v>283535.8420913396</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>791088.0813326794</v>
+        <v>286848.2956599242</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>800023.5843085918</v>
+        <v>290213.6660133688</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>809099.0633596792</v>
+        <v>293632.9632812068</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>818317.1551015048</v>
+        <v>297107.2190967834</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>827680.5518675356</v>
+        <v>300637.4869162061</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>837192.0024318154</v>
+        <v>304224.8423281507</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>846854.312701356</v>
+        <v>307870.3833533541</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>856670.346375039</v>
+        <v>311575.2307325655</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>866643.0255656763</v>
+        <v>315340.5282016649</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>876775.3313817157</v>
+        <v>319167.4427525941</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>887070.3044649207</v>
+        <v>323057.1648786898</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>897531.0454801938</v>
+        <v>327010.9088029308</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>908160.7155535422</v>
+        <v>331029.9126875628</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>918962.536654025</v>
+        <v>335115.4388234848</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>929939.791915379</v>
+        <v>339268.7737977261</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>941095.8258928105</v>
+        <v>343491.2286372737</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>952434.0447503353</v>
+        <v>347784.138927446</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>963957.9163738508</v>
+        <v>352148.8649029434</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>975670.9704049787</v>
+        <v>356586.7915096447</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>987576.7981905874</v>
+        <v>361099.3284351574</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>999679.0526427121</v>
+        <v>365687.9101060634</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1011981.448003486</v>
+        <v>370353.9956497514</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1024487.759509552</v>
+        <v>375099.0688186655</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1037201.822950287</v>
+        <v>379924.6378747445</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1050127.534114054</v>
+        <v>384832.2354317814</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1063268.848116598</v>
+        <v>389823.4182533812</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1076629.778605609</v>
+        <v>394899.7670041532</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1090214.396835345</v>
+        <v>400062.8859517315</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1257115.036895679</v>
+        <v>462783.8534980255</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1426610.529747827</v>
+        <v>526506.3653180423</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1598744.916083281</v>
+        <v>591247.8146090014</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1773562.785463792</v>
+        <v>657025.8229204682</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1951109.261696993</v>
+        <v>723858.2350611713</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>2131429.986443242</v>
+        <v>791763.1133310976</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>2314571.100985378</v>
+        <v>860758.7310515575</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>2500579.226093488</v>
+        <v>930863.5653659942</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>2689501.439917476</v>
+        <v>1002096.289284512</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>2881385.253841698</v>
+        <v>1074475.762945555</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>3076278.586237024</v>
+        <v>1148021.024068542</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>3274229.734047352</v>
+        <v>1222751.277571812</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>3475287.342149931</v>
+        <v>1298685.884331023</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>3679500.370431011</v>
+        <v>1375844.349053952</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>3886918.058521098</v>
+        <v>1454246.30724856</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>4097589.888137488</v>
+        <v>1533911.511262469</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>4311565.542984924</v>
+        <v>1614859.815373104</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>4528894.866169413</v>
+        <v>1697111.159909304</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>4749627.815084763</v>
+        <v>1780685.554386852</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>4973814.413735781</v>
+        <v>1865603.059642027</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>5201504.702467853</v>
+        <v>1951883.768949391</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>5432748.685077859</v>
+        <v>2039547.78811201</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>5667596.273288168</v>
+        <v>2128615.214514819</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>5906097.22857149</v>
+        <v>2219106.115134165</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>6148301.101321952</v>
+        <v>2311040.503499379</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>6394257.167375253</v>
+        <v>2404438.315605091</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>6644014.361888752</v>
+        <v>2499319.384776045</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>6897621.210600981</v>
+        <v>2595703.415489475</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>7155125.758499053</v>
+        <v>2693609.956163513</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>7416575.495931973</v>
+        <v>2793058.370923782</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>7682017.282217473</v>
+        <v>2894067.810364024</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>7951497.266800604</v>
+        <v>2996657.181320718</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>8225060.808032771</v>
+        <v>3100845.115685644</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>8502752.389650924</v>
+        <v>3206649.938284704</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>8784615.535048174</v>
+        <v>3314089.633855713</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>9070692.719438449</v>
+        <v>3423181.813162403</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>9361025.280029736</v>
+        <v>3533943.678286451</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>9655653.324332999</v>
+        <v>3646391.987144317</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>9954615.636745347</v>
+        <v>3760543.017280224</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>10257949.58355894</v>
+        <v>3876412.528991612</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>10565691.01655947</v>
+        <v>3994015.727848355</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>10877874.17539001</v>
+        <v>4113367.226671836</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>11194531.58886902</v>
+        <v>4234481.00704496</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>11515693.97546258</v>
+        <v>4357370.380428923</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>11841390.14312382</v>
+        <v>4482047.948967593</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>12171646.88872316</v>
+        <v>4608525.566064685</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>12506488.89730519</v>
+        <v>4736814.29682388</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>12845938.64141782</v>
+        <v>4866924.378446046</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>13190016.2807707</v>
+        <v>4998865.180682311</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>13538739.56248846</v>
+        <v>5132645.166445401</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>13892123.7222342</v>
+        <v>5268271.852685637</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>14250181.38648617</v>
+        <v>5405751.771641231</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>14612922.47625818</v>
+        <v>5545090.43257583</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>14980354.11256073</v>
+        <v>5686292.28411886</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>15352480.52390479</v>
+        <v>5829360.67732672</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>15343870.05609418</v>
+        <v>5826190.538774859</v>
       </c>
       <c r="C358" t="n">
-        <v>369046.258249862</v>
+        <v>162759.80586071</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>15335007.29013677</v>
+        <v>5822925.048784365</v>
       </c>
       <c r="C359" t="n">
-        <v>742828.7115434151</v>
+        <v>327679.1874355679</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>15325879.6117861</v>
+        <v>5819559.428151097</v>
       </c>
       <c r="C360" t="n">
-        <v>1121354.670588481</v>
+        <v>494763.2272018788</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>15316473.78048362</v>
+        <v>5816088.660014463</v>
       </c>
       <c r="C361" t="n">
-        <v>1504628.947460729</v>
+        <v>664015.910854712</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>15306775.90543684</v>
+        <v>5812507.480729792</v>
       </c>
       <c r="C362" t="n">
-        <v>1892653.804165306</v>
+        <v>835440.1027081858</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>15296771.42132337</v>
+        <v>5808810.370594021</v>
       </c>
       <c r="C363" t="n">
-        <v>2285428.905291776</v>
+        <v>1009037.522855324</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>15286445.06366115</v>
+        <v>5804991.544439786</v>
       </c>
       <c r="C364" t="n">
-        <v>2682951.275016111</v>
+        <v>1184808.726203599</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>15275780.84389077</v>
+        <v>5801044.942115035</v>
       </c>
       <c r="C365" t="n">
-        <v>3085215.258692663</v>
+        <v>1362753.083498918</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>15264762.02422051</v>
+        <v>5796964.218867346</v>
       </c>
       <c r="C366" t="n">
-        <v>3492212.489267806</v>
+        <v>1542868.764446213</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>15253371.09229142</v>
+        <v>5792742.735654331</v>
       </c>
       <c r="C367" t="n">
-        <v>3903931.858733693</v>
+        <v>1725152.723029347</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>15241589.73572542</v>
+        <v>5788373.549403986</v>
       </c>
       <c r="C368" t="n">
-        <v>4320359.494824413</v>
+        <v>1909600.685126255</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>15229398.81662627</v>
+        <v>5783849.403251295</v>
       </c>
       <c r="C369" t="n">
-        <v>4741478.743140664</v>
+        <v>2096207.13850848</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>15216778.34611044</v>
+        <v>5779162.71678012</v>
       </c>
       <c r="C370" t="n">
-        <v>5167270.154869087</v>
+        <v>2284965.325305726</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>15203707.45895199</v>
+        <v>5774305.576302268</v>
       </c>
       <c r="C371" t="n">
-        <v>5597711.480242198</v>
+        <v>2475867.237007482</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>15190164.38843382</v>
+        <v>5769269.725208621</v>
       </c>
       <c r="C372" t="n">
-        <v>6032777.667862197</v>
+        <v>2668903.612064007</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>15176126.4415057</v>
+        <v>5764046.554430353</v>
       </c>
       <c r="C373" t="n">
-        <v>6032742.944899627</v>
+        <v>2668888.272428922</v>
       </c>
       <c r="D373" t="n">
-        <v>439069.8257867363</v>
+        <v>192967.1874761974</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>15161569.97435804</v>
+        <v>5758627.093051639</v>
       </c>
       <c r="C374" t="n">
-        <v>6032702.766434887</v>
+        <v>2668870.522395612</v>
       </c>
       <c r="D374" t="n">
-        <v>882704.9580422784</v>
+        <v>388025.042853656</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>15146470.36852993</v>
+        <v>5753001.999118657</v>
       </c>
       <c r="C375" t="n">
-        <v>6032656.335425932</v>
+        <v>2668850.009755458</v>
       </c>
       <c r="D375" t="n">
-        <v>1330872.839997387</v>
+        <v>585161.0531889172</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>15130802.00767867</v>
+        <v>5747161.550693349</v>
       </c>
       <c r="C376" t="n">
-        <v>6032602.74829444</v>
+        <v>2668826.335213675</v>
       </c>
       <c r="D376" t="n">
-        <v>1783538.281065708</v>
+        <v>784361.5302948043</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>15114538.25514836</v>
+        <v>5741095.637204167</v>
       </c>
       <c r="C377" t="n">
-        <v>6032540.982237659</v>
+        <v>2668799.046780259</v>
       </c>
       <c r="D377" t="n">
-        <v>2240663.499053048</v>
+        <v>985611.6272980345</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>15097651.43248526</v>
+        <v>5734793.751149889</v>
       </c>
       <c r="C378" t="n">
-        <v>6032469.881259516</v>
+        <v>2668767.633594564</v>
       </c>
       <c r="D378" t="n">
-        <v>2702208.169673411</v>
+        <v>1188895.358452961</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>15080112.7990575</v>
+        <v>5728244.980216601</v>
       </c>
       <c r="C379" t="n">
-        <v>6032388.140824218</v>
+        <v>2668731.519140729</v>
       </c>
       <c r="D379" t="n">
-        <v>3168129.483389604</v>
+        <v>1394195.622228164</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>15061892.53294807</v>
+        <v>5721437.999872071</v>
       </c>
       <c r="C380" t="n">
-        <v>6032294.291032849</v>
+        <v>2668690.053809909</v>
       </c>
       <c r="D380" t="n">
-        <v>3638382.209565253</v>
+        <v>1601494.227669089</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>15042959.71330057</v>
+        <v>5714361.066505908</v>
       </c>
       <c r="C381" t="n">
-        <v>6032186.678221223</v>
+        <v>2668642.506764302</v>
       </c>
       <c r="D381" t="n">
-        <v>4112918.76788273</v>
+        <v>1810771.924025766</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>15023282.30430817</v>
+        <v>5707002.01118813</v>
       </c>
       <c r="C382" t="n">
-        <v>6032063.444875812</v>
+        <v>2668588.057057301</v>
       </c>
       <c r="D382" t="n">
-        <v>4591689.306947669</v>
+        <v>2022008.433619766</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>15002827.14104753</v>
+        <v>5699348.234123093</v>
       </c>
       <c r="C383" t="n">
-        <v>6031922.507764026</v>
+        <v>2668525.783963855</v>
       </c>
       <c r="D383" t="n">
-        <v>4591680.700600526</v>
+        <v>2022004.646556939</v>
       </c>
       <c r="E383" t="n">
-        <v>546128.4089376653</v>
+        <v>305470.9043278254</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>14981559.91737066</v>
+        <v>5691386.699880013</v>
       </c>
       <c r="C384" t="n">
-        <v>6031761.534175422</v>
+        <v>2668454.656475298</v>
       </c>
       <c r="D384" t="n">
-        <v>4591670.440264329</v>
+        <v>2022000.131642632</v>
       </c>
       <c r="E384" t="n">
-        <v>1096926.386559249</v>
+        <v>613687.3953436099</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>14959445.17607833</v>
+        <v>5683103.933485536</v>
       </c>
       <c r="C385" t="n">
-        <v>6031577.916172199</v>
+        <v>2668373.521913588</v>
       </c>
       <c r="D385" t="n">
-        <v>4591658.228527992</v>
+        <v>2021994.757989753</v>
       </c>
       <c r="E385" t="n">
-        <v>1652330.805679337</v>
+        <v>924616.5173111644</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>14936446.30161009</v>
+        <v>5674486.017468082</v>
       </c>
       <c r="C386" t="n">
-        <v>6031368.742750021</v>
+        <v>2668281.093621199</v>
       </c>
       <c r="D386" t="n">
-        <v>4591643.718579382</v>
+        <v>2021988.372968712</v>
       </c>
       <c r="E386" t="n">
-        <v>2212276.460462009</v>
+        <v>1238224.1073966</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>14912525.51549609</v>
+        <v>5665518.589947725</v>
       </c>
       <c r="C387" t="n">
-        <v>6031130.769814787</v>
+        <v>2668175.937684827</v>
       </c>
       <c r="D387" t="n">
-        <v>4591626.50677173</v>
+        <v>2021980.798935432</v>
       </c>
       <c r="E387" t="n">
-        <v>2776696.201569538</v>
+        <v>1554474.869306038</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>14887643.87482646</v>
+        <v>5656186.843869404</v>
       </c>
       <c r="C388" t="n">
-        <v>6030860.387886876</v>
+        <v>2668056.458653743</v>
       </c>
       <c r="D388" t="n">
-        <v>4591606.124209852</v>
+        <v>2021971.829527871</v>
       </c>
       <c r="E388" t="n">
-        <v>3345521.079132385</v>
+        <v>1873332.451470395</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>14861761.27400326</v>
+        <v>5646475.52748087</v>
       </c>
       <c r="C389" t="n">
-        <v>6030553.587452358</v>
+        <v>2667920.884217106</v>
       </c>
       <c r="D389" t="n">
-        <v>4591582.02725041</v>
+        <v>2021961.225484478</v>
       </c>
       <c r="E389" t="n">
-        <v>3918680.493267789</v>
+        <v>2194759.529636798</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>14834836.45004973</v>
+        <v>5636368.946160465</v>
       </c>
       <c r="C390" t="n">
-        <v>6030205.92189045</v>
+        <v>2667767.248808894</v>
       </c>
       <c r="D390" t="n">
-        <v>4591553.586802822</v>
+        <v>2021948.709934663</v>
       </c>
       <c r="E390" t="n">
-        <v>4496102.351835918</v>
+        <v>2518717.893704339</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>14806826.99175879</v>
+        <v>5625850.965702838</v>
       </c>
       <c r="C391" t="n">
-        <v>6029812.467918594</v>
+        <v>2667593.376114433</v>
       </c>
       <c r="D391" t="n">
-        <v>4591520.076309857</v>
+        <v>2021933.963108021</v>
       </c>
       <c r="E391" t="n">
-        <v>5077713.235082864</v>
+        <v>2845168.538619296</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>14777689.35297093</v>
+        <v>5614905.017173642</v>
       </c>
       <c r="C392" t="n">
-        <v>6029367.783510844</v>
+        <v>2667396.860458862</v>
       </c>
       <c r="D392" t="n">
-        <v>4591480.658279673</v>
+        <v>2021916.616405834</v>
       </c>
       <c r="E392" t="n">
-        <v>5663438.566780202</v>
+        <v>3174071.759122274</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>14747378.87027708</v>
+        <v>5603514.103446598</v>
       </c>
       <c r="C393" t="n">
-        <v>6028865.863262173</v>
+        <v>2667175.047065293</v>
       </c>
       <c r="D393" t="n">
-        <v>4591434.369233971</v>
+        <v>2021896.24577527</v>
       </c>
       <c r="E393" t="n">
-        <v>5663431.57031103</v>
+        <v>3174067.841011404</v>
       </c>
       <c r="F393" t="n">
-        <v>666141.6868312198</v>
+        <v>276119.0420436144</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>14715849.78544696</v>
+        <v>5591660.807538197</v>
       </c>
       <c r="C394" t="n">
-        <v>6028300.091190714</v>
+        <v>2666925.011179088</v>
       </c>
       <c r="D394" t="n">
-        <v>4591380.102930536</v>
+        <v>2021872.364323862</v>
       </c>
       <c r="E394" t="n">
-        <v>5663423.096529177</v>
+        <v>3174063.095540709</v>
       </c>
       <c r="F394" t="n">
-        <v>1336760.699340148</v>
+        <v>554215.1311762898</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>14683055.27288686</v>
+        <v>5579327.302856594</v>
       </c>
       <c r="C395" t="n">
-        <v>6027663.190992304</v>
+        <v>2666643.536064452</v>
       </c>
       <c r="D395" t="n">
-        <v>4591316.591712602</v>
+        <v>2021844.414109298</v>
       </c>
       <c r="E395" t="n">
-        <v>5663412.852991556</v>
+        <v>3174057.358919071</v>
       </c>
       <c r="F395" t="n">
-        <v>2011770.441514305</v>
+        <v>834254.0660671997</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>14648947.47243186</v>
+        <v>5566495.365481965</v>
       </c>
       <c r="C396" t="n">
-        <v>6026947.173786768</v>
+        <v>2666327.089890719</v>
       </c>
       <c r="D396" t="n">
-        <v>4591242.38583268</v>
+        <v>2021811.757037408</v>
       </c>
       <c r="E396" t="n">
-        <v>5663400.493614115</v>
+        <v>3174050.437310094</v>
       </c>
       <c r="F396" t="n">
-        <v>2691083.90782603</v>
+        <v>1116201.43067479</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>14613477.5277778</v>
+        <v>5553146.388595458</v>
       </c>
       <c r="C397" t="n">
-        <v>6026143.283423471</v>
+        <v>2665971.80153808</v>
       </c>
       <c r="D397" t="n">
-        <v>4591155.830594744</v>
+        <v>2021773.664799618</v>
       </c>
       <c r="E397" t="n">
-        <v>5663385.609713276</v>
+        <v>3174042.101813827</v>
       </c>
       <c r="F397" t="n">
-        <v>3374613.91507973</v>
+        <v>1400022.69014908</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>14576595.63085521</v>
+        <v>5539261.399173051</v>
       </c>
       <c r="C398" t="n">
-        <v>6025241.939444857</v>
+        <v>2665573.435366282</v>
       </c>
       <c r="D398" t="n">
-        <v>4591055.041156439</v>
+        <v>2021729.307780121</v>
       </c>
       <c r="E398" t="n">
-        <v>5663367.719723918</v>
+        <v>3174032.082707063</v>
       </c>
       <c r="F398" t="n">
-        <v>4062273.339445177</v>
+        <v>1685683.289099776</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>14538251.07244312</v>
+        <v>5524821.077058902</v>
       </c>
       <c r="C399" t="n">
-        <v>6024232.677840692</v>
+        <v>2665127.365004921</v>
       </c>
       <c r="D399" t="n">
-        <v>4590937.874832399</v>
+        <v>2021677.742862786</v>
       </c>
       <c r="E399" t="n">
-        <v>5663346.257430359</v>
+        <v>3174020.06285057</v>
       </c>
       <c r="F399" t="n">
-        <v>4753975.358078297</v>
+        <v>1973148.751988159</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>14498392.29931314</v>
+        <v>5509805.776529978</v>
       </c>
       <c r="C400" t="n">
-        <v>6023104.089763085</v>
+        <v>2664628.546240403</v>
       </c>
       <c r="D400" t="n">
-        <v>4590801.900741143</v>
+        <v>2021617.900068416</v>
       </c>
       <c r="E400" t="n">
-        <v>5663320.558532322</v>
+        <v>3174005.670163522</v>
       </c>
       <c r="F400" t="n">
-        <v>5449633.694692808</v>
+        <v>2262384.785384218</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>14456966.9781845</v>
+        <v>5494195.550460149</v>
       </c>
       <c r="C401" t="n">
-        <v>6021843.758412328</v>
+        <v>2664071.489092377</v>
       </c>
       <c r="D401" t="n">
-        <v>4590644.366641837</v>
+        <v>2021548.567954641</v>
       </c>
       <c r="E401" t="n">
-        <v>5663289.845352948</v>
+        <v>3173988.469056984</v>
       </c>
       <c r="F401" t="n">
-        <v>6149162.868410095</v>
+        <v>2553357.381814898</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>14413922.06675763</v>
+        <v>5477970.177187005</v>
       </c>
       <c r="C402" t="n">
-        <v>6020438.194346655</v>
+        <v>2663450.229191484</v>
       </c>
       <c r="D402" t="n">
-        <v>4590462.162813552</v>
+        <v>2021468.377713521</v>
       </c>
       <c r="E402" t="n">
-        <v>5663253.209480912</v>
+        <v>3173967.950709987</v>
       </c>
       <c r="F402" t="n">
-        <v>6852478.445173927</v>
+        <v>2846032.924911649</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>14369203.89207827</v>
+        <v>5461109.190178733</v>
       </c>
       <c r="C403" t="n">
-        <v>6018872.769514706</v>
+        <v>2662758.298590445</v>
       </c>
       <c r="D403" t="n">
-        <v>4590251.782839049</v>
+        <v>2021375.78590609</v>
       </c>
       <c r="E403" t="n">
-        <v>5663209.592123887</v>
+        <v>3173943.522063318</v>
       </c>
       <c r="F403" t="n">
-        <v>6852472.441072792</v>
+        <v>2846030.433222967</v>
       </c>
       <c r="G403" t="n">
-        <v>674827.3945186753</v>
+        <v>188869.5466438119</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>14322758.2364648</v>
+        <v>5443591.910591016</v>
       </c>
       <c r="C404" t="n">
-        <v>6017131.65035757</v>
+        <v>2661988.69616183</v>
       </c>
       <c r="D404" t="n">
-        <v>4590009.281167857</v>
+        <v>2021269.055778631</v>
       </c>
       <c r="E404" t="n">
-        <v>5663157.761935993</v>
+        <v>3173914.49339805</v>
       </c>
       <c r="F404" t="n">
-        <v>6852465.070436298</v>
+        <v>2846027.374396309</v>
       </c>
       <c r="G404" t="n">
-        <v>1353112.853277324</v>
+        <v>378790.0456356461</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>14274530.43120908</v>
+        <v>5425397.48279557</v>
       </c>
       <c r="C405" t="n">
-        <v>6015197.730377648</v>
+        <v>2661133.857758103</v>
       </c>
       <c r="D405" t="n">
-        <v>4589730.227349828</v>
+        <v>2021146.237112743</v>
       </c>
       <c r="E405" t="n">
-        <v>5663096.290068233</v>
+        <v>3173880.064358124</v>
       </c>
       <c r="F405" t="n">
-        <v>6852456.04127172</v>
+        <v>2846023.627242317</v>
       </c>
       <c r="G405" t="n">
-        <v>2034780.516704278</v>
+        <v>569741.1676204824</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>14224465.45823498</v>
+        <v>5406504.912951886</v>
       </c>
       <c r="C406" t="n">
-        <v>6013052.562623712</v>
+        <v>2660185.626332634</v>
       </c>
       <c r="D406" t="n">
-        <v>4589409.65685079</v>
+        <v>2021005.144570222</v>
       </c>
       <c r="E406" t="n">
-        <v>5663023.522178038</v>
+        <v>3173839.308269124</v>
       </c>
       <c r="F406" t="n">
-        <v>6852445.003651755</v>
+        <v>2846019.046524768</v>
       </c>
       <c r="G406" t="n">
-        <v>2719756.549048917</v>
+        <v>761703.1236983123</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>14172508.05986926</v>
+        <v>5386893.110682532</v>
       </c>
       <c r="C407" t="n">
-        <v>6010676.292595148</v>
+        <v>2659135.222244065</v>
       </c>
       <c r="D407" t="n">
-        <v>4589042.018386756</v>
+        <v>2020843.334504719</v>
       </c>
       <c r="E407" t="n">
-        <v>5662937.547122998</v>
+        <v>3173791.154599177</v>
       </c>
       <c r="F407" t="n">
-        <v>6852431.53921156</v>
+        <v>2846013.4586008</v>
       </c>
       <c r="G407" t="n">
-        <v>3407969.389015927</v>
+        <v>954656.7366461968</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>14118602.85684608</v>
+        <v>5366540.933899725</v>
       </c>
       <c r="C408" t="n">
-        <v>6008047.592122842</v>
+        <v>2657973.213990576</v>
       </c>
       <c r="D408" t="n">
-        <v>4588621.117742587</v>
+        <v>2020658.080225108</v>
       </c>
       <c r="E408" t="n">
-        <v>5662836.162054595</v>
+        <v>3173734.369402661</v>
       </c>
       <c r="F408" t="n">
-        <v>6852415.148950765</v>
+        <v>2846006.656357441</v>
       </c>
       <c r="G408" t="n">
-        <v>4099349.999518858</v>
+        <v>1148583.512050733</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>14062694.47462919</v>
+        <v>5345427.236816606</v>
       </c>
       <c r="C409" t="n">
-        <v>6005143.594839156</v>
+        <v>2656689.489644845</v>
       </c>
       <c r="D409" t="n">
-        <v>4588140.05807547</v>
+        <v>2020446.345710636</v>
       </c>
       <c r="E409" t="n">
-        <v>5662716.833621044</v>
+        <v>3173667.533583748</v>
       </c>
       <c r="F409" t="n">
-        <v>6852395.239108481</v>
+        <v>2845998.393348167</v>
       </c>
       <c r="G409" t="n">
-        <v>4793832.115786484</v>
+        <v>1343465.70913591</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>14004727.67809511</v>
+        <v>5323530.921161158</v>
       </c>
       <c r="C410" t="n">
-        <v>6001939.833903953</v>
+        <v>2655273.229284766</v>
       </c>
       <c r="D410" t="n">
-        <v>4587591.176743126</v>
+        <v>2020204.757795379</v>
       </c>
       <c r="E410" t="n">
-        <v>5662576.654984881</v>
+        <v>3173589.018814723</v>
       </c>
       <c r="F410" t="n">
-        <v>6852371.104855502</v>
+        <v>2845988.377023254</v>
       </c>
       <c r="G410" t="n">
-        <v>5491352.49102117</v>
+        <v>1539286.41106115</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>13944647.51457571</v>
+        <v>5300830.990593655</v>
       </c>
       <c r="C411" t="n">
-        <v>5998410.182707497</v>
+        <v>2653712.878738675</v>
       </c>
       <c r="D411" t="n">
-        <v>4586965.978741641</v>
+        <v>2019929.576859291</v>
       </c>
       <c r="E411" t="n">
-        <v>5662412.298360977</v>
+        <v>3173496.960944164</v>
       </c>
       <c r="F411" t="n">
-        <v>6852341.911522999</v>
+        <v>2845976.260937378</v>
       </c>
       <c r="G411" t="n">
-        <v>6191851.138778014</v>
+        <v>1736029.594455137</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>13882399.46521039</v>
+        <v>5277306.608309917</v>
       </c>
       <c r="C412" t="n">
-        <v>5994526.799322886</v>
+        <v>2651996.124986937</v>
       </c>
       <c r="D412" t="n">
-        <v>4586255.066888232</v>
+        <v>2019616.666085364</v>
       </c>
       <c r="E412" t="n">
-        <v>5662219.962785373</v>
+        <v>3173389.230732578</v>
       </c>
       <c r="F412" t="n">
-        <v>6852306.673061281</v>
+        <v>2845961.635807241</v>
       </c>
       <c r="G412" t="n">
-        <v>6895271.571194394</v>
+        <v>1933680.19793947</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>13817929.60450576</v>
+        <v>5252937.157792891</v>
       </c>
       <c r="C413" t="n">
-        <v>5990260.07553021</v>
+        <v>2650109.873583571</v>
       </c>
       <c r="D413" t="n">
-        <v>4585448.068940195</v>
+        <v>2019261.459367</v>
       </c>
       <c r="E413" t="n">
-        <v>5661995.316834955</v>
+        <v>3173263.401758592</v>
       </c>
       <c r="F413" t="n">
-        <v>6852264.227396213</v>
+        <v>2845944.019281168</v>
       </c>
       <c r="G413" t="n">
-        <v>6895266.94761903</v>
+        <v>1933678.902372674</v>
       </c>
       <c r="H413" t="n">
-        <v>758614.8883705074</v>
+        <v>232639.7573520128</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>13751184.76794523</v>
+        <v>5227702.306653758</v>
       </c>
       <c r="C414" t="n">
-        <v>5985578.591280624</v>
+        <v>2648040.228482042</v>
       </c>
       <c r="D414" t="n">
-        <v>4584533.561902706</v>
+        <v>2018858.927976799</v>
       </c>
       <c r="E414" t="n">
-        <v>5661733.436033663</v>
+        <v>3173116.715347431</v>
       </c>
       <c r="F414" t="n">
-        <v>6852213.208324623</v>
+        <v>2845922.844271777</v>
       </c>
       <c r="G414" t="n">
-        <v>6895261.209971328</v>
+        <v>1933677.294618355</v>
       </c>
       <c r="H414" t="n">
-        <v>1520260.121610327</v>
+        <v>466311.5235277934</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>13682112.72743219</v>
+        <v>5201582.073481289</v>
       </c>
       <c r="C415" t="n">
-        <v>5980449.075510173</v>
+        <v>2645772.474667743</v>
       </c>
       <c r="D415" t="n">
-        <v>4583498.993844897</v>
+        <v>2018403.546137296</v>
       </c>
       <c r="E415" t="n">
-        <v>5661428.734703096</v>
+        <v>3172946.042385986</v>
       </c>
       <c r="F415" t="n">
-        <v>6852152.013564395</v>
+        <v>2845897.445692105</v>
       </c>
       <c r="G415" t="n">
-        <v>6895254.105995435</v>
+        <v>1933675.303985202</v>
       </c>
       <c r="H415" t="n">
-        <v>2284888.047345037</v>
+        <v>701001.5804827905</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>13610662.37428804</v>
+        <v>5174556.897594436</v>
       </c>
       <c r="C416" t="n">
-        <v>5974836.37424948</v>
+        <v>2643291.064015828</v>
       </c>
       <c r="D416" t="n">
-        <v>4582330.603615457</v>
+        <v>2017889.255665853</v>
       </c>
       <c r="E416" t="n">
-        <v>5661074.892045092</v>
+        <v>3172747.841905251</v>
       </c>
       <c r="F416" t="n">
-        <v>6852078.768550247</v>
+        <v>2845867.045425366</v>
       </c>
       <c r="G416" t="n">
-        <v>6895245.330319976</v>
+        <v>1933672.844896109</v>
       </c>
       <c r="H416" t="n">
-        <v>3052455.786743521</v>
+        <v>936697.6578773868</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>13536783.90946218</v>
+        <v>5146607.711568365</v>
       </c>
       <c r="C417" t="n">
-        <v>5968703.427005442</v>
+        <v>2640579.604806317</v>
       </c>
       <c r="D417" t="n">
-        <v>4581013.338925501</v>
+        <v>2017309.42989958</v>
       </c>
       <c r="E417" t="n">
-        <v>5660664.772281627</v>
+        <v>3172518.116332196</v>
       </c>
       <c r="F417" t="n">
-        <v>6851991.285543174</v>
+        <v>2845830.735348921</v>
       </c>
       <c r="G417" t="n">
-        <v>6895234.514214596</v>
+        <v>1933669.814017209</v>
       </c>
       <c r="H417" t="n">
-        <v>3822925.463527738</v>
+        <v>1173389.005983941</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>13460429.04054305</v>
+        <v>5117716.016378446</v>
       </c>
       <c r="C418" t="n">
-        <v>5962011.252413536</v>
+        <v>2637620.855338424</v>
       </c>
       <c r="D418" t="n">
-        <v>4579530.773347253</v>
+        <v>2016656.837141728</v>
       </c>
       <c r="E418" t="n">
-        <v>5660190.338724136</v>
+        <v>3172252.363339214</v>
       </c>
       <c r="F418" t="n">
-        <v>6851887.017601041</v>
+        <v>2845787.458224537</v>
       </c>
       <c r="G418" t="n">
-        <v>6895221.213580324</v>
+        <v>1933666.08689186</v>
       </c>
       <c r="H418" t="n">
-        <v>4596264.423815728</v>
+        <v>1411066.465938495</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>13381551.1850909</v>
+        <v>5087863.958980096</v>
       </c>
       <c r="C419" t="n">
-        <v>5954718.944173629</v>
+        <v>2634396.72209236</v>
       </c>
       <c r="D419" t="n">
-        <v>4577865.022861306</v>
+        <v>2015923.603908113</v>
       </c>
       <c r="E419" t="n">
-        <v>5659642.561700603</v>
+        <v>3171945.524250912</v>
       </c>
       <c r="F419" t="n">
-        <v>6851763.006940625</v>
+        <v>2845735.986259865</v>
       </c>
       <c r="G419" t="n">
-        <v>6895204.894913359</v>
+        <v>1933661.514006576</v>
       </c>
       <c r="H419" t="n">
-        <v>5372445.445770746</v>
+        <v>1649722.537014679</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>13300105.67974112</v>
+        <v>5057034.412115278</v>
       </c>
       <c r="C420" t="n">
-        <v>5946783.678286772</v>
+        <v>2630888.262888981</v>
       </c>
       <c r="D420" t="n">
-        <v>4575996.662672296</v>
+        <v>2015101.178290453</v>
       </c>
       <c r="E420" t="n">
-        <v>5659011.320335371</v>
+        <v>3171591.929005179</v>
       </c>
       <c r="F420" t="n">
-        <v>6851615.827208612</v>
+        <v>2845674.897140722</v>
       </c>
       <c r="G420" t="n">
-        <v>6895184.918952017</v>
+        <v>1933655.916207529</v>
       </c>
       <c r="H420" t="n">
-        <v>6151446.93798989</v>
+        <v>1889351.440584297</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>13216049.99445559</v>
+        <v>5025211.056108801</v>
       </c>
       <c r="C421" t="n">
-        <v>5938160.732604853</v>
+        <v>2627075.695495176</v>
       </c>
       <c r="D421" t="n">
-        <v>4573904.645101758</v>
+        <v>2014180.293792668</v>
       </c>
       <c r="E421" t="n">
-        <v>5658285.298253765</v>
+        <v>3171185.237708807</v>
       </c>
       <c r="F421" t="n">
-        <v>6851441.519171634</v>
+        <v>2845602.547330724</v>
       </c>
       <c r="G421" t="n">
-        <v>6895160.52168536</v>
+        <v>1933649.079377513</v>
       </c>
       <c r="H421" t="n">
-        <v>6933253.125524209</v>
+        <v>2129949.180415413</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>13129343.95122634</v>
+        <v>4992378.462389654</v>
       </c>
       <c r="C422" t="n">
-        <v>5928803.519687838</v>
+        <v>2622938.412115354</v>
       </c>
       <c r="D422" t="n">
-        <v>4571566.219456443</v>
+        <v>2013150.934035656</v>
       </c>
       <c r="E422" t="n">
-        <v>5657451.873372002</v>
+        <v>3170718.378877393</v>
       </c>
       <c r="F422" t="n">
-        <v>6851235.51933467</v>
+        <v>2845517.042434428</v>
       </c>
       <c r="G422" t="n">
-        <v>6895130.792369128</v>
+        <v>1933640.748274001</v>
       </c>
       <c r="H422" t="n">
-        <v>7717854.222376485</v>
+        <v>2371513.598943688</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>13039949.94646353</v>
+        <v>4958522.178444919</v>
       </c>
       <c r="C423" t="n">
-        <v>5918663.633933961</v>
+        <v>2618455.00019645</v>
       </c>
       <c r="D423" t="n">
-        <v>4568956.854859613</v>
+        <v>2012002.29876529</v>
       </c>
       <c r="E423" t="n">
-        <v>5656497.002032626</v>
+        <v>3170183.48450515</v>
       </c>
       <c r="F423" t="n">
-        <v>6850992.581004392</v>
+        <v>2845416.204423171</v>
       </c>
       <c r="G423" t="n">
-        <v>6895094.648160775</v>
+        <v>1933630.619419479</v>
       </c>
       <c r="H423" t="n">
-        <v>8505246.589276815</v>
+        <v>2614044.429137588</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>12947833.17622731</v>
+        <v>4923628.813885912</v>
       </c>
       <c r="C424" t="n">
-        <v>5907690.913905852</v>
+        <v>2613603.269955128</v>
       </c>
       <c r="D424" t="n">
-        <v>4566050.167119924</v>
+        <v>2010722.771636829</v>
       </c>
       <c r="E424" t="n">
-        <v>5655405.097856864</v>
+        <v>3169571.822172544</v>
       </c>
       <c r="F424" t="n">
-        <v>6850706.687330289</v>
+        <v>2845297.535529543</v>
       </c>
       <c r="G424" t="n">
-        <v>6895050.804950742</v>
+        <v>1933618.33292549</v>
       </c>
       <c r="H424" t="n">
-        <v>9295432.875483075</v>
+        <v>2857543.341560726</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>12852961.86339264</v>
+        <v>4887686.127279248</v>
       </c>
       <c r="C425" t="n">
-        <v>5895833.520719302</v>
+        <v>2608360.289011035</v>
       </c>
       <c r="D425" t="n">
-        <v>4562817.850796335</v>
+        <v>2009299.890285807</v>
       </c>
       <c r="E425" t="n">
-        <v>5654158.905807778</v>
+        <v>3168873.72446833</v>
       </c>
       <c r="F425" t="n">
-        <v>6850370.955883708</v>
+        <v>2845158.178627705</v>
       </c>
       <c r="G425" t="n">
-        <v>6894997.743932527</v>
+        <v>1933603.463122137</v>
       </c>
       <c r="H425" t="n">
-        <v>10088422.14330225</v>
+        <v>3102013.986217853</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>12755307.48576729</v>
+        <v>4850683.113369067</v>
       </c>
       <c r="C426" t="n">
-        <v>5883038.033290992</v>
+        <v>2602702.424478809</v>
       </c>
       <c r="D426" t="n">
-        <v>4559229.61769616</v>
+        <v>2007720.319230143</v>
       </c>
       <c r="E426" t="n">
-        <v>5652739.372091604</v>
+        <v>3168078.51607731</v>
       </c>
       <c r="F426" t="n">
-        <v>6849977.534374074</v>
+        <v>2844994.873933057</v>
       </c>
       <c r="G426" t="n">
-        <v>6894933.673419958</v>
+        <v>1933585.507855217</v>
       </c>
       <c r="H426" t="n">
-        <v>10884229.97396919</v>
+        <v>3347462.028751609</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>12654845.00411722</v>
+        <v>4812610.09029125</v>
       </c>
       <c r="C427" t="n">
-        <v>5869249.561156044</v>
+        <v>2596605.392833837</v>
       </c>
       <c r="D427" t="n">
-        <v>4555253.143115131</v>
+        <v>2005969.826179846</v>
       </c>
       <c r="E427" t="n">
-        <v>5651125.510668427</v>
+        <v>3167174.438965771</v>
       </c>
       <c r="F427" t="n">
-        <v>6849517.487154461</v>
+        <v>2844803.911876656</v>
       </c>
       <c r="G427" t="n">
-        <v>6894856.48538737</v>
+        <v>1933563.876303977</v>
       </c>
       <c r="H427" t="n">
-        <v>11682878.55346199</v>
+        <v>3593895.180538513</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>12551553.08899103</v>
+        <v>4773458.786356495</v>
       </c>
       <c r="C428" t="n">
-        <v>5854411.875466118</v>
+        <v>2590044.317822409</v>
       </c>
       <c r="D428" t="n">
-        <v>4550854.021191453</v>
+        <v>2004033.262358482</v>
       </c>
       <c r="E428" t="n">
-        <v>5649294.267296508</v>
+        <v>3166148.576182352</v>
       </c>
       <c r="F428" t="n">
-        <v>6848980.672236639</v>
+        <v>2844581.082038028</v>
       </c>
       <c r="G428" t="n">
-        <v>6894763.70617814</v>
+        <v>1933537.875163994</v>
       </c>
       <c r="H428" t="n">
-        <v>12484396.73677093</v>
+        <v>3841323.222212239</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>12445414.34517705</v>
+        <v>4733222.425956718</v>
       </c>
       <c r="C429" t="n">
-        <v>5838467.55866336</v>
+        <v>2582993.796635911</v>
       </c>
       <c r="D429" t="n">
-        <v>4545995.730798136</v>
+        <v>2001894.547463638</v>
       </c>
       <c r="E429" t="n">
-        <v>5647220.382196032</v>
+        <v>3164986.774882568</v>
       </c>
       <c r="F429" t="n">
-        <v>6848355.608620014</v>
+        <v>2844321.618054969</v>
       </c>
       <c r="G429" t="n">
-        <v>6894652.440800034</v>
+        <v>1933506.693032132</v>
       </c>
       <c r="H429" t="n">
-        <v>13288820.08907272</v>
+        <v>4089758.020121204</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>12336415.53257319</v>
+        <v>4691895.814128702</v>
       </c>
       <c r="C430" t="n">
-        <v>5821358.173195093</v>
+        <v>2575427.97451106</v>
       </c>
       <c r="D430" t="n">
-        <v>4540639.613437633</v>
+        <v>1999536.659911148</v>
       </c>
       <c r="E430" t="n">
-        <v>5644876.252585944</v>
+        <v>3163673.569279364</v>
       </c>
       <c r="F430" t="n">
-        <v>6847629.333840996</v>
+        <v>2844020.138471344</v>
       </c>
       <c r="G430" t="n">
-        <v>6894519.310203861</v>
+        <v>1933469.3828243</v>
       </c>
       <c r="H430" t="n">
-        <v>14096190.90219803</v>
+        <v>4339213.535206549</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>12224547.78220279</v>
+        <v>4649475.419290814</v>
       </c>
       <c r="C431" t="n">
-        <v>5803024.449489359</v>
+        <v>2567320.62785406</v>
       </c>
       <c r="D431" t="n">
-        <v>4534744.864627809</v>
+        <v>1996941.633018849</v>
       </c>
       <c r="E431" t="n">
-        <v>5642231.79652035</v>
+        <v>3162192.104318869</v>
       </c>
       <c r="F431" t="n">
-        <v>6846787.251770208</v>
+        <v>2843670.583534057</v>
       </c>
       <c r="G431" t="n">
-        <v>6894360.380925821</v>
+        <v>1933424.842052305</v>
       </c>
       <c r="H431" t="n">
-        <v>14906558.18471208</v>
+        <v>4589705.823764594</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>12109806.80606864</v>
+        <v>4605959.453652741</v>
       </c>
       <c r="C432" t="n">
-        <v>5783406.493252325</v>
+        <v>2558645.255916276</v>
       </c>
       <c r="D432" t="n">
-        <v>4528268.540276637</v>
+        <v>1994090.557789426</v>
       </c>
       <c r="E432" t="n">
-        <v>5639254.319626016</v>
+        <v>3160524.060978713</v>
       </c>
       <c r="F432" t="n">
-        <v>6845812.970825645</v>
+        <v>2843266.148008773</v>
       </c>
       <c r="G432" t="n">
-        <v>6894171.086465887</v>
+        <v>1933371.790783725</v>
       </c>
       <c r="H432" t="n">
-        <v>15719977.62386108</v>
+        <v>4841253.029535984</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>11992193.09950405</v>
+        <v>4561347.950785423</v>
       </c>
       <c r="C433" t="n">
-        <v>5762444.011976496</v>
+        <v>2549375.180972809</v>
       </c>
       <c r="D433" t="n">
-        <v>4521165.579532909</v>
+        <v>1990963.59294737</v>
       </c>
       <c r="E433" t="n">
-        <v>5635908.386517649</v>
+        <v>3158649.584184357</v>
       </c>
       <c r="F433" t="n">
-        <v>6844688.132931033</v>
+        <v>2842799.210150884</v>
       </c>
       <c r="G433" t="n">
-        <v>6893946.13977565</v>
+        <v>1933308.747109112</v>
       </c>
       <c r="H433" t="n">
-        <v>16536511.51757167</v>
+        <v>5093875.366542365</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>11871712.13465497</v>
+        <v>4515642.839828495</v>
       </c>
       <c r="C434" t="n">
-        <v>5740076.560364367</v>
+        <v>2539483.656873886</v>
       </c>
       <c r="D434" t="n">
-        <v>4513388.845569662</v>
+        <v>1987539.982871759</v>
       </c>
       <c r="E434" t="n">
-        <v>5632155.698839392</v>
+        <v>3156547.214435295</v>
       </c>
       <c r="F434" t="n">
-        <v>6843392.233730514</v>
+        <v>2842261.25704372</v>
       </c>
       <c r="G434" t="n">
-        <v>6893679.436241754</v>
+        <v>1933233.999944314</v>
       </c>
       <c r="H434" t="n">
-        <v>17356228.67462355</v>
+        <v>5347595.092069753</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>11748374.5437102</v>
+        <v>4468848.015806095</v>
       </c>
       <c r="C435" t="n">
-        <v>5716243.804177044</v>
+        <v>2528943.985752611</v>
       </c>
       <c r="D435" t="n">
-        <v>4504889.185704602</v>
+        <v>1983798.084043408</v>
       </c>
       <c r="E435" t="n">
-        <v>5627954.982046571</v>
+        <v>3154193.824325683</v>
       </c>
       <c r="F435" t="n">
-        <v>6841902.434773496</v>
+        <v>2841642.806600156</v>
       </c>
       <c r="G435" t="n">
-        <v>6893363.946576759</v>
+        <v>1933145.579002942</v>
       </c>
       <c r="H435" t="n">
-        <v>18179204.28105507</v>
+        <v>5602436.469177931</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>11622196.2904902</v>
+        <v>4420969.405519129</v>
       </c>
       <c r="C436" t="n">
-        <v>5690885.801813036</v>
+        <v>2517729.642582197</v>
       </c>
       <c r="D436" t="n">
-        <v>4495615.512185812</v>
+        <v>1979715.40059159</v>
       </c>
       <c r="E436" t="n">
-        <v>5623261.883197148</v>
+        <v>3151564.561231232</v>
       </c>
       <c r="F436" t="n">
-        <v>6840193.368606516</v>
+        <v>2840933.326616404</v>
       </c>
       <c r="G436" t="n">
-        <v>6892991.599070431</v>
+        <v>1933041.22178552</v>
       </c>
       <c r="H436" t="n">
-        <v>19005519.73080084</v>
+        <v>5858425.718095455</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>11493198.82900771</v>
+        <v>4372015.02848294</v>
       </c>
       <c r="C437" t="n">
-        <v>5663943.302710758</v>
+        <v>2505814.407182165</v>
       </c>
       <c r="D437" t="n">
-        <v>4485514.904870447</v>
+        <v>1975268.629481199</v>
       </c>
       <c r="E437" t="n">
-        <v>5618028.882163985</v>
+        <v>3148632.797513535</v>
       </c>
       <c r="F437" t="n">
-        <v>6838236.937951189</v>
+        <v>2840121.151367333</v>
       </c>
       <c r="G437" t="n">
-        <v>6892553.150712843</v>
+        <v>1932918.337448208</v>
       </c>
       <c r="H437" t="n">
-        <v>19835262.41851011</v>
+        <v>6115590.955843369</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>11361409.24762686</v>
+        <v>4321995.052384445</v>
       </c>
       <c r="C438" t="n">
-        <v>5635358.061451102</v>
+        <v>2493172.503176839</v>
       </c>
       <c r="D438" t="n">
-        <v>4474532.736898001</v>
+        <v>1970433.715825756</v>
       </c>
       <c r="E438" t="n">
-        <v>5612205.218802638</v>
+        <v>3145370.089662374</v>
       </c>
       <c r="F438" t="n">
-        <v>6836002.110407591</v>
+        <v>2839193.396340758</v>
       </c>
       <c r="G438" t="n">
-        <v>6892038.04677861</v>
+        <v>1932773.967435824</v>
       </c>
       <c r="H438" t="n">
-        <v>20668525.49244733</v>
+        <v>6373962.12341498</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>11226860.39747216</v>
+        <v>4270921.842541931</v>
       </c>
       <c r="C439" t="n">
-        <v>5605073.166216419</v>
+        <v>2479778.743312114</v>
       </c>
       <c r="D439" t="n">
-        <v>4462612.824307404</v>
+        <v>1965185.918744598</v>
       </c>
       <c r="E439" t="n">
-        <v>5605736.838710881</v>
+        <v>3141746.147853477</v>
       </c>
       <c r="F439" t="n">
-        <v>6833454.710398228</v>
+        <v>2838135.871822661</v>
       </c>
       <c r="G439" t="n">
-        <v>6891434.268560781</v>
+        <v>1932604.742791709</v>
       </c>
       <c r="H439" t="n">
-        <v>21505407.56534326</v>
+        <v>6633570.899828083</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>11089591.00377422</v>
+        <v>4218810.004864206</v>
       </c>
       <c r="C440" t="n">
-        <v>5573033.380041427</v>
+        <v>2465608.680438707</v>
       </c>
       <c r="D440" t="n">
-        <v>4449697.6003686</v>
+        <v>1959499.888103968</v>
       </c>
       <c r="E440" t="n">
-        <v>5598566.360290937</v>
+        <v>3137728.817441192</v>
       </c>
       <c r="F440" t="n">
-        <v>6830557.210356526</v>
+        <v>2836932.996165283</v>
       </c>
       <c r="G440" t="n">
-        <v>6890728.169065649</v>
+        <v>1932406.838091334</v>
       </c>
       <c r="H440" t="n">
-        <v>22346012.38103905</v>
+        <v>6894450.602357104</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>10949645.75888623</v>
+        <v>4165676.421823732</v>
       </c>
       <c r="C441" t="n">
-        <v>5539185.493073068</v>
+        <v>2450638.763373378</v>
       </c>
       <c r="D441" t="n">
-        <v>4435728.315194562</v>
+        <v>1953349.752391563</v>
       </c>
       <c r="E441" t="n">
-        <v>5590633.065869413</v>
+        <v>3133284.073930225</v>
       </c>
       <c r="F441" t="n">
-        <v>6827268.523462156</v>
+        <v>2835567.709693911</v>
       </c>
       <c r="G441" t="n">
-        <v>6889904.296627298</v>
+        <v>1932175.921987951</v>
       </c>
       <c r="H441" t="n">
-        <v>23190448.43475918</v>
+        <v>7156636.072249856</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>10807075.39576454</v>
+        <v>4111540.280980735</v>
       </c>
       <c r="C442" t="n">
-        <v>5503478.683842507</v>
+        <v>2434846.496754953</v>
       </c>
       <c r="D442" t="n">
-        <v>4420645.260969482</v>
+        <v>1946709.21787282</v>
       </c>
       <c r="E442" t="n">
-        <v>5581872.919638515</v>
+        <v>3128376.032975563</v>
       </c>
       <c r="F442" t="n">
-        <v>6823543.800529187</v>
+        <v>2834021.390334329</v>
       </c>
       <c r="G442" t="n">
-        <v>6888945.206574937</v>
+        <v>1931907.104407387</v>
       </c>
       <c r="H442" t="n">
-        <v>24038828.54485667</v>
+        <v>7420163.545235215</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>10661936.74077653</v>
+        <v>4056423.095622142</v>
       </c>
       <c r="C443" t="n">
-        <v>5465864.887346761</v>
+        <v>2418210.603920882</v>
       </c>
       <c r="D443" t="n">
-        <v>4404388.022874537</v>
+        <v>1939551.679065144</v>
       </c>
       <c r="E443" t="n">
-        <v>5572218.615151495</v>
+        <v>3122966.976942524</v>
       </c>
       <c r="F443" t="n">
-        <v>6819334.233957244</v>
+        <v>2832273.772169282</v>
       </c>
       <c r="G443" t="n">
-        <v>6887831.261287798</v>
+        <v>1931594.880485652</v>
       </c>
       <c r="H443" t="n">
-        <v>24891269.37390279</v>
+        <v>7685070.506136497</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>10514292.74478212</v>
+        <v>4000348.717110512</v>
       </c>
       <c r="C444" t="n">
-        <v>5426299.167542333</v>
+        <v>2400711.191743691</v>
       </c>
       <c r="D444" t="n">
-        <v>4386895.75551554</v>
+        <v>1931850.34044432</v>
       </c>
       <c r="E444" t="n">
-        <v>5561599.655031328</v>
+        <v>3117017.399517611</v>
       </c>
       <c r="F444" t="n">
-        <v>6814586.871955121</v>
+        <v>2830302.868256595</v>
       </c>
       <c r="G444" t="n">
-        <v>6886540.41920241</v>
+        <v>1931233.071407503</v>
       </c>
       <c r="H444" t="n">
-        <v>25747890.89704778</v>
+        <v>7951395.526921513</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>10364212.49152775</v>
+        <v>3943343.338573765</v>
       </c>
       <c r="C445" t="n">
-        <v>5384740.091672311</v>
+        <v>2382329.916286516</v>
       </c>
       <c r="D445" t="n">
-        <v>4368107.484359418</v>
+        <v>1923578.349166394</v>
       </c>
       <c r="E445" t="n">
-        <v>5549942.465431094</v>
+        <v>3110486.069793291</v>
       </c>
       <c r="F445" t="n">
-        <v>6809244.446534232</v>
+        <v>2828084.899161228</v>
       </c>
       <c r="G445" t="n">
-        <v>6885048.01359559</v>
+        <v>1930814.762376578</v>
       </c>
       <c r="H445" t="n">
-        <v>26608815.8156587</v>
+        <v>8219178.087544666</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>10211771.1824972</v>
+        <v>3885435.489606453</v>
       </c>
       <c r="C446" t="n">
-        <v>5341150.103684245</v>
+        <v>2363050.148064274</v>
       </c>
       <c r="D446" t="n">
-        <v>4347962.431371274</v>
+        <v>1914708.938449507</v>
       </c>
       <c r="E446" t="n">
-        <v>5537170.547614219</v>
+        <v>3103330.117154521</v>
       </c>
       <c r="F446" t="n">
-        <v>6803245.219039384</v>
+        <v>2825594.228765761</v>
       </c>
       <c r="G446" t="n">
-        <v>6883326.522252929</v>
+        <v>1930332.238028042</v>
       </c>
       <c r="H446" t="n">
-        <v>27474168.91435274</v>
+        <v>8488458.378970889</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>10057050.09747834</v>
+        <v>3826656.021697244</v>
       </c>
       <c r="C447" t="n">
-        <v>5295495.893852135</v>
+        <v>2342857.135633136</v>
       </c>
       <c r="D447" t="n">
-        <v>4326400.363714216</v>
+        <v>1905215.581115004</v>
       </c>
       <c r="E447" t="n">
-        <v>5523204.668800582</v>
+        <v>3095505.138170401</v>
       </c>
       <c r="F447" t="n">
-        <v>6796522.847228889</v>
+        <v>2822803.309025447</v>
       </c>
       <c r="G447" t="n">
-        <v>6881345.329445899</v>
+        <v>1929776.915682506</v>
       </c>
       <c r="H447" t="n">
-        <v>28344076.35969029</v>
+        <v>8759277.087816564</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>9900136.530230129</v>
+        <v>3767038.084145141</v>
       </c>
       <c r="C448" t="n">
-        <v>5247748.761594623</v>
+        <v>2321738.166177321</v>
       </c>
       <c r="D448" t="n">
-        <v>4303361.964033677</v>
+        <v>1895072.15263725</v>
       </c>
       <c r="E448" t="n">
-        <v>5507963.09414864</v>
+        <v>3086965.326539793</v>
       </c>
       <c r="F448" t="n">
-        <v>6789006.278127667</v>
+        <v>2819682.63542191</v>
       </c>
       <c r="G448" t="n">
-        <v>6879070.481978947</v>
+        <v>1929139.276934844</v>
       </c>
       <c r="H448" t="n">
-        <v>29218664.93897886</v>
+        <v>9031675.162100159</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>9741123.698768903</v>
+        <v>3706617.090278253</v>
       </c>
       <c r="C449" t="n">
-        <v>5197884.968385997</v>
+        <v>2299682.721719857</v>
       </c>
       <c r="D449" t="n">
-        <v>4278789.220501027</v>
+        <v>1884253.102898731</v>
       </c>
       <c r="E449" t="n">
-        <v>5491361.861413537</v>
+        <v>3077663.626954803</v>
       </c>
       <c r="F449" t="n">
-        <v>6780619.671047161</v>
+        <v>2816200.714940324</v>
       </c>
       <c r="G449" t="n">
-        <v>6876464.441428282</v>
+        <v>1928408.798172564</v>
       </c>
       <c r="H449" t="n">
-        <v>30098061.23786824</v>
+        <v>9305693.557666892</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>9580110.629935747</v>
+        <v>3645430.673843642</v>
       </c>
       <c r="C450" t="n">
-        <v>5145886.077589263</v>
+        <v>2276682.629554033</v>
       </c>
       <c r="D450" t="n">
-        <v>4252625.834442275</v>
+        <v>1872733.635693323</v>
       </c>
       <c r="E450" t="n">
-        <v>5473315.099436671</v>
+        <v>3067551.913530601</v>
       </c>
       <c r="F450" t="n">
-        <v>6771282.355286814</v>
+        <v>2812324.048445235</v>
       </c>
       <c r="G450" t="n">
-        <v>6873485.835072736</v>
+        <v>1927573.880724558</v>
       </c>
       <c r="H450" t="n">
-        <v>30982390.75569088</v>
+        <v>9581372.964936716</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>9417202.018057304</v>
+        <v>3583518.635494196</v>
       </c>
       <c r="C451" t="n">
-        <v>5091739.278003653</v>
+        <v>2252732.205475916</v>
       </c>
       <c r="D451" t="n">
-        <v>4224817.643031682</v>
+        <v>1860489.894868249</v>
       </c>
       <c r="E451" t="n">
-        <v>5453735.391184879</v>
+        <v>3056581.193204982</v>
       </c>
       <c r="F451" t="n">
-        <v>6760908.827094759</v>
+        <v>2808017.129356398</v>
       </c>
       <c r="G451" t="n">
-        <v>6870089.208409473</v>
+        <v>1926621.781451135</v>
       </c>
       <c r="H451" t="n">
-        <v>31871776.95783198</v>
+        <v>9858753.51572785</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>9252508.057669174</v>
+        <v>3520922.879358463</v>
       </c>
       <c r="C452" t="n">
-        <v>5035437.687914534</v>
+        <v>2227828.388396219</v>
       </c>
       <c r="D452" t="n">
-        <v>4195313.054192488</v>
+        <v>1847499.15584647</v>
       </c>
       <c r="E452" t="n">
-        <v>5432534.181569068</v>
+        <v>3044701.834237509</v>
       </c>
       <c r="F452" t="n">
-        <v>6749408.790462708</v>
+        <v>2803242.460524985</v>
       </c>
       <c r="G452" t="n">
-        <v>6866224.782547616</v>
+        <v>1925538.544698437</v>
       </c>
       <c r="H452" t="n">
-        <v>32766340.2647928</v>
+        <v>10137874.47002651</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_TH.xlsx
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>60581.43240556232</v>
+        <v>60581.43240556231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>60727.85555564237</v>
+        <v>60727.85555564238</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>60802.64846358377</v>
+        <v>60802.64846358376</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>60878.51566822889</v>
+        <v>60878.51566822888</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>61112.71735320695</v>
+        <v>61112.71735320696</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>61193.03712466046</v>
+        <v>61193.03712466044</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>61357.15235483119</v>
+        <v>61357.15235483122</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>61440.98090069156</v>
+        <v>61440.98090069157</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>61612.26432025366</v>
+        <v>61612.26432025367</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>61788.49824472162</v>
+        <v>61788.49824472163</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>61878.51583462366</v>
+        <v>61878.51583462369</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>61969.82457292278</v>
+        <v>61969.82457292277</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>62251.68260116867</v>
+        <v>62251.68260116865</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>62348.34215467443</v>
+        <v>62348.34215467441</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>62446.38727839166</v>
+        <v>62446.38727839165</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>62545.83765576597</v>
+        <v>62545.83765576596</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>62749.03428302321</v>
+        <v>62749.03428302323</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>62852.82128873857</v>
+        <v>62852.82128873855</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>62958.09506734416</v>
+        <v>62958.09506734419</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>63064.87671393283</v>
+        <v>63064.87671393282</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>63173.18761744889</v>
+        <v>63173.18761744886</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>63507.51425017751</v>
+        <v>63507.5142501775</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>63738.4506741234</v>
+        <v>63738.45067412342</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>63976.04336659842</v>
+        <v>63976.04336659847</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>64097.39491819128</v>
+        <v>64097.39491819126</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>64220.48211986228</v>
+        <v>64220.48211986232</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>64345.32952504019</v>
+        <v>64345.32952504015</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>64471.96202735921</v>
+        <v>64471.96202735919</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>64600.40486519783</v>
+        <v>64600.40486519784</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>64730.68362627401</v>
+        <v>64730.68362627403</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>64862.82425229804</v>
+        <v>64862.82425229803</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>64996.85304368324</v>
+        <v>64996.85304368328</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>65132.79666431611</v>
+        <v>65132.79666431606</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>65270.6821463852</v>
+        <v>65270.68214638521</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>65410.53689527093</v>
+        <v>65410.53689527089</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>65552.38869449578</v>
+        <v>65552.38869449572</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>65696.26571073658</v>
+        <v>65696.2657107366</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>65842.1964988988</v>
+        <v>65842.19649889879</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>66140.33558264194</v>
+        <v>66140.33558264197</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>66447.0423463724</v>
+        <v>66447.04234637241</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>66603.68426895433</v>
+        <v>66603.68426895434</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>66762.55973790951</v>
+        <v>66762.55973790954</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>66923.7001732263</v>
+        <v>66923.70017322636</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>67087.13742605408</v>
+        <v>67087.13742605406</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>67252.90378437357</v>
+        <v>67252.90378437353</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>67421.03197873806</v>
+        <v>67421.03197873804</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>67591.55518808523</v>
+        <v>67591.55518808519</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>67764.50704562145</v>
+        <v>67764.5070456215</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>67939.92164477905</v>
+        <v>67939.9216447791</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>68117.8335452473</v>
+        <v>68117.83354524728</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>68298.27777907837</v>
+        <v>68298.27777907834</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>68666.90577402055</v>
+        <v>68666.9057740205</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>68855.16201707255</v>
+        <v>68855.16201707257</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>69046.0955701208</v>
+        <v>69046.09557012079</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>69635.337530491</v>
+        <v>69635.33753049102</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>69837.36034462009</v>
+        <v>69837.36034462013</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>70042.25308273683</v>
+        <v>70042.25308273688</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>70460.8093104795</v>
+        <v>70460.80931047954</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>71111.18865354492</v>
+        <v>71111.18865354496</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>71334.16253470091</v>
+        <v>71334.16253470094</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>71560.29879183001</v>
+        <v>71560.29879182999</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>71789.64149891508</v>
+        <v>71789.64149891505</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>72022.23532621744</v>
+        <v>72022.23532621743</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>72258.12554801482</v>
+        <v>72258.12554801478</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>72497.35805043874</v>
+        <v>72497.35805043872</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>72739.9793394119</v>
+        <v>72739.97933941185</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>73235.57744799518</v>
+        <v>73235.57744799519</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>73488.65045128542</v>
+        <v>73488.65045128544</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>73745.30462509039</v>
+        <v>73745.3046250905</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>74005.58969698731</v>
+        <v>74005.58969698742</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>74269.55606417495</v>
+        <v>74269.5560641749</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>74537.25480216273</v>
+        <v>74537.25480216283</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>74808.73767357532</v>
+        <v>74808.73767357528</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>75084.05713707293</v>
+        <v>75084.05713707297</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>75363.2663563919</v>
+        <v>75363.26635639188</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>75646.41920950546</v>
+        <v>75646.41920950543</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>75933.57029790881</v>
+        <v>75933.57029790885</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>76224.77495602951</v>
+        <v>76224.77495602952</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>76520.08926076617</v>
+        <v>76520.08926076615</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>76819.57004115831</v>
+        <v>76819.57004115837</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>77123.27488818907</v>
+        <v>77123.27488818901</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>77431.26216472418</v>
+        <v>77431.26216472415</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>77743.59101558999</v>
+        <v>77743.59101559001</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>78381.51399088252</v>
+        <v>78381.51399088257</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>78707.23040746586</v>
+        <v>78707.23040746585</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>79037.53300386792</v>
+        <v>79037.53300386787</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>79712.15042508549</v>
+        <v>79712.15042508551</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>80405.88215454288</v>
+        <v>80405.88215454287</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>80760.08089122095</v>
+        <v>80760.08089122093</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>81119.25798077667</v>
+        <v>81119.25798077675</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>81483.48187754107</v>
+        <v>81483.48187754095</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>81852.8219507274</v>
+        <v>81852.82195072749</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>82227.34849661938</v>
+        <v>82227.34849661935</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>82607.13275094749</v>
+        <v>82607.13275094751</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>82992.24690146229</v>
+        <v>82992.24690146231</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>83382.76410070655</v>
+        <v>83382.76410070657</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>83778.75847899351</v>
+        <v>83778.75847899359</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>84180.30515759598</v>
+        <v>84180.30515759601</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>84587.48026215094</v>
+        <v>84587.48026215097</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>85000.36093628741</v>
+        <v>85000.36093628737</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>85419.02535548164</v>
+        <v>85419.02535548166</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>85843.55274114769</v>
+        <v>85843.55274114777</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>86274.02337496802</v>
+        <v>86274.02337496803</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>86710.5186134723</v>
+        <v>86710.51861347225</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>87153.12090287184</v>
+        <v>87153.1209028719</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>87601.91379415474</v>
+        <v>87601.91379415477</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>88056.98195845231</v>
+        <v>88056.98195845229</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>88518.41120268169</v>
+        <v>88518.41120268173</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>88986.28848547596</v>
+        <v>88986.28848547606</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>89460.7019334077</v>
+        <v>89460.70193340773</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>89941.74085751562</v>
+        <v>89941.74085751556</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>90429.49577014484</v>
+        <v>90429.49577014483</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>90924.05840210876</v>
+        <v>90924.0584021088</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>91933.97994494061</v>
+        <v>91933.9799449406</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>92449.52856894433</v>
+        <v>92449.52856894437</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>93502.28545657932</v>
+        <v>93502.28545657934</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>94039.69123415419</v>
+        <v>94039.69123415423</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>94584.5824778994</v>
+        <v>94584.58247789938</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>95137.06132633264</v>
+        <v>95137.06132633259</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>95697.23130717289</v>
+        <v>95697.23130717286</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>96265.19735834059</v>
+        <v>96265.19735834053</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>96841.06584941417</v>
+        <v>96841.06584941415</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>97424.94460355719</v>
+        <v>97424.94460355722</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>98016.94291993223</v>
+        <v>98016.94291993235</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>98617.17159661737</v>
+        <v>98617.17159661738</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>99225.74295404219</v>
+        <v>99225.74295404225</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>99842.77085896228</v>
+        <v>99842.77085896226</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>101102.6596576876</v>
+        <v>101102.6596576875</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>103058.8553148703</v>
+        <v>103058.8553148702</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>103729.1034655942</v>
+        <v>103729.1034655943</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>106504.3672314664</v>
+        <v>106504.3672314665</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>108688.4624269355</v>
+        <v>108688.4624269356</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>111744.4585940385</v>
+        <v>111744.4585940386</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>116655.6003062705</v>
+        <v>116655.6003062704</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>122921.6752583211</v>
+        <v>122921.6752583212</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>128794.3763571613</v>
+        <v>128794.3763571614</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>129821.1871511431</v>
+        <v>129821.187151143</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>134072.8633361094</v>
+        <v>134072.8633361095</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>136288.2611973931</v>
+        <v>136288.261197393</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>140906.8430536618</v>
+        <v>140906.8430536617</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>142101.9331635656</v>
+        <v>142101.9331635657</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>143313.6700214673</v>
+        <v>143313.6700214672</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>145788.0541295347</v>
+        <v>145788.0541295346</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>147051.1970058546</v>
+        <v>147051.1970058545</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>150947.4947782842</v>
+        <v>150947.4947782843</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>153636.7307326046</v>
+        <v>153636.7307326047</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>155009.679008936</v>
+        <v>155009.6790089358</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>156401.8897921047</v>
+        <v>156401.8897921046</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>159245.2570111592</v>
+        <v>159245.2570111591</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>160697.0059777426</v>
+        <v>160697.0059777428</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>165176.1872305421</v>
+        <v>165176.187230542</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>166711.6134067295</v>
+        <v>166711.6134067296</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>168268.7648106088</v>
+        <v>168268.7648106087</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>169847.9762973385</v>
+        <v>169847.9762973384</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>178087.1212608921</v>
+        <v>178087.1212608922</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>179806.1027024522</v>
+        <v>179806.1027024521</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>181549.6807087373</v>
+        <v>181549.6807087372</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>183318.2473330778</v>
+        <v>183318.2473330779</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>188777.9208843396</v>
+        <v>188777.9208843395</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>192550.2042634865</v>
+        <v>192550.2042634866</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>194477.3992915259</v>
+        <v>194477.3992915258</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>196432.5637065597</v>
+        <v>196432.5637065598</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>200428.6597054285</v>
+        <v>200428.6597054287</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>204542.3101314571</v>
+        <v>204542.310131457</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>208777.4984117496</v>
+        <v>208777.4984117497</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>210941.9614310227</v>
+        <v>210941.9614310228</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>213138.3820667676</v>
+        <v>213138.3820667678</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>215367.3086708733</v>
+        <v>215367.3086708734</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>217629.3016077098</v>
+        <v>217629.30160771</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>219924.9335514775</v>
+        <v>219924.9335514774</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>222254.7897888907</v>
+        <v>222254.7897888908</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>224619.4685271005</v>
+        <v>224619.4685271004</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>229455.7528198283</v>
+        <v>229455.7528198284</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>239574.0209536978</v>
+        <v>239574.0209536979</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>242200.35926442</v>
+        <v>242200.3592644198</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>247574.1005797386</v>
+        <v>247574.1005797385</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>250322.9780995351</v>
+        <v>250322.9780995349</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>255948.5571387845</v>
+        <v>255948.5571387844</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>258826.8338519057</v>
+        <v>258826.8338519056</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>261749.8480349579</v>
+        <v>261749.8480349578</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>264718.4316394415</v>
+        <v>264718.4316394414</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>267733.4350034791</v>
+        <v>267733.435003479</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>277065.7503407963</v>
+        <v>277065.7503407964</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>283535.8420913396</v>
+        <v>283535.8420913399</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>290213.6660133688</v>
+        <v>290213.6660133689</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>293632.9632812068</v>
+        <v>293632.963281207</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>297107.2190967834</v>
+        <v>297107.2190967836</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>304224.8423281507</v>
+        <v>304224.8423281509</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>311575.2307325655</v>
+        <v>311575.2307325658</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>319167.4427525941</v>
+        <v>319167.4427525942</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>323057.1648786898</v>
+        <v>323057.1648786895</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>327010.9088029308</v>
+        <v>327010.9088029307</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>352148.8649029434</v>
+        <v>352148.8649029435</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>361099.3284351574</v>
+        <v>361099.3284351575</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>365687.9101060634</v>
+        <v>365687.9101060633</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>370353.9956497514</v>
+        <v>370353.9956497513</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>375099.0688186655</v>
+        <v>375099.0688186653</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>384832.2354317814</v>
+        <v>384832.2354317816</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>389823.4182533812</v>
+        <v>389823.4182533813</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>394899.7670041532</v>
+        <v>394899.7670041529</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>400062.8859517315</v>
+        <v>400062.8859517316</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>462783.8534980255</v>
+        <v>462783.8534982856</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>526506.3653180423</v>
+        <v>526506.3653185522</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>591247.8146090014</v>
+        <v>591247.8146097517</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>657025.8229204682</v>
+        <v>657025.8229214487</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>723858.2350611713</v>
+        <v>723858.2350623712</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>791763.1133310976</v>
+        <v>791763.1133325073</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>860758.7310515575</v>
+        <v>860758.7310531659</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>930863.5653659942</v>
+        <v>930863.5653677892</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1002096.289284512</v>
+        <v>1002096.289286483</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1074475.762945555</v>
+        <v>1074475.762947692</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1148021.024068542</v>
+        <v>1148021.024070832</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1222751.277571812</v>
+        <v>1222751.277574244</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1298685.884331023</v>
+        <v>1298685.884333585</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1375844.349053952</v>
+        <v>1375844.34905663</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1454246.30724856</v>
+        <v>1454246.307251344</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1533911.511262469</v>
+        <v>1533911.511265345</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1614859.815373104</v>
+        <v>1614859.81537606</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1697111.159909304</v>
+        <v>1697111.159912326</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1780685.554386852</v>
+        <v>1780685.554389928</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1865603.059642027</v>
+        <v>1865603.059645142</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1951883.768949391</v>
+        <v>1951883.768952531</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2039547.78811201</v>
+        <v>2039547.788115163</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2128615.214514819</v>
+        <v>2128615.21451797</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2219106.115134165</v>
+        <v>2219106.115137299</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2311040.503499379</v>
+        <v>2311040.503502483</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2404438.315605091</v>
+        <v>2404438.315608149</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2499319.384776045</v>
+        <v>2499319.384779044</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2595703.415489475</v>
+        <v>2595703.415492396</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2693609.956163513</v>
+        <v>2693609.956166343</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2793058.370923782</v>
+        <v>2793058.370926506</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2894067.810364024</v>
+        <v>2894067.810366626</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2996657.181320718</v>
+        <v>2996657.18132318</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3100845.115685644</v>
+        <v>3100845.115687953</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3206649.938284704</v>
+        <v>3206649.938286841</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3314089.633855713</v>
+        <v>3314089.633857664</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3423181.813162403</v>
+        <v>3423181.813164151</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3533943.678286451</v>
+        <v>3533943.678287978</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3646391.987144317</v>
+        <v>3646391.98714561</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3760543.017280224</v>
+        <v>3760543.017281262</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3876412.528991612</v>
+        <v>3876412.52899238</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3994015.727848355</v>
+        <v>3994015.727848835</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>4113367.226671836</v>
+        <v>4113367.226672013</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>4234481.00704496</v>
+        <v>4234481.007044811</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>4357370.380428923</v>
+        <v>4357370.380428438</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>4482047.948967593</v>
+        <v>4482047.948966755</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>4608525.566064685</v>
+        <v>4608525.566063477</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>4736814.29682388</v>
+        <v>4736814.296822279</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>4866924.378446046</v>
+        <v>4866924.378444036</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>4998865.180682311</v>
+        <v>4998865.18067988</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>5132645.166445401</v>
+        <v>5132645.166442529</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>5268271.852685637</v>
+        <v>5268271.852682309</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>5405751.771641231</v>
+        <v>5405751.771637431</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>5545090.43257583</v>
+        <v>5545090.432571538</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>5686292.28411886</v>
+        <v>5686292.284114065</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>5829360.67732672</v>
+        <v>5829360.677321402</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>5826190.538774859</v>
+        <v>5826190.538770081</v>
       </c>
       <c r="C358" t="n">
-        <v>162759.80586071</v>
+        <v>162759.8058595277</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>5822925.048784365</v>
+        <v>5822925.048780147</v>
       </c>
       <c r="C359" t="n">
-        <v>327679.1874355679</v>
+        <v>327679.1874331593</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>5819559.428151097</v>
+        <v>5819559.42814747</v>
       </c>
       <c r="C360" t="n">
-        <v>494763.2272018788</v>
+        <v>494763.2271981998</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>5816088.660014463</v>
+        <v>5816088.660011454</v>
       </c>
       <c r="C361" t="n">
-        <v>664015.910854712</v>
+        <v>664015.9108497184</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>5812507.480729792</v>
+        <v>5812507.480727425</v>
       </c>
       <c r="C362" t="n">
-        <v>835440.1027081858</v>
+        <v>835440.1027018272</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>5808810.370594021</v>
+        <v>5808810.370592329</v>
       </c>
       <c r="C363" t="n">
-        <v>1009037.522855324</v>
+        <v>1009037.522847554</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>5804991.544439786</v>
+        <v>5804991.544438794</v>
       </c>
       <c r="C364" t="n">
-        <v>1184808.726203599</v>
+        <v>1184808.726194372</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>5801044.942115035</v>
+        <v>5801044.942114776</v>
       </c>
       <c r="C365" t="n">
-        <v>1362753.083498918</v>
+        <v>1362753.083488183</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>5796964.218867346</v>
+        <v>5796964.21886785</v>
       </c>
       <c r="C366" t="n">
-        <v>1542868.764446213</v>
+        <v>1542868.764433924</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>5792742.735654331</v>
+        <v>5792742.735655628</v>
       </c>
       <c r="C367" t="n">
-        <v>1725152.723029347</v>
+        <v>1725152.723015459</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>5788373.549403986</v>
+        <v>5788373.549406109</v>
       </c>
       <c r="C368" t="n">
-        <v>1909600.685126255</v>
+        <v>1909600.68511072</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>5783849.403251295</v>
+        <v>5783849.403254275</v>
       </c>
       <c r="C369" t="n">
-        <v>2096207.13850848</v>
+        <v>2096207.138491252</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>5779162.71678012</v>
+        <v>5779162.71678399</v>
       </c>
       <c r="C370" t="n">
-        <v>2284965.325305726</v>
+        <v>2284965.325286751</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>5774305.576302268</v>
+        <v>5774305.576307064</v>
       </c>
       <c r="C371" t="n">
-        <v>2475867.237007482</v>
+        <v>2475867.236986713</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>5769269.725208621</v>
+        <v>5769269.725214372</v>
       </c>
       <c r="C372" t="n">
-        <v>2668903.612064007</v>
+        <v>2668903.612041404</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5764046.554430353</v>
+        <v>5764046.554437097</v>
       </c>
       <c r="C373" t="n">
-        <v>2668888.272428922</v>
+        <v>2668888.272406301</v>
       </c>
       <c r="D373" t="n">
-        <v>192967.1874761974</v>
+        <v>192967.1874743486</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>5758627.093051639</v>
+        <v>5758627.093059416</v>
       </c>
       <c r="C374" t="n">
-        <v>2668870.522395612</v>
+        <v>2668870.522372969</v>
       </c>
       <c r="D374" t="n">
-        <v>388025.042853656</v>
+        <v>388025.0428499209</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>5753001.999118657</v>
+        <v>5753001.999127495</v>
       </c>
       <c r="C375" t="n">
-        <v>2668850.009755458</v>
+        <v>2668850.009732789</v>
       </c>
       <c r="D375" t="n">
-        <v>585161.0531889172</v>
+        <v>585161.0531832546</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>5747161.550693349</v>
+        <v>5747161.550703282</v>
       </c>
       <c r="C376" t="n">
-        <v>2668826.335213675</v>
+        <v>2668826.335190979</v>
       </c>
       <c r="D376" t="n">
-        <v>784361.5302948043</v>
+        <v>784361.5302871661</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>5741095.637204167</v>
+        <v>5741095.637215232</v>
       </c>
       <c r="C377" t="n">
-        <v>2668799.046780259</v>
+        <v>2668799.046757531</v>
       </c>
       <c r="D377" t="n">
-        <v>985611.6272980345</v>
+        <v>985611.6272883855</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>5734793.751149889</v>
+        <v>5734793.751162121</v>
       </c>
       <c r="C378" t="n">
-        <v>2668767.633594564</v>
+        <v>2668767.633571799</v>
       </c>
       <c r="D378" t="n">
-        <v>1188895.358452961</v>
+        <v>1188895.358441255</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>5728244.980216601</v>
+        <v>5728244.980230034</v>
       </c>
       <c r="C379" t="n">
-        <v>2668731.519140729</v>
+        <v>2668731.519117922</v>
       </c>
       <c r="D379" t="n">
-        <v>1394195.622228164</v>
+        <v>1394195.622214373</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>5721437.999872071</v>
+        <v>5721437.999886742</v>
       </c>
       <c r="C380" t="n">
-        <v>2668690.053809909</v>
+        <v>2668690.053787055</v>
       </c>
       <c r="D380" t="n">
-        <v>1601494.227669089</v>
+        <v>1601494.227653176</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>5714361.066505908</v>
+        <v>5714361.066521851</v>
       </c>
       <c r="C381" t="n">
-        <v>2668642.506764302</v>
+        <v>2668642.506741395</v>
       </c>
       <c r="D381" t="n">
-        <v>1810771.924025766</v>
+        <v>1810771.924007691</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>5707002.01118813</v>
+        <v>5707002.01120538</v>
       </c>
       <c r="C382" t="n">
-        <v>2668588.057057301</v>
+        <v>2668588.057034335</v>
       </c>
       <c r="D382" t="n">
-        <v>2022008.433619766</v>
+        <v>2022008.4335995</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>5699348.234123093</v>
+        <v>5699348.234141684</v>
       </c>
       <c r="C383" t="n">
-        <v>2668525.783963855</v>
+        <v>2668525.783940822</v>
       </c>
       <c r="D383" t="n">
-        <v>2022004.646556939</v>
+        <v>2022004.646536666</v>
       </c>
       <c r="E383" t="n">
-        <v>305470.9043278254</v>
+        <v>305470.9043246522</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>5691386.699880013</v>
+        <v>5691386.699899979</v>
       </c>
       <c r="C384" t="n">
-        <v>2668454.656475298</v>
+        <v>2668454.656452189</v>
       </c>
       <c r="D384" t="n">
-        <v>2022000.131642632</v>
+        <v>2022000.13162235</v>
       </c>
       <c r="E384" t="n">
-        <v>613687.3953436099</v>
+        <v>613687.3953372306</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>5683103.933485536</v>
+        <v>5683103.933506908</v>
       </c>
       <c r="C385" t="n">
-        <v>2668373.521913588</v>
+        <v>2668373.521890395</v>
       </c>
       <c r="D385" t="n">
-        <v>2021994.757989753</v>
+        <v>2021994.757969461</v>
       </c>
       <c r="E385" t="n">
-        <v>924616.5173111644</v>
+        <v>924616.5173015377</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>5674486.017468082</v>
+        <v>5674486.017490891</v>
       </c>
       <c r="C386" t="n">
-        <v>2668281.093621199</v>
+        <v>2668281.093597911</v>
       </c>
       <c r="D386" t="n">
-        <v>2021988.372968712</v>
+        <v>2021988.372948408</v>
       </c>
       <c r="E386" t="n">
-        <v>1238224.1073966</v>
+        <v>1238224.107383701</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>5665518.589947725</v>
+        <v>5665518.58997201</v>
       </c>
       <c r="C387" t="n">
-        <v>2668175.937684827</v>
+        <v>2668175.937661433</v>
       </c>
       <c r="D387" t="n">
-        <v>2021980.798935432</v>
+        <v>2021980.798915115</v>
       </c>
       <c r="E387" t="n">
-        <v>1554474.869306038</v>
+        <v>1554474.869289844</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>5656186.843869404</v>
+        <v>5656186.843895188</v>
       </c>
       <c r="C388" t="n">
-        <v>2668056.458653743</v>
+        <v>2668056.45863023</v>
       </c>
       <c r="D388" t="n">
-        <v>2021971.829527871</v>
+        <v>2021971.829507538</v>
       </c>
       <c r="E388" t="n">
-        <v>1873332.451470395</v>
+        <v>1873332.451450879</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>5646475.52748087</v>
+        <v>5646475.527508188</v>
       </c>
       <c r="C389" t="n">
-        <v>2667920.884217106</v>
+        <v>2667920.88419346</v>
       </c>
       <c r="D389" t="n">
-        <v>2021961.225484478</v>
+        <v>2021961.225464126</v>
       </c>
       <c r="E389" t="n">
-        <v>2194759.529636798</v>
+        <v>2194759.529613952</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>5636368.946160465</v>
+        <v>5636368.946189343</v>
       </c>
       <c r="C390" t="n">
-        <v>2667767.248808894</v>
+        <v>2667767.248785099</v>
       </c>
       <c r="D390" t="n">
-        <v>2021948.709934663</v>
+        <v>2021948.709914289</v>
       </c>
       <c r="E390" t="n">
-        <v>2518717.893704339</v>
+        <v>2518717.893678151</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>5625850.965702838</v>
+        <v>5625850.9657333</v>
       </c>
       <c r="C391" t="n">
-        <v>2667593.376114433</v>
+        <v>2667593.376090473</v>
       </c>
       <c r="D391" t="n">
-        <v>2021933.963108021</v>
+        <v>2021933.963087622</v>
       </c>
       <c r="E391" t="n">
-        <v>2845168.538619296</v>
+        <v>2845168.538589774</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>5614905.017173642</v>
+        <v>5614905.017205715</v>
       </c>
       <c r="C392" t="n">
-        <v>2667396.860458862</v>
+        <v>2667396.860434718</v>
       </c>
       <c r="D392" t="n">
-        <v>2021916.616405834</v>
+        <v>2021916.616385406</v>
       </c>
       <c r="E392" t="n">
-        <v>3174071.759122274</v>
+        <v>3174071.759089413</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>5603514.103446598</v>
+        <v>5603514.103480306</v>
       </c>
       <c r="C393" t="n">
-        <v>2667175.047065293</v>
+        <v>2667175.047040947</v>
       </c>
       <c r="D393" t="n">
-        <v>2021896.24577527</v>
+        <v>2021896.245754808</v>
       </c>
       <c r="E393" t="n">
-        <v>3174067.841011404</v>
+        <v>3174067.840978536</v>
       </c>
       <c r="F393" t="n">
-        <v>276119.0420436144</v>
+        <v>276119.0420408546</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>5591660.807538197</v>
+        <v>5591660.807573564</v>
       </c>
       <c r="C394" t="n">
-        <v>2666925.011179088</v>
+        <v>2666925.011154517</v>
       </c>
       <c r="D394" t="n">
-        <v>2021872.364323862</v>
+        <v>2021872.364303362</v>
       </c>
       <c r="E394" t="n">
-        <v>3174063.095540709</v>
+        <v>3174063.095507831</v>
       </c>
       <c r="F394" t="n">
-        <v>554215.1311762898</v>
+        <v>554215.1311707823</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>5579327.302856594</v>
+        <v>5579327.302893644</v>
       </c>
       <c r="C395" t="n">
-        <v>2666643.536064452</v>
+        <v>2666643.536039632</v>
       </c>
       <c r="D395" t="n">
-        <v>2021844.414109298</v>
+        <v>2021844.414088753</v>
       </c>
       <c r="E395" t="n">
-        <v>3174057.358919071</v>
+        <v>3174057.358886182</v>
       </c>
       <c r="F395" t="n">
-        <v>834254.0660671997</v>
+        <v>834254.0660589687</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>5566495.365481965</v>
+        <v>5566495.365520715</v>
       </c>
       <c r="C396" t="n">
-        <v>2666327.089890719</v>
+        <v>2666327.089865624</v>
       </c>
       <c r="D396" t="n">
-        <v>2021811.757037408</v>
+        <v>2021811.757016812</v>
       </c>
       <c r="E396" t="n">
-        <v>3174050.437310094</v>
+        <v>3174050.437277192</v>
       </c>
       <c r="F396" t="n">
-        <v>1116201.43067479</v>
+        <v>1116201.430663869</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>5553146.388595458</v>
+        <v>5553146.388635919</v>
       </c>
       <c r="C397" t="n">
-        <v>2665971.80153808</v>
+        <v>2665971.801512683</v>
       </c>
       <c r="D397" t="n">
-        <v>2021773.664799618</v>
+        <v>2021773.664778963</v>
       </c>
       <c r="E397" t="n">
-        <v>3174042.101813827</v>
+        <v>3174042.101780909</v>
       </c>
       <c r="F397" t="n">
-        <v>1400022.69014908</v>
+        <v>1400022.690135509</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>5539261.399173051</v>
+        <v>5539261.399215242</v>
       </c>
       <c r="C398" t="n">
-        <v>2665573.435366282</v>
+        <v>2665573.435340551</v>
       </c>
       <c r="D398" t="n">
-        <v>2021729.307780121</v>
+        <v>2021729.307759399</v>
       </c>
       <c r="E398" t="n">
-        <v>3174032.082707063</v>
+        <v>3174032.082674126</v>
       </c>
       <c r="F398" t="n">
-        <v>1685683.289099776</v>
+        <v>1685683.289083606</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>5524821.077058902</v>
+        <v>5524821.077102834</v>
       </c>
       <c r="C399" t="n">
-        <v>2665127.365004921</v>
+        <v>2665127.364978823</v>
       </c>
       <c r="D399" t="n">
-        <v>2021677.742862786</v>
+        <v>2021677.742841987</v>
       </c>
       <c r="E399" t="n">
-        <v>3174020.06285057</v>
+        <v>3174020.062817613</v>
       </c>
       <c r="F399" t="n">
-        <v>1973148.751988159</v>
+        <v>1973148.751969446</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>5509805.776529978</v>
+        <v>5509805.776575663</v>
       </c>
       <c r="C400" t="n">
-        <v>2664628.546240403</v>
+        <v>2664628.546213903</v>
       </c>
       <c r="D400" t="n">
-        <v>2021617.900068416</v>
+        <v>2021617.90004753</v>
       </c>
       <c r="E400" t="n">
-        <v>3174005.670163522</v>
+        <v>3174005.670130539</v>
       </c>
       <c r="F400" t="n">
-        <v>2262384.785384218</v>
+        <v>2262384.785363027</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>5494195.550460149</v>
+        <v>5494195.550507591</v>
       </c>
       <c r="C401" t="n">
-        <v>2664071.489092377</v>
+        <v>2664071.489065436</v>
       </c>
       <c r="D401" t="n">
-        <v>2021548.567954641</v>
+        <v>2021548.567933656</v>
       </c>
       <c r="E401" t="n">
-        <v>3173988.469056984</v>
+        <v>3173988.469023971</v>
       </c>
       <c r="F401" t="n">
-        <v>2553357.381814898</v>
+        <v>2553357.381791305</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>5477970.177187005</v>
+        <v>5477970.177236212</v>
       </c>
       <c r="C402" t="n">
-        <v>2663450.229191484</v>
+        <v>2663450.22916406</v>
       </c>
       <c r="D402" t="n">
-        <v>2021468.377713521</v>
+        <v>2021468.377692424</v>
       </c>
       <c r="E402" t="n">
-        <v>3173967.950709987</v>
+        <v>3173967.95067694</v>
       </c>
       <c r="F402" t="n">
-        <v>2846032.924911649</v>
+        <v>2846032.924885746</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>5461109.190178733</v>
+        <v>5461109.190229707</v>
       </c>
       <c r="C403" t="n">
-        <v>2662758.298590445</v>
+        <v>2662758.298562495</v>
       </c>
       <c r="D403" t="n">
-        <v>2021375.78590609</v>
+        <v>2021375.785884865</v>
       </c>
       <c r="E403" t="n">
-        <v>3173943.522063318</v>
+        <v>3173943.522030229</v>
       </c>
       <c r="F403" t="n">
-        <v>2846030.433222967</v>
+        <v>2846030.433197058</v>
       </c>
       <c r="G403" t="n">
-        <v>188869.5466438119</v>
+        <v>188869.5466423905</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>5443591.910591016</v>
+        <v>5443591.910643755</v>
       </c>
       <c r="C404" t="n">
-        <v>2661988.69616183</v>
+        <v>2661988.696133305</v>
       </c>
       <c r="D404" t="n">
-        <v>2021269.055778631</v>
+        <v>2021269.055757262</v>
       </c>
       <c r="E404" t="n">
-        <v>3173914.49339805</v>
+        <v>3173914.493364914</v>
       </c>
       <c r="F404" t="n">
-        <v>2846027.374396309</v>
+        <v>2846027.374370396</v>
       </c>
       <c r="G404" t="n">
-        <v>378790.0456356461</v>
+        <v>378790.0456328772</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>5425397.48279557</v>
+        <v>5425397.48285007</v>
       </c>
       <c r="C405" t="n">
-        <v>2661133.857758103</v>
+        <v>2661133.857728953</v>
       </c>
       <c r="D405" t="n">
-        <v>2021146.237112743</v>
+        <v>2021146.237091211</v>
       </c>
       <c r="E405" t="n">
-        <v>3173880.064358124</v>
+        <v>3173880.064324931</v>
       </c>
       <c r="F405" t="n">
-        <v>2846023.627242317</v>
+        <v>2846023.627216396</v>
       </c>
       <c r="G405" t="n">
-        <v>569741.1676204824</v>
+        <v>569741.1676164399</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>5406504.912951886</v>
+        <v>5406504.913008141</v>
       </c>
       <c r="C406" t="n">
-        <v>2660185.626332634</v>
+        <v>2660185.626302804</v>
       </c>
       <c r="D406" t="n">
-        <v>2021005.144570222</v>
+        <v>2021005.144548507</v>
       </c>
       <c r="E406" t="n">
-        <v>3173839.308269124</v>
+        <v>3173839.308235868</v>
       </c>
       <c r="F406" t="n">
-        <v>2846019.046524768</v>
+        <v>2846019.046498841</v>
       </c>
       <c r="G406" t="n">
-        <v>761703.1236983123</v>
+        <v>761703.1236930828</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>5386893.110682532</v>
+        <v>5386893.110740534</v>
       </c>
       <c r="C407" t="n">
-        <v>2659135.222244065</v>
+        <v>2659135.222213499</v>
       </c>
       <c r="D407" t="n">
-        <v>2020843.334504719</v>
+        <v>2020843.334482799</v>
       </c>
       <c r="E407" t="n">
-        <v>3173791.154599177</v>
+        <v>3173791.154565846</v>
       </c>
       <c r="F407" t="n">
-        <v>2846013.4586008</v>
+        <v>2846013.458574865</v>
       </c>
       <c r="G407" t="n">
-        <v>954656.7366461968</v>
+        <v>954656.7366398792</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>5366540.933899725</v>
+        <v>5366540.933959462</v>
       </c>
       <c r="C408" t="n">
-        <v>2657973.213990576</v>
+        <v>2657973.213959211</v>
       </c>
       <c r="D408" t="n">
-        <v>2020658.080225108</v>
+        <v>2020658.080202959</v>
       </c>
       <c r="E408" t="n">
-        <v>3173734.369402661</v>
+        <v>3173734.369369244</v>
       </c>
       <c r="F408" t="n">
-        <v>2846006.656357441</v>
+        <v>2846006.656331494</v>
       </c>
       <c r="G408" t="n">
-        <v>1148583.512050733</v>
+        <v>1148583.512043424</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>5345427.236816606</v>
+        <v>5345427.236878059</v>
       </c>
       <c r="C409" t="n">
-        <v>2656689.489644845</v>
+        <v>2656689.489612617</v>
       </c>
       <c r="D409" t="n">
-        <v>2020446.345710636</v>
+        <v>2020446.345688228</v>
       </c>
       <c r="E409" t="n">
-        <v>3173667.533583748</v>
+        <v>3173667.533550231</v>
       </c>
       <c r="F409" t="n">
-        <v>2845998.393348167</v>
+        <v>2845998.393322206</v>
       </c>
       <c r="G409" t="n">
-        <v>1343465.70913591</v>
+        <v>1343465.709127723</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>5323530.921161158</v>
+        <v>5323530.921224312</v>
       </c>
       <c r="C410" t="n">
-        <v>2655273.229284766</v>
+        <v>2655273.229251606</v>
       </c>
       <c r="D410" t="n">
-        <v>2020204.757795379</v>
+        <v>2020204.757772682</v>
       </c>
       <c r="E410" t="n">
-        <v>3173589.018814723</v>
+        <v>3173589.018781092</v>
       </c>
       <c r="F410" t="n">
-        <v>2845988.377023254</v>
+        <v>2845988.376997279</v>
       </c>
       <c r="G410" t="n">
-        <v>1539286.41106115</v>
+        <v>1539286.411052204</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>5300830.990593655</v>
+        <v>5300830.990658486</v>
       </c>
       <c r="C411" t="n">
-        <v>2653712.878738675</v>
+        <v>2653712.878704512</v>
       </c>
       <c r="D411" t="n">
-        <v>2019929.576859291</v>
+        <v>2019929.576836274</v>
       </c>
       <c r="E411" t="n">
-        <v>3173496.960944164</v>
+        <v>3173496.960910399</v>
       </c>
       <c r="F411" t="n">
-        <v>2845976.260937378</v>
+        <v>2845976.260911386</v>
       </c>
       <c r="G411" t="n">
-        <v>1736029.594455137</v>
+        <v>1736029.594445561</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>5277306.608309917</v>
+        <v>5277306.608376402</v>
       </c>
       <c r="C412" t="n">
-        <v>2651996.124986937</v>
+        <v>2651996.124951693</v>
       </c>
       <c r="D412" t="n">
-        <v>2019616.666085364</v>
+        <v>2019616.666061989</v>
       </c>
       <c r="E412" t="n">
-        <v>3173389.230732578</v>
+        <v>3173389.230698663</v>
       </c>
       <c r="F412" t="n">
-        <v>2845961.635807241</v>
+        <v>2845961.635781228</v>
       </c>
       <c r="G412" t="n">
-        <v>1933680.19793947</v>
+        <v>1933680.197929408</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>5252937.157792891</v>
+        <v>5252937.157861</v>
       </c>
       <c r="C413" t="n">
-        <v>2650109.873583571</v>
+        <v>2650109.873547168</v>
       </c>
       <c r="D413" t="n">
-        <v>2019261.459367</v>
+        <v>2019261.459343228</v>
       </c>
       <c r="E413" t="n">
-        <v>3173263.401758592</v>
+        <v>3173263.401724503</v>
       </c>
       <c r="F413" t="n">
-        <v>2845944.019281168</v>
+        <v>2845944.01925513</v>
       </c>
       <c r="G413" t="n">
-        <v>1933678.902372674</v>
+        <v>1933678.90236261</v>
       </c>
       <c r="H413" t="n">
-        <v>232639.7573520128</v>
+        <v>232639.7573516255</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>5227702.306653758</v>
+        <v>5227702.306723458</v>
       </c>
       <c r="C414" t="n">
-        <v>2648040.228482042</v>
+        <v>2648040.228444396</v>
       </c>
       <c r="D414" t="n">
-        <v>2018858.927976799</v>
+        <v>2018858.927952586</v>
       </c>
       <c r="E414" t="n">
-        <v>3173116.715347431</v>
+        <v>3173116.715313145</v>
       </c>
       <c r="F414" t="n">
-        <v>2845922.844271777</v>
+        <v>2845922.844245708</v>
       </c>
       <c r="G414" t="n">
-        <v>1933677.294618355</v>
+        <v>1933677.294608289</v>
       </c>
       <c r="H414" t="n">
-        <v>466311.5235277934</v>
+        <v>466311.5235272031</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>5201582.073481289</v>
+        <v>5201582.073552548</v>
       </c>
       <c r="C415" t="n">
-        <v>2645772.474667743</v>
+        <v>2645772.474628767</v>
       </c>
       <c r="D415" t="n">
-        <v>2018403.546137296</v>
+        <v>2018403.546112596</v>
       </c>
       <c r="E415" t="n">
-        <v>3172946.042385986</v>
+        <v>3172946.042351474</v>
       </c>
       <c r="F415" t="n">
-        <v>2845897.445692105</v>
+        <v>2845897.445666001</v>
       </c>
       <c r="G415" t="n">
-        <v>1933675.303985202</v>
+        <v>1933675.303975134</v>
       </c>
       <c r="H415" t="n">
-        <v>701001.5804827905</v>
+        <v>701001.5804821928</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>5174556.897594436</v>
+        <v>5174556.897667215</v>
       </c>
       <c r="C416" t="n">
-        <v>2643291.064015828</v>
+        <v>2643291.063975432</v>
       </c>
       <c r="D416" t="n">
-        <v>2017889.255665853</v>
+        <v>2017889.255640615</v>
       </c>
       <c r="E416" t="n">
-        <v>3172747.841905251</v>
+        <v>3172747.841870483</v>
       </c>
       <c r="F416" t="n">
-        <v>2845867.045425366</v>
+        <v>2845867.045399221</v>
       </c>
       <c r="G416" t="n">
-        <v>1933672.844896109</v>
+        <v>1933672.844886038</v>
       </c>
       <c r="H416" t="n">
-        <v>936697.6578773868</v>
+        <v>936697.6578769954</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>5146607.711568365</v>
+        <v>5146607.711642626</v>
       </c>
       <c r="C417" t="n">
-        <v>2640579.604806317</v>
+        <v>2640579.604764407</v>
       </c>
       <c r="D417" t="n">
-        <v>2017309.42989958</v>
+        <v>2017309.42987375</v>
       </c>
       <c r="E417" t="n">
-        <v>3172518.116332196</v>
+        <v>3172518.116297136</v>
       </c>
       <c r="F417" t="n">
-        <v>2845830.735348921</v>
+        <v>2845830.735322729</v>
       </c>
       <c r="G417" t="n">
-        <v>1933669.814017209</v>
+        <v>1933669.814007134</v>
       </c>
       <c r="H417" t="n">
-        <v>1173389.005983941</v>
+        <v>1173389.005983992</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>5117716.016378446</v>
+        <v>5117716.016454142</v>
       </c>
       <c r="C418" t="n">
-        <v>2637620.855338424</v>
+        <v>2637620.855294902</v>
       </c>
       <c r="D418" t="n">
-        <v>2016656.837141728</v>
+        <v>2016656.837115248</v>
       </c>
       <c r="E418" t="n">
-        <v>3172252.363339214</v>
+        <v>3172252.363303825</v>
       </c>
       <c r="F418" t="n">
-        <v>2845787.458224537</v>
+        <v>2845787.458198289</v>
       </c>
       <c r="G418" t="n">
-        <v>1933666.08689186</v>
+        <v>1933666.086881781</v>
       </c>
       <c r="H418" t="n">
-        <v>1411066.465938495</v>
+        <v>1411066.465939224</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>5087863.958980096</v>
+        <v>5087863.959057178</v>
       </c>
       <c r="C419" t="n">
-        <v>2634396.72209236</v>
+        <v>2634396.722047127</v>
       </c>
       <c r="D419" t="n">
-        <v>2015923.603908113</v>
+        <v>2015923.603880918</v>
       </c>
       <c r="E419" t="n">
-        <v>3171945.524250912</v>
+        <v>3171945.524215151</v>
       </c>
       <c r="F419" t="n">
-        <v>2845735.986259865</v>
+        <v>2845735.986233552</v>
       </c>
       <c r="G419" t="n">
-        <v>1933661.514006576</v>
+        <v>1933661.513996493</v>
       </c>
       <c r="H419" t="n">
-        <v>1649722.537014679</v>
+        <v>1649722.537016341</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>5057034.412115278</v>
+        <v>5057034.412193703</v>
       </c>
       <c r="C420" t="n">
-        <v>2630888.262888981</v>
+        <v>2630888.262841933</v>
       </c>
       <c r="D420" t="n">
-        <v>2015101.178290453</v>
+        <v>2015101.178262476</v>
       </c>
       <c r="E420" t="n">
-        <v>3171591.929005179</v>
+        <v>3171591.928969</v>
       </c>
       <c r="F420" t="n">
-        <v>2845674.897140722</v>
+        <v>2845674.897114333</v>
       </c>
       <c r="G420" t="n">
-        <v>1933655.916207529</v>
+        <v>1933655.91619744</v>
       </c>
       <c r="H420" t="n">
-        <v>1889351.440584297</v>
+        <v>1889351.440587166</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>5025211.056108801</v>
+        <v>5025211.056188512</v>
       </c>
       <c r="C421" t="n">
-        <v>2627075.695495176</v>
+        <v>2627075.695446207</v>
       </c>
       <c r="D421" t="n">
-        <v>2014180.293792668</v>
+        <v>2014180.293763836</v>
       </c>
       <c r="E421" t="n">
-        <v>3171185.237708807</v>
+        <v>3171185.237672156</v>
       </c>
       <c r="F421" t="n">
-        <v>2845602.547330724</v>
+        <v>2845602.547304247</v>
       </c>
       <c r="G421" t="n">
-        <v>1933649.079377513</v>
+        <v>1933649.079367416</v>
       </c>
       <c r="H421" t="n">
-        <v>2129949.180415413</v>
+        <v>2129949.180419764</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>4992378.462389654</v>
+        <v>4992378.4624706</v>
       </c>
       <c r="C422" t="n">
-        <v>2622938.412115354</v>
+        <v>2622938.412064357</v>
       </c>
       <c r="D422" t="n">
-        <v>2013150.934035656</v>
+        <v>2013150.934005892</v>
       </c>
       <c r="E422" t="n">
-        <v>3170718.378877393</v>
+        <v>3170718.378840213</v>
       </c>
       <c r="F422" t="n">
-        <v>2845517.042434428</v>
+        <v>2845517.042407849</v>
       </c>
       <c r="G422" t="n">
-        <v>1933640.748274001</v>
+        <v>1933640.748263896</v>
       </c>
       <c r="H422" t="n">
-        <v>2371513.598943688</v>
+        <v>2371513.598949813</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>4958522.178444919</v>
+        <v>4958522.178527044</v>
       </c>
       <c r="C423" t="n">
-        <v>2618455.00019645</v>
+        <v>2618455.000143315</v>
       </c>
       <c r="D423" t="n">
-        <v>2012002.29876529</v>
+        <v>2012002.298734512</v>
       </c>
       <c r="E423" t="n">
-        <v>3170183.48450515</v>
+        <v>3170183.484467377</v>
       </c>
       <c r="F423" t="n">
-        <v>2845416.204423171</v>
+        <v>2845416.204396475</v>
       </c>
       <c r="G423" t="n">
-        <v>1933630.619419479</v>
+        <v>1933630.619409364</v>
       </c>
       <c r="H423" t="n">
-        <v>2614044.429137588</v>
+        <v>2614044.429145799</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>4923628.813885912</v>
+        <v>4923628.813969148</v>
       </c>
       <c r="C424" t="n">
-        <v>2613603.269955128</v>
+        <v>2613603.269899744</v>
       </c>
       <c r="D424" t="n">
-        <v>2010722.771636829</v>
+        <v>2010722.771604951</v>
       </c>
       <c r="E424" t="n">
-        <v>3169571.822172544</v>
+        <v>3169571.82213411</v>
       </c>
       <c r="F424" t="n">
-        <v>2845297.535529543</v>
+        <v>2845297.535502711</v>
       </c>
       <c r="G424" t="n">
-        <v>1933618.33292549</v>
+        <v>1933618.332915363</v>
       </c>
       <c r="H424" t="n">
-        <v>2857543.341560726</v>
+        <v>2857543.34157135</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>4887686.127279248</v>
+        <v>4887686.127363539</v>
       </c>
       <c r="C425" t="n">
-        <v>2608360.289011035</v>
+        <v>2608360.288953288</v>
       </c>
       <c r="D425" t="n">
-        <v>2009299.890285807</v>
+        <v>2009299.890252736</v>
       </c>
       <c r="E425" t="n">
-        <v>3168873.72446833</v>
+        <v>3168873.724429158</v>
       </c>
       <c r="F425" t="n">
-        <v>2845158.178627705</v>
+        <v>2845158.178600718</v>
       </c>
       <c r="G425" t="n">
-        <v>1933603.463122137</v>
+        <v>1933603.463111996</v>
       </c>
       <c r="H425" t="n">
-        <v>3102013.986217853</v>
+        <v>3102013.986231223</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>4850683.113369067</v>
+        <v>4850683.113454347</v>
       </c>
       <c r="C426" t="n">
-        <v>2602702.424478809</v>
+        <v>2602702.424418586</v>
       </c>
       <c r="D426" t="n">
-        <v>2007720.319230143</v>
+        <v>2007720.319195782</v>
       </c>
       <c r="E426" t="n">
-        <v>3168078.51607731</v>
+        <v>3168078.516037318</v>
       </c>
       <c r="F426" t="n">
-        <v>2844994.873933057</v>
+        <v>2844994.873905892</v>
       </c>
       <c r="G426" t="n">
-        <v>1933585.507855217</v>
+        <v>1933585.507845059</v>
       </c>
       <c r="H426" t="n">
-        <v>3347462.028751609</v>
+        <v>3347462.028768072</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>4812610.09029125</v>
+        <v>4812610.090377451</v>
       </c>
       <c r="C427" t="n">
-        <v>2596605.392833837</v>
+        <v>2596605.392771026</v>
       </c>
       <c r="D427" t="n">
-        <v>2005969.826179846</v>
+        <v>2005969.826144095</v>
       </c>
       <c r="E427" t="n">
-        <v>3167174.438965771</v>
+        <v>3167174.438924869</v>
       </c>
       <c r="F427" t="n">
-        <v>2844803.911876656</v>
+        <v>2844803.911849287</v>
       </c>
       <c r="G427" t="n">
-        <v>1933563.876303977</v>
+        <v>1933563.876293798</v>
       </c>
       <c r="H427" t="n">
-        <v>3593895.180538513</v>
+        <v>3593895.180558439</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>4773458.786356495</v>
+        <v>4773458.786443554</v>
       </c>
       <c r="C428" t="n">
-        <v>2590044.317822409</v>
+        <v>2590044.317756895</v>
       </c>
       <c r="D428" t="n">
-        <v>2004033.262358482</v>
+        <v>2004033.262321234</v>
       </c>
       <c r="E428" t="n">
-        <v>3166148.576182352</v>
+        <v>3166148.576140441</v>
       </c>
       <c r="F428" t="n">
-        <v>2844581.082038028</v>
+        <v>2844581.082010426</v>
       </c>
       <c r="G428" t="n">
-        <v>1933537.875163994</v>
+        <v>1933537.875153792</v>
       </c>
       <c r="H428" t="n">
-        <v>3841323.222212239</v>
+        <v>3841323.222236003</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>4733222.425956718</v>
+        <v>4733222.426044566</v>
       </c>
       <c r="C429" t="n">
-        <v>2582993.796635911</v>
+        <v>2582993.796567583</v>
       </c>
       <c r="D429" t="n">
-        <v>2001894.547463638</v>
+        <v>2001894.547424783</v>
       </c>
       <c r="E429" t="n">
-        <v>3164986.774882568</v>
+        <v>3164986.774839544</v>
       </c>
       <c r="F429" t="n">
-        <v>2844321.618054969</v>
+        <v>2844321.618027102</v>
       </c>
       <c r="G429" t="n">
-        <v>1933506.693032132</v>
+        <v>1933506.693021902</v>
       </c>
       <c r="H429" t="n">
-        <v>4089758.020121204</v>
+        <v>4089758.020149189</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>4691895.814128702</v>
+        <v>4691895.814217265</v>
       </c>
       <c r="C430" t="n">
-        <v>2575427.97451106</v>
+        <v>2575427.974439809</v>
       </c>
       <c r="D430" t="n">
-        <v>1999536.659911148</v>
+        <v>1999536.659870569</v>
       </c>
       <c r="E430" t="n">
-        <v>3163673.569279364</v>
+        <v>3163673.569235113</v>
       </c>
       <c r="F430" t="n">
-        <v>2844020.138471344</v>
+        <v>2844020.138443177</v>
       </c>
       <c r="G430" t="n">
-        <v>1933469.3828243</v>
+        <v>1933469.382814037</v>
       </c>
       <c r="H430" t="n">
-        <v>4339213.535206549</v>
+        <v>4339213.535239167</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>4649475.419290814</v>
+        <v>4649475.41938002</v>
       </c>
       <c r="C431" t="n">
-        <v>2567320.62785406</v>
+        <v>2567320.627779778</v>
       </c>
       <c r="D431" t="n">
-        <v>1996941.633018849</v>
+        <v>1996941.632976429</v>
       </c>
       <c r="E431" t="n">
-        <v>3162192.104318869</v>
+        <v>3162192.104273271</v>
       </c>
       <c r="F431" t="n">
-        <v>2843670.583534057</v>
+        <v>2843670.583505549</v>
       </c>
       <c r="G431" t="n">
-        <v>1933424.842052305</v>
+        <v>1933424.842042004</v>
       </c>
       <c r="H431" t="n">
-        <v>4589705.823764594</v>
+        <v>4589705.82380225</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>4605959.453652741</v>
+        <v>4605959.453742522</v>
       </c>
       <c r="C432" t="n">
-        <v>2558645.255916276</v>
+        <v>2558645.255838856</v>
       </c>
       <c r="D432" t="n">
-        <v>1994090.557789426</v>
+        <v>1994090.55774504</v>
       </c>
       <c r="E432" t="n">
-        <v>3160524.060978713</v>
+        <v>3160524.060931635</v>
       </c>
       <c r="F432" t="n">
-        <v>2843266.148008773</v>
+        <v>2843266.147979879</v>
       </c>
       <c r="G432" t="n">
-        <v>1933371.790783725</v>
+        <v>1933371.79077338</v>
       </c>
       <c r="H432" t="n">
-        <v>4841253.029535984</v>
+        <v>4841253.029579094</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>4561347.950785423</v>
+        <v>4561347.950875704</v>
       </c>
       <c r="C433" t="n">
-        <v>2549375.180972809</v>
+        <v>2549375.18089215</v>
       </c>
       <c r="D433" t="n">
-        <v>1990963.59294737</v>
+        <v>1990963.592900893</v>
       </c>
       <c r="E433" t="n">
-        <v>3158649.584184357</v>
+        <v>3158649.584135662</v>
       </c>
       <c r="F433" t="n">
-        <v>2842799.210150884</v>
+        <v>2842799.210121558</v>
       </c>
       <c r="G433" t="n">
-        <v>1933308.747109112</v>
+        <v>1933308.747098715</v>
       </c>
       <c r="H433" t="n">
-        <v>5093875.366542365</v>
+        <v>5093875.366591373</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>4515642.839828495</v>
+        <v>4515642.839919199</v>
       </c>
       <c r="C434" t="n">
-        <v>2539483.656873886</v>
+        <v>2539483.656789892</v>
       </c>
       <c r="D434" t="n">
-        <v>1987539.982871759</v>
+        <v>1987539.982823061</v>
       </c>
       <c r="E434" t="n">
-        <v>3156547.214435295</v>
+        <v>3156547.214384833</v>
       </c>
       <c r="F434" t="n">
-        <v>2842261.25704372</v>
+        <v>2842261.257013905</v>
       </c>
       <c r="G434" t="n">
-        <v>1933233.999944314</v>
+        <v>1933233.999933857</v>
       </c>
       <c r="H434" t="n">
-        <v>5347595.092069753</v>
+        <v>5347595.092125106</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>4468848.015806095</v>
+        <v>4468848.015897153</v>
       </c>
       <c r="C435" t="n">
-        <v>2528943.985752611</v>
+        <v>2528943.98566519</v>
       </c>
       <c r="D435" t="n">
-        <v>1983798.084043408</v>
+        <v>1983798.083992358</v>
       </c>
       <c r="E435" t="n">
-        <v>3154193.824325683</v>
+        <v>3154193.824273298</v>
       </c>
       <c r="F435" t="n">
-        <v>2841642.806600156</v>
+        <v>2841642.806569794</v>
       </c>
       <c r="G435" t="n">
-        <v>1933145.579002942</v>
+        <v>1933145.578992415</v>
       </c>
       <c r="H435" t="n">
-        <v>5602436.469177931</v>
+        <v>5602436.469240077</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>4420969.405519129</v>
+        <v>4420969.405610465</v>
       </c>
       <c r="C436" t="n">
-        <v>2517729.642582197</v>
+        <v>2517729.642491264</v>
       </c>
       <c r="D436" t="n">
-        <v>1979715.40059159</v>
+        <v>1979715.400538054</v>
       </c>
       <c r="E436" t="n">
-        <v>3151564.561231232</v>
+        <v>3151564.561176758</v>
       </c>
       <c r="F436" t="n">
-        <v>2840933.326616404</v>
+        <v>2840933.32658543</v>
       </c>
       <c r="G436" t="n">
-        <v>1933041.22178552</v>
+        <v>1933041.221774913</v>
       </c>
       <c r="H436" t="n">
-        <v>5858425.718095455</v>
+        <v>5858425.718164844</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>4372015.02848294</v>
+        <v>4372015.028574479</v>
       </c>
       <c r="C437" t="n">
-        <v>2505814.407182165</v>
+        <v>2505814.407087639</v>
       </c>
       <c r="D437" t="n">
-        <v>1975268.629481199</v>
+        <v>1975268.629425041</v>
       </c>
       <c r="E437" t="n">
-        <v>3148632.797513535</v>
+        <v>3148632.797456797</v>
       </c>
       <c r="F437" t="n">
-        <v>2840121.151367333</v>
+        <v>2840121.151335675</v>
       </c>
       <c r="G437" t="n">
-        <v>1932918.337448208</v>
+        <v>1932918.337437509</v>
       </c>
       <c r="H437" t="n">
-        <v>6115590.955843369</v>
+        <v>6115590.955920477</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>4321995.052384445</v>
+        <v>4321995.052476116</v>
       </c>
       <c r="C438" t="n">
-        <v>2493172.503176839</v>
+        <v>2493172.503078651</v>
       </c>
       <c r="D438" t="n">
-        <v>1970433.715825756</v>
+        <v>1970433.71576684</v>
       </c>
       <c r="E438" t="n">
-        <v>3145370.089662374</v>
+        <v>3145370.089603188</v>
       </c>
       <c r="F438" t="n">
-        <v>2839193.396340758</v>
+        <v>2839193.39630834</v>
       </c>
       <c r="G438" t="n">
-        <v>1932773.967435824</v>
+        <v>1932773.967425019</v>
       </c>
       <c r="H438" t="n">
-        <v>6373962.12341498</v>
+        <v>6373962.123500268</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>4270921.842541931</v>
+        <v>4270921.842633656</v>
       </c>
       <c r="C439" t="n">
-        <v>2479778.743312114</v>
+        <v>2479778.743210201</v>
       </c>
       <c r="D439" t="n">
-        <v>1965185.918744598</v>
+        <v>1965185.91868279</v>
       </c>
       <c r="E439" t="n">
-        <v>3141746.147853477</v>
+        <v>3141746.147791652</v>
       </c>
       <c r="F439" t="n">
-        <v>2838135.871822661</v>
+        <v>2838135.871789398</v>
       </c>
       <c r="G439" t="n">
-        <v>1932604.742791709</v>
+        <v>1932604.742780783</v>
       </c>
       <c r="H439" t="n">
-        <v>6633570.899828083</v>
+        <v>6633570.899922021</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>4218810.004864206</v>
+        <v>4218810.004955917</v>
       </c>
       <c r="C440" t="n">
-        <v>2465608.680438707</v>
+        <v>2465608.680333014</v>
       </c>
       <c r="D440" t="n">
-        <v>1959499.888103968</v>
+        <v>1959499.888039133</v>
       </c>
       <c r="E440" t="n">
-        <v>3137728.817441192</v>
+        <v>3137728.817376527</v>
       </c>
       <c r="F440" t="n">
-        <v>2836932.996165283</v>
+        <v>2836932.996131083</v>
       </c>
       <c r="G440" t="n">
-        <v>1932406.838091334</v>
+        <v>1932406.83808027</v>
       </c>
       <c r="H440" t="n">
-        <v>6894450.602357104</v>
+        <v>6894450.602460178</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>4165676.421823732</v>
+        <v>4165676.421915358</v>
       </c>
       <c r="C441" t="n">
-        <v>2450638.763373378</v>
+        <v>2450638.763263861</v>
       </c>
       <c r="D441" t="n">
-        <v>1953349.752391563</v>
+        <v>1953349.752323568</v>
       </c>
       <c r="E441" t="n">
-        <v>3133284.073930225</v>
+        <v>3133284.073862514</v>
       </c>
       <c r="F441" t="n">
-        <v>2835567.709693911</v>
+        <v>2835567.709658677</v>
       </c>
       <c r="G441" t="n">
-        <v>1932175.921987951</v>
+        <v>1932175.921976729</v>
       </c>
       <c r="H441" t="n">
-        <v>7156636.072249856</v>
+        <v>7156636.072362537</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>4111540.280980735</v>
+        <v>4111540.281072204</v>
       </c>
       <c r="C442" t="n">
-        <v>2434846.496754953</v>
+        <v>2434846.496641579</v>
       </c>
       <c r="D442" t="n">
-        <v>1946709.21787282</v>
+        <v>1946709.217801536</v>
       </c>
       <c r="E442" t="n">
-        <v>3128376.032975563</v>
+        <v>3128376.032904591</v>
       </c>
       <c r="F442" t="n">
-        <v>2834021.390334329</v>
+        <v>2834021.390297955</v>
       </c>
       <c r="G442" t="n">
-        <v>1931907.104407387</v>
+        <v>1931907.104395986</v>
       </c>
       <c r="H442" t="n">
-        <v>7420163.545235215</v>
+        <v>7420163.545357973</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>4056423.095622142</v>
+        <v>4056423.095713388</v>
       </c>
       <c r="C443" t="n">
-        <v>2418210.603920882</v>
+        <v>2418210.60380363</v>
       </c>
       <c r="D443" t="n">
-        <v>1939551.679065144</v>
+        <v>1939551.678990444</v>
       </c>
       <c r="E443" t="n">
-        <v>3122966.976942524</v>
+        <v>3122966.976868071</v>
       </c>
       <c r="F443" t="n">
-        <v>2832273.772169282</v>
+        <v>2832273.772131656</v>
       </c>
       <c r="G443" t="n">
-        <v>1931594.880485652</v>
+        <v>1931594.880474048</v>
       </c>
       <c r="H443" t="n">
-        <v>7685070.506136497</v>
+        <v>7685070.506269806</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>4000348.717110512</v>
+        <v>4000348.717201466</v>
       </c>
       <c r="C444" t="n">
-        <v>2400711.191743691</v>
+        <v>2400711.191622549</v>
       </c>
       <c r="D444" t="n">
-        <v>1931850.34044432</v>
+        <v>1931850.340366083</v>
       </c>
       <c r="E444" t="n">
-        <v>3117017.399517611</v>
+        <v>3117017.399439453</v>
       </c>
       <c r="F444" t="n">
-        <v>2830302.868256595</v>
+        <v>2830302.868217596</v>
       </c>
       <c r="G444" t="n">
-        <v>1931233.071407503</v>
+        <v>1931233.071395668</v>
       </c>
       <c r="H444" t="n">
-        <v>7951395.526921513</v>
+        <v>7951395.527065842</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3943343.338573765</v>
+        <v>3943343.338664362</v>
       </c>
       <c r="C445" t="n">
-        <v>2382329.916286516</v>
+        <v>2382329.916161488</v>
       </c>
       <c r="D445" t="n">
-        <v>1923578.349166394</v>
+        <v>1923578.349084505</v>
       </c>
       <c r="E445" t="n">
-        <v>3110486.069793291</v>
+        <v>3110486.069711197</v>
       </c>
       <c r="F445" t="n">
-        <v>2828084.899161228</v>
+        <v>2828084.899120728</v>
       </c>
       <c r="G445" t="n">
-        <v>1930814.762376578</v>
+        <v>1930814.762364485</v>
       </c>
       <c r="H445" t="n">
-        <v>8219178.087544666</v>
+        <v>8219178.087700466</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3885435.489606453</v>
+        <v>3885435.48969663</v>
       </c>
       <c r="C446" t="n">
-        <v>2363050.148064274</v>
+        <v>2363050.147935376</v>
       </c>
       <c r="D446" t="n">
-        <v>1914708.938449507</v>
+        <v>1914708.938363856</v>
       </c>
       <c r="E446" t="n">
-        <v>3103330.117154521</v>
+        <v>3103330.11706826</v>
       </c>
       <c r="F446" t="n">
-        <v>2825594.228765761</v>
+        <v>2825594.228723621</v>
       </c>
       <c r="G446" t="n">
-        <v>1930332.238028042</v>
+        <v>1930332.238015658</v>
       </c>
       <c r="H446" t="n">
-        <v>8488458.378970889</v>
+        <v>8488458.379138615</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3826656.021697244</v>
+        <v>3826656.02178694</v>
       </c>
       <c r="C447" t="n">
-        <v>2342857.135633136</v>
+        <v>2342857.135500396</v>
       </c>
       <c r="D447" t="n">
-        <v>1905215.581115004</v>
+        <v>1905215.581025491</v>
       </c>
       <c r="E447" t="n">
-        <v>3095505.138170401</v>
+        <v>3095505.138079737</v>
       </c>
       <c r="F447" t="n">
-        <v>2822803.309025447</v>
+        <v>2822803.308981527</v>
       </c>
       <c r="G447" t="n">
-        <v>1929776.915682506</v>
+        <v>1929776.915669794</v>
       </c>
       <c r="H447" t="n">
-        <v>8759277.087816564</v>
+        <v>8759277.087996643</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>3767038.084145141</v>
+        <v>3767038.084234294</v>
       </c>
       <c r="C448" t="n">
-        <v>2321738.166177321</v>
+        <v>2321738.166040784</v>
       </c>
       <c r="D448" t="n">
-        <v>1895072.15263725</v>
+        <v>1895072.152543783</v>
       </c>
       <c r="E448" t="n">
-        <v>3086965.326539793</v>
+        <v>3086965.326444493</v>
       </c>
       <c r="F448" t="n">
-        <v>2819682.63542191</v>
+        <v>2819682.635376057</v>
       </c>
       <c r="G448" t="n">
-        <v>1929139.276934844</v>
+        <v>1929139.276921768</v>
       </c>
       <c r="H448" t="n">
-        <v>9031675.162100159</v>
+        <v>9031675.162293021</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>3706617.090278253</v>
+        <v>3706617.090366808</v>
       </c>
       <c r="C449" t="n">
-        <v>2299682.721719857</v>
+        <v>2299682.721579581</v>
       </c>
       <c r="D449" t="n">
-        <v>1884253.102898731</v>
+        <v>1884253.102801228</v>
       </c>
       <c r="E449" t="n">
-        <v>3077663.626954803</v>
+        <v>3077663.626854633</v>
       </c>
       <c r="F449" t="n">
-        <v>2816200.714940324</v>
+        <v>2816200.71489238</v>
       </c>
       <c r="G449" t="n">
-        <v>1928408.798172564</v>
+        <v>1928408.79815908</v>
       </c>
       <c r="H449" t="n">
-        <v>9305693.557666892</v>
+        <v>9305693.557872953</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>3645430.673843642</v>
+        <v>3645430.673931544</v>
       </c>
       <c r="C450" t="n">
-        <v>2276682.629554033</v>
+        <v>2276682.629410091</v>
       </c>
       <c r="D450" t="n">
-        <v>1872733.635693323</v>
+        <v>1872733.635591714</v>
       </c>
       <c r="E450" t="n">
-        <v>3067551.913530601</v>
+        <v>3067551.91342533</v>
       </c>
       <c r="F450" t="n">
-        <v>2812324.048445235</v>
+        <v>2812324.048395037</v>
       </c>
       <c r="G450" t="n">
-        <v>1927573.880724558</v>
+        <v>1927573.880710622</v>
       </c>
       <c r="H450" t="n">
-        <v>9581372.964936716</v>
+        <v>9581372.965156343</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>3583518.635494196</v>
+        <v>3583518.635581392</v>
       </c>
       <c r="C451" t="n">
-        <v>2252732.205475916</v>
+        <v>2252732.205328397</v>
       </c>
       <c r="D451" t="n">
-        <v>1860489.894868249</v>
+        <v>1860489.894762477</v>
       </c>
       <c r="E451" t="n">
-        <v>3056581.193204982</v>
+        <v>3056581.193094384</v>
       </c>
       <c r="F451" t="n">
-        <v>2808017.129356398</v>
+        <v>2808017.129303771</v>
       </c>
       <c r="G451" t="n">
-        <v>1926621.781451135</v>
+        <v>1926621.781436696</v>
       </c>
       <c r="H451" t="n">
-        <v>9858753.51572785</v>
+        <v>9858753.515961412</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>3520922.879358463</v>
+        <v>3520922.879444902</v>
       </c>
       <c r="C452" t="n">
-        <v>2227828.388396219</v>
+        <v>2227828.388245224</v>
       </c>
       <c r="D452" t="n">
-        <v>1847499.15584647</v>
+        <v>1847499.155736489</v>
       </c>
       <c r="E452" t="n">
-        <v>3044701.834237509</v>
+        <v>3044701.834121365</v>
       </c>
       <c r="F452" t="n">
-        <v>2803242.460524985</v>
+        <v>2803242.460469755</v>
       </c>
       <c r="G452" t="n">
-        <v>1925538.544698437</v>
+        <v>1925538.544683442</v>
       </c>
       <c r="H452" t="n">
-        <v>10137874.47002651</v>
+        <v>10137874.47027437</v>
       </c>
     </row>
   </sheetData>
